--- a/evalution0.xlsx
+++ b/evalution0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>iter</t>
   </si>
@@ -25,61 +25,142 @@
     <t>fit</t>
   </si>
   <si>
-    <t>sum3(sum1(sum3(const_0, const_0, const_0)), sin(sum2(const_2.71, const_0)), sum2(sum1(const_1), sum2(const_1, const_1)))</t>
-  </si>
-  <si>
-    <t>sum1(sin(sin(const_2.71)))</t>
-  </si>
-  <si>
-    <t>sum3(sum1(sum3(const_2.71, const_2.71, const_3.14)), sum1(sum3(x1, const_3.14, const_0)), sum2(sum2(x1, const_1), sum1(const_0)))</t>
-  </si>
-  <si>
-    <t>sum3(sum2(sum1(x1), sum1(x1)), sin(sum2(x1, const_3.14)), sum1(sum3(const_1, x1, const_3.14)))</t>
-  </si>
-  <si>
-    <t>sum1(sin(sum1(const_3.14)))</t>
-  </si>
-  <si>
-    <t>sin(sin(sum2(const_2.71, const_0)))</t>
-  </si>
-  <si>
-    <t>sin(sum3(sum3(const_3.14, const_1, const_2.71), sum3(const_0, const_1, const_3.14), sum3(const_0, const_0, const_1)))</t>
-  </si>
-  <si>
-    <t>sum2(sin(sum2(const_1, const_0)), sin(sin(x1)))</t>
-  </si>
-  <si>
-    <t>sum2(sum3(sin(const_3.14), sum2(const_3.14, const_1), sum3(x1, const_0, x1)), sum3(sum2(const_1, const_2.71), sum1(x1), sum3(const_2.71, const_1, x1)))</t>
-  </si>
-  <si>
-    <t>sum3(sum1(sum3(const_3.14, x1, const_1)), sin(sin(const_3.14)), sum3(sum2(const_2.71, const_1), sum2(x1, x1), sum3(const_0, const_2.71, const_1)))</t>
-  </si>
-  <si>
-    <t>sum2(const_2.71, const_0)</t>
-  </si>
-  <si>
-    <t>sin(sum2(const_1, const_0))</t>
-  </si>
-  <si>
-    <t>sum1(sin(sin(sum1(sin(sin(const_2.71))))))</t>
-  </si>
-  <si>
-    <t>sin(sum3(sum3(const_3.14, const_1, const_3.14), sum3(sum2(const_1, const_0), const_1, const_3.14), sum3(const_0, const_0, const_1)))</t>
-  </si>
-  <si>
-    <t>sum1(sum2(const_1, const_0))</t>
-  </si>
-  <si>
-    <t>sum3(sum1(sum3(const_1, const_0, const_0)), sin(sum2(const_2.71, const_0)), x1)</t>
-  </si>
-  <si>
-    <t>sum1(sin(sum1(const_0)))</t>
-  </si>
-  <si>
-    <t>sum2(sin(sum2(const_1, const_0)), sin(sin(sum2(const_2.71, const_0))))</t>
-  </si>
-  <si>
-    <t>sum2(sin(sum2(const_1, const_0)), const_0)</t>
+    <t>less[petal width (cm),{'p': 2.2700563461051173}](less[sepal length (cm),{'p': 0.5110184842608579}](less[sepal length (cm),{'p': -0.37988830388972183}](less[sepal width (cm),{'p': 1.6739378453558933}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0.6279848232850673}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.37805680620066207}](less[sepal length (cm),{'p': 0.1055877590032902}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 2.8133648385212253}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -1.985255194917428}](less[sepal width (cm),{'p': 0.19324622717754383}](less[petal width (cm),{'p': -0.8638429231161977}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.491351593266158}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.7628062299451872}](less[sepal width (cm),{'p': 1.4776047700842798}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.5493100658703866}](nom_class:2, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6531647132531895}](less[petal width (cm),{'p': 0.18931410692401918}](less[petal length (cm),{'p': 0.7040838700758413}](less[petal length (cm),{'p': 0.9779173098913956}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7585471931617921}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.477922779950001}](less[petal width (cm),{'p': 0.5756995690387934}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.10702722515230745}](nom_class:1, nom_class:0))), less[petal length (cm),{'p': 0.7551546995631285}](less[sepal width (cm),{'p': 0.8721602239369068}](less[petal length (cm),{'p': 0.32697790254390313}](nom_class:1, nom_class:0), less[sepal length (cm),{'p': 0.6126274008027834}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.4261984391785798}](less[petal width (cm),{'p': 0.41261204311738664}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.9429962026474334}](nom_class:0, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2756409545187477}](less[petal length (cm),{'p': 2.8753869748593814}](less[sepal length (cm),{'p': 1.1884655751183455}](less[sepal length (cm),{'p': 0.8575897852216876}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.1188559559618647}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.016371517053316936}](less[petal width (cm),{'p': 1.3134542251730577}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.24701901202215923}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.7188960225352212}](less[petal width (cm),{'p': 1.8272075844396016}](less[petal width (cm),{'p': 1.481422983538603}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.3000720081845771}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.244323183075707}](less[sepal width (cm),{'p': 0.44050268838376283}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.9043966052985505}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 2.2003560456867506}](less[petal width (cm),{'p': -0.12443680598771825}](less[sepal width (cm),{'p': 0.5067172817680589}](less[petal length (cm),{'p': 1.0525639636545232}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.6406499054040238}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9049411590692336}](less[sepal length (cm),{'p': 0.1297652628984194}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 1.1952950856976436}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.52489725186075}](less[petal length (cm),{'p': 0.8956394297837198}](less[petal length (cm),{'p': 0.6783452378745445}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.09323386215746193}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.10218876953449357}](less[petal length (cm),{'p': -0.4818315530979708}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7016970210683835}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.9212869950104424}](less[petal width (cm),{'p': 0.5016044361978464}](less[sepal length (cm),{'p': 0.011208223646724358}](less[sepal length (cm),{'p': 0.6337963577148248}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.6381743030790091}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.14583532265647392}](less[sepal width (cm),{'p': 0.7535878524504805}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.2488582722888958}](nom_class:0, nom_class:2))), less[sepal length (cm),{'p': 0.644335343879747}](less[sepal width (cm),{'p': 0.17172938408425464}](less[sepal length (cm),{'p': 0.6820451763180178}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.4649155928856883}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8519682502595123}](less[sepal width (cm),{'p': 0.03324730267175657}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.09539310430800707}](nom_class:2, nom_class:0))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.9893583933745647}](less[sepal width (cm),{'p': -0.3653652021474502}](less[sepal length (cm),{'p': 0.6715622375209793}](less[sepal width (cm),{'p': 0.41389606608842977}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.12671986812436453}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 0.436172233435846}](less[sepal length (cm),{'p': 1.0394735693514146}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.9442673680807165}](nom_class:0, nom_class:0))), less[sepal length (cm),{'p': 1.131496849193409}](less[sepal length (cm),{'p': 1.188919751758238}](less[sepal length (cm),{'p': -0.5399794779780897}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.2793247803364358}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 1.124133721111474}](less[sepal length (cm),{'p': 0.3345161152737852}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.7735250074488045}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.3058174728192915}](less[sepal length (cm),{'p': 0.17604766898776758}](less[sepal width (cm),{'p': 0.9098064349458059}](less[sepal width (cm),{'p': 0.030192213959838843}](nom_class:1, nom_class:0), less[petal width (cm),{'p': 0.7960989036631095}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.9472042356810143}](less[petal width (cm),{'p': 0.3911606442020217}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.43276361140478103}](nom_class:2, nom_class:1))), less[sepal length (cm),{'p': 0.7413963555682374}](less[petal width (cm),{'p': 0.476828021272548}](less[petal length (cm),{'p': 0.6269082719385768}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.14554486852723703}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8650495826427468}](less[sepal width (cm),{'p': 0.8692145598655043}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5371934973907838}](nom_class:2, nom_class:0))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': -0.7565584809031098}](less[sepal width (cm),{'p': 0.2714843515104842}](less[petal length (cm),{'p': 1.6075805607128077}](less[petal length (cm),{'p': 0.3565181295332887}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.6725284612217413}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7674223048915465}](less[petal length (cm),{'p': 0.6586188045749417}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 2.484515630341457}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.77138122543248}](less[sepal width (cm),{'p': 0.12619993936053905}](less[petal length (cm),{'p': 1.7197285313051012}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.04326815019229327}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 0.13775143361798786}](less[sepal length (cm),{'p': 0.20891581905562961}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.8479525936988914}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 2.3169760548052865}](less[sepal width (cm),{'p': 1.095571971203389}](less[sepal length (cm),{'p': 0.3188358102222588}](less[sepal length (cm),{'p': -0.01932149337307451}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.6519375066746134}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.8982868824084381}](less[sepal width (cm),{'p': 0.3225543984676805}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.2944025878141298}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 4.814404818513763}](less[sepal length (cm),{'p': -0.01645842150491328}](less[petal length (cm),{'p': 0.21412555805529676}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.28909346546931747}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': -0.324327710398975}](less[petal width (cm),{'p': -0.7662936442243439}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6344075557675388}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.9853645237857394}](less[sepal width (cm),{'p': 0.6510652253630173}](less[petal length (cm),{'p': 0.3206521973540739}](less[petal width (cm),{'p': 0.05074590642086216}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.372397800161838}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.3988190043676084}](less[petal width (cm),{'p': -0.5062130508135843}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.49571386065741097}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': -0.022436512627142247}](less[petal length (cm),{'p': 0.3123898869324616}](less[petal width (cm),{'p': 0.09502808865433279}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.2887867870185872}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.221689310396857}](less[petal length (cm),{'p': -0.3221654097287389}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.8666235786351196}](nom_class:0, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.6607272820275232}](less[petal length (cm),{'p': 0.42242014869644184}](less[sepal length (cm),{'p': 0.36068623304152836}](less[sepal length (cm),{'p': -1.408850820652544}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.0430892014252886}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.15769970230125657}](less[petal width (cm),{'p': 0.3296968959400504}](less[petal width (cm),{'p': 0.4769533786848784}](less[petal width (cm),{'p': 0.2637710788873653}](less[petal width (cm),{'p': 1.3556027171362537}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.8785839687731676}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.7081757997168742}](less[sepal width (cm),{'p': -0.7507545031091513}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.7838203983823573}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 1.2676735030492006}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': -0.9100423159986147}](less[petal width (cm),{'p': 0.3930551480390299}](less[sepal length (cm),{'p': -1.069748396759182}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.4996977014262465}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 2.5978968071630266}](less[petal width (cm),{'p': 0.866327580618432}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6027530463182931}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 2.9464805707695283}](less[petal width (cm),{'p': -0.1968155414140601}](less[sepal width (cm),{'p': 0.552890891079663}](less[petal length (cm),{'p': -0.10087625986516816}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.6000384635600934}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.1983570606426197}](less[sepal length (cm),{'p': 1.4826362252363214}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.6805407227195003}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.5448129814154177}](less[petal length (cm),{'p': 0.5819431170276016}](less[petal length (cm),{'p': 1.005695522509443}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.50040795582347}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.07749571843599201}](less[petal length (cm),{'p': -0.3423798840733718}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8766555394321782}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.1912392476358487}](less[petal width (cm),{'p': 0.8796263006759315}](nom_class:1, less[petal length (cm),{'p': 0.8703686679098004}](less[petal width (cm),{'p': 1.6807571926624312}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.09403872871965191}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.873797398550653}](less[petal width (cm),{'p': 2.007874030383089}](less[petal width (cm),{'p': 1.7453805724201108}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.30379885581955784}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.7026996568549153}](less[sepal width (cm),{'p': 0.8299183487057339}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -1.040191443354326}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 2.269407446553789}](less[petal width (cm),{'p': 0.7856283679909253}](less[sepal length (cm),{'p': 0.01907218498459709}](less[petal length (cm),{'p': 1.1595663952411752}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.5239625422518266}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.031775685110373}](less[sepal length (cm),{'p': 1.3757327798487209}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.20490761200533664}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.1007981261591917}](less[petal length (cm),{'p': -0.1234210414655445}](less[petal length (cm),{'p': 1.4350732888589166}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.517972487794005}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': -0.03588975787783741}](less[petal length (cm),{'p': 0.4253098339658245}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.5532490467528195}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.7177135228710019}](less[petal length (cm),{'p': 1.522929052064913}](less[sepal length (cm),{'p': 1.9371456355173267}](less[sepal length (cm),{'p': 1.1764489417215338}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.42735801307340326}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.22676740210900004}](less[petal width (cm),{'p': 0.8448397438151876}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.1305848248240477}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.5886686626470845}](less[petal width (cm),{'p': 1.6758158988628244}](less[petal width (cm),{'p': 3.1367126586554797}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.8488291631922011}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.5418468613569618}](less[sepal width (cm),{'p': 1.1309783460063394}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.3716268861460562}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.194524509771054}](less[petal length (cm),{'p': 1.87377873759927}](less[sepal length (cm),{'p': 1.193873763428586}](less[sepal length (cm),{'p': 1.5100540072471034}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.5475472244275652}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.31841497529845564}](less[petal width (cm),{'p': 2.1406433284677497}](nom_class:2, nom_class:2), nom_class:2)), less[petal width (cm),{'p': 0.8673893161572773}](less[petal width (cm),{'p': 0.9141558307956718}](less[petal width (cm),{'p': 0.28047190881789585}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9735396583538236}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.5818951263832435}](less[sepal width (cm),{'p': -0.5086468660459283}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.2094590880204197}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.45218842661171577}](less[petal width (cm),{'p': 0.48549222157201677}](less[sepal width (cm),{'p': 1.0809630594987976}](less[petal length (cm),{'p': 1.6029582901620674}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.7428999550012412}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.8642407930824727}](less[sepal length (cm),{'p': 1.1056959725977271}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.4483613590638056}](less[petal length (cm),{'p': 0.4342762308923115}](less[petal length (cm),{'p': 1.29198124096224}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.35404342435062053}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.4865262116821993}](less[petal length (cm),{'p': -0.09680070672600172}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6985364311652653}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.443267682584447}](less[sepal width (cm),{'p': 0.5213058268019819}](less[petal length (cm),{'p': 0.8638145778334169}](less[petal width (cm),{'p': 0.7833749737896933}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.6294841041424878}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8497746444046277}](less[petal width (cm),{'p': 0.5190912206795151}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.5412230787314287}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': 0.07903722425394533}](less[petal length (cm),{'p': 0.9752617090217898}](less[petal width (cm),{'p': 0.150709098151121}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.8321728798149479}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.730637132115489}](less[petal length (cm),{'p': 0.3452441948363315}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.825245354817681}](nom_class:0, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3598968957439337}](less[petal length (cm),{'p': 0.6787197002176828}](less[sepal length (cm),{'p': -0.05838209387305848}](less[sepal length (cm),{'p': 0.38407104440641004}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.7118662684246244}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.4233372776640105}](less[petal width (cm),{'p': 0.20892449063849838}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.058595262030185}](nom_class:0, less[petal length (cm),{'p': 1.4910212626776622}](less[sepal length (cm),{'p': 0.10924018449923373}](less[sepal length (cm),{'p': 2.528135707414427}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.6057705413911768}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.40827201473923036}](less[petal width (cm),{'p': -0.3618962218813137}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 3.82801685476033}](nom_class:0, nom_class:2)))))), less[petal width (cm),{'p': 0.8477259118049091}](less[petal width (cm),{'p': -1.129034953990229}](less[petal width (cm),{'p': 0.022351373527927015}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.651189226458694}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': -1.6072465058005654}](less[sepal width (cm),{'p': 0.7798665257074796}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.9008162742567082}](nom_class:0, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': -1.4292571412480775}](less[petal width (cm),{'p': 0.9586659509560416}](less[sepal width (cm),{'p': -0.8218190875696916}](less[petal length (cm),{'p': -0.8419739040917782}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.3410283762921764}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7968550344879747}](less[sepal length (cm),{'p': 0.5907749789328707}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0940294465956852}](less[petal length (cm),{'p': 0.279127704510031}](less[petal length (cm),{'p': 1.4888855337219646}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.0630165807252262}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.9976535847202962}](less[petal length (cm),{'p': 2.9017121998820925}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.824646391496127}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.6541581179202636}](less[petal length (cm),{'p': 2.3052405703743073}](less[sepal length (cm),{'p': -0.12898611943498672}](less[sepal length (cm),{'p': 2.264911806027156}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 2.75522101368579}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.4526928462056054}](less[petal width (cm),{'p': 0.2957526034968405}](nom_class:2, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 0.2515867974909359}](less[petal width (cm),{'p': 1.9142872124911112}](less[petal width (cm),{'p': 0.6711391200992582}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 0.6939972885105827}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.8748704307177455}](less[sepal width (cm),{'p': -2.159095703102899}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.709102373357979}](nom_class:0, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 2.6241576142439094}](less[petal width (cm),{'p': 0.17883839752503067}](less[sepal width (cm),{'p': 0.5900591466172145}](less[petal length (cm),{'p': -1.033984024721307}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.3964421442292828}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.9750990552533056}](less[sepal length (cm),{'p': 1.330995871565084}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.5112022579152229}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 1.863115027008052}](less[petal length (cm),{'p': 0.20787724372368277}](less[petal length (cm),{'p': 0.42401369957717105}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.7801317984153029}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.5184054105949967}](less[petal length (cm),{'p': 0.499449133331894}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -2.3079984590934206}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.5846201460309493}](less[petal length (cm),{'p': 2.174193675501563}](less[sepal length (cm),{'p': 0.8085753571403155}](less[petal width (cm),{'p': -0.14062550604564383}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.1800408638756723}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': -0.10474273038702014}](less[petal width (cm),{'p': 0.49050834734349147}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 2.471009637520624}](nom_class:0, nom_class:2))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.006763704128129877}](less[petal width (cm),{'p': 1.418679400643359}](less[sepal width (cm),{'p': -1.1564815768861756}](less[petal length (cm),{'p': -0.29408620454305473}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.04528649293419085}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.28646543257885865}](less[sepal length (cm),{'p': 1.3810987173602394}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.3414630981459403}](less[petal length (cm),{'p': 1.211394305244529}](less[petal length (cm),{'p': 0.6609187312837945}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.1056459195909023}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.21311143805807867}](less[petal length (cm),{'p': 0.65016530060064}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6606724402933823}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.7546116585003662}](less[petal length (cm),{'p': 2.4240254795197247}](less[sepal length (cm),{'p': 1.1949653736883654}](less[sepal length (cm),{'p': -0.37275147481749793}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.6343439079213378}](nom_class:0, nom_class:2)), less[petal width (cm),{'p': -1.133237999743696}](less[petal width (cm),{'p': 0.314984199096681}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.5672184287234223}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 2.234007296620705}](less[petal width (cm),{'p': 2.54284750987258}](less[petal width (cm),{'p': 1.7527384172475666}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6150180233603544}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': -1.4359641888360655}](less[sepal width (cm),{'p': 0.5027948634479406}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.008591080212348612}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.12493850188587996}](less[petal width (cm),{'p': 0.4096446705370227}](less[sepal width (cm),{'p': 0.8247026507803621}](less[petal length (cm),{'p': 0.5818226281743681}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.3126473091447377}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5454134844157588}](less[sepal length (cm),{'p': 0.5494729705534709}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 0.3477462809900569}](less[petal length (cm),{'p': 0.5848367046222083}](less[petal length (cm),{'p': 0.2931082742495714}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.9214708066591178}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.16565327800192842}](less[petal length (cm),{'p': 0.21120848722598318}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.8926036613003826}](nom_class:0, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.42380299462276}](less[petal length (cm),{'p': -0.09396056496015853}](less[sepal length (cm),{'p': 0.5271891199285756}](less[sepal length (cm),{'p': -0.9902283982796736}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.639947683277306}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': -0.4605365936547848}](less[petal width (cm),{'p': 0.34411746050462766}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.9356254855541537}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.6314230454471395}](less[petal width (cm),{'p': 0.8440721027299398}](less[petal length (cm),{'p': 1.060326314122836}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.469911235212099}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.33195930884626523}](less[sepal width (cm),{'p': 0.7572303809845774}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.0518333519603067}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.10948327603320118}](less[petal width (cm),{'p': 0.2240404418838322}](less[sepal width (cm),{'p': 0.4751635314953775}](less[petal length (cm),{'p': 0.33085175114164256}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.35808648505865315}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9585868447698432}](less[sepal length (cm),{'p': 0.13535525908981383}](nom_class:1, nom_class:0), nom_class:0)), less[petal length (cm),{'p': 0.6014736129018475}](less[petal length (cm),{'p': 0.3970369378507286}](less[petal length (cm),{'p': 0.8513881829499366}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.5175013542371584}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.0610149043595396}](less[petal length (cm),{'p': 0.5806861523240481}](nom_class:0, nom_class:1), nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.8956159368525217}](less[sepal length (cm),{'p': 3.468595104828477}](nom_class:2, less[sepal width (cm),{'p': 0.5101002082862851}](less[sepal length (cm),{'p': -0.6154510577508818}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0565217264051405}](less[petal length (cm),{'p': 1.1485982464022564}](less[petal length (cm),{'p': 0.48435502234316397}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.112436215406652}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.10802440451109024}](less[petal length (cm),{'p': -2.506040978970909}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6155985085960203}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.746936866407558}](less[petal width (cm),{'p': -0.5483592373426377}](less[sepal width (cm),{'p': 0.564580863774502}](less[petal length (cm),{'p': -0.41167557244712216}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.1067171639038456}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.5796764379165984}](less[sepal length (cm),{'p': -0.971549586640496}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.011038478911958}](less[petal length (cm),{'p': 0.9397493912031039}](less[petal length (cm),{'p': 0.47144357617378263}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.9766625407084772}](nom_class:0, less[petal width (cm),{'p': 1.0917138323839581}](nom_class:0, nom_class:1))), less[sepal length (cm),{'p': 0.5964885267800177}](less[petal length (cm),{'p': 0.01414029598035671}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6694145334385193}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.34720582172444064}](less[petal width (cm),{'p': 0.6201871222524706}](less[sepal width (cm),{'p': 0.42273146691050006}](less[petal length (cm),{'p': -0.03886328215754786}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7065003888444681}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.34606094181452984}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.9401282360961019}](less[sepal width (cm),{'p': 1.1257513012953495}](less[petal length (cm),{'p': 0.41232142445243913}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.4315116423379299}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 2.3962257431033964}](less[petal length (cm),{'p': 0.15636570597349653}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.8675156257039625}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.4424262923399066}](less[petal width (cm),{'p': 0.3378427904440978}](less[sepal width (cm),{'p': -0.26378443195547646}](less[petal width (cm),{'p': 1.2509787746161967}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.301905369532503}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.030387134518864878}](less[sepal length (cm),{'p': 0.4708045880729445}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.2240601823569497}](less[petal length (cm),{'p': 1.9375141235002498}](less[petal length (cm),{'p': 0.38009400108518204}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.1785832035716497}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7206712057319942}](less[petal length (cm),{'p': 1.0546408397231475}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.6525923777133968}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.011317753355598}](less[sepal width (cm),{'p': 1.3787889371398845}](less[sepal length (cm),{'p': -0.0835498306265684}](less[sepal length (cm),{'p': 2.223758852123448}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.7218125361930088}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.7966404734686579}](less[petal width (cm),{'p': 0.13713464494649363}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 2.845130019754737}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.6714517895190797}](less[petal width (cm),{'p': -0.20174799736779092}](less[petal length (cm),{'p': 1.554684629814851}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.2465087352139972}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.4481647511038891}](less[sepal width (cm),{'p': 0.6311373015780375}](less[petal width (cm),{'p': 1.3675656627557644}](nom_class:0, nom_class:2), nom_class:1), less[sepal width (cm),{'p': 0.5207897209681731}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.1967730400017627}](less[petal length (cm),{'p': -0.11704905148001477}](nom_class:1, less[petal length (cm),{'p': 0.6779243983944516}](less[petal width (cm),{'p': 0.027402222885718086}](nom_class:2, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 1.0152766708963905}](less[petal width (cm),{'p': 0.684007057486339}](less[petal width (cm),{'p': 0.08672398683518834}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': -1.8722403549794395}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.730502030280269}](less[sepal width (cm),{'p': -0.0975983052691991}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.2586986925047049}](nom_class:0, nom_class:0))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': -0.11381195727676019}](less[petal width (cm),{'p': 0.012541645656752753}](less[sepal width (cm),{'p': 1.6478042034596339}](less[petal length (cm),{'p': 0.737125960791217}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.7392283716632774}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.8530427837085295}](less[sepal length (cm),{'p': -0.3796694339617238}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0508638877069254}](less[petal length (cm),{'p': 0.4293987941162342}](less[petal length (cm),{'p': 0.4227422225452123}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4096587186329688}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.7755281493429246}](less[petal length (cm),{'p': 0.025674608487321615}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6265271842853277}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.15963206092478593}](nom_class:2, less[petal width (cm),{'p': 1.7937202322949855}](less[petal width (cm),{'p': 1.7893315919438397}](less[petal width (cm),{'p': 1.2251908671475258}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.1886787455080929}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8617180198898426}](less[sepal width (cm),{'p': 1.194276213302448}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.7273819462356164}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.1451683132954242}](less[petal length (cm),{'p': 1.9335551919895524}](less[sepal length (cm),{'p': 0.3422634172821131}](less[sepal length (cm),{'p': -0.4863710415594651}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.8212989737624767}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.37792829186788895}](less[petal width (cm),{'p': 1.5686876209523901}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.1140745705424289}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6946020719500523}](less[petal width (cm),{'p': -0.22724169334564476}](less[petal length (cm),{'p': -0.2617459746120058}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.0845140231318398}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 1.6533987731090083}](less[sepal width (cm),{'p': -0.700520353717007}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 1.4813210566645603}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.9774090113333193}](less[petal width (cm),{'p': 0.4163411981675811}](less[sepal width (cm),{'p': 0.20981055984941155}](less[petal length (cm),{'p': 0.48993674906650386}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.354839196306629}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 1.0434133437800601}](less[sepal length (cm),{'p': 0.5711307561850049}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.954045344221924}](less[petal length (cm),{'p': 1.9344840226087456}](less[petal length (cm),{'p': 0.4431999672846503}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.3436347523174217}](nom_class:0, less[petal length (cm),{'p': 2.1695724198202195}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 0.8395924253950674}](less[petal length (cm),{'p': 1.5743153323415329}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6744763932790752}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': -0.03598054290680047}](less[sepal length (cm),{'p': 0.8861223682669924}](less[petal width (cm),{'p': 1.6685087244915429}](less[petal length (cm),{'p': 0.9998937334584144}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.41748519439187226}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.3690249138996882}](less[sepal length (cm),{'p': 0.7593933666915684}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.4965260886328045}](less[petal length (cm),{'p': 0.26689358258026397}](less[petal length (cm),{'p': 0.9963871689579781}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.3927845836477315}](nom_class:0, less[petal width (cm),{'p': 1.5833930483818666}](nom_class:0, nom_class:1))), less[sepal length (cm),{'p': 0.3947357453380017}](less[petal length (cm),{'p': 0.018197267908581977}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.666229250842855}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.8724361372064462}](less[sepal length (cm),{'p': 0.23891141037714847}](nom_class:2, less[sepal width (cm),{'p': -1.2012284744351902}](less[sepal length (cm),{'p': 0.1701978395326592}](nom_class:1, nom_class:0), nom_class:1)), less[petal length (cm),{'p': 2.4599248052955374}](less[petal length (cm),{'p': 0.637828497316326}](less[petal length (cm),{'p': 0.20152216818098573}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.8037662305024391}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7895068051381067}](nom_class:2, less[petal width (cm),{'p': 1.663050904978093}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': -0.1422526278042091}](less[petal width (cm),{'p': 0.7367485528988427}](less[sepal width (cm),{'p': -0.12413398463785513}](less[petal length (cm),{'p': 0.2855928248753103}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.42378678811196663}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.25821495098004205}](less[sepal length (cm),{'p': 0.21245881775990783}](nom_class:1, nom_class:0), nom_class:0)), less[petal length (cm),{'p': 2.2191867852576426}](less[petal length (cm),{'p': 0.5119642031549356}](less[petal length (cm),{'p': -0.6490619507003224}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -1.4085107738108227}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -1.1129077168704002}](less[petal length (cm),{'p': 1.9523172668174973}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6210843953245448}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.648380799455065}](less[petal length (cm),{'p': 3.8658523626091235}](less[sepal length (cm),{'p': -0.24911917244527104}](less[sepal length (cm),{'p': -0.6411880837007483}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.2709782296831424}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.21249390522146117}](less[petal width (cm),{'p': 0.3786234132121974}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.2344497408780462}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6523265927886273}](less[sepal length (cm),{'p': 1.839698032021522}](less[petal length (cm),{'p': 0.9941044818176386}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.3313479543819175}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': -0.6937766597041565}](less[sepal width (cm),{'p': 0.2899600642487057}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -1.0232967885557949}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.08240661178833228}](less[petal width (cm),{'p': 0.010045034399558728}](less[sepal width (cm),{'p': 1.2740854159210828}](less[petal length (cm),{'p': 1.736565009577662}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.28832273135045217}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6956304849107038}](less[sepal length (cm),{'p': 0.25863412616833936}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.329132612990489}](less[petal length (cm),{'p': 2.5086749016345666}](less[petal length (cm),{'p': 0.05175122225185247}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.5794290512759802}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 1.2676156764445219}](less[petal length (cm),{'p': 0.13832402855987613}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6100784578339364}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.8481642257906035}](less[petal width (cm),{'p': 0.5129127468593244}](less[sepal width (cm),{'p': -0.5140554705403447}](less[sepal length (cm),{'p': 2.0237919838365377}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.5980045417016866}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.4174753934948101}](less[sepal length (cm),{'p': 0.4584159498756253}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.399607871586158}](less[petal length (cm),{'p': 0.679783732787022}](less[petal length (cm),{'p': -1.2224273553386578}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.3606068711282213}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.06346898440512888}](less[petal length (cm),{'p': 3.307418392001799}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.6857716538813357}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.233329272762424}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 1.6800543535278338}](less[petal width (cm),{'p': 0.2408468219405539}](less[petal width (cm),{'p': -0.2326069256547582}](less[petal width (cm),{'p': 1.0048609230562249}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.004438702271528705}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7099938846093917}](less[sepal length (cm),{'p': 0.7946244408921668}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.171554006769874}](less[petal length (cm),{'p': 0.7559340452425072}](less[petal length (cm),{'p': -0.43244716078413725}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4491547503211697}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.4702077369333927}](less[petal length (cm),{'p': 0.46912525506194847}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.660559317328563}](nom_class:1, nom_class:2))))</t>
   </si>
 </sst>
 </file>
@@ -437,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.2640224887215309</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -479,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.4928656899610431</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.07672653894255485</v>
+        <v>0.9018766098368698</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -507,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.223521252757434</v>
+        <v>0.711295561169253</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -521,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.5025085410970168</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -535,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.4928656899610431</v>
+        <v>0.6777920410783055</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -549,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.4541976860047202</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -563,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.5626498464432291</v>
+        <v>0.6777920410783055</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -577,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.08414043182414487</v>
+        <v>0.6738760523016299</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -591,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.08410504865334821</v>
+        <v>0.6945847527311171</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -605,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.3131803843850767</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -619,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.46745601270368</v>
+        <v>0.7948350918851294</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -633,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.4937667135657446</v>
+        <v>0.6777920410783055</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -647,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.4734868133783312</v>
+        <v>0.711295561169253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -661,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.4557079240316659</v>
+        <v>0.8778174956321936</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -675,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.4937076216576742</v>
+        <v>0.6876769666379416</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -689,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.5025125628140698</v>
+        <v>0.9615236629472873</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -700,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>0.5626498464432291</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -714,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0.4357454552564532</v>
+        <v>0.9018766098368698</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -731,7 +812,427 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>0.46745601270368</v>
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>0.7630037322246894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>0.9498540807851445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>0.5931558935361216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>0.9615236629472873</v>
       </c>
     </row>
   </sheetData>

--- a/evalution0.xlsx
+++ b/evalution0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="375">
   <si>
     <t>iter</t>
   </si>
@@ -25,142 +25,1120 @@
     <t>fit</t>
   </si>
   <si>
-    <t>less[petal width (cm),{'p': 2.2700563461051173}](less[sepal length (cm),{'p': 0.5110184842608579}](less[sepal length (cm),{'p': -0.37988830388972183}](less[sepal width (cm),{'p': 1.6739378453558933}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0.6279848232850673}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.37805680620066207}](less[sepal length (cm),{'p': 0.1055877590032902}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 2.8133648385212253}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': -1.985255194917428}](less[sepal width (cm),{'p': 0.19324622717754383}](less[petal width (cm),{'p': -0.8638429231161977}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.491351593266158}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.7628062299451872}](less[sepal width (cm),{'p': 1.4776047700842798}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.5493100658703866}](nom_class:2, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6531647132531895}](less[petal width (cm),{'p': 0.18931410692401918}](less[petal length (cm),{'p': 0.7040838700758413}](less[petal length (cm),{'p': 0.9779173098913956}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7585471931617921}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.477922779950001}](less[petal width (cm),{'p': 0.5756995690387934}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.10702722515230745}](nom_class:1, nom_class:0))), less[petal length (cm),{'p': 0.7551546995631285}](less[sepal width (cm),{'p': 0.8721602239369068}](less[petal length (cm),{'p': 0.32697790254390313}](nom_class:1, nom_class:0), less[sepal length (cm),{'p': 0.6126274008027834}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.4261984391785798}](less[petal width (cm),{'p': 0.41261204311738664}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.9429962026474334}](nom_class:0, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.2756409545187477}](less[petal length (cm),{'p': 2.8753869748593814}](less[sepal length (cm),{'p': 1.1884655751183455}](less[sepal length (cm),{'p': 0.8575897852216876}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.1188559559618647}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.016371517053316936}](less[petal width (cm),{'p': 1.3134542251730577}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.24701901202215923}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.7188960225352212}](less[petal width (cm),{'p': 1.8272075844396016}](less[petal width (cm),{'p': 1.481422983538603}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.3000720081845771}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.244323183075707}](less[sepal width (cm),{'p': 0.44050268838376283}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.9043966052985505}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 2.2003560456867506}](less[petal width (cm),{'p': -0.12443680598771825}](less[sepal width (cm),{'p': 0.5067172817680589}](less[petal length (cm),{'p': 1.0525639636545232}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.6406499054040238}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9049411590692336}](less[sepal length (cm),{'p': 0.1297652628984194}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 1.1952950856976436}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.52489725186075}](less[petal length (cm),{'p': 0.8956394297837198}](less[petal length (cm),{'p': 0.6783452378745445}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.09323386215746193}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.10218876953449357}](less[petal length (cm),{'p': -0.4818315530979708}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7016970210683835}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.9212869950104424}](less[petal width (cm),{'p': 0.5016044361978464}](less[sepal length (cm),{'p': 0.011208223646724358}](less[sepal length (cm),{'p': 0.6337963577148248}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.6381743030790091}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.14583532265647392}](less[sepal width (cm),{'p': 0.7535878524504805}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.2488582722888958}](nom_class:0, nom_class:2))), less[sepal length (cm),{'p': 0.644335343879747}](less[sepal width (cm),{'p': 0.17172938408425464}](less[sepal length (cm),{'p': 0.6820451763180178}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.4649155928856883}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8519682502595123}](less[sepal width (cm),{'p': 0.03324730267175657}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.09539310430800707}](nom_class:2, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.9893583933745647}](less[sepal width (cm),{'p': -0.3653652021474502}](less[sepal length (cm),{'p': 0.6715622375209793}](less[sepal width (cm),{'p': 0.41389606608842977}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.12671986812436453}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 0.436172233435846}](less[sepal length (cm),{'p': 1.0394735693514146}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.9442673680807165}](nom_class:0, nom_class:0))), less[sepal length (cm),{'p': 1.131496849193409}](less[sepal length (cm),{'p': 1.188919751758238}](less[sepal length (cm),{'p': -0.5399794779780897}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.2793247803364358}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 1.124133721111474}](less[sepal length (cm),{'p': 0.3345161152737852}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.7735250074488045}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': 0.3058174728192915}](less[sepal length (cm),{'p': 0.17604766898776758}](less[sepal width (cm),{'p': 0.9098064349458059}](less[sepal width (cm),{'p': 0.030192213959838843}](nom_class:1, nom_class:0), less[petal width (cm),{'p': 0.7960989036631095}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.9472042356810143}](less[petal width (cm),{'p': 0.3911606442020217}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.43276361140478103}](nom_class:2, nom_class:1))), less[sepal length (cm),{'p': 0.7413963555682374}](less[petal width (cm),{'p': 0.476828021272548}](less[petal length (cm),{'p': 0.6269082719385768}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.14554486852723703}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8650495826427468}](less[sepal width (cm),{'p': 0.8692145598655043}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5371934973907838}](nom_class:2, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': -0.7565584809031098}](less[sepal width (cm),{'p': 0.2714843515104842}](less[petal length (cm),{'p': 1.6075805607128077}](less[petal length (cm),{'p': 0.3565181295332887}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.6725284612217413}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7674223048915465}](less[petal length (cm),{'p': 0.6586188045749417}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 2.484515630341457}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.77138122543248}](less[sepal width (cm),{'p': 0.12619993936053905}](less[petal length (cm),{'p': 1.7197285313051012}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.04326815019229327}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 0.13775143361798786}](less[sepal length (cm),{'p': 0.20891581905562961}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.8479525936988914}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': 2.3169760548052865}](less[sepal width (cm),{'p': 1.095571971203389}](less[sepal length (cm),{'p': 0.3188358102222588}](less[sepal length (cm),{'p': -0.01932149337307451}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.6519375066746134}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 0.8982868824084381}](less[sepal width (cm),{'p': 0.3225543984676805}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.2944025878141298}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 4.814404818513763}](less[sepal length (cm),{'p': -0.01645842150491328}](less[petal length (cm),{'p': 0.21412555805529676}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.28909346546931747}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': -0.324327710398975}](less[petal width (cm),{'p': -0.7662936442243439}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6344075557675388}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.9853645237857394}](less[sepal width (cm),{'p': 0.6510652253630173}](less[petal length (cm),{'p': 0.3206521973540739}](less[petal width (cm),{'p': 0.05074590642086216}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.372397800161838}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.3988190043676084}](less[petal width (cm),{'p': -0.5062130508135843}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.49571386065741097}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': -0.022436512627142247}](less[petal length (cm),{'p': 0.3123898869324616}](less[petal width (cm),{'p': 0.09502808865433279}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.2887867870185872}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.221689310396857}](less[petal length (cm),{'p': -0.3221654097287389}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.8666235786351196}](nom_class:0, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.6607272820275232}](less[petal length (cm),{'p': 0.42242014869644184}](less[sepal length (cm),{'p': 0.36068623304152836}](less[sepal length (cm),{'p': -1.408850820652544}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.0430892014252886}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.15769970230125657}](less[petal width (cm),{'p': 0.3296968959400504}](less[petal width (cm),{'p': 0.4769533786848784}](less[petal width (cm),{'p': 0.2637710788873653}](less[petal width (cm),{'p': 1.3556027171362537}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.8785839687731676}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.7081757997168742}](less[sepal width (cm),{'p': -0.7507545031091513}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.7838203983823573}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 1.2676735030492006}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': -0.9100423159986147}](less[petal width (cm),{'p': 0.3930551480390299}](less[sepal length (cm),{'p': -1.069748396759182}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.4996977014262465}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 2.5978968071630266}](less[petal width (cm),{'p': 0.866327580618432}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6027530463182931}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 2.9464805707695283}](less[petal width (cm),{'p': -0.1968155414140601}](less[sepal width (cm),{'p': 0.552890891079663}](less[petal length (cm),{'p': -0.10087625986516816}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.6000384635600934}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.1983570606426197}](less[sepal length (cm),{'p': 1.4826362252363214}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.6805407227195003}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.5448129814154177}](less[petal length (cm),{'p': 0.5819431170276016}](less[petal length (cm),{'p': 1.005695522509443}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.50040795582347}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.07749571843599201}](less[petal length (cm),{'p': -0.3423798840733718}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8766555394321782}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 1.1912392476358487}](less[petal width (cm),{'p': 0.8796263006759315}](nom_class:1, less[petal length (cm),{'p': 0.8703686679098004}](less[petal width (cm),{'p': 1.6807571926624312}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.09403872871965191}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.873797398550653}](less[petal width (cm),{'p': 2.007874030383089}](less[petal width (cm),{'p': 1.7453805724201108}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.30379885581955784}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.7026996568549153}](less[sepal width (cm),{'p': 0.8299183487057339}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -1.040191443354326}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 2.269407446553789}](less[petal width (cm),{'p': 0.7856283679909253}](less[sepal length (cm),{'p': 0.01907218498459709}](less[petal length (cm),{'p': 1.1595663952411752}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.5239625422518266}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.031775685110373}](less[sepal length (cm),{'p': 1.3757327798487209}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.20490761200533664}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.1007981261591917}](less[petal length (cm),{'p': -0.1234210414655445}](less[petal length (cm),{'p': 1.4350732888589166}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.517972487794005}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': -0.03588975787783741}](less[petal length (cm),{'p': 0.4253098339658245}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.5532490467528195}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 1.7177135228710019}](less[petal length (cm),{'p': 1.522929052064913}](less[sepal length (cm),{'p': 1.9371456355173267}](less[sepal length (cm),{'p': 1.1764489417215338}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.42735801307340326}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.22676740210900004}](less[petal width (cm),{'p': 0.8448397438151876}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.1305848248240477}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.5886686626470845}](less[petal width (cm),{'p': 1.6758158988628244}](less[petal width (cm),{'p': 3.1367126586554797}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.8488291631922011}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.5418468613569618}](less[sepal width (cm),{'p': 1.1309783460063394}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.3716268861460562}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.194524509771054}](less[petal length (cm),{'p': 1.87377873759927}](less[sepal length (cm),{'p': 1.193873763428586}](less[sepal length (cm),{'p': 1.5100540072471034}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.5475472244275652}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.31841497529845564}](less[petal width (cm),{'p': 2.1406433284677497}](nom_class:2, nom_class:2), nom_class:2)), less[petal width (cm),{'p': 0.8673893161572773}](less[petal width (cm),{'p': 0.9141558307956718}](less[petal width (cm),{'p': 0.28047190881789585}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9735396583538236}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.5818951263832435}](less[sepal width (cm),{'p': -0.5086468660459283}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.2094590880204197}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.45218842661171577}](less[petal width (cm),{'p': 0.48549222157201677}](less[sepal width (cm),{'p': 1.0809630594987976}](less[petal length (cm),{'p': 1.6029582901620674}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.7428999550012412}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.8642407930824727}](less[sepal length (cm),{'p': 1.1056959725977271}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.4483613590638056}](less[petal length (cm),{'p': 0.4342762308923115}](less[petal length (cm),{'p': 1.29198124096224}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.35404342435062053}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.4865262116821993}](less[petal length (cm),{'p': -0.09680070672600172}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6985364311652653}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.443267682584447}](less[sepal width (cm),{'p': 0.5213058268019819}](less[petal length (cm),{'p': 0.8638145778334169}](less[petal width (cm),{'p': 0.7833749737896933}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.6294841041424878}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8497746444046277}](less[petal width (cm),{'p': 0.5190912206795151}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.5412230787314287}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': 0.07903722425394533}](less[petal length (cm),{'p': 0.9752617090217898}](less[petal width (cm),{'p': 0.150709098151121}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.8321728798149479}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.730637132115489}](less[petal length (cm),{'p': 0.3452441948363315}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.825245354817681}](nom_class:0, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.3598968957439337}](less[petal length (cm),{'p': 0.6787197002176828}](less[sepal length (cm),{'p': -0.05838209387305848}](less[sepal length (cm),{'p': 0.38407104440641004}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.7118662684246244}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.4233372776640105}](less[petal width (cm),{'p': 0.20892449063849838}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.058595262030185}](nom_class:0, less[petal length (cm),{'p': 1.4910212626776622}](less[sepal length (cm),{'p': 0.10924018449923373}](less[sepal length (cm),{'p': 2.528135707414427}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.6057705413911768}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.40827201473923036}](less[petal width (cm),{'p': -0.3618962218813137}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 3.82801685476033}](nom_class:0, nom_class:2)))))), less[petal width (cm),{'p': 0.8477259118049091}](less[petal width (cm),{'p': -1.129034953990229}](less[petal width (cm),{'p': 0.022351373527927015}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.651189226458694}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': -1.6072465058005654}](less[sepal width (cm),{'p': 0.7798665257074796}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.9008162742567082}](nom_class:0, nom_class:1))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -1.4292571412480775}](less[petal width (cm),{'p': 0.9586659509560416}](less[sepal width (cm),{'p': -0.8218190875696916}](less[petal length (cm),{'p': -0.8419739040917782}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.3410283762921764}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7968550344879747}](less[sepal length (cm),{'p': 0.5907749789328707}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0940294465956852}](less[petal length (cm),{'p': 0.279127704510031}](less[petal length (cm),{'p': 1.4888855337219646}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.0630165807252262}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.9976535847202962}](less[petal length (cm),{'p': 2.9017121998820925}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.824646391496127}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.6541581179202636}](less[petal length (cm),{'p': 2.3052405703743073}](less[sepal length (cm),{'p': -0.12898611943498672}](less[sepal length (cm),{'p': 2.264911806027156}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 2.75522101368579}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.4526928462056054}](less[petal width (cm),{'p': 0.2957526034968405}](nom_class:2, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 0.2515867974909359}](less[petal width (cm),{'p': 1.9142872124911112}](less[petal width (cm),{'p': 0.6711391200992582}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 0.6939972885105827}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.8748704307177455}](less[sepal width (cm),{'p': -2.159095703102899}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.709102373357979}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 2.6241576142439094}](less[petal width (cm),{'p': 0.17883839752503067}](less[sepal width (cm),{'p': 0.5900591466172145}](less[petal length (cm),{'p': -1.033984024721307}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.3964421442292828}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.9750990552533056}](less[sepal length (cm),{'p': 1.330995871565084}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.5112022579152229}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 1.863115027008052}](less[petal length (cm),{'p': 0.20787724372368277}](less[petal length (cm),{'p': 0.42401369957717105}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.7801317984153029}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.5184054105949967}](less[petal length (cm),{'p': 0.499449133331894}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -2.3079984590934206}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.5846201460309493}](less[petal length (cm),{'p': 2.174193675501563}](less[sepal length (cm),{'p': 0.8085753571403155}](less[petal width (cm),{'p': -0.14062550604564383}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.1800408638756723}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': -0.10474273038702014}](less[petal width (cm),{'p': 0.49050834734349147}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 2.471009637520624}](nom_class:0, nom_class:2))), nom_class:2)</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.006763704128129877}](less[petal width (cm),{'p': 1.418679400643359}](less[sepal width (cm),{'p': -1.1564815768861756}](less[petal length (cm),{'p': -0.29408620454305473}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.04528649293419085}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.28646543257885865}](less[sepal length (cm),{'p': 1.3810987173602394}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.3414630981459403}](less[petal length (cm),{'p': 1.211394305244529}](less[petal length (cm),{'p': 0.6609187312837945}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.1056459195909023}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.21311143805807867}](less[petal length (cm),{'p': 0.65016530060064}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6606724402933823}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 1.7546116585003662}](less[petal length (cm),{'p': 2.4240254795197247}](less[sepal length (cm),{'p': 1.1949653736883654}](less[sepal length (cm),{'p': -0.37275147481749793}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.6343439079213378}](nom_class:0, nom_class:2)), less[petal width (cm),{'p': -1.133237999743696}](less[petal width (cm),{'p': 0.314984199096681}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.5672184287234223}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 2.234007296620705}](less[petal width (cm),{'p': 2.54284750987258}](less[petal width (cm),{'p': 1.7527384172475666}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6150180233603544}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': -1.4359641888360655}](less[sepal width (cm),{'p': 0.5027948634479406}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.008591080212348612}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.12493850188587996}](less[petal width (cm),{'p': 0.4096446705370227}](less[sepal width (cm),{'p': 0.8247026507803621}](less[petal length (cm),{'p': 0.5818226281743681}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.3126473091447377}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5454134844157588}](less[sepal length (cm),{'p': 0.5494729705534709}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 0.3477462809900569}](less[petal length (cm),{'p': 0.5848367046222083}](less[petal length (cm),{'p': 0.2931082742495714}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.9214708066591178}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.16565327800192842}](less[petal length (cm),{'p': 0.21120848722598318}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.8926036613003826}](nom_class:0, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.42380299462276}](less[petal length (cm),{'p': -0.09396056496015853}](less[sepal length (cm),{'p': 0.5271891199285756}](less[sepal length (cm),{'p': -0.9902283982796736}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.639947683277306}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': -0.4605365936547848}](less[petal width (cm),{'p': 0.34411746050462766}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.9356254855541537}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.6314230454471395}](less[petal width (cm),{'p': 0.8440721027299398}](less[petal length (cm),{'p': 1.060326314122836}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.469911235212099}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.33195930884626523}](less[sepal width (cm),{'p': 0.7572303809845774}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.0518333519603067}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.10948327603320118}](less[petal width (cm),{'p': 0.2240404418838322}](less[sepal width (cm),{'p': 0.4751635314953775}](less[petal length (cm),{'p': 0.33085175114164256}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.35808648505865315}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9585868447698432}](less[sepal length (cm),{'p': 0.13535525908981383}](nom_class:1, nom_class:0), nom_class:0)), less[petal length (cm),{'p': 0.6014736129018475}](less[petal length (cm),{'p': 0.3970369378507286}](less[petal length (cm),{'p': 0.8513881829499366}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.5175013542371584}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.0610149043595396}](less[petal length (cm),{'p': 0.5806861523240481}](nom_class:0, nom_class:1), nom_class:0)))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.8956159368525217}](less[sepal length (cm),{'p': 3.468595104828477}](nom_class:2, less[sepal width (cm),{'p': 0.5101002082862851}](less[sepal length (cm),{'p': -0.6154510577508818}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0565217264051405}](less[petal length (cm),{'p': 1.1485982464022564}](less[petal length (cm),{'p': 0.48435502234316397}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.112436215406652}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.10802440451109024}](less[petal length (cm),{'p': -2.506040978970909}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6155985085960203}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.746936866407558}](less[petal width (cm),{'p': -0.5483592373426377}](less[sepal width (cm),{'p': 0.564580863774502}](less[petal length (cm),{'p': -0.41167557244712216}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.1067171639038456}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.5796764379165984}](less[sepal length (cm),{'p': -0.971549586640496}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.011038478911958}](less[petal length (cm),{'p': 0.9397493912031039}](less[petal length (cm),{'p': 0.47144357617378263}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.9766625407084772}](nom_class:0, less[petal width (cm),{'p': 1.0917138323839581}](nom_class:0, nom_class:1))), less[sepal length (cm),{'p': 0.5964885267800177}](less[petal length (cm),{'p': 0.01414029598035671}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6694145334385193}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.34720582172444064}](less[petal width (cm),{'p': 0.6201871222524706}](less[sepal width (cm),{'p': 0.42273146691050006}](less[petal length (cm),{'p': -0.03886328215754786}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7065003888444681}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.34606094181452984}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.9401282360961019}](less[sepal width (cm),{'p': 1.1257513012953495}](less[petal length (cm),{'p': 0.41232142445243913}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.4315116423379299}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 2.3962257431033964}](less[petal length (cm),{'p': 0.15636570597349653}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.8675156257039625}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.4424262923399066}](less[petal width (cm),{'p': 0.3378427904440978}](less[sepal width (cm),{'p': -0.26378443195547646}](less[petal width (cm),{'p': 1.2509787746161967}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.301905369532503}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.030387134518864878}](less[sepal length (cm),{'p': 0.4708045880729445}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.2240601823569497}](less[petal length (cm),{'p': 1.9375141235002498}](less[petal length (cm),{'p': 0.38009400108518204}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.1785832035716497}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7206712057319942}](less[petal length (cm),{'p': 1.0546408397231475}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.6525923777133968}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.011317753355598}](less[sepal width (cm),{'p': 1.3787889371398845}](less[sepal length (cm),{'p': -0.0835498306265684}](less[sepal length (cm),{'p': 2.223758852123448}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.7218125361930088}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.7966404734686579}](less[petal width (cm),{'p': 0.13713464494649363}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 2.845130019754737}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.6714517895190797}](less[petal width (cm),{'p': -0.20174799736779092}](less[petal length (cm),{'p': 1.554684629814851}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.2465087352139972}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 0.4481647511038891}](less[sepal width (cm),{'p': 0.6311373015780375}](less[petal width (cm),{'p': 1.3675656627557644}](nom_class:0, nom_class:2), nom_class:1), less[sepal width (cm),{'p': 0.5207897209681731}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.1967730400017627}](less[petal length (cm),{'p': -0.11704905148001477}](nom_class:1, less[petal length (cm),{'p': 0.6779243983944516}](less[petal width (cm),{'p': 0.027402222885718086}](nom_class:2, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 1.0152766708963905}](less[petal width (cm),{'p': 0.684007057486339}](less[petal width (cm),{'p': 0.08672398683518834}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': -1.8722403549794395}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.730502030280269}](less[sepal width (cm),{'p': -0.0975983052691991}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.2586986925047049}](nom_class:0, nom_class:0))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -0.11381195727676019}](less[petal width (cm),{'p': 0.012541645656752753}](less[sepal width (cm),{'p': 1.6478042034596339}](less[petal length (cm),{'p': 0.737125960791217}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.7392283716632774}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.8530427837085295}](less[sepal length (cm),{'p': -0.3796694339617238}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.0508638877069254}](less[petal length (cm),{'p': 0.4293987941162342}](less[petal length (cm),{'p': 0.4227422225452123}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4096587186329688}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.7755281493429246}](less[petal length (cm),{'p': 0.025674608487321615}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6265271842853277}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.15963206092478593}](nom_class:2, less[petal width (cm),{'p': 1.7937202322949855}](less[petal width (cm),{'p': 1.7893315919438397}](less[petal width (cm),{'p': 1.2251908671475258}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.1886787455080929}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8617180198898426}](less[sepal width (cm),{'p': 1.194276213302448}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.7273819462356164}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.1451683132954242}](less[petal length (cm),{'p': 1.9335551919895524}](less[sepal length (cm),{'p': 0.3422634172821131}](less[sepal length (cm),{'p': -0.4863710415594651}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.8212989737624767}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.37792829186788895}](less[petal width (cm),{'p': 1.5686876209523901}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.1140745705424289}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6946020719500523}](less[petal width (cm),{'p': -0.22724169334564476}](less[petal length (cm),{'p': -0.2617459746120058}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.0845140231318398}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 1.6533987731090083}](less[sepal width (cm),{'p': -0.700520353717007}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 1.4813210566645603}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.9774090113333193}](less[petal width (cm),{'p': 0.4163411981675811}](less[sepal width (cm),{'p': 0.20981055984941155}](less[petal length (cm),{'p': 0.48993674906650386}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.354839196306629}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 1.0434133437800601}](less[sepal length (cm),{'p': 0.5711307561850049}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.954045344221924}](less[petal length (cm),{'p': 1.9344840226087456}](less[petal length (cm),{'p': 0.4431999672846503}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.3436347523174217}](nom_class:0, less[petal length (cm),{'p': 2.1695724198202195}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 0.8395924253950674}](less[petal length (cm),{'p': 1.5743153323415329}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6744763932790752}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -0.03598054290680047}](less[sepal length (cm),{'p': 0.8861223682669924}](less[petal width (cm),{'p': 1.6685087244915429}](less[petal length (cm),{'p': 0.9998937334584144}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.41748519439187226}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.3690249138996882}](less[sepal length (cm),{'p': 0.7593933666915684}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.4965260886328045}](less[petal length (cm),{'p': 0.26689358258026397}](less[petal length (cm),{'p': 0.9963871689579781}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.3927845836477315}](nom_class:0, less[petal width (cm),{'p': 1.5833930483818666}](nom_class:0, nom_class:1))), less[sepal length (cm),{'p': 0.3947357453380017}](less[petal length (cm),{'p': 0.018197267908581977}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.666229250842855}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.8724361372064462}](less[sepal length (cm),{'p': 0.23891141037714847}](nom_class:2, less[sepal width (cm),{'p': -1.2012284744351902}](less[sepal length (cm),{'p': 0.1701978395326592}](nom_class:1, nom_class:0), nom_class:1)), less[petal length (cm),{'p': 2.4599248052955374}](less[petal length (cm),{'p': 0.637828497316326}](less[petal length (cm),{'p': 0.20152216818098573}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.8037662305024391}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7895068051381067}](nom_class:2, less[petal width (cm),{'p': 1.663050904978093}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -0.1422526278042091}](less[petal width (cm),{'p': 0.7367485528988427}](less[sepal width (cm),{'p': -0.12413398463785513}](less[petal length (cm),{'p': 0.2855928248753103}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.42378678811196663}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.25821495098004205}](less[sepal length (cm),{'p': 0.21245881775990783}](nom_class:1, nom_class:0), nom_class:0)), less[petal length (cm),{'p': 2.2191867852576426}](less[petal length (cm),{'p': 0.5119642031549356}](less[petal length (cm),{'p': -0.6490619507003224}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -1.4085107738108227}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -1.1129077168704002}](less[petal length (cm),{'p': 1.9523172668174973}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6210843953245448}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.648380799455065}](less[petal length (cm),{'p': 3.8658523626091235}](less[sepal length (cm),{'p': -0.24911917244527104}](less[sepal length (cm),{'p': -0.6411880837007483}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.2709782296831424}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.21249390522146117}](less[petal width (cm),{'p': 0.3786234132121974}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.2344497408780462}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.6523265927886273}](less[sepal length (cm),{'p': 1.839698032021522}](less[petal length (cm),{'p': 0.9941044818176386}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.3313479543819175}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': -0.6937766597041565}](less[sepal width (cm),{'p': 0.2899600642487057}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -1.0232967885557949}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.08240661178833228}](less[petal width (cm),{'p': 0.010045034399558728}](less[sepal width (cm),{'p': 1.2740854159210828}](less[petal length (cm),{'p': 1.736565009577662}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.28832273135045217}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6956304849107038}](less[sepal length (cm),{'p': 0.25863412616833936}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.329132612990489}](less[petal length (cm),{'p': 2.5086749016345666}](less[petal length (cm),{'p': 0.05175122225185247}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.5794290512759802}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 1.2676156764445219}](less[petal length (cm),{'p': 0.13832402855987613}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6100784578339364}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.8481642257906035}](less[petal width (cm),{'p': 0.5129127468593244}](less[sepal width (cm),{'p': -0.5140554705403447}](less[sepal length (cm),{'p': 2.0237919838365377}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.5980045417016866}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.4174753934948101}](less[sepal length (cm),{'p': 0.4584159498756253}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.399607871586158}](less[petal length (cm),{'p': 0.679783732787022}](less[petal length (cm),{'p': -1.2224273553386578}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.3606068711282213}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.06346898440512888}](less[petal length (cm),{'p': 3.307418392001799}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.6857716538813357}](nom_class:1, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.233329272762424}](nom_class:0, nom_class:1)</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 1.6800543535278338}](less[petal width (cm),{'p': 0.2408468219405539}](less[petal width (cm),{'p': -0.2326069256547582}](less[petal width (cm),{'p': 1.0048609230562249}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.004438702271528705}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7099938846093917}](less[sepal length (cm),{'p': 0.7946244408921668}](nom_class:2, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.171554006769874}](less[petal length (cm),{'p': 0.7559340452425072}](less[petal length (cm),{'p': -0.43244716078413725}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4491547503211697}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.4702077369333927}](less[petal length (cm),{'p': 0.46912525506194847}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.660559317328563}](nom_class:1, nom_class:2))))</t>
+    <t>less[petal width (cm),{'p': 1.7662296008222227}](less[sepal width (cm),{'p': 0.04477638585838728}](less[petal length (cm),{'p': -0.4957803655124351}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.8879959382107553}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 3.06793313679737}](less[petal length (cm),{'p': 1.9821968969325479}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.438555730232735}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 1.7396604199817474}](less[sepal length (cm),{'p': 0.5979027602910082}](less[sepal length (cm),{'p': 0.30773857685667805}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': -0.37621285502322344}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 4.74920973045922}](less[petal length (cm),{'p': 0.061123962637837426}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.20091520024450724}](nom_class:0, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8322963027886363}](less[sepal width (cm),{'p': -0.6988457005160811}](less[sepal length (cm),{'p': -0.12872419930199686}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 2.3689946660321644}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.9174081170577415}](less[petal length (cm),{'p': 0.4040392359109294}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0.27388948596564966}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.039321141365160184}](less[petal length (cm),{'p': 0.1718077904576844}](less[petal width (cm),{'p': -0.14995711607770348}](nom_class:0, nom_class:2), less[petal width (cm),{'p': -0.7899359452623099}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 2.6307356478243307}](less[petal width (cm),{'p': 1.2951157765244954}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.04946034774964542}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.018622674936913414}](less[petal length (cm),{'p': 0.23725641263068467}](less[petal length (cm),{'p': 0.49208567017965177}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.9148115181296774}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6118603723454502}](less[petal length (cm),{'p': 0.2891347977521166}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.595707648483687}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.09025270629982785}](less[petal length (cm),{'p': 0.9489924194834862}](less[petal length (cm),{'p': 0.11664543086921508}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.654246830399271}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.0586124669599245}](less[petal length (cm),{'p': 0.9528735041954896}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.5014048788570922}](nom_class:0, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.82116146282381}](less[petal width (cm),{'p': 0.3246535899928315}](less[petal length (cm),{'p': -0.609376213848664}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.1787021122062834}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.9410133911217197}](less[petal length (cm),{'p': 1.470472079467092}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -3.0973926553160283}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.7180521063518802}](less[sepal length (cm),{'p': 0.981548374701447}](less[petal width (cm),{'p': 0.9030432113315803}](nom_class:1, nom_class:0), less[sepal length (cm),{'p': 0.9172022580613621}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 0.2581895220311988}](less[sepal width (cm),{'p': 0.0984455038761588}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.6898282021882903}](nom_class:2, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 4.0542912733114616}](less[petal width (cm),{'p': 1.621098617722118}](less[petal width (cm),{'p': 0.694815943305788}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.2607985910621709}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.8861978564427111}](less[sepal width (cm),{'p': 1.3240855398412907}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.3378432983655321}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.010795189002075989}](less[sepal width (cm),{'p': 0.36075276216677266}](less[sepal width (cm),{'p': 0.9525373505336576}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.6067163934699084}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.21382025780589553}](less[petal width (cm),{'p': 0.17633645005090998}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.5101308787556571}](nom_class:0, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.10769778645679828}](less[sepal length (cm),{'p': 0.731558871664768}](less[sepal width (cm),{'p': 0.8489126585747889}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.40509441081576514}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 0.9816237423316935}](less[petal length (cm),{'p': 0.1598946764165663}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.5480195390659802}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8419158361098964}](less[petal width (cm),{'p': -0.08163719495107123}](less[petal length (cm),{'p': 0.406372161533326}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.2538402544633809}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 0.5751579085057124}](less[petal length (cm),{'p': 0.8623418675421879}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5195208557583955}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.24200618674004315}](less[sepal width (cm),{'p': 0.4015369993799237}](less[sepal length (cm),{'p': 0.6244417625070222}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.4207190642347024}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.07994637384107572}](less[sepal width (cm),{'p': 0.5131060763253109}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0.5132977294973932}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7779781383319095}](less[petal length (cm),{'p': 1.4468113391002624}](less[sepal length (cm),{'p': 0.3410905362485547}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.5461567375785445}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 2.0123014595820776}](less[sepal length (cm),{'p': 1.0238865153365224}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.7570933684595813}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.5166573939804942}](less[petal width (cm),{'p': 0.96035710445736}](less[sepal width (cm),{'p': 0.1278209292622935}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9883496811492113}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.39733682795764147}](less[sepal length (cm),{'p': 0.9652089741883494}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.9712867948684846}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.14532330084266887}](less[sepal length (cm),{'p': 0.35259845630628595}](less[petal length (cm),{'p': 0.7582867331861987}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.09293771353813507}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 0.7200907908178653}](less[sepal width (cm),{'p': 0.8898549240883521}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.70494559417369}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6500539183727803}](less[petal length (cm),{'p': 2.5427934530145846}](less[sepal length (cm),{'p': -0.7601607852709172}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 1.0760756604612587}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': -1.3515678429125624}](less[sepal width (cm),{'p': 0.3079541449458428}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.8334904223013779}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.4157043349910644}](less[petal length (cm),{'p': 0.12479654023644438}](less[sepal length (cm),{'p': 0.37330217591545767}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.402858695155608}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.8940381167646168}](less[sepal width (cm),{'p': 0.9450448255569303}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.38056965730332315}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.9091806876538493}](less[petal width (cm),{'p': 0.8338245263984891}](less[petal width (cm),{'p': 0.3901257318038702}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.6121106128126494}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 0.22325010072141588}](less[sepal width (cm),{'p': 0.48276964178233284}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.9122794489171833}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7255793518931386}](less[sepal width (cm),{'p': 0.83045162250176}](less[sepal length (cm),{'p': 0.7916352183778966}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6130115666153023}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.9935204259844035}](less[sepal width (cm),{'p': 0.4150375613291021}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.674690172648089}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8793151501897836}](less[sepal length (cm),{'p': 0.4557598406700616}](less[petal length (cm),{'p': 0.4960745418346825}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.029130965635951855}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 0.14313708422537474}](nom_class:1, less[sepal width (cm),{'p': -0.1451674511222979}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6723344948681526}](less[sepal width (cm),{'p': 0.701691683000735}](less[sepal length (cm),{'p': 0.38355207400572466}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.13408826791440043}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.04672998056185251}](less[petal width (cm),{'p': 0.794057548543503}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.027431929936161947}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.7373692116610764}](less[petal width (cm),{'p': 1.6171024180049982}](less[petal width (cm),{'p': 0.6190458535322313}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.09093434416945173}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.0489759414469004}](less[petal width (cm),{'p': 0.2062881005311371}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7037886740462281}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6645852620936994}](less[petal length (cm),{'p': 2.122339127412544}](less[sepal length (cm),{'p': 0.381518529017715}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.6764272858877154}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 1.0278417123715387}](less[sepal width (cm),{'p': 0.5728512144669828}](nom_class:1, less[petal length (cm),{'p': -1.472873392519861}](less[sepal length (cm),{'p': -0.03276226221141987}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.6557682025717386}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.9255847298419364}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.9849714658387874}](less[sepal width (cm),{'p': -0.38496697076320496}](less[sepal length (cm),{'p': 0.36938166271079464}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -2.284495137428978}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.4218356240478855}](less[sepal width (cm),{'p': 0.6660637486836293}](less[petal length (cm),{'p': 0.9900180100376853}](less[petal length (cm),{'p': 0.3517542258345766}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.449758222811706}](nom_class:2, nom_class:2)), nom_class:0), less[petal length (cm),{'p': 5.211463643068528}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.4302279505374917}](less[petal width (cm),{'p': 0.6705602756848337}](less[petal width (cm),{'p': 0.9535833081347745}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.10986552415129577}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.17428441535154515}](less[sepal width (cm),{'p': 0.6431160501715416}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.0765418527940539}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.9059424622192629}](less[petal width (cm),{'p': 0.8769344353582824}](less[petal width (cm),{'p': 0.6849922786821672}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.5663744776610018}](nom_class:1, nom_class:2)), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.680605798808193}](less[petal width (cm),{'p': 1.618805883280039}](less[petal width (cm),{'p': 0.6715736165796389}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.0545356344743}](nom_class:1, nom_class:2)), nom_class:0)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.3489906778555433}](less[sepal width (cm),{'p': 0.8702187078182122}](less[petal width (cm),{'p': 0.8613330620841987}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.24240925480468967}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.08546287121058654}](less[sepal width (cm),{'p': 1.8385639150141229}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.21589825697727966}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8670129889784585}](less[sepal length (cm),{'p': 0.5914657814074337}](less[petal length (cm),{'p': 0.7957287542093738}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.9151125602577013}](nom_class:1, nom_class:0)), less[petal width (cm),{'p': 0.6884388523660652}](less[sepal width (cm),{'p': 0.24008427427916856}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.9305235316537775}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6530270002881706}](less[petal length (cm),{'p': 2.6063189440859347}](less[sepal length (cm),{'p': 0.27815352565626317}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.2608878568051723}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 2.672321568033946}](less[sepal width (cm),{'p': 2.745299490371814}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.39982185623289157}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6174077987683368}](less[petal length (cm),{'p': 2.8850480472549016}](less[sepal length (cm),{'p': 2.3396821542735537}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -0.2282077438432628}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': -0.9842555444074124}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6648839255370014}](less[petal length (cm),{'p': 2.195296009226233}](less[sepal length (cm),{'p': 2.1228791108413345}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.906307110138948}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.33162583944656}](less[sepal width (cm),{'p': 1.7757964543108757}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.6094999261688553}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7845654494410066}](less[petal width (cm),{'p': 0.8570913562107365}](less[sepal width (cm),{'p': 2.332117446412952}](nom_class:0, nom_class:1), nom_class:1), less[sepal length (cm),{'p': 0.9439972397578712}](less[sepal width (cm),{'p': 1.2313914856490258}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 2.330871754959556}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7765565651826861}](less[petal width (cm),{'p': 0.7726274508501696}](less[petal width (cm),{'p': 1.0532900003119738}](nom_class:0, less[sepal width (cm),{'p': -0.008439303688366248}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': -0.41627279962275343}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 0.30649162220726583}](less[sepal width (cm),{'p': 0.07557942816270719}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.04164803014764168}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7166490065910666}](less[petal width (cm),{'p': -0.863336529251477}](less[petal length (cm),{'p': 0.8574050527632868}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.9705794642051089}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 3.405374614846473}](less[petal length (cm),{'p': -0.17801813437778302}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 1.028928081576654}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.574777413799402}](less[petal width (cm),{'p': 1.6956633888050994}](less[petal width (cm),{'p': 0.8442543843036976}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.6124239000288635}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.042743342714992444}](less[sepal width (cm),{'p': 0.6513297013650877}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.9230255065357067}](less[sepal width (cm),{'p': -2.864867522974995}](less[sepal length (cm),{'p': -0.6151283497864455}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.8957362006131815}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.006050451682991342}](less[sepal width (cm),{'p': -0.3506197086733671}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.0380417969905467}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7915712750536896}](less[petal length (cm),{'p': 1.9922790070005334}](less[sepal length (cm),{'p': 0.5922980738123531}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -0.01836327249972608}](nom_class:1, nom_class:1)), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': -0.19072304629794778}](less[petal width (cm),{'p': -0.10938611210078888}](nom_class:1, less[sepal length (cm),{'p': 0.7595799966985579}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 2.88615311871208}](less[sepal width (cm),{'p': -0.10102159711659717}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.029996092503115968}](nom_class:0, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.8349913246461407}](less[petal length (cm),{'p': 2.2498719013798594}](less[sepal length (cm),{'p': 1.3209015585494033}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.8142155464296499}](nom_class:1, nom_class:1)), nom_class:0)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7625245852974603}](less[petal width (cm),{'p': 1.6122301325079347}](less[petal width (cm),{'p': 0.8150779146550037}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8272484874807886}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.331142517943015}](less[sepal width (cm),{'p': 0.0271056500703451}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.11962885409916776}](less[sepal width (cm),{'p': 1.035024161316326}](less[sepal length (cm),{'p': -0.17862105636276626}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6199613247978293}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.2348069453468656}](less[sepal width (cm),{'p': 0.49160213498443417}](nom_class:2, nom_class:0), less[petal length (cm),{'p': -0.11370291728640053}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>nom_class:1</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.7114719337097277}](less[petal width (cm),{'p': 1.6782490007671362}](less[petal width (cm),{'p': 0.6929082420474456}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.1514678647775716}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.0829541113712668}](less[sepal width (cm),{'p': -0.14512028121769854}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.5438398405722568}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6567243620999685}](less[petal length (cm),{'p': 0.39804277693483836}](less[sepal length (cm),{'p': 1.4707218867637146}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.215609243948106}](nom_class:1, less[petal width (cm),{'p': 0.657401726015121}](less[sepal width (cm),{'p': -0.6626242922812153}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 1.047655413221292}](nom_class:0, nom_class:1)))), less[petal width (cm),{'p': 1.3440756056987753}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.278932155684789}](less[petal width (cm),{'p': 1.6363564024232045}](less[petal width (cm),{'p': 0.6756269049547867}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.0978723937547026}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.6022603363540714}](less[petal length (cm),{'p': 0.6964591012152125}](nom_class:1, less[sepal length (cm),{'p': 2.2243773269443885}](less[sepal length (cm),{'p': 0.2898893799437623}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.4032068004717297}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': -0.2504765614009629}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.9418174217424775}](less[petal width (cm),{'p': 0.21008414603539227}](nom_class:0, less[petal width (cm),{'p': 0.8715745120008134}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.6782296922365598}](less[petal length (cm),{'p': 0.48169810723721024}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.40549280848350416}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.632727180367885}](less[petal length (cm),{'p': 2.3476056092435034}](less[sepal length (cm),{'p': -0.6571186487310373}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -0.9016570847286685}](nom_class:1, nom_class:1)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.1067511314262384}](less[petal length (cm),{'p': 1.9402757548278247}](less[sepal length (cm),{'p': 0.7870011309277907}](nom_class:0, nom_class:0), less[petal width (cm),{'p': -0.1480182599940591}](nom_class:1, nom_class:1)), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6104984058466778}](less[petal length (cm),{'p': 2.1459368496540563}](less[sepal length (cm),{'p': -2.2555899555558283}](nom_class:0, nom_class:0), less[petal width (cm),{'p': -1.0179420125360799}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': -0.6029656981231588}](less[sepal width (cm),{'p': 1.681805971740495}](nom_class:1, less[sepal length (cm),{'p': 1.3607407697854172}](less[petal length (cm),{'p': -0.45320455915453645}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.6851090513860454}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 0.19900899983605674}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.2679436325502206}](nom_class:0, nom_class:0)</t>
+  </si>
+  <si>
+    <t>nom_class:0</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.20845932118959654}](less[petal width (cm),{'p': 1.0795144802882986}](less[sepal width (cm),{'p': 0.9068843304395505}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.21740122064887102}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.5315590079468269}](less[sepal width (cm),{'p': 0.5696933041026631}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.45230687140217174}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8287294952798072}](less[petal width (cm),{'p': 0.9546001774030691}](less[petal width (cm),{'p': 0.15046909964957922}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.10784822700696384}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.67708300688845}](less[sepal width (cm),{'p': 0.017440413710994584}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.602709691014843}](nom_class:1, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7570519937615519}](less[petal width (cm),{'p': 1.6026033535570363}](less[petal width (cm),{'p': 0.8184869257938588}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.3112965697133545}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.13007861948949728}](less[sepal width (cm),{'p': 0.47687210739369534}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.1505602963263886}](less[petal width (cm),{'p': -0.8845138861091035}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.69202849879725}](less[sepal width (cm),{'p': 1.4777363386085076}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.21788411171032976}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.35383441518786163}](less[petal width (cm),{'p': 0.2278783730223829}](less[petal width (cm),{'p': 0.1985029408774811}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8700041128237325}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.00014811018401617027}](less[sepal width (cm),{'p': 0.23992968905251033}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.4944489982345647}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.0703904007237757}](less[petal width (cm),{'p': 1.6805867080189794}](less[petal width (cm),{'p': 0.8528379248376701}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.30957543266127874}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.8253321502073585}](less[sepal width (cm),{'p': 1.888491119341345}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.740897273188309}](less[sepal width (cm),{'p': 0.14321532416314575}](less[sepal length (cm),{'p': 1.1214714811341377}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.09411789117334526}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -2.5062145182125075}](less[sepal width (cm),{'p': -0.00833898083625062}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.31924059673538374}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.3395796449105895}](less[petal width (cm),{'p': 1.6741252694037185}](less[petal width (cm),{'p': 0.7542745069454534}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.008735476693684685}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.0002971793522821}](less[petal width (cm),{'p': 0.5911523433295294}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.3502121485829315}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 4.029502882173805}](less[petal width (cm),{'p': 0.6078187331893957}](less[petal width (cm),{'p': 0.9168213033597508}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.661103982713197}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.9894739461319317}](less[petal width (cm),{'p': 1.8297241713709478}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4490284338223557}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6733496134582525}](less[petal width (cm),{'p': 1.0730711633294856}](less[petal width (cm),{'p': 0.7273822169781853}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.7903723284288762}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.49798452709542934}](less[sepal width (cm),{'p': 0.25203540299382626}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.3053530165600863}](less[sepal length (cm),{'p': 2.021516180790378}](less[sepal length (cm),{'p': 0.7764596438619753}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -0.2854314768437277}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.900057699864016}](less[sepal length (cm),{'p': 1.076945703830899}](nom_class:2, nom_class:0), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.1926827037423369}](less[petal width (cm),{'p': 0.7601197949766251}](less[petal width (cm),{'p': 0.8315773994238992}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.05652875427972226}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.8043986534656193}](less[sepal width (cm),{'p': 0.7447450642661577}](nom_class:1, less[sepal length (cm),{'p': 1.0053953800374402}](less[petal length (cm),{'p': 0.5894587726627128}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.48227126243134094}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 0.47410545120397923}](nom_class:1, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7208049890181694}](less[petal length (cm),{'p': 0.11202287503563485}](nom_class:1, less[sepal width (cm),{'p': -0.17433936096678448}](nom_class:1, nom_class:1)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6235579987090576}](less[petal length (cm),{'p': 0.7928820121515308}](less[sepal length (cm),{'p': 1.0225278480062312}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.6031824036255504}](less[sepal width (cm),{'p': 0.7159281273012036}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.6913943916454826}](less[sepal width (cm),{'p': 0.5171939160726641}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.7637131572227182}](nom_class:0, nom_class:1)))), less[petal width (cm),{'p': 0.7210818926651692}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8630521362658745}](less[petal width (cm),{'p': 0.796059802086632}](less[petal width (cm),{'p': 0.8296443925801656}](nom_class:0, nom_class:1), nom_class:0), less[sepal length (cm),{'p': 0.47495289058785006}](less[petal width (cm),{'p': 0.9578731805637907}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.03790447836708011}](nom_class:1, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.148255013858023}](less[petal width (cm),{'p': 1.6046921852699163}](less[petal width (cm),{'p': 0.8763391952675035}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9525530334222114}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.44103389427169}](less[petal width (cm),{'p': 0.522859557608702}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.8822242206393556}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6355743269736087}](less[petal width (cm),{'p': 2.9875103516183135}](less[petal width (cm),{'p': 0.6840596184840244}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5582039358551032}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.6464917340973568}](less[petal length (cm),{'p': 1.1092443592207555}](nom_class:1, less[sepal length (cm),{'p': -0.15246876463249714}](less[sepal width (cm),{'p': 1.9160935028286694}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.35802617888220045}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 0.3637307091683384}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.22778083737806348}](less[petal length (cm),{'p': 0.48636373801772415}](less[sepal length (cm),{'p': 0.514822223636468}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.5360533395154723}](nom_class:1, less[petal width (cm),{'p': 0.33331652497998854}](nom_class:0, less[petal width (cm),{'p': 0.05074547314171812}](nom_class:2, nom_class:2)))), less[petal width (cm),{'p': 0.7343200528262444}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6613615711567575}](less[petal width (cm),{'p': 1.6040087635243965}](less[petal width (cm),{'p': 0.7488994206153643}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.1746020712726002}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.12813918328235777}](less[sepal width (cm),{'p': 0.3650060138891764}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.3405531719590256}](less[sepal width (cm),{'p': 0.36345084461933874}](less[sepal length (cm),{'p': 0.770413728355094}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.0862304810411154}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 1.84930968335153}](less[sepal width (cm),{'p': 0.5766797509560189}](less[petal width (cm),{'p': -0.42051014415932914}](less[petal width (cm),{'p': 0.6203424114876988}](less[petal width (cm),{'p': 0.49041829778174884}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.734390734138229}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.017144762882196407}](less[sepal width (cm),{'p': 1.4752172919760682}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.02507993340288145}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.4352430980151337}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6640135671483441}](less[petal width (cm),{'p': 0.980689198208517}](nom_class:0, less[petal width (cm),{'p': 0.9343923436485932}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.2741645259733546}](less[petal width (cm),{'p': 0.5527193684679612}](less[sepal length (cm),{'p': 0.5325950578538213}](nom_class:0, nom_class:0), nom_class:1), less[sepal length (cm),{'p': 0.21214865744997957}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.656675739733048}](less[petal width (cm),{'p': 2.1238685492723803}](less[petal width (cm),{'p': 0.8138754879013212}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.1926383547278946}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.20767767366858547}](less[sepal width (cm),{'p': 0.253704225169162}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.48454541912262}](less[sepal width (cm),{'p': 0.7253623639981089}](less[sepal length (cm),{'p': -0.16538646077469155}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.005089101334312507}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.5853202838989883}](less[sepal width (cm),{'p': 0.6395856252534076}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.4060905841988091}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.07764928705733432}](less[petal length (cm),{'p': 1.1284429367884443}](less[sepal length (cm),{'p': 0.21511530754597247}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.8065328874301488}](nom_class:1, less[petal length (cm),{'p': 1.5197840281332073}](nom_class:1, less[sepal length (cm),{'p': 0.6438297355479174}](nom_class:0, nom_class:1)))), less[petal width (cm),{'p': 0.61528561115042}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.3513443317330118}](less[petal width (cm),{'p': 0.34684956146470225}](less[petal width (cm),{'p': 0.9949564583080435}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8815757862059432}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.4482887823488799}](less[petal length (cm),{'p': 0.43389844069776407}](nom_class:1, less[sepal length (cm),{'p': 0.9912076866911833}](less[sepal length (cm),{'p': 0.6736736102459746}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.6694811059689848}](nom_class:1, nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.5994530781393497}](less[petal width (cm),{'p': 1.6971106485342888}](less[petal width (cm),{'p': 0.8529328100539068}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.3493158767385802}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.4992949762979286}](nom_class:2, less[petal length (cm),{'p': 0.3919756884177914}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.8864554752079579}](less[sepal length (cm),{'p': 0.7804530545923933}](less[petal width (cm),{'p': -0.4373335999568607}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.022728340032127925}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.3471795192206711}](less[sepal width (cm),{'p': 1.5799456492653015}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.7752341677849026}](nom_class:1, less[sepal width (cm),{'p': 1.4038903973044903}](less[sepal width (cm),{'p': -0.9044278948876918}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -1.1026682221488529}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>nom_class:2</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7075081784976462}](less[petal width (cm),{'p': 1.6101830596090738}](less[petal width (cm),{'p': 0.6208160345994047}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.15785240903111358}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.24259123665848148}](less[sepal width (cm),{'p': 0.3911582066738829}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.8279663879678187}](less[sepal width (cm),{'p': 1.3462764276155932}](less[sepal length (cm),{'p': 0.1451085739273037}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8221226000087958}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': 1.6168880966097867}](less[sepal width (cm),{'p': -1.7686354927639147}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.3065017455683552}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.4151064250124382}](less[sepal length (cm),{'p': 0.30670401172750783}](less[petal width (cm),{'p': 0.8432068598647144}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.13318705709462486}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0.7084172702503009}](less[sepal width (cm),{'p': 0.8813320357543515}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.3533658759205347}](nom_class:2, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.060468750657726014}](less[petal width (cm),{'p': 1.4164456683037614}](less[sepal width (cm),{'p': 0.23866126522855846}](less[petal length (cm),{'p': 0.7591753694373127}](nom_class:1, nom_class:1), nom_class:1), less[petal length (cm),{'p': 0.614005641138726}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.10153957348442194}](nom_class:2, less[sepal length (cm),{'p': 0.6936725585320684}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.04584108730649}](less[petal width (cm),{'p': 1.6020433801768792}](less[petal width (cm),{'p': 0.9763480673708663}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.8381655000446644}](less[petal width (cm),{'p': -1.4826174154031588}](less[petal width (cm),{'p': -0.07958421064896193}](less[petal width (cm),{'p': 1.7543544508600177}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.8314386025489062}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 1.183760613336542}](less[petal length (cm),{'p': 1.08743567536785}](nom_class:2, less[petal width (cm),{'p': 0.7624260719644721}](less[sepal width (cm),{'p': 1.1579220608813297}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.49509714099952234}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 0.38072419653102557}](nom_class:2, nom_class:2))), nom_class:2)), less[sepal length (cm),{'p': -2.052567669283492}](less[petal width (cm),{'p': 0.6191550894510663}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.5540526069843754}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.7975635497160397}](less[petal width (cm),{'p': -0.6669253493401303}](less[petal width (cm),{'p': 0.5508351269390597}](nom_class:1, nom_class:1), less[petal length (cm),{'p': -0.44922731898290136}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.22723482995975805}](less[sepal width (cm),{'p': -0.19709622521121029}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.4950047549818875}](less[sepal width (cm),{'p': 0.9511143968232572}](less[sepal length (cm),{'p': 1.0590872902736739}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.0160446001673762}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 2.696030641031468}](less[sepal width (cm),{'p': 0.5733737853887385}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.7366347701895282}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6705824244600482}](less[petal width (cm),{'p': 0.321600905417612}](less[sepal length (cm),{'p': 0.12126095859014052}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.35383665282742305}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.7598795608064727}](nom_class:2, less[petal length (cm),{'p': 0.343340878303088}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.7705127310255986}](less[petal width (cm),{'p': 0.23165974178968696}](less[petal width (cm),{'p': 0.3785027093545049}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8663783846643036}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.57890886163379}](nom_class:0, less[petal length (cm),{'p': 0.2002152845675217}](nom_class:0, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.3339300708995604}](less[petal width (cm),{'p': 0.4004583823675706}](less[petal length (cm),{'p': 1.8587559704529597}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.41430010703798514}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -0.3847840647134547}](nom_class:2, less[petal length (cm),{'p': 0.6658082800001133}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.9047756930222237}](less[petal width (cm),{'p': 1.601689976038184}](less[petal width (cm),{'p': 0.922824102624743}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.43034309046696495}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.2710967208651206}](less[sepal width (cm),{'p': -0.21649919572511}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.9480873541682245}](less[sepal width (cm),{'p': 0.8850770148565507}](less[sepal width (cm),{'p': 0.8069100940846979}](nom_class:2, less[petal length (cm),{'p': 1.9548446378113196}](less[petal width (cm),{'p': 1.3901147826189115}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -2.416768992500363}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 1.1031158510253274}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.3412047822261751}](less[sepal width (cm),{'p': -1.0674895193100116}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.6203391178986535}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.3389101103644787}](less[petal width (cm),{'p': 1.4724133318650134}](less[sepal width (cm),{'p': 4.554584305998038}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5899826909574631}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.781303075207326}](less[sepal width (cm),{'p': 0.6883573664676522}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.1089630685835491}](less[sepal width (cm),{'p': -0.6188506930509113}](less[sepal length (cm),{'p': 0.24326420403445287}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.9496413470713658}](less[sepal width (cm),{'p': -0.35439548765856954}](nom_class:2, nom_class:0), nom_class:0)), less[sepal width (cm),{'p': 0.45775350624394373}](less[sepal width (cm),{'p': 1.0075949398893884}](less[petal width (cm),{'p': 0.25218577419540955}](less[petal width (cm),{'p': 0.7175631064641176}](less[petal width (cm),{'p': 0.20304185877642555}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5626272585996036}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.1135469855322617}](less[sepal width (cm),{'p': 0.6310199598922812}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.360429801567588}](nom_class:1, nom_class:1))), nom_class:1), less[petal length (cm),{'p': 0.4857888264717442}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.1950218011748153}](less[petal width (cm),{'p': 1.344668689014448}](less[petal width (cm),{'p': 0.7852945824294438}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.469708371819783}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.9258608717259266}](less[petal width (cm),{'p': 0.2387044979585946}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.5730930442373989}](nom_class:1, less[petal width (cm),{'p': 0.6737317270503334}](nom_class:2, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 4.1304454342849635}](less[petal width (cm),{'p': 0.7079998854003007}](nom_class:0, less[petal length (cm),{'p': 0.37115773810301544}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.553844819449789}](nom_class:2, less[petal length (cm),{'p': 0.17403779097974698}](nom_class:0, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 6.1276743243676695}](less[petal width (cm),{'p': 1.623886378148462}](less[petal width (cm),{'p': 0.7899652422279665}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.11518468871636503}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.2467899929149434}](less[sepal width (cm),{'p': 0.952270550325983}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.004768885908141}](less[sepal width (cm),{'p': 1.1130148266614088}](less[sepal length (cm),{'p': 4.222699688295739}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6462301470286278}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': -0.3734852584551933}](less[sepal width (cm),{'p': 1.3568092424190419}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.5477807624744824}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.7650414925697864}](less[petal width (cm),{'p': 1.6693764951766932}](less[petal width (cm),{'p': 0.9449350996454418}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.970917165202956}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': -0.9283613871093833}](nom_class:2, less[petal length (cm),{'p': 1.2795830800431305}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.594734392446799}](less[petal width (cm),{'p': 1.7875207858696665}](less[petal width (cm),{'p': 0.6404993483422188}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8606016092682494}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.1294606654539934}](less[sepal width (cm),{'p': 0.990044204965035}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.5432414058301204}](less[sepal width (cm),{'p': 0.27139830713011537}](less[sepal length (cm),{'p': 0.7603863243783302}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.1213336562029261}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.7434495535440613}](less[sepal width (cm),{'p': 0.48805287571434186}](less[petal width (cm),{'p': -0.6607286490145174}](less[petal width (cm),{'p': -0.07469233685964793}](less[petal width (cm),{'p': -0.2483473961720205}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.05728195121052254}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.6910825797412877}](less[petal length (cm),{'p': 1.2830109323287837}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.18087893217270745}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -0.05446226938426113}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6947808133180335}](less[petal width (cm),{'p': 1.7678065218616106}](less[petal width (cm),{'p': 0.693380902054106}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.1304342772427003}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.9156867389205678}](less[sepal width (cm),{'p': 0.6910377118069644}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.3269142101220308}](less[sepal width (cm),{'p': 1.093558704025791}](less[sepal length (cm),{'p': 0.7987365801246995}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.0483902447427857}](nom_class:0, less[petal width (cm),{'p': -1.5084386042999265}](nom_class:1, nom_class:1))), less[sepal width (cm),{'p': -0.1423100842541165}](less[sepal width (cm),{'p': 0.8844339200019173}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.8074355979826743}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.3534118360043891}](less[petal width (cm),{'p': 0.008323239802401683}](less[petal length (cm),{'p': 0.27100365421603156}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.48811849662202933}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': 0.8552715314981648}](less[petal width (cm),{'p': 0.10861962174108386}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.41084203161094823}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6435408585438088}](less[petal width (cm),{'p': 0.6680301132196705}](less[petal width (cm),{'p': 0.9343245782846612}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.737419010489381}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.9887754333786597}](nom_class:1, less[sepal length (cm),{'p': 0.17298442476586873}](less[sepal width (cm),{'p': 0.37571275016478467}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.2644614450257535}](nom_class:1, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.9177497433165094}](less[petal width (cm),{'p': 1.6194809965939831}](less[petal width (cm),{'p': 0.907619022419076}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.258544179704937}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 1.0718859263089147}](less[sepal width (cm),{'p': -0.07820005404162211}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.6174775063516327}](less[sepal width (cm),{'p': 1.4029748745836994}](less[sepal length (cm),{'p': 0.8381191239967412}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.47295628093032316}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': 1.2662534671523527}](less[sepal length (cm),{'p': 0.15083533176979563}](less[sepal length (cm),{'p': 0.7998393081289147}](nom_class:0, nom_class:2), nom_class:0), less[sepal width (cm),{'p': 0.4439292029694462}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.8990480367625535}](less[petal width (cm),{'p': 2.21903652097676}](less[petal width (cm),{'p': 0.9552913017917082}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.4493492271474142}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 4.105673852244268}](less[sepal width (cm),{'p': 1.0932734752018185}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.16914779841234498}](less[petal width (cm),{'p': 4.863208268786499}](less[sepal length (cm),{'p': -0.05546425938733773}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6738294888699318}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 1.2322952151124738}](less[sepal width (cm),{'p': 0.7232304754216567}](less[petal width (cm),{'p': 1.54686692442363}](less[petal width (cm),{'p': 1.4298741276647933}](less[petal length (cm),{'p': 0.2977818327914008}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7882378787873956}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.6154130954551582}](less[petal length (cm),{'p': 0.6396593296390192}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0532533530548174}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -0.01574965590360128}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.968702334202717}](less[petal width (cm),{'p': 1.6848086219680933}](less[petal width (cm),{'p': 0.9477064884556364}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8721749616835132}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': -0.7425817456179926}](nom_class:2, less[petal length (cm),{'p': 1.4967756499401754}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7655086936041036}](less[petal width (cm),{'p': 1.1039458496785466}](less[petal width (cm),{'p': 1.100170256682955}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8984986984930772}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.22945973707275066}](less[sepal width (cm),{'p': 0.9775787026248258}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.1310237007089035}](less[sepal width (cm),{'p': -0.9810882088312908}](less[sepal width (cm),{'p': 2.1097103277745703}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.186466290585214}](less[petal width (cm),{'p': -0.49910065237172024}](nom_class:1, nom_class:0), nom_class:0)), less[sepal width (cm),{'p': 1.1757217697721216}](less[petal length (cm),{'p': -0.20843084488540342}](less[petal width (cm),{'p': 1.3572525662408883}](less[petal width (cm),{'p': 2.349771716382853}](less[sepal width (cm),{'p': 0.38565205101398037}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.568162309915651}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 2.1505582685382043}](less[petal length (cm),{'p': 0.49295630302889143}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.3880513454104998}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.824603424240754}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.6984314727393333}](less[petal width (cm),{'p': 0.8498324174557559}](less[petal width (cm),{'p': 0.7905444822483068}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.497306627429977}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': 2.231517428470841}](less[petal width (cm),{'p': 0.44408661777318237}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.41967281459875255}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.09780991351490353}](less[sepal length (cm),{'p': 0.6660041822106941}](less[petal width (cm),{'p': 0.11207516413710139}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.07332252283385887}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.7408483278954046}](less[petal width (cm),{'p': 0.39720719988990527}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.12084083351808533}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6569095007044211}](less[petal width (cm),{'p': -0.0453304285548259}](less[sepal width (cm),{'p': -0.10537838867818736}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.5199872311384075}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.2317632563930214}](nom_class:1, less[sepal length (cm),{'p': -0.16848099148208365}](less[petal length (cm),{'p': 0.5371858962258346}](less[petal length (cm),{'p': -0.10915457133314888}](less[sepal width (cm),{'p': -0.26533509244768905}](nom_class:2, less[petal length (cm),{'p': 0.6200077646704536}](less[petal width (cm),{'p': 0.6360011831654148}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -1.337493784578295}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 0.9145990341182285}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.24087392041969025}](less[sepal width (cm),{'p': 1.1520560785001825}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.5078809717490973}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.5121600682436109}](nom_class:1, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.944907387776336}](less[petal width (cm),{'p': 1.6752776607121245}](less[petal width (cm),{'p': 0.7866792718988264}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.324400594027809}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.046911082269666865}](nom_class:2, less[petal length (cm),{'p': 0.5829336665196992}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.838036777193673}](less[petal width (cm),{'p': 2.5289761487654485}](less[petal width (cm),{'p': 0.9922177668842687}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.40021696871830376}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.8220349974150247}](less[sepal width (cm),{'p': 0.007909687134618176}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.26214945052435334}](nom_class:2, less[sepal width (cm),{'p': 1.1003621906159171}](less[sepal width (cm),{'p': 1.084560403934503}](less[petal width (cm),{'p': 0.1264811253665113}](less[petal width (cm),{'p': 0.29396364292438104}](less[petal width (cm),{'p': 1.9093914724146863}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.04082827544404588}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8576900520277013}](less[petal length (cm),{'p': -0.8571683172172642}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.09371327016499897}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -3.294246837190913}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7190461916452067}](less[petal width (cm),{'p': 0.47658712401869746}](less[petal width (cm),{'p': 1.1200628834444948}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.0573615197067712}](nom_class:1, less[petal width (cm),{'p': 0.3083310082872889}](nom_class:1, nom_class:0))), less[sepal length (cm),{'p': 0.1710679716801794}](less[petal width (cm),{'p': 0.0020048205626132243}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.163672545596223}](nom_class:0, less[petal width (cm),{'p': -0.34449855267243634}](nom_class:2, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7959809615931115}](less[petal width (cm),{'p': 1.9299346754945734}](less[petal width (cm),{'p': -0.6484328378517006}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 1.4070735963418688}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.7282224487330095}](less[petal length (cm),{'p': 0.475186374410307}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.07259146277617867}](less[sepal width (cm),{'p': 0.7969384621252221}](less[sepal length (cm),{'p': -0.4302804180416667}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5169849651237969}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.7394138553591908}](less[sepal width (cm),{'p': 0.17210572292758178}](less[sepal length (cm),{'p': 0.4074358424079829}](less[petal width (cm),{'p': 0.2442960750756556}](less[petal width (cm),{'p': 0.7891033588131332}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.4308582640863676}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.0068076117760599575}](less[sepal width (cm),{'p': 0.35503216947159744}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.40987751271821493}](nom_class:1, nom_class:0))), nom_class:0), less[sepal width (cm),{'p': 1.0014077574395708}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.5922034189216623}](less[petal width (cm),{'p': 1.6314638970830653}](less[petal width (cm),{'p': 0.9615399192120846}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.9238696934280283}](less[petal width (cm),{'p': 0.742136171295136}](less[petal width (cm),{'p': 1.955724787604029}](less[petal width (cm),{'p': 0.6258440402032467}](nom_class:0, less[petal width (cm),{'p': 0.33134317647630274}](less[petal width (cm),{'p': 0.45299671573118816}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 4.919969688588305}](nom_class:1, nom_class:0))), less[petal width (cm),{'p': -1.4665370702917864}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 2.6717947715690036}](less[petal length (cm),{'p': -0.3611631699838002}](nom_class:2, less[petal width (cm),{'p': 0.771881814670718}](less[sepal width (cm),{'p': 2.0338476838587747}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.9146568692476648}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.811146747806469}](nom_class:2, nom_class:2))), nom_class:2)), less[sepal length (cm),{'p': 0.976804628485599}](less[petal width (cm),{'p': -0.5966015472738432}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 1.011864806567814}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.294700093989476}](less[petal width (cm),{'p': 1.7837615861578966}](less[petal width (cm),{'p': -0.6420602715663233}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.7017353785115958}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.0044427203857659026}](less[sepal width (cm),{'p': 0.682455675051286}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.0157722140064247}](less[petal length (cm),{'p': 0.7060754820372119}](less[sepal length (cm),{'p': -0.005971454920032704}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.0882819223547682}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 1.5804140469553793}](less[sepal width (cm),{'p': 0.44145807838714607}](less[petal width (cm),{'p': 1.0190379483119212}](less[petal width (cm),{'p': 0.7766533725693748}](less[petal width (cm),{'p': 1.0913013864130288}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.37804994800865177}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.6036607996219643}](less[petal length (cm),{'p': 0.3295365106696777}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0499957486431089}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.8537966141364581}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.0917102429322134}](less[petal width (cm),{'p': 1.7117001883566374}](less[petal width (cm),{'p': -0.3623148398550676}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.5283929444917292}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.17140275930147156}](less[sepal width (cm),{'p': 1.1672203483821844}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.10947908375442905}](less[petal width (cm),{'p': 0.7640279808366419}](less[petal width (cm),{'p': 0.04684540651882774}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.20711536543072717}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8792106274589466}](less[sepal width (cm),{'p': 0.011644244083883204}](nom_class:1, nom_class:2), nom_class:1))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6472981130575811}](less[petal width (cm),{'p': 1.3808951748001388}](less[petal width (cm),{'p': 1.3236025213751765}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.1977361541162357}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.24517865630494634}](less[sepal width (cm),{'p': 0.5832346855230544}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.48532438650260823}](less[sepal width (cm),{'p': 1.176604637217622}](less[sepal length (cm),{'p': 0.7911040766661406}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4567596222473697}](nom_class:0, less[petal width (cm),{'p': 0.8022795659211819}](nom_class:1, nom_class:1))), less[sepal width (cm),{'p': 0.9877993077827705}](less[sepal width (cm),{'p': 0.4376924962794751}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.017285039808247693}](nom_class:2, less[petal width (cm),{'p': 1.6684211711547872}](less[sepal width (cm),{'p': -0.8652632989247622}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.458710531997239}](nom_class:1, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.798627095987407}](nom_class:0, less[sepal length (cm),{'p': 0.8367173775921529}](less[sepal width (cm),{'p': 0.09593017794160585}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.7939866925206834}](less[sepal width (cm),{'p': 0.08662927273318877}](less[sepal width (cm),{'p': 0.7622591990931677}](nom_class:0, less[petal length (cm),{'p': 0.18871562143066867}](less[petal width (cm),{'p': 0.5916534818334479}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9606823476918248}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 0.12526788820347423}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.1115721648926119}](less[sepal width (cm),{'p': 0.26808564631691645}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.07397124739441896}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.23816523701269432}](less[petal width (cm),{'p': 0.9759296066365997}](less[petal width (cm),{'p': 0.22567150018740612}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.11392337732131141}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.38893568125782296}](less[sepal width (cm),{'p': -0.20441117237595263}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.8247581363286274}](less[sepal width (cm),{'p': 0.9956107399643271}](less[sepal length (cm),{'p': 0.6451440835203585}](less[petal width (cm),{'p': 1.6402724875057262}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 2.581009345885607}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 2.2100094319643664}](less[sepal width (cm),{'p': 2.0170428211186078}](less[petal width (cm),{'p': 1.303439982141455}](less[petal width (cm),{'p': 0.6283585544282752}](less[sepal width (cm),{'p': 0.323145321449103}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.9175797539508936}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.7963224431675554}](less[petal length (cm),{'p': 0.07388792667076749}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8539142919291652}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.700654722341646}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.5207551349815938}](less[petal width (cm),{'p': 2.5264078916447903}](less[petal width (cm),{'p': 0.8823381952312768}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.10322526648304634}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.7075965422983972}](less[petal width (cm),{'p': 1.6673188568014365}](less[sepal length (cm),{'p': 1.3031980976050352}](less[sepal width (cm),{'p': 0.10480235200421095}](less[sepal length (cm),{'p': 0.4969466462550781}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.11959965029553649}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 1.1194603740188798}](less[sepal width (cm),{'p': 0.708806240722591}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4508619928750865}](nom_class:2, nom_class:2))), nom_class:0), less[petal length (cm),{'p': 0.2938322813096028}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.7397790237482409}](less[petal width (cm),{'p': 0.03769971093916813}](less[petal width (cm),{'p': 0.007780911544188807}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.31667377909169553}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -1.0753523903171218}](less[sepal width (cm),{'p': -0.17969408110718987}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.9826429575349938}](less[sepal width (cm),{'p': 0.08374794739168906}](less[sepal length (cm),{'p': 0.1582138889954759}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.0779934117463084}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.2647961388788954}](less[sepal width (cm),{'p': 0.5918605268367387}](less[petal width (cm),{'p': -0.13484700104496172}](less[sepal width (cm),{'p': 0.9419786447005204}](less[petal width (cm),{'p': 0.6518008579210888}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.7617428350963307}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.2985007932419039}](less[petal width (cm),{'p': -0.7119154453126472}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7863110635432493}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.899209904016375}](less[petal width (cm),{'p': 0.61565027971128}](nom_class:0, nom_class:1), nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.085640744408643}](less[petal width (cm),{'p': 0.6877256380974572}](less[petal width (cm),{'p': 0.33563359947836524}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.6299332998767263}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.8319619031912977}](less[sepal width (cm),{'p': 0.37403389117926056}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.33020233423612777}](less[sepal width (cm),{'p': 0.0058108668943867015}](less[sepal length (cm),{'p': 0.7246120333971596}](less[petal width (cm),{'p': 0.2742975562121427}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.380450499255219}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 0.8415157027903557}](less[sepal width (cm),{'p': 0.26702993557258636}](less[petal width (cm),{'p': 0.6559021439544868}](less[petal width (cm),{'p': 0.8830337453912167}](less[sepal width (cm),{'p': 0.18597781652494882}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8143659425604485}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.07688540710150449}](less[petal length (cm),{'p': 0.8163705775242401}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.35533338911986023}](less[sepal length (cm),{'p': 0.10173140720091756}](nom_class:0, less[petal width (cm),{'p': 0.4463933993524686}](nom_class:1, nom_class:1)), nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.1528472253336497}](nom_class:1, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6124192346622297}](less[petal width (cm),{'p': 0.41200517883221704}](less[petal width (cm),{'p': -0.000986105648575708}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.0485346886994633}](nom_class:1, less[petal width (cm),{'p': 2.579549893063344}](less[petal width (cm),{'p': 0.9581034033991279}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9008059665058943}](nom_class:1, nom_class:0)))), less[sepal width (cm),{'p': 0.13247047257116434}](nom_class:2, less[petal length (cm),{'p': 0.9897653371572452}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.1093680553333263}](less[petal width (cm),{'p': 1.6897899366684332}](less[petal width (cm),{'p': 0.7580017834880538}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.02863560022073776}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8929805808102921}](less[petal width (cm),{'p': -3.5245324894806407}](less[petal width (cm),{'p': 0.24597703874900217}](less[petal width (cm),{'p': -0.38651802963603704}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.45615858682227145}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.233709358531375}](less[petal length (cm),{'p': 0.8537567880557991}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.853882177308763}](nom_class:1, nom_class:0))), less[petal length (cm),{'p': 0.041825298957955837}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.146585634404413}](less[petal width (cm),{'p': 1.6288991447431016}](less[petal width (cm),{'p': 0.48060845615079884}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.1259858973304077}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.0872423754819909}](less[sepal width (cm),{'p': 0.9176445132368142}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.92788636997045}](less[petal width (cm),{'p': 0.7325918406872897}](less[sepal length (cm),{'p': 0.5902635554399328}](nom_class:0, nom_class:2), nom_class:0), less[sepal width (cm),{'p': 0.5492246108539552}](less[petal width (cm),{'p': -0.9650655939906274}](less[petal width (cm),{'p': -1.4281428822070756}](less[petal width (cm),{'p': -1.7288240930746683}](less[petal length (cm),{'p': 0.05590190172474063}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.24131294629641015}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 1.6446376912900442}](less[petal length (cm),{'p': 0.5590179954292155}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -2.2964319572900367}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -0.5438986223239475}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.525608344346161}](less[petal width (cm),{'p': 1.6596453609703081}](less[petal width (cm),{'p': 0.6145953154621924}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.022771002221665}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': -0.43032488938157476}](nom_class:1, less[petal length (cm),{'p': 2.019491748705878}](less[petal width (cm),{'p': 2.820922429756009}](nom_class:2, nom_class:1), nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.15913220541155398}](less[petal width (cm),{'p': 0.5195148730379662}](less[petal width (cm),{'p': 0.8143963547520735}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -0.5073264715111487}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.2505027466247267}](less[sepal width (cm),{'p': 0.48394447588527295}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.8085697274696304}](less[sepal length (cm),{'p': 1.947659829919697}](less[sepal length (cm),{'p': 0.5925235330397625}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.8179449722741423}](nom_class:0, less[petal width (cm),{'p': -0.6492441269120589}](nom_class:1, nom_class:0))), less[sepal width (cm),{'p': 0.06903401612834248}](less[sepal width (cm),{'p': -0.48727861936655303}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.6347112624652559}](nom_class:2, less[petal width (cm),{'p': 1.6359132595428405}](less[sepal width (cm),{'p': -0.3782975984067266}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.030474303989525456}](nom_class:1, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9024237001307898}](less[petal length (cm),{'p': 1.868886682254753}](less[petal width (cm),{'p': 0.41530897165131375}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.47137881026137046}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.0918607431410425}](less[sepal width (cm),{'p': 1.634080069357105}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.12951794977446038}](less[sepal width (cm),{'p': 0.22063504713455961}](less[sepal length (cm),{'p': 0.1252774776443915}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.973033154620494}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': -0.1766079715382794}](less[sepal width (cm),{'p': 2.259375200037332}](less[petal width (cm),{'p': -1.3428388996933174}](less[petal width (cm),{'p': -0.3424466919650427}](less[petal width (cm),{'p': 0.290726381049495}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.26149623517262266}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.5450249602401903}](less[petal length (cm),{'p': -0.2565674454773875}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.1833675877370586}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 3.4162424204111614}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.9598327839819}](less[petal width (cm),{'p': 0.8278515697311615}](less[petal width (cm),{'p': 0.7301905750501029}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.473567147433822}](less[petal width (cm),{'p': 1.818101159289875}](less[petal width (cm),{'p': 0.3578131429765206}](less[petal width (cm),{'p': -0.09605574034162562}](nom_class:0, less[petal width (cm),{'p': -0.7227171948520199}](less[petal width (cm),{'p': 0.6441245379663274}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.4467694495737673}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 0.681463794831434}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.4473511190191492}](less[petal length (cm),{'p': 0.1292570671307849}](nom_class:2, less[petal width (cm),{'p': 0.6553970002620143}](less[sepal width (cm),{'p': 3.301072626416692}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.410082409867085}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.8013100323334001}](nom_class:2, nom_class:2))), nom_class:1)), less[sepal length (cm),{'p': 1.3774735258028499}](less[petal width (cm),{'p': 1.9308265874746842}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 0.9375973327767076}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.07607046145472171}](less[petal width (cm),{'p': 0.9945719929349278}](nom_class:2, less[petal length (cm),{'p': 1.1793569859784507}](less[petal width (cm),{'p': -0.1231331590818405}](less[petal width (cm),{'p': 0.265525087379479}](less[petal width (cm),{'p': 0.9333311573796848}](nom_class:0, less[petal width (cm),{'p': 0.33860249113238733}](less[petal width (cm),{'p': -0.2987125044444262}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.36075449313158586}](nom_class:1, nom_class:0))), less[sepal length (cm),{'p': 2.2102866340553553}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.7505337885564944}](less[petal length (cm),{'p': 0.7675954979417676}](nom_class:2, less[petal width (cm),{'p': -0.6685529517771298}](less[sepal width (cm),{'p': 0.08677045147656232}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.3103479656832583}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 0.9338741710087884}](nom_class:1, nom_class:2))), nom_class:2)), less[sepal length (cm),{'p': -0.3393090284417689}](less[petal width (cm),{'p': 0.007746840064224436}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': 3.353056277733293}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.569118405098272}](less[petal width (cm),{'p': 1.6523406446641902}](less[petal width (cm),{'p': 0.6255016796429111}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.14760014602021085}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.6164245515967495}](nom_class:2, less[petal length (cm),{'p': 1.076513490537192}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.348356834709078}](less[petal width (cm),{'p': 1.6045028787824571}](less[petal width (cm),{'p': 0.7601135481110474}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.2132404348352486}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.9442988301384054}](less[sepal width (cm),{'p': -0.2189295788625414}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4144117481486455}](less[sepal width (cm),{'p': 0.014972720123067162}](less[sepal length (cm),{'p': 2.378313649269079}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5565953390164037}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 1.946004454282027}](less[sepal width (cm),{'p': -0.8889210278789603}](less[petal width (cm),{'p': 0.5574683009990185}](less[petal width (cm),{'p': 1.2542572553982163}](less[petal width (cm),{'p': -0.06915831458618438}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.8829966581066953}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.9246490541673594}](less[petal length (cm),{'p': -1.6514827962844703}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.6201374402141533}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -2.02714999084496}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7861545046229428}](less[petal width (cm),{'p': 0.5351268894213554}](less[petal width (cm),{'p': 0.5676545926157475}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.06849113634183732}](nom_class:1, less[petal width (cm),{'p': 0.5852202491209824}](nom_class:1, nom_class:0))), less[sepal length (cm),{'p': 1.4080332350797682}](less[petal width (cm),{'p': 0.27692085176898673}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.4943425871853934}](nom_class:0, less[petal width (cm),{'p': 0.24377094386220027}](nom_class:2, nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.947845945899109}](less[petal width (cm),{'p': 0.8212718359689025}](nom_class:1, less[petal length (cm),{'p': 0.26860699132362964}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.6362089459241014}](nom_class:2, less[petal length (cm),{'p': 0.5997067081558384}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.881576033097854}](less[petal width (cm),{'p': 1.744142256733015}](less[petal width (cm),{'p': 0.5447034674010496}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.1197463000518808}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.0544138555582654}](less[sepal width (cm),{'p': 1.0723896779426805}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.06257965292692201}](nom_class:2, less[sepal width (cm),{'p': 0.2172232968416461}](less[sepal width (cm),{'p': 0.7779687590235529}](less[petal width (cm),{'p': 2.1384332637796923}](less[petal width (cm),{'p': 0.23154664502691458}](less[petal width (cm),{'p': 1.5700345273729117}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -1.6023541942429071}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -1.3899318428882415}](less[petal length (cm),{'p': 0.3673591694432762}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.819806016064557}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -7.017235021256631}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.328668405791542}](less[petal width (cm),{'p': 1.6534932200734784}](less[petal width (cm),{'p': 0.6369759108367632}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.7624522283080071}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.4341502541675127}](less[sepal width (cm),{'p': 0.13142684383426212}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.2112695240260591}](less[petal width (cm),{'p': 1.0962374671392952}](less[sepal length (cm),{'p': 0.3485037927144865}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.03887548357744591}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': -1.6670701780249915}](less[sepal width (cm),{'p': 0.47781090948821947}](less[petal width (cm),{'p': -0.9058105363066122}](less[petal width (cm),{'p': 2.493983288193383}](less[sepal width (cm),{'p': 0.30259931919106087}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0399071491286098}](nom_class:2, less[petal width (cm),{'p': 1.1022155116143464}](less[petal width (cm),{'p': 0.28902323136790603}](less[petal width (cm),{'p': 0.5151790376475817}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.7075439753481342}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.26407614181607286}](less[petal length (cm),{'p': 0.6855164300841352}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 1.3462989728616228}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 1.0624579144957498}](less[petal length (cm),{'p': 2.0382036374434653}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.2569736121243886}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -1.921765774186702}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.6413832620880298}](less[petal width (cm),{'p': 0.3304743624156993}](less[sepal width (cm),{'p': 1.0134901812923576}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -0.4690894600829101}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.17686983569004844}](less[sepal width (cm),{'p': 1.3772342403464846}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.9359331641515052}](less[petal width (cm),{'p': 0.9516384401917577}](less[sepal length (cm),{'p': 0.6041142132345304}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.1081065082458728}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.06877462633945602}](less[sepal width (cm),{'p': 0.8709816942864691}](less[petal width (cm),{'p': -1.0277455671225857}](less[petal width (cm),{'p': 1.5236321809818285}](less[petal length (cm),{'p': 0.8523125152093552}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.3308413530377223}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.6916183800808486}](less[petal length (cm),{'p': -0.1723593450634244}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.2706051463395536}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 3.739542234159194}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.21764978592447182}](less[petal length (cm),{'p': 0.5253663383420686}](less[petal length (cm),{'p': 0.38196099118817306}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.4687121630892286}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.9192859598869747}](nom_class:2, less[petal length (cm),{'p': 0.501054478702415}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.310567223923907}](less[petal width (cm),{'p': 0.6818454117779866}](less[petal width (cm),{'p': 2.183453735310126}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.3423918651012088}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 3.3223645723384188}](less[sepal width (cm),{'p': 1.3294649380345216}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.0653577992593324}](less[sepal width (cm),{'p': -0.17744209676111045}](less[sepal length (cm),{'p': 0.928017636227153}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.4225792330137429}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.7064000578719065}](less[sepal width (cm),{'p': -3.2235997818674105}](less[petal width (cm),{'p': -0.3683914537773506}](less[petal width (cm),{'p': -0.26876322768664557}](less[sepal length (cm),{'p': -0.013386504734326399}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.1694820502030161}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -1.2826137733974403}](less[petal length (cm),{'p': -0.0565494255716148}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.2866327694514215}](nom_class:2, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.842627850375479}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.05184682390672479}](less[petal width (cm),{'p': 0.7714533747690224}](less[petal length (cm),{'p': 0.38407358271392766}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.7382393200235307}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.05084766895186332}](less[sepal width (cm),{'p': 0.47943966084001366}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.4327676300874097}](nom_class:2, less[sepal width (cm),{'p': 0.15184395578028054}](less[sepal width (cm),{'p': 0.49994013524076963}](less[petal width (cm),{'p': 0.33572797366563545}](less[petal width (cm),{'p': 0.7599010744531822}](less[petal width (cm),{'p': 0.5047088282288086}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.22977682036136304}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.08789185988121695}](less[petal length (cm),{'p': 0.6596778040219548}](nom_class:2, less[petal length (cm),{'p': 0.036871323242343546}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8640359075459145}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.8633584903380123}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.827380528061362}](less[petal width (cm),{'p': 1.4354809880285178}](less[petal width (cm),{'p': 0.9785517123514691}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.05527498826804472}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.05196282769171212}](less[sepal width (cm),{'p': -0.288694698591474}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.8604109695946534}](less[petal width (cm),{'p': 1.3165407990101343}](less[sepal length (cm),{'p': 1.1253062658055377}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.08597062121061849}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 1.9267510643028387}](less[sepal width (cm),{'p': 1.2946923093870113}](less[petal width (cm),{'p': -0.769590784395064}](less[petal width (cm),{'p': 1.0278616252822546}](less[sepal width (cm),{'p': -0.5692826871285921}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.28072575203697014}](nom_class:2, less[petal width (cm),{'p': 1.84553324590303}](less[petal width (cm),{'p': 1.0489057535355524}](less[petal width (cm),{'p': 0.06335397568296453}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.9339250799210357}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.1823794891238571}](less[petal length (cm),{'p': 0.36493004167505205}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 2.060060239455425}](nom_class:1, nom_class:0))))), less[petal width (cm),{'p': -1.0785394472017573}](less[petal length (cm),{'p': 0.9022275635343779}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.216312641327733}](nom_class:1, nom_class:2))), nom_class:0), less[petal length (cm),{'p': 2.005499950642885}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.855364360665667}](less[petal width (cm),{'p': 0.9413962652992703}](less[petal width (cm),{'p': 0.021768235358661903}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.7403460302866165}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.32341756544166744}](less[sepal width (cm),{'p': 0.3282660442225148}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.4069715581735889}](less[petal width (cm),{'p': 0.2612065000954972}](less[sepal length (cm),{'p': 0.42182260392721627}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.7802215588803457}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.4260056931429179}](less[sepal width (cm),{'p': 0.1053892740366682}](less[petal width (cm),{'p': 0.13244872179607003}](less[petal width (cm),{'p': 0.08481364267160174}](less[sepal width (cm),{'p': 0.699362131114667}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.186375754633191}](nom_class:2, less[petal width (cm),{'p': 0.4469503170424286}](less[petal width (cm),{'p': 0.6823890979042688}](less[petal width (cm),{'p': 0.24879809864378322}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.9557613175511024}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.518373930566417}](less[petal length (cm),{'p': 0.8450795800550648}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.552748602922953}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 0.39966791976955474}](less[petal length (cm),{'p': 0.4374698245224553}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8449272595631774}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.9679863596462123}](nom_class:1, less[petal length (cm),{'p': 0.5516343304154602}](nom_class:1, nom_class:0))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3648039226495983}](less[petal width (cm),{'p': 1.0034328619598094}](less[petal width (cm),{'p': 1.7921514881029061}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9154113780795062}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.946466019214154}](less[petal width (cm),{'p': 1.3244301701678434}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.62132470530485}](less[sepal width (cm),{'p': 0.5939595784614549}](less[sepal length (cm),{'p': 1.2494993168238786}](nom_class:0, nom_class:2), nom_class:1), less[sepal length (cm),{'p': 1.640643378003066}](less[sepal width (cm),{'p': 2.3974565510467505}](less[petal width (cm),{'p': 1.8872155623757223}](less[petal width (cm),{'p': -1.0469166371930667}](less[petal width (cm),{'p': 0.9815872855841866}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.10852714094183935}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.9547419129877093}](less[petal length (cm),{'p': 1.122136317434514}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.5102208390851262}](nom_class:1, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 1.2551376415778095}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.322982430955501}](less[petal width (cm),{'p': 1.600369678099875}](less[petal width (cm),{'p': 0.5928229301333394}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.013484836425062013}](less[petal width (cm),{'p': 1.6339492739027848}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.292384784239757}](less[sepal width (cm),{'p': 1.2990216841301998}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5976395163366404}](less[sepal width (cm),{'p': -0.37524316459111295}](less[sepal length (cm),{'p': 1.1209312269245453}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.006227085252341696}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.5250891658772883}](less[sepal width (cm),{'p': 0.3267428711125717}](less[petal width (cm),{'p': 2.1242859516753905}](less[petal width (cm),{'p': 1.4428708485125028}](less[petal width (cm),{'p': 1.0173674671032824}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.1866053515648396}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.21001841652831227}](less[petal length (cm),{'p': 0.34774105368413444}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.7664757015656338}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -6.776818913843256}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.1691019492194794}](less[petal width (cm),{'p': 1.8426402450872033}](less[petal width (cm),{'p': 1.8198960611325208}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9818636360237694}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.31738861888574854}](less[sepal width (cm),{'p': 0.26560242265701134}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -2.4719381711183193}](less[sepal width (cm),{'p': 1.8123511860447772}](less[sepal length (cm),{'p': 0.7350052043660705}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.7343156288142425}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.7172725661990696}](less[sepal width (cm),{'p': 1.0137241578358893}](less[petal width (cm),{'p': -0.03713647684264265}](less[petal width (cm),{'p': -0.8132557644028842}](less[sepal width (cm),{'p': -0.40402181708532636}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.8486600781965001}](less[petal width (cm),{'p': 1.7564459746291936}](less[sepal width (cm),{'p': -0.3697171979727664}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.02735037716249089}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -0.904302826156423}](less[petal width (cm),{'p': 1.591624171525043}](less[petal width (cm),{'p': 0.6548336887239741}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.9675857911251817}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.8786025691282623}](less[petal length (cm),{'p': 1.093550848602934}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.4141102494677378}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 1.6325592507198343}](less[petal length (cm),{'p': 0.727044536642686}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.3405400133633742}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.879534288251034}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7947607354483899}](less[petal width (cm),{'p': 1.0735696203237226}](less[petal width (cm),{'p': -0.1110604277248678}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 1.0641909501210716}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.1859591947762994}](less[sepal width (cm),{'p': 0.7388716654737612}](nom_class:1, less[sepal length (cm),{'p': 0.44700131709920826}](less[sepal length (cm),{'p': 0.7999045229208626}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.14160699143554623}](nom_class:0, less[petal width (cm),{'p': 0.276618810219099}](nom_class:2, nom_class:0)))), less[petal width (cm),{'p': 0.7690807497923731}](less[sepal width (cm),{'p': 0.7207035495579444}](less[sepal length (cm),{'p': 0.0809876517989494}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.45586454915005925}](nom_class:0, less[petal width (cm),{'p': 0.7056946430590734}](nom_class:1, nom_class:0))), less[sepal width (cm),{'p': 1.4726429207386893}](less[sepal width (cm),{'p': 0.6205118094298304}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.024583394611217724}](nom_class:2, less[petal width (cm),{'p': 1.6985247539892792}](less[sepal width (cm),{'p': 0.049390397710417144}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.707951149562022}](nom_class:1, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.12051825022071483}](less[petal width (cm),{'p': 0.2225709947332437}](less[petal width (cm),{'p': 0.06626457234634531}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.08574005246326932}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.2275919837075866}](less[sepal width (cm),{'p': 0.685353964672401}](nom_class:2, nom_class:2), nom_class:1))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.735231153488189}](less[petal width (cm),{'p': 1.6715358373507871}](less[petal length (cm),{'p': 2.4810729213905214}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.6287112718730126}](nom_class:1, nom_class:2)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8001042120601051}](less[petal width (cm),{'p': 0.2664225959239145}](less[petal width (cm),{'p': 0.7227037585954609}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.2287146721059613}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.13555619752914827}](less[sepal width (cm),{'p': 0.7337449268209144}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7990374247324069}](less[petal width (cm),{'p': 0.3782759446717564}](less[sepal length (cm),{'p': 0.4178905748907855}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.25671793020959177}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.40773075819920024}](less[sepal width (cm),{'p': 0.6213967898180078}](less[sepal length (cm),{'p': 0.5299306304387307}](less[petal width (cm),{'p': 0.3895154742261965}](less[sepal width (cm),{'p': 0.056958907956384364}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4861699609918325}](nom_class:2, less[petal width (cm),{'p': 0.6776704263926292}](less[petal width (cm),{'p': 0.6607301159220227}](less[petal width (cm),{'p': 0.1947728074405669}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.5491362132994376}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8987443842026004}](less[petal length (cm),{'p': 0.24457994398139216}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.6858142093745859}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 0.4895499108199487}](less[petal length (cm),{'p': 0.2803950871836758}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.8939310703458279}](nom_class:1, nom_class:0))), nom_class:0), nom_class:0))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.5053132296231172}](less[petal width (cm),{'p': 0.39575361502635115}](less[petal width (cm),{'p': 0.4068058138235724}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.891197717446445}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.012909555447625232}](less[petal width (cm),{'p': 0.05998180230528871}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4180790941500683}](less[petal width (cm),{'p': 0.38689643250495853}](less[sepal length (cm),{'p': 0.9888425012777897}](nom_class:0, nom_class:2), nom_class:1), less[petal width (cm),{'p': 0.8315604406468833}](less[petal width (cm),{'p': 0.1633882785594417}](less[petal width (cm),{'p': 0.035064834372236675}](less[petal width (cm),{'p': 0.53778925665031}](less[petal length (cm),{'p': 0.4918237863170243}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.2375545001832891}](less[petal width (cm),{'p': 0.9751127219381565}](less[petal width (cm),{'p': 0.743400588813859}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8280973914147306}](nom_class:1, nom_class:2)), nom_class:1)), less[sepal length (cm),{'p': 0.44811268109286506}](less[petal length (cm),{'p': 0.9255106812672707}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8347755003992263}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.7144545115915136}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.038299976445257}](less[petal width (cm),{'p': 1.7516963216592276}](less[petal width (cm),{'p': 0.6351708379812762}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.39520225422538446}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.7002742480967642}](less[sepal length (cm),{'p': 2.2270410363743816}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6295957121260707}](less[petal width (cm),{'p': -0.5503347986665807}](less[sepal length (cm),{'p': 0.6293745495331036}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.2466200291362448}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 1.2125064243350967}](less[sepal width (cm),{'p': 0.6444533842781806}](less[petal width (cm),{'p': 0.6426360600139607}](less[petal width (cm),{'p': 0.9065332864133779}](less[sepal width (cm),{'p': -0.21985024089088012}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.48895835432063717}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.1726998666877053}](less[petal length (cm),{'p': -0.41621646828176107}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.019364852105583863}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 3.029512073654468}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.09709874939440755}](less[petal width (cm),{'p': 0.7392838032828951}](less[petal width (cm),{'p': 0.16249737816805543}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9075348256890452}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.7157290970870126}](less[sepal width (cm),{'p': 0.46352090211961794}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5690307276823814}](less[sepal width (cm),{'p': 0.31500558664021805}](less[sepal length (cm),{'p': 0.7102106030970835}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.23553307244487554}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.7260418187652775}](less[sepal width (cm),{'p': 0.43431975709447723}](less[petal width (cm),{'p': 0.09044796357992402}](less[petal width (cm),{'p': 0.5978090717562272}](less[petal width (cm),{'p': 0.0920349953723626}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.5677119307683663}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.8318920986830787}](less[petal length (cm),{'p': 0.06726284114056003}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.9082594126857534}](less[petal length (cm),{'p': 0.009719673637560766}](less[petal width (cm),{'p': 0.6781665664757721}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.6877343199216681}](nom_class:2, nom_class:2)), nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.3096063836938633}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.257333048357514}](less[petal width (cm),{'p': 1.3152823520212842}](less[petal width (cm),{'p': 0.9247843286062423}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -1.026536993786147}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 2.5060167518729655}](less[sepal width (cm),{'p': 1.6092783607689791}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.576536333779252}](less[sepal width (cm),{'p': 1.051352284635401}](less[sepal length (cm),{'p': 0.058879210436773466}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.4116373566795177}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.4531544187482704}](less[sepal width (cm),{'p': 0.7320443122012938}](less[petal width (cm),{'p': 1.688672437786368}](less[sepal length (cm),{'p': 1.1614297518314056}](less[petal width (cm),{'p': 2.1565673242555334}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.48044707903463507}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.23483718409974108}](less[petal length (cm),{'p': 0.7259546911202752}](nom_class:2, nom_class:0), less[petal length (cm),{'p': -0.06714355579241091}](nom_class:1, nom_class:2))), nom_class:0), less[petal length (cm),{'p': 4.811714947053041}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.9776305562004746}](less[petal width (cm),{'p': 1.5803949058895497}](less[petal width (cm),{'p': 0.7580278142050506}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9546968115843356}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.6794299336475897}](less[sepal width (cm),{'p': 0.35170641586994733}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.7255146853338998}](less[sepal width (cm),{'p': 1.7498569329990692}](less[sepal length (cm),{'p': 1.2973645485697727}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.4997078558328674}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0.9448132570637933}](less[sepal width (cm),{'p': 2.695073970089191}](less[petal length (cm),{'p': -1.097333724412415}](nom_class:1, nom_class:2), nom_class:0), less[petal length (cm),{'p': -0.43618469700132145}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.2687864881547687}](less[petal width (cm),{'p': -0.0628795963724319}](less[petal width (cm),{'p': 1.2203793742001463}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.765848886717855}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.13196333729720114}](less[sepal width (cm),{'p': 0.5108961148446713}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.3818903674597904}](less[petal width (cm),{'p': 0.6402320644749451}](less[sepal length (cm),{'p': 0.5526417825845331}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.686357031778722}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': -0.08507680714833527}](less[sepal width (cm),{'p': 1.0125215515576487}](less[petal width (cm),{'p': 0.6344272913716509}](less[petal width (cm),{'p': -0.16007573402381525}](less[sepal width (cm),{'p': 1.148838199535507}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.6618763227250573}](nom_class:2, less[petal width (cm),{'p': 0.1851116577066091}](less[petal width (cm),{'p': 1.4191023491519135}](less[petal width (cm),{'p': 1.0445246720747274}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.07221139258040793}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.2360788021011366}](less[petal length (cm),{'p': 2.0499509173293937}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.0391668377926086}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 0.12264470866394192}](less[petal length (cm),{'p': 0.12388916182986087}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.4904273197770534}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 1.9070614994104873}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.6160653160958716}](less[petal width (cm),{'p': 1.6169992486044213}](less[petal width (cm),{'p': 0.961125101844233}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.05749502659733444}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.11361119879522669}](less[petal width (cm),{'p': 0.18375034028738968}](less[petal width (cm),{'p': -0.2530429383429954}](less[petal width (cm),{'p': 0.4871882313915254}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7644424607119178}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.35426004762548435}](less[petal length (cm),{'p': 2.5669743638250546}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -0.7026469583576631}](nom_class:1, nom_class:0))), less[petal length (cm),{'p': 0.4674328790461153}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.064130806660808}](less[petal width (cm),{'p': 0.8826629860668489}](less[petal width (cm),{'p': 0.8181533777940613}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.4843179666683641}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 0.5926552599752875}](less[petal length (cm),{'p': 0.5779653530088064}](less[petal width (cm),{'p': 2.482402103732456}](less[petal width (cm),{'p': -0.3772855630508551}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.4677996487894773}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.7398187007166022}](less[sepal width (cm),{'p': -0.11438430830304036}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.628021761018136}](less[sepal width (cm),{'p': 0.755874985426258}](less[sepal length (cm),{'p': -0.08549221334865953}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.8846314978056662}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.9818303712305363}](less[sepal width (cm),{'p': -1.2282273947491937}](less[petal width (cm),{'p': -0.04457218219413406}](less[petal width (cm),{'p': 1.3263313704182451}](less[sepal length (cm),{'p': 0.4881733162093722}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.6991685271591122}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 2.2720384388594286}](less[petal length (cm),{'p': 1.4715745710648263}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0155782347795703}](nom_class:2, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 1.872308705889326}](nom_class:1, nom_class:2))))), less[sepal length (cm),{'p': 0.5284425598688903}](less[sepal width (cm),{'p': 1.8400030098010267}](less[sepal length (cm),{'p': 0.9532880261092793}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.18342231786438204}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.7952144471103413}](less[sepal width (cm),{'p': 0.9637462355451379}](less[petal width (cm),{'p': 0.5385521208584716}](less[petal width (cm),{'p': 0.7750040797878592}](less[sepal length (cm),{'p': 2.144916537589082}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7972689336671958}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 0.4786934786853906}](less[petal length (cm),{'p': 0.7886763863282187}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.6167812014417049}](nom_class:2, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 1.9186667616977031}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.009844488821138697}](less[petal width (cm),{'p': 0.49365358556846645}](less[petal width (cm),{'p': 1.4261391087081148}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.06368200532455348}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.9405882800221728}](less[sepal width (cm),{'p': 0.32994775450693814}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.8275498197872548}](less[sepal width (cm),{'p': 0.0986558935064244}](less[sepal length (cm),{'p': 0.3818772134445276}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.2566571259816405}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': 1.0747362458218364}](less[sepal width (cm),{'p': 0.13330183119408584}](less[petal width (cm),{'p': 0.020621990812932173}](less[petal width (cm),{'p': 0.23898342982570697}](less[petal width (cm),{'p': -0.6092967958051835}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.1049331895468575}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.5277789922460907}](less[petal length (cm),{'p': -0.6804706398033381}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.2569135755232854}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.813507228947833}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.34535889655863766}](less[petal width (cm),{'p': 1.1709348280513232}](less[petal width (cm),{'p': -0.5188068736392433}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.030850458574171555}](less[petal width (cm),{'p': 1.700488111259533}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -1.5004496467366675}](less[petal length (cm),{'p': 2.3085067407178657}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.3094230340529416}](less[sepal width (cm),{'p': 1.2663970124722594}](less[sepal length (cm),{'p': 0.6913068732800605}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5381994344337357}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.23991837392609056}](nom_class:1, less[petal length (cm),{'p': 4.816453129226504}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.274825564890709}](less[petal width (cm),{'p': 1.6898480145637176}](less[petal width (cm),{'p': 0.7283170378135899}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -1.5122229536079097}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.5138518264062775}](less[sepal length (cm),{'p': 0.5894039186235805}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.47757968588548055}](less[petal width (cm),{'p': 2.286796247008389}](less[sepal length (cm),{'p': -0.49643801037712726}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.9147535356207113}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.7548835833439638}](less[sepal width (cm),{'p': 0.406581604071621}](less[petal width (cm),{'p': 0.7457868079937009}](less[petal width (cm),{'p': 2.868167991421578}](less[sepal width (cm),{'p': 0.7702147770061647}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.051689618097111256}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.6574799786680774}](less[petal length (cm),{'p': 0.4683163371013548}](nom_class:2, less[petal width (cm),{'p': 0.2525792784135482}](less[petal width (cm),{'p': 0.24198902577462228}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.5476344424674122}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -0.3598084652907999}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -3.93540841788853}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.313194947339177}](less[sepal width (cm),{'p': 1.2280621739313249}](less[petal width (cm),{'p': 1.0862570944030256}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.09780466979619229}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.7606868368277507}](less[sepal width (cm),{'p': -0.1152556340503621}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 2.1747677956256553}](less[sepal width (cm),{'p': -0.05249409901845703}](less[sepal length (cm),{'p': -0.6148417409100709}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.016938190799399677}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.1831215980771626}](less[sepal width (cm),{'p': 0.018052131854269515}](less[petal width (cm),{'p': 0.8654424825592105}](less[petal width (cm),{'p': 2.84059432228677}](less[petal width (cm),{'p': 0.008058466327072522}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0.6240916359487994}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.200439076732307}](less[petal length (cm),{'p': 0.30979904479351317}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.509799889703759}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.7541729815606875}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.765234033028801}](less[petal width (cm),{'p': 0.7132625869718494}](less[petal width (cm),{'p': 1.5880193442137813}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.7412880124505217}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.4277461446616353}](less[sepal width (cm),{'p': 1.441132897328794}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.30354219471630706}](less[petal width (cm),{'p': 0.37299461484320157}](less[sepal length (cm),{'p': -0.19922177395941}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.4073471514001454}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.5868316183060234}](less[sepal width (cm),{'p': 0.9781047433918677}](less[petal width (cm),{'p': 1.3798907431220013}](less[petal width (cm),{'p': -0.0687934769398808}](less[sepal width (cm),{'p': 0.6841408595574665}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.15703202246012943}](nom_class:2, less[petal width (cm),{'p': 0.6383402491153133}](less[petal width (cm),{'p': 0.3123918141431248}](less[petal width (cm),{'p': -0.1764690540020883}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': -1.1970678248558235}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.14270725897092285}](less[petal length (cm),{'p': 0.13111079763282896}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 1.4208896994004494}](nom_class:1, nom_class:0))))), less[petal width (cm),{'p': -0.6946061722117067}](less[petal length (cm),{'p': 0.7270839213205897}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.5017609394225926}](nom_class:1, nom_class:2))), nom_class:0), less[petal length (cm),{'p': -2.112571838689601}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6263072447202056}](less[petal width (cm),{'p': 2.2336889150260717}](less[petal length (cm),{'p': 2.6436776279684575}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.9135154040591619}](nom_class:1, less[petal length (cm),{'p': 1.4494848287180975}](nom_class:2, nom_class:2))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2295106698141667}](less[sepal width (cm),{'p': 0.9722422880701319}](less[petal width (cm),{'p': 0.18680475472695268}](less[petal width (cm),{'p': 0.03875764718176372}](less[sepal width (cm),{'p': -0.5448613953051987}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.5222739868197902}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.36726454960020966}](less[petal length (cm),{'p': 0.9328459665339128}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4373135819029182}](nom_class:1, nom_class:0))), nom_class:0), less[sepal length (cm),{'p': 1.0953012569888358}](less[sepal width (cm),{'p': -0.24680295019550563}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4864584174070913}](less[sepal width (cm),{'p': 0.9181600468210618}](less[petal width (cm),{'p': 1.4163560937468591}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9945235864905493}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 1.5491609513385258}](less[sepal width (cm),{'p': 0.9774247382119873}](less[petal width (cm),{'p': 0.30398674211874566}](less[petal width (cm),{'p': 0.20547694114857695}](less[sepal width (cm),{'p': -0.3368504053217205}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.484878098682932}](less[petal width (cm),{'p': 0.9381143459721131}](less[sepal width (cm),{'p': 0.8975365916202249}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.7173600462234347}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 0.3694160427438697}](less[petal width (cm),{'p': 0.6409200405895588}](less[petal width (cm),{'p': 1.0176598305060116}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0321936928400852}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.058878175760520374}](less[petal length (cm),{'p': -0.3286386133270736}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.5245179104407247}](nom_class:1, nom_class:0))))), less[sepal length (cm),{'p': 0.22031403668925587}](less[petal length (cm),{'p': 0.28485670753946535}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.05097831967365879}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.85359545025279}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': -0.49022700573074457}](less[petal width (cm),{'p': 0.5634755259753498}](less[sepal length (cm),{'p': -0.4491587236833616}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.4157487645932062}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.2140182298775803}](less[petal width (cm),{'p': 0.15302249026437698}](less[petal width (cm),{'p': -0.06653297635764877}](less[sepal width (cm),{'p': 0.5750130672029607}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.21027083823946768}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.9440574301234719}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 0.3185914338272199}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -1.2914837858586692}](less[sepal length (cm),{'p': 1.1167424259441914}](less[petal width (cm),{'p': -0.2880564395907996}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8974549342753814}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.7640450463513597}](less[sepal width (cm),{'p': -2.033259406302397}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.37114997368878205}](less[sepal width (cm),{'p': 0.918649312957613}](less[sepal length (cm),{'p': 1.5369638917267485}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.7906130176571227}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.08370613352717493}](less[sepal width (cm),{'p': 0.9884410909660821}](less[petal width (cm),{'p': 0.5173798548990562}](less[petal width (cm),{'p': -0.08221088874760007}](less[petal width (cm),{'p': 0.7664797455547768}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.3890275054161323}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.3493088579450443}](less[petal width (cm),{'p': 0.22383701519215926}](less[petal width (cm),{'p': 1.241872894410447}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.7357696674366043}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.3333926380505879}](less[petal length (cm),{'p': 0.8501505562565342}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.6415542797873939}](nom_class:1, nom_class:0)))), nom_class:0), less[petal length (cm),{'p': 4.891879283815541}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.9919668515911692}](less[petal width (cm),{'p': 0.8840931186259638}](less[petal width (cm),{'p': 1.234181025364995}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 1.101015886609498}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': -0.5834023111187134}](less[sepal width (cm),{'p': 0.25639274427511655}](nom_class:0, less[sepal length (cm),{'p': -0.10071756684090033}](less[sepal length (cm),{'p': -0.629325244041575}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4999737218736404}](nom_class:1, less[petal width (cm),{'p': 0.350407209885833}](nom_class:2, nom_class:0)))), less[petal width (cm),{'p': 0.34914199129113954}](less[sepal width (cm),{'p': 1.6794196032643876}](less[sepal length (cm),{'p': 0.043092443096457655}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.02308189592719151}](nom_class:0, less[petal width (cm),{'p': 0.48638015264255935}](nom_class:1, nom_class:0))), less[sepal width (cm),{'p': 0.42750336769294633}](less[sepal width (cm),{'p': 1.260406773699725}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.8241028257731511}](nom_class:2, less[petal width (cm),{'p': 1.6067624251439936}](less[sepal width (cm),{'p': 0.3967345695099089}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.47977592446093414}](nom_class:0, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.4871662372444071}](less[petal width (cm),{'p': 0.7916511035728777}](less[petal width (cm),{'p': 0.3862655389754195}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5784468045593532}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 0.39572954934419047}](less[petal length (cm),{'p': 1.6537703941088246}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.07934642301976357}](less[sepal width (cm),{'p': 0.6452131588764433}](less[sepal length (cm),{'p': 0.2727519556623432}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.6111607959505003}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 1.8892701546264299}](less[sepal width (cm),{'p': 0.8551115595796848}](less[petal width (cm),{'p': -0.3117934813553047}](less[petal width (cm),{'p': 0.04794366597130706}](less[petal width (cm),{'p': 1.8974364526247454}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.616005781726828}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.7080247739252452}](less[petal length (cm),{'p': 1.9036030387582112}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.3008821417163182}](nom_class:1, nom_class:0))), nom_class:0), less[sepal width (cm),{'p': 2.284613122724936}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.656959128886715}](less[petal width (cm),{'p': 1.7246066630806705}](less[petal width (cm),{'p': 0.44560039563533654}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -2.638987421973274}](less[petal width (cm),{'p': 0.15969437314786006}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.419999031811532}](less[sepal width (cm),{'p': 0.33026029677629787}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.3124231884931405}](less[sepal width (cm),{'p': 0.9472176165198796}](less[petal width (cm),{'p': -0.6117312589525248}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8649922633527675}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 1.438754320407683}](less[sepal width (cm),{'p': 1.076395120895216}](less[petal width (cm),{'p': 1.3140465684120606}](less[petal width (cm),{'p': -0.26607865776738626}](less[petal width (cm),{'p': -0.0862782645104403}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.9028299922234456}](nom_class:1, nom_class:2)), nom_class:2), nom_class:0), less[petal length (cm),{'p': -0.5227481167976182}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 4.182604349541863}](less[petal width (cm),{'p': 0.9822432508737116}](less[petal width (cm),{'p': 2.2585036779235392}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6433250880540902}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.27244819395602726}](less[petal width (cm),{'p': 0.22451600168472094}](less[petal width (cm),{'p': -2.3621668851013564}](less[sepal length (cm),{'p': -0.20089009377106043}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.9360181088448862}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.8771863129325683}](less[petal length (cm),{'p': 0.6855040043116657}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.8651889337644523}](nom_class:1, nom_class:0))), less[petal length (cm),{'p': 1.9423324024416972}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.27674123282517626}](nom_class:2, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.374241024384325}](less[petal width (cm),{'p': 1.6893873233334031}](less[petal width (cm),{'p': 0.8867275891192253}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8259821233360465}](less[petal width (cm),{'p': 1.1550453487538834}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.14047690887850317}](less[sepal width (cm),{'p': 0.08612287909905314}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.6356381200930008}](less[petal length (cm),{'p': -1.3036173291424655}](less[sepal length (cm),{'p': 3.0439955215580476}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.34889483917015385}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.15619015106729}](less[petal width (cm),{'p': -0.1302576991532557}](less[sepal width (cm),{'p': 0.9123458567905872}](nom_class:0, nom_class:1), nom_class:0), less[petal length (cm),{'p': 1.6227532891346055}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.762368623798082}](nom_class:2, less[sepal length (cm),{'p': 0.6223085876512315}](less[sepal width (cm),{'p': -0.10452194216955996}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.6005839592310765}](less[sepal width (cm),{'p': -0.07688057225480838}](less[sepal length (cm),{'p': 1.4377406319550274}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5206641262510078}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.7681382292685051}](less[sepal width (cm),{'p': 0.586248563747156}](less[petal width (cm),{'p': 2.0066258247447615}](less[petal width (cm),{'p': 2.373101060044126}](less[petal width (cm),{'p': -0.39366634392793776}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.3062875113622586}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.509318002259328}](less[petal length (cm),{'p': 0.5169225160136386}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.3303419409370181}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.7440436055532125}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9066439917045617}](less[petal width (cm),{'p': 1.6282591002372144}](less[petal width (cm),{'p': 1.9809146871809615}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.057068683095335}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.2860351216819907}](less[sepal width (cm),{'p': 0.3287316483556148}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 2.403608858054561}](less[sepal width (cm),{'p': -0.8135808112132974}](less[petal length (cm),{'p': 0.7825912098840956}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.3277826164404051}](less[sepal length (cm),{'p': 0.6629792114647873}](less[petal length (cm),{'p': 0.36901562447600056}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.074417329375112}](nom_class:1, nom_class:0)), nom_class:0)), less[sepal width (cm),{'p': 0.5394405892590362}](less[sepal width (cm),{'p': 1.0596107707091433}](less[petal width (cm),{'p': 0.23566545723823662}](less[petal width (cm),{'p': 0.8234876482455168}](less[petal width (cm),{'p': 1.9135906181346045}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.2097737950250487}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.5736504970941164}](less[petal length (cm),{'p': 1.3422139312837476}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.2601137699407922}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.8832978026477445}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.80063008969153}](less[petal width (cm),{'p': 1.858450228023919}](less[petal width (cm),{'p': 0.8536892915147207}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.011022224214533}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.1223226363740841}](less[sepal length (cm),{'p': -1.3403487747162552}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.0147872959448971}](less[petal width (cm),{'p': 1.0942130247679787}](less[sepal length (cm),{'p': 0.5896351117382068}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.8724015911373222}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.4066991886220511}](less[sepal width (cm),{'p': -0.4034836715347303}](less[petal width (cm),{'p': -0.7281956466061477}](less[petal length (cm),{'p': 2.6809485071979973}](nom_class:2, less[petal length (cm),{'p': 1.5143767406577409}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.4193921394157174}](less[petal length (cm),{'p': 0.34206277908246197}](nom_class:2, less[petal width (cm),{'p': 1.245733701209831}](less[petal width (cm),{'p': 0.3673737322659391}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.21514021647834347}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.14400784313417725}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': -7.83642441039132}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9205769028307493}](less[petal width (cm),{'p': 0.7165253078432394}](less[petal width (cm),{'p': 1.092322948678064}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.45145042816389186}](less[petal width (cm),{'p': 1.3936382318090974}](nom_class:2, nom_class:1), nom_class:1)), less[sepal length (cm),{'p': 1.186026683641516}](less[sepal width (cm),{'p': -0.4782996079922598}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.07916849108912227}](less[petal length (cm),{'p': 1.0946554292412993}](less[sepal length (cm),{'p': 0.9321353915965318}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.47634099402229846}](nom_class:0, nom_class:0)), nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.820027869377655}](less[petal width (cm),{'p': 2.1709523881932586}](less[petal width (cm),{'p': 0.8625816378069284}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.5287392870321564}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.2308619883200918}](less[sepal length (cm),{'p': 1.2623215429190209}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3980207110249578}](less[petal width (cm),{'p': -2.0080201585741446}](less[sepal length (cm),{'p': 0.3331909408642525}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.8095289894199496}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 1.2191721262785893}](less[sepal width (cm),{'p': 0.9263588104762274}](less[petal width (cm),{'p': 0.2993263633213858}](less[petal width (cm),{'p': 0.6638106844120528}](less[sepal width (cm),{'p': -0.7762733228505032}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.732605358166353}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.3633966050252234}](less[petal length (cm),{'p': -0.7971647674937288}](nom_class:2, less[petal width (cm),{'p': 3.272466467907825}](less[petal width (cm),{'p': 1.6286681008385577}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.32799457185744185}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -0.41037965819491307}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 2.6864243532509264}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.9145553785190605}](less[petal width (cm),{'p': 1.621696184792002}](less[petal width (cm),{'p': 0.8430805805704658}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.2653130717733825}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.9129841362748456}](less[sepal length (cm),{'p': 1.4941154299207358}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5774392007930147}](less[petal width (cm),{'p': -0.03471794320552479}](less[sepal length (cm),{'p': 0.013826638053647144}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.48652380735827894}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.0798970727337536}](less[sepal width (cm),{'p': -0.5490912299302667}](less[petal width (cm),{'p': 1.2716921540999544}](less[petal width (cm),{'p': 1.4609358347524604}](less[sepal width (cm),{'p': 0.8109941286605958}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.010370792817041424}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.13696847167013942}](less[petal length (cm),{'p': 2.162138565882118}](nom_class:2, less[petal width (cm),{'p': -0.5516970555885858}](less[petal width (cm),{'p': 1.1648460461850954}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.008379685529128}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.62270661772099}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 0.18563849357677054}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 2.060835707039068}](less[petal width (cm),{'p': 1.2426260016369146}](less[petal width (cm),{'p': -0.6316513028977108}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5966814662791873}](less[petal width (cm),{'p': 2.557603219968531}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.6769581679917114}](less[sepal width (cm),{'p': 0.2953196951460215}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.2732219198017075}](less[petal length (cm),{'p': 0.8230447122842257}](less[sepal length (cm),{'p': -0.20712443456762497}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5361285374919789}](nom_class:0, nom_class:2)), less[petal width (cm),{'p': 0.8204006857122941}](less[petal width (cm),{'p': -0.4329267776575294}](less[petal length (cm),{'p': -0.016563579127515382}](nom_class:0, nom_class:1), nom_class:0), less[petal length (cm),{'p': 0.00969733639625961}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.8761530213385456}](less[petal width (cm),{'p': 1.4612325229431846}](less[petal width (cm),{'p': 2.206773324680146}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.7108872993414216}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.8473990360078942}](less[sepal width (cm),{'p': 0.8722418603972107}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.0839404653710705}](less[sepal width (cm),{'p': 0.6934572840637822}](less[petal length (cm),{'p': 1.001905278493679}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3372185070248994}](less[sepal length (cm),{'p': -0.6387851060405285}](less[petal length (cm),{'p': 0.6601964321370939}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9630599655645955}](nom_class:1, nom_class:0)), nom_class:1)), less[sepal width (cm),{'p': 0.6333413534367003}](less[sepal width (cm),{'p': 0.8237510283093628}](less[petal width (cm),{'p': 2.4248928299193135}](less[petal width (cm),{'p': 1.251632993721074}](less[petal length (cm),{'p': -1.093615059619661}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.8552122572325467}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 3.0625172535950167}](less[petal length (cm),{'p': 0.8514859579793067}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.2224182006479076}](nom_class:1, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 4.752672978985874}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.003749064021467}](less[petal width (cm),{'p': 0.8615765113066982}](less[petal width (cm),{'p': 0.7562564851552476}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.9462674578462906}](less[petal width (cm),{'p': 0.2258017558682568}](nom_class:0, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': -0.007961968175116518}](less[sepal width (cm),{'p': -0.6577619356971748}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 0.5235379196407828}](less[petal length (cm),{'p': -0.006998039639574016}](less[sepal length (cm),{'p': 0.9302419343589545}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.0627595658462765}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 1.2070491341368714}](less[petal width (cm),{'p': 0.6223617646656648}](less[sepal width (cm),{'p': 0.6227016586834706}](nom_class:0, nom_class:1), nom_class:1), less[petal width (cm),{'p': 0.9283576670989316}](nom_class:1, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6538827046840467}](less[petal width (cm),{'p': 0.9340505477917894}](less[petal width (cm),{'p': 0.9746799725244183}](less[petal width (cm),{'p': 0.7806266522463149}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.28238631305650186}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.363701094523281}](nom_class:1, less[petal length (cm),{'p': 1.8896100663700355}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7459991133474193}](less[petal width (cm),{'p': 1.103726064322681}](less[petal width (cm),{'p': 0.71311186303826}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.0329719481990792}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 1.2402092283953698}](less[sepal width (cm),{'p': 0.1568965303149315}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4783738147788812}](less[sepal width (cm),{'p': 0.2529414417036462}](less[sepal length (cm),{'p': 0.3158871321843413}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 1.5635510965842057}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.5186407944276216}](less[sepal width (cm),{'p': 0.9404209017105915}](less[petal width (cm),{'p': 1.6913228226761987}](less[petal width (cm),{'p': 0.8468945198507722}](less[petal length (cm),{'p': 0.7921384755246405}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.7435332688864357}](less[sepal width (cm),{'p': 1.727570731345545}](nom_class:0, nom_class:0), nom_class:2)), less[sepal length (cm),{'p': 1.335971946165533}](less[petal length (cm),{'p': 0.6110531588134216}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.20136698821526738}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.858337097091839}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.966166521289726}](less[petal width (cm),{'p': 1.9743121438940572}](less[petal width (cm),{'p': 1.2105374517439875}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.5724993108128359}](less[petal width (cm),{'p': 1.9068515910630435}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.4075812679920157}](less[sepal width (cm),{'p': 0.4728800134892906}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9420097039672939}](less[petal length (cm),{'p': 0.14045917047851392}](less[sepal length (cm),{'p': 0.5128602373255331}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.3376833751841585}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.551466519242895}](less[petal width (cm),{'p': -0.6563496470617023}](less[petal width (cm),{'p': 0.8069341331887141}](nom_class:1, nom_class:2), nom_class:1), less[petal length (cm),{'p': 2.206170034325809}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.270050910601092}](less[petal width (cm),{'p': 1.9620362737279193}](less[petal width (cm),{'p': 0.6495157670816756}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.26957228901695923}](less[petal width (cm),{'p': 0.6397062901219968}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.657097179433372}](less[petal width (cm),{'p': 2.4596250770401387}](nom_class:2, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.6725276984908057}](less[petal width (cm),{'p': 2.453534286163723}](less[petal width (cm),{'p': 0.149830492469198}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -0.07191904906763047}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.7894191972004696}](less[sepal width (cm),{'p': 0.03533168082433369}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.6015453271410764}](less[sepal width (cm),{'p': 0.9408362001128431}](less[sepal length (cm),{'p': 0.166125702898899}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.284366584712934}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 2.341774194872664}](less[sepal width (cm),{'p': 0.8474861349577193}](less[petal width (cm),{'p': 0.4812665691039549}](less[petal width (cm),{'p': 0.665462595999831}](less[petal width (cm),{'p': 0.11559587179810599}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.9985890103737594}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.41429311723080686}](less[petal length (cm),{'p': -0.4903400376618623}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.14114624880294502}](nom_class:1, nom_class:0))), nom_class:0), less[petal width (cm),{'p': 1.6681491710566252}](less[sepal length (cm),{'p': 1.2605195325972278}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.17020155207524534}](nom_class:2, nom_class:2))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8054251964799396}](less[petal width (cm),{'p': 0.11863961931896716}](less[petal width (cm),{'p': 0.3423000896931201}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8394456183563253}](less[petal width (cm),{'p': 0.7873118183033405}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.7648843958303376}](less[sepal width (cm),{'p': 0.9756946251405706}](nom_class:2, nom_class:1), nom_class:0))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7117666594663}](less[petal width (cm),{'p': 1.2119159518229388}](less[petal width (cm),{'p': 0.8667579881639622}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.26380249861853805}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.9847013149697208}](less[sepal width (cm),{'p': 0.9010079582979639}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.9542324941327966}](less[sepal width (cm),{'p': 1.258382738791469}](nom_class:0, less[sepal length (cm),{'p': 0.1303915244598426}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.19484442108774325}](less[petal width (cm),{'p': 0.524396414874912}](less[petal width (cm),{'p': -0.027106566634365836}](less[petal width (cm),{'p': -0.1443754070078085}](less[petal width (cm),{'p': 1.342174172751526}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.28010937787280077}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.37540014811906575}](less[petal length (cm),{'p': 1.3454537169200804}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.2566095934911496}](nom_class:0, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.869638335438148}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3504710526121806}](less[petal width (cm),{'p': 0.8010809438659541}](less[petal width (cm),{'p': 1.770459980312569}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.3460982373869864}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.07425539133376796}](nom_class:0, less[petal width (cm),{'p': 5.038216510814154}](nom_class:1, nom_class:0)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7071315783981422}](less[petal width (cm),{'p': 0.8542892987939359}](less[petal width (cm),{'p': 0.3583099290045554}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.5126499632696004}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 0.8325162882692262}](less[sepal width (cm),{'p': 0.04738771284834664}](nom_class:0, less[petal length (cm),{'p': 0.11840000283758756}](less[sepal length (cm),{'p': 0.02378062824610716}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.7933009146447889}](nom_class:1, less[petal width (cm),{'p': 0.09086009395825245}](nom_class:2, nom_class:0)))), less[petal width (cm),{'p': 0.47672478568116083}](less[sepal width (cm),{'p': 0.611499331687873}](less[sepal length (cm),{'p': 0.47870145925173746}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.9196385575896757}](nom_class:0, less[petal width (cm),{'p': 0.6382620487555388}](nom_class:0, nom_class:2))), less[sepal width (cm),{'p': 0.9751841582407843}](less[sepal width (cm),{'p': 0.09529566973851722}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 0.5592058271935728}](nom_class:2, less[petal width (cm),{'p': 0.27000750449682953}](less[petal width (cm),{'p': 0.05554040273979444}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.11825343477763173}](nom_class:0, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7728176341169055}](less[petal width (cm),{'p': 0.6177287011996848}](less[petal width (cm),{'p': -1.0020693270560328}](nom_class:0, nom_class:0), less[petal length (cm),{'p': -0.641122381574874}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.2181533531575042}](less[sepal width (cm),{'p': -1.1547651421097935}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.5072487171275624}](less[sepal width (cm),{'p': 0.45341542641257476}](less[sepal length (cm),{'p': 0.5624783664622571}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8520024399054438}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': -0.130361229461751}](less[sepal width (cm),{'p': 1.2740516158114725}](less[petal width (cm),{'p': -0.09931540393478278}](less[petal width (cm),{'p': 1.2800572188929962}](less[petal width (cm),{'p': 1.5158797327688347}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.4110997859932145}](nom_class:1, less[petal width (cm),{'p': -0.31894812133093825}](nom_class:0, nom_class:1))), less[sepal length (cm),{'p': 0.6050693857312132}](less[petal length (cm),{'p': -0.35922626108187283}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.017869993749456}](nom_class:2, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 1.1624904466547814}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.217249447948212}](less[petal width (cm),{'p': 1.7940894565395777}](less[petal width (cm),{'p': 0.949952842519254}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.20011358262678225}](less[petal width (cm),{'p': 0.7261766173046362}](less[petal length (cm),{'p': -1.4507399293262566}](nom_class:2, less[petal width (cm),{'p': 1.127988089553412}](less[petal width (cm),{'p': 0.7577434987868396}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.7507981526995144}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.9411749298618178}](less[sepal width (cm),{'p': 0.2415109721176255}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.4195684616439839}](less[petal length (cm),{'p': -0.8780182925677606}](less[sepal length (cm),{'p': -0.6587080598570397}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.4595180055736867}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7822791043622318}](less[petal width (cm),{'p': -1.483093436661504}](less[sepal width (cm),{'p': 0.7356051828543166}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.7110333493869851}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.868268239353249}](less[petal width (cm),{'p': 1.8025479476093973}](less[petal width (cm),{'p': 0.7107204790104495}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 1.144182447279871}](less[sepal width (cm),{'p': -0.010401691871260554}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.17048426268746647}](less[sepal width (cm),{'p': -0.5889583804545041}](less[sepal length (cm),{'p': 0.706396855342609}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.328650721829154}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.37293139947214654}](less[petal width (cm),{'p': 0.22009662106561056}](less[petal width (cm),{'p': -2.0164118309458097}](less[petal width (cm),{'p': 0.3452732465513501}](less[sepal width (cm),{'p': 0.5546965394846399}](nom_class:1, nom_class:2), less[petal length (cm),{'p': -0.20274019659511877}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 1.3071763267603222}](less[petal length (cm),{'p': 1.3766898717331915}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.8144087777563072}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 1.2827779494655556}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -1.3425151275268092}](less[petal width (cm),{'p': 0.9170661049915472}](less[petal width (cm),{'p': 0.5268140927523745}](nom_class:2, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.42053251476835246}](less[sepal width (cm),{'p': -0.8715482421624361}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.2762548549089067}](less[sepal width (cm),{'p': 2.6166694294050843}](less[sepal length (cm),{'p': 0.8326688213179787}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.2586917078039843}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.14042997120314143}](less[petal width (cm),{'p': 0.35525388463393603}](less[petal width (cm),{'p': -0.1738939000874412}](less[petal width (cm),{'p': 0.08504102953374845}](less[sepal width (cm),{'p': -0.5009851204848818}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.9424410421482072}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -0.25660314300849196}](less[petal length (cm),{'p': 0.09090891907386658}](nom_class:2, less[sepal width (cm),{'p': -0.16915322218880635}](less[petal width (cm),{'p': -0.05260858409809677}](less[petal width (cm),{'p': 0.4634101764226844}](less[petal width (cm),{'p': 0.9252639977326951}](less[petal width (cm),{'p': 0.10845096282033742}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.08698822362067271}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': -0.7311666834678533}](less[petal length (cm),{'p': 0.010079574696549298}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.40871019972576017}](nom_class:0, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 1.2829536536477113}](nom_class:1, nom_class:2))), less[petal length (cm),{'p': 0.49843286708186824}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.831157522269989}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.5259947117497408}](less[petal width (cm),{'p': -0.807582163697513}](less[petal width (cm),{'p': 0.9533214578195051}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.1698692789771774}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.9069009872011321}](less[sepal length (cm),{'p': 0.02589951792760367}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.474538162497267}](less[petal width (cm),{'p': 0.6390170088396129}](less[sepal length (cm),{'p': 0.3370813470100718}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5704697606491111}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 1.9557106215746665}](less[sepal width (cm),{'p': -0.0784201799342909}](less[petal width (cm),{'p': 0.18090269464308353}](less[petal width (cm),{'p': 0.6759954827388774}](nom_class:1, less[petal length (cm),{'p': 1.6571099683227626}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.135738342931434}](less[petal length (cm),{'p': -0.716661871200357}](nom_class:2, less[petal width (cm),{'p': 0.9814139537794985}](less[petal width (cm),{'p': 1.2210170744341227}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.2986041201208312}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.362423725109458}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 4.835659674171804}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.3499896441164054}](less[petal width (cm),{'p': 1.329401363188965}](less[petal width (cm),{'p': 0.9148839511108782}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.2473493025889788}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.3464415129741987}](less[sepal length (cm),{'p': -0.9296384921714029}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3131957921964537}](less[petal width (cm),{'p': 1.143062014067216}](less[sepal length (cm),{'p': 0.6514191953556911}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.46812774820030245}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.46035695034309554}](less[sepal width (cm),{'p': 2.0057993084063073}](less[petal width (cm),{'p': 1.1323942549182173}](less[petal length (cm),{'p': -0.4084003258598937}](nom_class:2, less[petal length (cm),{'p': -0.016798013323880978}](nom_class:2, nom_class:1)), less[sepal length (cm),{'p': 1.5687023854794955}](less[petal length (cm),{'p': 1.243933420134142}](nom_class:2, less[petal width (cm),{'p': 1.2300113939613397}](less[petal width (cm),{'p': 0.1313747441910077}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 2.7823471630780308}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.11956156146339414}](nom_class:1, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 4.889069025667208}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.938382928684392}](less[petal width (cm),{'p': 1.6838387790394254}](less[petal width (cm),{'p': 0.6931036267413814}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.4665900431429703}](less[petal width (cm),{'p': 0.10746933537942366}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.40744423851317685}](less[sepal width (cm),{'p': 0.08855199985266993}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.3063880089249096}](less[petal length (cm),{'p': -0.8960800980247925}](less[sepal length (cm),{'p': -0.5954117088887363}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.29190804953314586}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.32618891976675074}](less[sepal length (cm),{'p': 1.016816642044601}](less[sepal width (cm),{'p': 0.8111975494745914}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.5157150857120567}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7064003866491448}](less[petal width (cm),{'p': -0.6418295274192418}](less[petal length (cm),{'p': 0.06551358951897437}](less[petal width (cm),{'p': 3.469389435151971}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 1.3547067413641143}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.8285532203559739}](nom_class:1, less[petal length (cm),{'p': 0.8718127923543435}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.353836858563385}](less[sepal width (cm),{'p': 0.28082856406741086}](less[petal width (cm),{'p': 1.1087977257724528}](less[sepal width (cm),{'p': 0.5932035024621598}](less[petal width (cm),{'p': 0.6518892980297737}](less[petal width (cm),{'p': 0.22596507779543007}](less[sepal width (cm),{'p': -0.19681138897080608}](less[petal width (cm),{'p': 0.5193422351537996}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.423223440616074}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.9114204137063482}](less[petal length (cm),{'p': -0.06973757564306476}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8061390389146943}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.8117879173272904}](nom_class:1, nom_class:2)), nom_class:1), less[sepal length (cm),{'p': 1.7217401071685825}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 1.2381858194809596}](less[sepal length (cm),{'p': 0.46914931358092127}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5434562176373854}](less[petal width (cm),{'p': 1.0292618823384532}](less[sepal length (cm),{'p': -0.05286930491760722}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5431220388503504}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.37049284441460606}](less[sepal width (cm),{'p': 0.5966001008139037}](less[petal width (cm),{'p': 0.42987606179948457}](less[petal width (cm),{'p': 0.15300455806298668}](less[sepal width (cm),{'p': 0.6794463599282596}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.27746047338671337}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.053964858184923636}](less[petal length (cm),{'p': 0.34107349490924654}](nom_class:2, less[petal width (cm),{'p': 0.206873138387985}](less[petal width (cm),{'p': 0.4850928232597873}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4525267626542691}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.0215823162731357}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 0.6530948910962209}](nom_class:1, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.6285905095494213}](less[petal width (cm),{'p': 0.8513431216181584}](nom_class:0, less[sepal width (cm),{'p': -0.7631434829953999}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.2884260023394457}](less[sepal length (cm),{'p': 0.4786737143682742}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.4174300427636854}](less[petal width (cm),{'p': -0.2585843156812762}](less[sepal length (cm),{'p': 0.9320024567827301}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.501676308278201}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.8894319393261803}](less[sepal width (cm),{'p': 0.21128283573385526}](less[petal width (cm),{'p': 0.2768642150394556}](less[petal width (cm),{'p': 1.4518109409462712}](less[sepal width (cm),{'p': 0.8803273488260404}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.27265990102412513}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.9447719755866215}](less[petal length (cm),{'p': 0.39891933775085164}](nom_class:2, less[petal width (cm),{'p': -0.021664997442562256}](less[petal width (cm),{'p': 0.859780551465816}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.6000217938651928}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 3.8779172747519937}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 4.759161910573047}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.8745780447400795}](less[petal width (cm),{'p': -1.3598429890627677}](less[sepal length (cm),{'p': 0.2627358223129397}](less[petal length (cm),{'p': 0.5231582922687945}](less[sepal width (cm),{'p': 1.4494349896047565}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.4320373886676456}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': -0.4740660790613189}](less[petal width (cm),{'p': 0.10461235596542529}](less[sepal width (cm),{'p': 1.6374228514650477}](nom_class:2, nom_class:1), nom_class:1), less[petal length (cm),{'p': -0.559441751635199}](nom_class:1, nom_class:2))), less[sepal width (cm),{'p': 3.579206877968163}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.4279918794492112}](less[sepal length (cm),{'p': 1.6730410892245884}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.788552883749451}](less[petal width (cm),{'p': 0.9807082589616807}](less[sepal width (cm),{'p': -0.14169444598033956}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.9000380494265006}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.25554225965623284}](less[sepal width (cm),{'p': 1.7875798460639565}](less[petal width (cm),{'p': -1.9082430936159018}](less[petal width (cm),{'p': -1.0632509356724391}](less[sepal width (cm),{'p': 0.4506107432342955}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.9827298574199668}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.6385328601450355}](less[petal length (cm),{'p': 0.8509681812038817}](nom_class:1, less[petal width (cm),{'p': 0.31110845239593754}](less[petal width (cm),{'p': 0.04098441942169678}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.3278721714445105}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 0.3774090414590485}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.532535354921585}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.434006529700701}](less[petal width (cm),{'p': 1.690052647237175}](less[petal width (cm),{'p': 0.5178354233516576}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.5271138339759389}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.9436640696730874}](less[sepal length (cm),{'p': -0.9135058512777966}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.18384648591782488}](less[petal width (cm),{'p': 0.5491924436052287}](less[sepal length (cm),{'p': 1.8995131801986864}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.4910890886048307}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.8478991650036409}](less[sepal width (cm),{'p': 1.52022772575325}](less[petal width (cm),{'p': -0.06120730531686969}](less[sepal width (cm),{'p': -0.0892671186713696}](less[sepal width (cm),{'p': 1.5543307333953913}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.5138325084640016}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.2392338781307306}](less[petal length (cm),{'p': 0.5136727478713772}](nom_class:2, less[petal width (cm),{'p': 0.13185435607268445}](less[petal width (cm),{'p': -0.4437757876840917}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.7146477870045729}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.4957152693897694}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 2.4372392416796425}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': -1.8699631762203586}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3300860595899175}](less[petal width (cm),{'p': 1.2153510691341216}](less[petal width (cm),{'p': 1.2188530431494493}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.2549500053038167}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.9315520861917719}](less[sepal length (cm),{'p': 1.6933031144331574}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.8874322597883635}](less[petal width (cm),{'p': 0.7755288851723716}](less[sepal length (cm),{'p': 0.9507730246697039}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.33054060417280084}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.260339124554609}](less[sepal width (cm),{'p': -0.37470595616816}](less[petal width (cm),{'p': -0.23771752210388342}](less[petal width (cm),{'p': 1.1040605689732241}](less[sepal length (cm),{'p': 0.3296550019467336}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.6640691511201218}](nom_class:2, nom_class:0)), nom_class:2), nom_class:0), less[petal length (cm),{'p': 0.3429343679147032}](nom_class:1, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.312665170999332}](less[petal width (cm),{'p': 1.6958253787754345}](less[petal width (cm),{'p': 0.8312752959190537}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8877171441414242}](less[petal width (cm),{'p': 0.8069566713286326}](less[petal width (cm),{'p': 3.0549740894585886}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.5159645346598485}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.3432808985003095}](less[sepal width (cm),{'p': 1.8401922085542144}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.19772889937697946}](less[petal length (cm),{'p': 0.4973273916527681}](less[sepal length (cm),{'p': -0.4932560699812466}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.8524684008837577}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.0796748822889948}](less[petal width (cm),{'p': -0.0682099075305429}](less[sepal width (cm),{'p': 0.3352039040536092}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.0038303758736449}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.082545005765992}](less[petal width (cm),{'p': 1.587638289084735}](less[petal width (cm),{'p': 0.6702281853204369}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.4702602250120041}](less[sepal width (cm),{'p': 1.366898708611149}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.7079002050330157}](less[sepal width (cm),{'p': 0.857328947207697}](less[sepal length (cm),{'p': 0.8792647740773152}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.1310136724520476}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.6107240408907231}](less[petal width (cm),{'p': -0.82600427921761}](less[petal width (cm),{'p': 0.5254898400382764}](less[petal width (cm),{'p': -0.6739649642790121}](less[petal width (cm),{'p': 0.5871540818618644}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.6540931009374711}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.7054650681503112}](less[petal length (cm),{'p': -0.08724570245369032}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 1.2942922349460604}](nom_class:1, nom_class:0))), nom_class:0), less[petal length (cm),{'p': 4.840214283186414}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8251275902263125}](less[sepal width (cm),{'p': 1.2951861799495206}](less[petal width (cm),{'p': 0.8420432553930872}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.48761774752093817}](less[petal width (cm),{'p': 1.774067307012031}](less[petal length (cm),{'p': -1.890907983622562}](nom_class:2, less[petal width (cm),{'p': -0.33869794760390337}](less[petal width (cm),{'p': 0.4239458846040389}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 3.4479038164057187}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -1.1301361765886568}](less[sepal width (cm),{'p': -0.33580102975453396}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 2.566383621027542}](less[petal width (cm),{'p': 0.5102959915419232}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 1.5268261100507017}](less[petal width (cm),{'p': 1.5202948575227468}](less[sepal width (cm),{'p': -1.8158216493722497}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.854237237635554}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.027124660157869962}](nom_class:2, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9363997582549763}](less[petal width (cm),{'p': 0.9799801564671928}](less[petal width (cm),{'p': 0.7650097804352778}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.6656006043462197}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.04156061802106392}](less[sepal width (cm),{'p': 0.695998975808187}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.43804844343231186}](less[sepal width (cm),{'p': -0.17916883081647497}](nom_class:0, less[sepal length (cm),{'p': 0.3114450411798866}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.1360933815610139}](less[petal width (cm),{'p': 0.4010347583888702}](less[petal width (cm),{'p': 0.6224484112505579}](less[petal width (cm),{'p': 0.20041360430385913}](less[petal width (cm),{'p': 0.642817532668889}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.5052415609871634}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.9797779504675519}](less[petal length (cm),{'p': 0.4028476279058405}](nom_class:2, nom_class:2), nom_class:2)), nom_class:0), less[petal length (cm),{'p': 0.9027620427143587}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.5995794884174798}](less[petal width (cm),{'p': 1.8350355866314705}](less[petal width (cm),{'p': 0.5623836647863912}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.7396035434295518}](less[petal width (cm),{'p': 0.20402118623167953}](nom_class:0, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.0155341050284574}](less[sepal width (cm),{'p': 0.9184167314756453}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7666246230335828}](less[sepal width (cm),{'p': 0.9682506072332775}](less[sepal length (cm),{'p': -0.10155726470468412}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.14273030615847793}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 0.892064263283967}](less[petal width (cm),{'p': 0.03845354487873642}](less[petal length (cm),{'p': 1.023900545382408}](nom_class:0, nom_class:1), nom_class:0), less[petal length (cm),{'p': 4.744440889333049}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.019197946327955906}](less[petal width (cm),{'p': 0.21555825625986003}](less[petal width (cm),{'p': 0.706064273471362}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.824585907913518}](less[sepal width (cm),{'p': 0.8186396731051795}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.6993547354057786}](less[petal length (cm),{'p': 0.7141373370158401}](less[sepal length (cm),{'p': 0.34099173725168785}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.30172311828006315}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.10070950983279903}](less[petal width (cm),{'p': 0.9501863331110074}](less[sepal width (cm),{'p': 0.9899550493697405}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.3429625579288743}](nom_class:1, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6944759262180082}](less[petal width (cm),{'p': 0.969939830097303}](less[petal width (cm),{'p': 0.626026988019553}](less[petal width (cm),{'p': 1.5351763394757607}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5769640152478872}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': -0.3596501275814786}](nom_class:1, less[petal length (cm),{'p': -0.09019516589630194}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7439008025974467}](less[sepal width (cm),{'p': 0.623576063103083}](less[petal length (cm),{'p': 1.1569641086934026}](less[petal width (cm),{'p': 0.7523166246125965}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.20709019894381264}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 0.05855539035494339}](nom_class:1, less[petal length (cm),{'p': 0.03703502466269795}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.037455666077035}](less[petal width (cm),{'p': 1.6220900862850305}](less[petal width (cm),{'p': 0.6772852584825322}](less[petal width (cm),{'p': 0.8817128051767656}](less[petal width (cm),{'p': 0.7250883057758529}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.7183020725185343}](less[petal width (cm),{'p': 1.579405914144824}](less[petal width (cm),{'p': -0.038525694925680365}](nom_class:2, nom_class:0), less[petal length (cm),{'p': -0.2935297529812569}](nom_class:1, nom_class:1)), nom_class:2)), nom_class:1), less[sepal width (cm),{'p': 0.11226997872128164}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.026382491021684884}](less[sepal length (cm),{'p': 0.2916618183822313}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.5685275956365775}](less[petal width (cm),{'p': -1.3351298124270798}](less[sepal length (cm),{'p': -0.15802114960688127}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.7455242926820387}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.3909325913294746}](less[sepal width (cm),{'p': -1.201875861637392}](less[petal width (cm),{'p': 1.0609029073025669}](less[sepal width (cm),{'p': 1.005568248877101}](less[sepal width (cm),{'p': 0.9852699733235899}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.1948464640757164}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.46544623298651616}](less[petal length (cm),{'p': 0.8308159743823855}](nom_class:2, less[petal width (cm),{'p': 0.867487799429325}](less[petal width (cm),{'p': -0.33356780838917266}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.48738777381503}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -1.6057810234361152}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 1.6713223014601448}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': -2.8251165143984815}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.6237150392549069}](less[petal width (cm),{'p': 0.41787906870201297}](less[petal width (cm),{'p': -0.18854001936624054}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.1743200068931841}](less[petal width (cm),{'p': 0.678878011263353}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.8288238362606741}](less[petal length (cm),{'p': 0.17126442703148437}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.02683793282256486}](less[petal length (cm),{'p': 0.3542109729483166}](less[sepal length (cm),{'p': 0.566278829415462}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.3867933624925123}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.07405652604236146}](less[sepal length (cm),{'p': 1.6712429169728362}](less[sepal width (cm),{'p': 0.23088927829300177}](nom_class:2, nom_class:1), nom_class:0), less[petal length (cm),{'p': 1.9896940728807841}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.395889827139646}](less[petal width (cm),{'p': 1.1639043743070019}](less[petal width (cm),{'p': 1.0150519798642663}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.8288984792850604}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.11524016316673574}](less[sepal length (cm),{'p': -0.9719463946624463}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6416775288246057}](less[petal width (cm),{'p': 0.7244118388763647}](less[sepal length (cm),{'p': 1.4883909940769047}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.9613465934613465}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': -0.08973960911413759}](less[petal length (cm),{'p': 0.6447637500894782}](less[petal width (cm),{'p': 0.0028514849218742033}](less[petal width (cm),{'p': -0.7850931892517543}](less[sepal width (cm),{'p': -0.5487236475606975}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.1427902138492546}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.0201747293102883}](less[petal length (cm),{'p': 1.0097639207333229}](nom_class:2, less[petal width (cm),{'p': 0.03781302170043027}](less[petal width (cm),{'p': 1.4310037427664442}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.09508256707699846}](less[sepal length (cm),{'p': 1.184844508065817}](less[petal length (cm),{'p': -1.5682841372774283}](less[sepal length (cm),{'p': 0.3327225122536621}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.1651150693175034}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.6256115978562122}](less[petal width (cm),{'p': 0.7512349627748551}](less[sepal width (cm),{'p': 1.8371577880491308}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.8373443403590564}](nom_class:1, nom_class:2))), nom_class:1))), less[petal length (cm),{'p': 0.4594247843698299}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 0.5410413134099643}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.820528538899665}](less[petal width (cm),{'p': 1.8934032304808346}](less[petal width (cm),{'p': 0.9308283471130475}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.6541757115857655}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.4802422655261758}](less[sepal length (cm),{'p': -0.49523227183633045}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.3750330525212993}](less[petal width (cm),{'p': 1.512970398535461}](less[sepal length (cm),{'p': 0.11722523066444768}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3700233961046044}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': -0.44157501454178216}](less[sepal width (cm),{'p': 0.9789193302894041}](less[petal width (cm),{'p': -0.07299795877227266}](less[petal width (cm),{'p': 1.512983389832215}](less[sepal width (cm),{'p': 1.1429096105722187}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0033928647629866}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.6569761494749949}](less[petal length (cm),{'p': 1.8239990249214444}](nom_class:2, less[petal width (cm),{'p': 1.477753615939743}](less[petal width (cm),{'p': -1.8375571457881381}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.3756688538133209}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.49674555686951166}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.07247169203431525}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9130431507571484}](less[petal width (cm),{'p': 0.756364530862039}](less[petal width (cm),{'p': 1.3986937050681583}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.6320089504492195}](less[petal width (cm),{'p': 1.9367402813988384}](less[petal length (cm),{'p': 2.5010043138039113}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.12992840071450623}](nom_class:2, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': -0.8103419071905906}](less[sepal width (cm),{'p': 0.29161145974191405}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 2.0556112147820755}](less[petal length (cm),{'p': -0.19031392527526125}](less[sepal length (cm),{'p': -1.6335974588230584}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.0790906501352144}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -2.149084050700441}](less[petal width (cm),{'p': 0.3620567429051057}](less[sepal width (cm),{'p': 1.0684494192517726}](nom_class:2, nom_class:1), nom_class:2), less[petal width (cm),{'p': 1.6617008991741429}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2076956870727305}](less[petal width (cm),{'p': 0.7378083335485979}](less[petal width (cm),{'p': 0.6189550963881212}](less[petal width (cm),{'p': 0.8875737427249755}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.2230825172815214}](nom_class:1, nom_class:2)), nom_class:2), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.208990848757246}](less[petal width (cm),{'p': 1.1757116994513552}](less[petal width (cm),{'p': 0.6579166211804732}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.7430894317670771}](nom_class:0, less[petal length (cm),{'p': -0.6885426007831636}](nom_class:0, nom_class:2))), less[sepal length (cm),{'p': 1.3119933513507918}](less[sepal length (cm),{'p': 1.0466723663577913}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.6119848058849379}](less[petal width (cm),{'p': -0.1019444145312845}](less[sepal length (cm),{'p': -0.19944437787808966}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.8311997624508858}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.49941384320810006}](less[sepal width (cm),{'p': 0.5785871946660145}](less[petal width (cm),{'p': 0.46800924837728364}](less[petal width (cm),{'p': 1.5054162813199734}](less[sepal width (cm),{'p': 0.49859081062743893}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4050187158394706}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.07752986014017182}](less[sepal length (cm),{'p': -0.17374849903730993}](nom_class:2, less[petal width (cm),{'p': -0.05399150782282741}](less[petal width (cm),{'p': 2.1670564531347463}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.5317334319451628}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.6259987026762721}](nom_class:1, nom_class:2))), nom_class:0), less[sepal width (cm),{'p': 2.9811720827840245}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.372622124963208}](less[petal width (cm),{'p': 1.3036630446944335}](less[petal width (cm),{'p': 1.2780501718943869}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.8253136611467318}](nom_class:0, nom_class:2)), less[petal width (cm),{'p': 0.35411433422031907}](less[petal width (cm),{'p': 1.2528249930761624}](nom_class:2, less[petal width (cm),{'p': 1.0581914983288745}](less[petal width (cm),{'p': 1.1416363131615448}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.5804667269325328}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.16623448738429375}](nom_class:1, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.9246695108779317}](less[sepal width (cm),{'p': 0.49153942244385396}](less[petal width (cm),{'p': 0.5395793129797283}](less[sepal width (cm),{'p': 0.6770564574793645}](less[sepal width (cm),{'p': -0.28462471544849266}](less[petal width (cm),{'p': 0.30004965723418714}](less[sepal width (cm),{'p': 0.6613640615135928}](less[sepal width (cm),{'p': 1.360949249723761}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.1547164442393405}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 0.7214022061108012}](less[petal length (cm),{'p': 1.0264586650155931}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 0.6728147447168711}](less[petal length (cm),{'p': 1.0318998201375307}](nom_class:0, nom_class:1), nom_class:0))), nom_class:0), less[petal length (cm),{'p': 0.9258180365133069}](nom_class:1, nom_class:2)), nom_class:1), less[sepal length (cm),{'p': 0.3660325593736562}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 1.5816858312644366}](less[sepal length (cm),{'p': 0.8677241896827035}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.221511841411172}](less[petal width (cm),{'p': 1.2947090892390962}](less[sepal length (cm),{'p': 0.6230253966840021}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5669893281035923}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 0.0074719204478742585}](less[sepal width (cm),{'p': 0.8396755144987378}](less[petal width (cm),{'p': -0.24329663712441607}](less[petal width (cm),{'p': 0.6209045826212837}](less[sepal width (cm),{'p': 0.6529935897789505}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.07115676019124767}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.1793690388407096}](less[petal length (cm),{'p': 1.0807423081407594}](nom_class:2, less[petal width (cm),{'p': 0.3209857502687403}](less[petal width (cm),{'p': -0.08713836297030314}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7125996814332884}](nom_class:1, nom_class:1))), less[sepal width (cm),{'p': 0.27109147772399356}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.5766261584901538}](nom_class:1, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0506267190242617}](less[petal width (cm),{'p': 1.3590943213850815}](less[petal width (cm),{'p': 0.6468908168712761}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.0809582783952179}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.005254867280657}](less[sepal length (cm),{'p': 0.15818401558257328}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3220146789174974}](less[petal width (cm),{'p': -1.1811952529305492}](less[sepal length (cm),{'p': 0.619534248670679}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.3679968826545497}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 2.1669256207421754}](less[sepal width (cm),{'p': 0.17676574348876384}](less[petal width (cm),{'p': 0.5508489278947168}](less[sepal width (cm),{'p': 1.440641323034586}](less[sepal width (cm),{'p': 1.1053377019768633}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.6164585540565164}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.33555999437807205}](less[petal length (cm),{'p': -1.6965784635645955}](nom_class:2, less[petal width (cm),{'p': -1.9884459080244228}](less[petal width (cm),{'p': -3.1064512530185704}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5170522482251991}](nom_class:1, nom_class:1))), less[sepal length (cm),{'p': 2.304335563164196}](nom_class:1, nom_class:2))), less[petal length (cm),{'p': -0.5655103421492058}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 4.870310035946905}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7973593266349663}](less[petal width (cm),{'p': 1.5741154433782933}](nom_class:0, less[sepal width (cm),{'p': 1.1497578616644721}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.399625602252495}](less[sepal length (cm),{'p': 0.2726835643199406}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.8100792484611624}](less[petal width (cm),{'p': 0.018305332344988212}](less[sepal length (cm),{'p': 0.895116326865811}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.855500871182975}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': -0.45837942214009203}](less[sepal width (cm),{'p': 0.838482036575649}](less[petal width (cm),{'p': 0.5797932887629598}](less[petal width (cm),{'p': 1.952645444503303}](less[sepal width (cm),{'p': 0.16379021603742094}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.3058849988332881}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.19465109124651486}](less[petal length (cm),{'p': 0.8003181236511733}](nom_class:0, less[petal width (cm),{'p': 1.2548624812851306}](less[petal width (cm),{'p': -0.43788928382508696}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.2546250423871567}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': 0.24314285216156117}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 4.824008965910002}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.403979011351778}](less[petal width (cm),{'p': 2.046587447647801}](less[petal width (cm),{'p': 0.8766784660448765}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.234330197474342}](less[petal width (cm),{'p': 1.6023198145360318}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 3.0122380483052793}](less[sepal width (cm),{'p': -0.6290490687381641}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9198201383810483}](less[petal length (cm),{'p': 0.17635259146038196}](less[sepal length (cm),{'p': 1.1023336058501365}](less[sepal width (cm),{'p': 0.514554046433706}](nom_class:0, nom_class:2), nom_class:1), less[sepal length (cm),{'p': 1.2938619308177441}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.357805057655026}](less[sepal length (cm),{'p': 2.0320474564393036}](less[sepal width (cm),{'p': 0.7057759674050246}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7738801043888639}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.9532369359557997}](less[petal width (cm),{'p': 0.7163553495266777}](less[petal width (cm),{'p': 1.4631948491384805}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.0647961293278454}](less[sepal length (cm),{'p': -0.30551278194214193}](less[petal width (cm),{'p': 0.3025064441687167}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.9239438931505568}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 1.9058155188306254}](less[sepal width (cm),{'p': 1.838791151301283}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.8104369256639141}](less[petal length (cm),{'p': 1.3770555724789602}](less[sepal length (cm),{'p': 0.2021669693079151}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.504220995304946}](less[sepal width (cm),{'p': 0.8708772600178132}](less[sepal length (cm),{'p': 2.6839768466637812}](less[sepal width (cm),{'p': -0.10964407694206157}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.3050476123599988}](nom_class:0, nom_class:0)), nom_class:0)), less[sepal width (cm),{'p': 0.5068647124351559}](less[sepal length (cm),{'p': 0.533374595723551}](less[sepal width (cm),{'p': 1.3199824744377953}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.685385287588246}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.997483232078653}](less[petal width (cm),{'p': 0.8279854390648638}](nom_class:0, less[petal width (cm),{'p': 1.6223072834096577}](less[petal width (cm),{'p': -0.40013734797957884}](less[petal width (cm),{'p': -0.5623362836948816}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7947626667430325}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.8351984705553537}](less[sepal width (cm),{'p': 1.3274651042637886}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.6121070480307402}](less[petal length (cm),{'p': 0.47183738530091635}](less[sepal length (cm),{'p': 3.060804077469191}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.24951277892986337}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.25588616445380546}](less[petal width (cm),{'p': -0.23982486146173698}](less[sepal width (cm),{'p': 1.154561906598181}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.1873997800900993}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3087337276950475}](less[petal width (cm),{'p': 1.5862428869888405}](less[petal width (cm),{'p': 1.031384578591337}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.47142782583796816}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.357933658464646}](less[sepal length (cm),{'p': 1.1370551097979344}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.2654648324623647}](less[sepal length (cm),{'p': 0.36786556036102386}](less[sepal length (cm),{'p': 0.7379784928886756}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.37652712438659397}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.0208570798117762}](less[sepal width (cm),{'p': 0.2446564065011687}](less[petal width (cm),{'p': 1.242652368772824}](less[petal width (cm),{'p': 0.6976761961248537}](less[sepal width (cm),{'p': 0.3912734178126731}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.22013458120301876}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6800719982150962}](less[sepal length (cm),{'p': -1.1748900129317121}](nom_class:2, less[petal width (cm),{'p': 0.5841775386021192}](less[petal width (cm),{'p': 1.6875181513184543}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 2.7590302003584974}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.699119262546213}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 4.836079630834698}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.732778135057472}](less[petal width (cm),{'p': 0.9205399690683456}](less[petal width (cm),{'p': 0.9786196529886955}](less[petal width (cm),{'p': -0.33798419707978467}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.31524381946312824}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': -0.33256481583076314}](nom_class:1, less[petal length (cm),{'p': 1.3554038744268846}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.873348944009852}](less[petal width (cm),{'p': 2.2359954292152544}](less[petal width (cm),{'p': 0.99334592423194}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.11452146353732123}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.35833461269111416}](less[sepal length (cm),{'p': 1.146932494426971}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3292715775979214}](less[petal width (cm),{'p': 1.525413606081367}](less[sepal length (cm),{'p': 1.1778635299976017}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 4.830546270400139}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 1.5357119727018627}](less[sepal width (cm),{'p': 1.382821549808294}](less[petal width (cm),{'p': 1.8572000537683}](less[sepal width (cm),{'p': 0.19392295865301368}](less[sepal width (cm),{'p': 2.3083536047246245}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.47586040035438}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': -0.2120227435202533}](less[petal length (cm),{'p': 0.16525023988471502}](nom_class:2, less[petal width (cm),{'p': 1.7245138203665764}](less[petal width (cm),{'p': 0.3921449846914654}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 2.177493660668298}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 1.4194275688386235}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -0.6070736053956258}](less[sepal width (cm),{'p': 1.8595757543326192}](less[petal width (cm),{'p': -0.24275605252385135}](less[sepal width (cm),{'p': -0.020718014460211542}](less[petal length (cm),{'p': -0.6461723380574951}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.4406609095511278}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.725426972304098}](less[petal length (cm),{'p': -0.5462988861601269}](nom_class:2, less[petal width (cm),{'p': 1.596906830401537}](less[petal width (cm),{'p': 1.3948764867994334}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.6289466076411668}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.35668162535145087}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -0.5056759095850305}](nom_class:2, nom_class:1)), nom_class:0)), less[petal length (cm),{'p': 0.8456994703351624}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.408677918354954}](less[petal width (cm),{'p': 1.461003916063698}](less[petal width (cm),{'p': 1.0847152616541789}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.1996819113034132}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.6350214641857621}](less[sepal width (cm),{'p': 1.1566964599444725}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5542331851822001}](less[petal width (cm),{'p': -1.109604318859485}](less[sepal length (cm),{'p': -0.26539761627574954}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.4260460860198181}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 1.0454568892856035}](less[sepal width (cm),{'p': -1.0892356222615232}](less[petal width (cm),{'p': 0.9712237785388496}](less[sepal width (cm),{'p': 0.2607051022606384}](less[sepal width (cm),{'p': -1.779162131053854}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.046692798796425}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.7923795775633797}](less[petal length (cm),{'p': 0.43070656075716157}](nom_class:0, less[petal width (cm),{'p': -0.6206448734972536}](less[petal width (cm),{'p': -0.8590947018399687}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.298296465293592}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': 1.81703812067341}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.5344984654230793}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': -0.9615830736845228}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.675609831148202}](less[petal width (cm),{'p': 0.7142274368125012}](less[petal width (cm),{'p': 1.8604120253967578}](less[petal width (cm),{'p': 1.2721002072325702}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.0721876463297435}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 1.0327716942845124}](nom_class:1, less[petal length (cm),{'p': 1.8948612399842624}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -2.0293602131681534}](less[petal width (cm),{'p': -0.03466370105819078}](less[sepal width (cm),{'p': 0.6413983200358266}](less[petal width (cm),{'p': 1.6315770898855437}](less[sepal width (cm),{'p': -1.1573723435979084}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.08870387989836159}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.8873748514327131}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.40972295625598787}](less[sepal length (cm),{'p': -0.7484132634193899}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.0080467310444132}](less[petal width (cm),{'p': 0.619495550574288}](less[sepal length (cm),{'p': 1.11164774978702}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.2374717302159293}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': -3.052570259855245}](less[sepal width (cm),{'p': 1.03972313172034}](less[petal length (cm),{'p': -0.34212369548061966}](less[sepal width (cm),{'p': 0.41089888854603845}](less[sepal width (cm),{'p': 0.06357597285417532}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.35456243430353623}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.8967493953577771}](less[petal length (cm),{'p': 0.4068696003811812}](nom_class:2, less[petal width (cm),{'p': 1.1566279260304657}](less[petal width (cm),{'p': 1.0101682779749386}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.028381232672192724}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.4473055691988682}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': -1.7190649727894274}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 4.811315033440334}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.7379749356207626}](less[petal width (cm),{'p': 0.9180116518970203}](less[petal width (cm),{'p': -1.113263087673002}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.7195064054375182}](less[sepal length (cm),{'p': 0.18750042486289809}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.47939127470495757}](nom_class:2, less[sepal length (cm),{'p': 0.5563407416721401}](less[petal length (cm),{'p': -0.437800955426641}](less[sepal length (cm),{'p': -0.8271767603758058}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.1498898590761981}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.983559966099761}](less[sepal length (cm),{'p': -0.3044641590404526}](less[sepal width (cm),{'p': -0.49892216011984325}](nom_class:2, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 0.7601587964564022}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.366493099037334}](less[petal width (cm),{'p': 0.9773399366435769}](less[petal width (cm),{'p': 0.9620717115991027}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.3923072436013806}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.41959504420502247}](less[sepal length (cm),{'p': -1.4265918319614086}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6589112593567104}](less[petal width (cm),{'p': 0.02581330254434655}](less[sepal length (cm),{'p': 0.7776021799209334}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.07821158396713046}](less[petal width (cm),{'p': 0.4639258828206362}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.7231147428612199}](less[petal length (cm),{'p': 0.6285297030635932}](less[petal width (cm),{'p': 1.3035128173571935}](less[petal width (cm),{'p': 2.93788016411988}](less[sepal width (cm),{'p': -0.09274674410639003}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.7544051669633314}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.7436812971271478}](less[petal length (cm),{'p': -0.7810166691931795}](nom_class:2, less[petal length (cm),{'p': -0.3113137035304741}](less[petal width (cm),{'p': 1.4826451494826136}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -1.7584190020860149}](less[sepal length (cm),{'p': 0.7855218774439785}](less[petal length (cm),{'p': 1.9305282489184359}](less[sepal length (cm),{'p': 0.4079435416771201}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.2629509735092353}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.1602121541041639}](less[petal width (cm),{'p': -0.9974458246353772}](less[sepal width (cm),{'p': 1.1139317730610394}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.10433082211752169}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 3.0395668274835366}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.25783052816790086}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.737123579222841}](less[petal width (cm),{'p': 1.4417206327159768}](less[petal width (cm),{'p': 0.5445116087297068}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.6418831759211212}](less[petal width (cm),{'p': 0.5783717880802919}](nom_class:2, nom_class:1), nom_class:1)), less[sepal length (cm),{'p': 0.3767359097525299}](less[sepal width (cm),{'p': 0.9499590838179413}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -2.1217496190660032}](less[petal length (cm),{'p': 0.07667892924864494}](less[sepal length (cm),{'p': -0.058172973223779234}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5964733425474704}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.11708164178372887}](nom_class:1, less[petal length (cm),{'p': 2.6473593682085315}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7650034247475848}](less[petal width (cm),{'p': 0.9638009913613185}](nom_class:0, less[petal width (cm),{'p': -1.2529245322310811}](less[petal width (cm),{'p': -0.3357792942048968}](less[petal width (cm),{'p': 0.9484460067367685}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8819822313783756}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 1.9692371876897123}](less[sepal width (cm),{'p': 0.6812032741583585}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.2589702889854153}](less[petal length (cm),{'p': 1.6480964715882402}](less[sepal length (cm),{'p': 0.33148033587955567}](nom_class:0, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 0.47922025659771866}](less[petal width (cm),{'p': 0.18505206132314395}](less[petal length (cm),{'p': -0.18659876507379625}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.846482732338523}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8278400586455321}](less[petal width (cm),{'p': 1.2606493523097337}](less[petal width (cm),{'p': -0.23039433366461864}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.43821241718417264}](less[petal width (cm),{'p': 0.31185255429001557}](nom_class:2, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': 0.36262126771010517}](less[sepal width (cm),{'p': 0.6280235738039426}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.36506471892866293}](less[petal length (cm),{'p': -0.18331133619832513}](less[petal width (cm),{'p': 0.6124300949723387}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.026956773189755}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.7204129037987926}](less[sepal length (cm),{'p': 1.449940280506944}](less[sepal width (cm),{'p': 0.9071633920171882}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.085492345384159}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.038915936484135}](less[petal width (cm),{'p': 2.1014241709153456}](nom_class:0, less[petal width (cm),{'p': 1.394890762727179}](less[petal width (cm),{'p': -0.46401725912305714}](less[petal width (cm),{'p': 0.5638592223426816}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.0884339296167265}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': -0.7428179912962672}](less[sepal width (cm),{'p': 1.6575218523740902}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.2772466447827804}](nom_class:2, less[petal width (cm),{'p': 1.985228051616662}](less[petal width (cm),{'p': 1.67026561884509}](less[sepal width (cm),{'p': 0.9170973627677005}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.9756587595252768}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.340523898095763}](less[petal width (cm),{'p': 1.6846263828376915}](less[petal width (cm),{'p': 0.6054721387645488}](less[petal width (cm),{'p': 1.1467294871119706}](less[petal width (cm),{'p': 0.7983997327783942}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.3008868103879365}](less[petal width (cm),{'p': 1.2880247181224962}](less[petal width (cm),{'p': 1.7656506557072866}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.4547038083414034}](nom_class:1, nom_class:1)), nom_class:2)), nom_class:1), less[sepal width (cm),{'p': -2.940621334030262}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.24061235403319725}](less[sepal length (cm),{'p': -1.2762507584355145}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.12356523199854763}](less[petal width (cm),{'p': 1.0640644914119557}](less[sepal length (cm),{'p': -0.5954044904223253}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.446852037572516}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 2.3005830355997055}](less[sepal width (cm),{'p': -0.7447421439926409}](less[petal width (cm),{'p': 1.0590810142614049}](less[sepal width (cm),{'p': -0.1339405836162415}](less[sepal width (cm),{'p': -1.1109828818713203}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.5037913636954698}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7307904218929931}](less[petal length (cm),{'p': -0.07896846658002196}](nom_class:2, less[petal width (cm),{'p': 0.19288486867060867}](less[petal width (cm),{'p': -0.0031439755758326804}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 1.3156333670211384}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 1.0337227660076211}](nom_class:2, nom_class:1))), less[sepal width (cm),{'p': 0.36189363134072156}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': -1.702222622978056}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.000735271406297}](less[petal width (cm),{'p': -1.2203386579392093}](nom_class:1, less[petal width (cm),{'p': -0.5763905392666087}](less[petal width (cm),{'p': 0.629791191202861}](less[petal width (cm),{'p': 0.6885556717625226}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.784865114103102}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.7547819651868639}](less[sepal width (cm),{'p': -1.1199455751378171}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -2.332489546666421}](less[petal length (cm),{'p': 1.519627970539914}](less[sepal length (cm),{'p': -0.010701231196653394}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': -1.564467290918859}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.1400707639413099}](less[petal width (cm),{'p': 1.1152783410009937}](less[sepal width (cm),{'p': 0.6812942053730021}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.772665567006995}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6268173326907627}](less[petal width (cm),{'p': 0.9464860396604706}](less[petal width (cm),{'p': 1.0461769235970844}](less[petal width (cm),{'p': 0.6035329033182092}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 2.104216768085281}](less[petal length (cm),{'p': -0.5218615272178578}](less[sepal length (cm),{'p': 1.1067040115151894}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.215324798488819}](nom_class:2, nom_class:0)), nom_class:2)), less[sepal length (cm),{'p': -0.11865711401564816}](nom_class:1, less[petal length (cm),{'p': 0.9405517497942232}](nom_class:2, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.36101736179301}](less[petal width (cm),{'p': 1.5530539281932405}](nom_class:1, less[petal width (cm),{'p': 1.727221619386626}](less[petal width (cm),{'p': 0.22359336798264537}](less[sepal width (cm),{'p': 0.2535939322395825}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.16627935180882591}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.047097011467403194}](less[sepal width (cm),{'p': 1.090113396017541}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 3.117797900272632}](less[petal length (cm),{'p': 0.5212679538517276}](less[sepal length (cm),{'p': 0.4372305871284584}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.9701238591084111}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.0009901802876311483}](less[petal width (cm),{'p': 1.0266090772587764}](less[sepal width (cm),{'p': 0.6713485650613595}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.103854435556051}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2565830874448007}](less[sepal width (cm),{'p': -0.28210891298471874}](less[petal width (cm),{'p': 1.0666043432819805}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.15183206653704084}](less[petal width (cm),{'p': 0.35971631198097764}](nom_class:2, nom_class:1), nom_class:0)), less[sepal length (cm),{'p': 0.6487765351189287}](less[sepal length (cm),{'p': 0.5611362809439823}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.0247453103705382}](less[petal length (cm),{'p': -0.23973246340918164}](less[sepal length (cm),{'p': 0.8433735868373984}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.10266128366198746}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.6619393471179866}](less[sepal width (cm),{'p': 0.6287728068340399}](less[sepal width (cm),{'p': 0.8921675750060346}](nom_class:2, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.4724536552451502}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.905223864566934}](less[petal width (cm),{'p': 1.2975264221964844}](less[petal width (cm),{'p': 0.7336330598871181}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.5548050615403635}](less[petal width (cm),{'p': 1.5955824149510898}](less[petal length (cm),{'p': 3.318236892410764}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.4099732523113086}](nom_class:2, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.22504525083035543}](less[sepal width (cm),{'p': -0.25010442579284403}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.07940640192006163}](less[petal length (cm),{'p': 1.2449480003439881}](less[sepal length (cm),{'p': 0.9436376791705059}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.1747244212851597}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 2.9858269176905385}](less[petal width (cm),{'p': 1.455978870778787}](less[sepal width (cm),{'p': 0.650150403113391}](nom_class:1, nom_class:1), nom_class:2), less[petal width (cm),{'p': 1.8826193498304074}](nom_class:1, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.6865295342334652}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.7589224846177238}](less[sepal width (cm),{'p': 2.6801204532481058}](less[petal width (cm),{'p': 0.9599466683342515}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.3139831084760324}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': 0.17971343687255537}](less[sepal length (cm),{'p': 1.1602444112643822}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6879850139991035}](less[petal width (cm),{'p': -0.5952349301963016}](less[sepal length (cm),{'p': 1.7580627323530817}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6902862063190378}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': 0.9069277206077614}](less[petal length (cm),{'p': 1.7818083769546267}](less[petal width (cm),{'p': 1.4420635290930677}](less[petal width (cm),{'p': 0.5008511465676122}](less[sepal width (cm),{'p': 0.4383303297681153}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.621253035985835}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.5529516101532475}](less[petal length (cm),{'p': 0.41667526260113563}](nom_class:1, less[sepal width (cm),{'p': 2.2697912269569827}](less[petal width (cm),{'p': 0.34325264049177984}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.8590138720356593}](less[sepal length (cm),{'p': 1.597598949930465}](less[petal length (cm),{'p': 2.362151237948668}](less[sepal length (cm),{'p': -0.20663982966311562}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0.23655502696065545}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.67583262520084}](less[petal width (cm),{'p': 1.5495516485614516}](less[sepal width (cm),{'p': 1.0726674624181882}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.4135325871356298}](less[petal length (cm),{'p': 0.9191569451086021}](less[sepal length (cm),{'p': 0.04788705974458041}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.0562896426730326}](nom_class:2, nom_class:0)), nom_class:2))), nom_class:0))), less[petal length (cm),{'p': 1.0602907622879683}](nom_class:1, nom_class:2))), nom_class:0), less[petal width (cm),{'p': 1.7913747816312802}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.1339106274363395}](less[petal width (cm),{'p': 1.6680024863870626}](less[petal width (cm),{'p': 0.42127406240305404}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.19080468226936456}](less[petal width (cm),{'p': -1.2294538420583137}](nom_class:2, less[sepal width (cm),{'p': 0.2895929665098717}](nom_class:2, nom_class:2)), nom_class:2)), less[sepal length (cm),{'p': 0.3257208032126184}](less[sepal width (cm),{'p': 0.3976529594835504}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.2866051200053086}](less[petal length (cm),{'p': -0.6377513403201867}](less[petal length (cm),{'p': -0.06215647690475429}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.008039049082861544}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.3672744317875777}](less[sepal length (cm),{'p': 0.4065185007550727}](less[sepal width (cm),{'p': -0.1112057598810463}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.07244020284386221}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': -1.5770293527606993}](less[petal width (cm),{'p': -0.05689063739828967}](less[petal width (cm),{'p': 0.6561621388797545}](less[petal width (cm),{'p': 0.21021196269309045}](less[petal width (cm),{'p': 1.4599546313579879}](less[sepal width (cm),{'p': -2.3503650055481424}](nom_class:0, nom_class:2), nom_class:1), less[petal width (cm),{'p': 0.8193781888003748}](less[petal width (cm),{'p': 2.199069320426391}](less[petal width (cm),{'p': 1.0209321143470336}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.631527075754801}](nom_class:1, nom_class:1)), nom_class:2)), nom_class:1), less[sepal width (cm),{'p': -0.5705845369620267}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.6416434847798964}](less[sepal length (cm),{'p': -0.5279316894885583}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0.08897722600461205}](less[petal width (cm),{'p': 0.08626467785740385}](less[sepal length (cm),{'p': 0.6623146658268644}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.7009182548916604}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.31123559695239655}](less[sepal width (cm),{'p': 1.3375208484374546}](less[petal width (cm),{'p': 2.070946749761876}](less[sepal width (cm),{'p': 1.6021086726699278}](less[sepal width (cm),{'p': -0.2029434450798609}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.3665035984379627}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.0901971183090093}](less[petal length (cm),{'p': 1.2682806707809764}](nom_class:1, less[petal width (cm),{'p': 1.95592142878471}](less[petal length (cm),{'p': 2.6162709474462096}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.6633553551854914}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 1.2491486688983116}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.40169083885206625}](nom_class:1, nom_class:0)), less[petal length (cm),{'p': 4.7508352653790755}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.7244083573369346}](less[petal width (cm),{'p': 0.6426202828655896}](less[petal width (cm),{'p': 0.981395278534958}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.7964112576080964}](nom_class:0, less[petal length (cm),{'p': 0.6433038807155251}](nom_class:0, nom_class:2))), less[sepal length (cm),{'p': -0.7611538402868163}](less[sepal length (cm),{'p': 1.2203286478394897}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -1.6211688150047674}](nom_class:2, nom_class:1)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.194771677260615}](less[sepal width (cm),{'p': 1.1428420370322665}](less[petal width (cm),{'p': 0.6747827118697484}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 4.396779515920392}](less[sepal length (cm),{'p': 1.431865707464489}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.01624350155882126}](nom_class:2, less[sepal length (cm),{'p': 0.3086158085842194}](less[petal length (cm),{'p': 0.8621522994824082}](less[sepal length (cm),{'p': 0.044924915500103635}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.30654949680864685}](nom_class:2, less[sepal length (cm),{'p': 0.743820214389876}](nom_class:2, nom_class:0))), less[sepal width (cm),{'p': 0.1585476982262491}](less[sepal length (cm),{'p': 1.9343381574102518}](less[sepal width (cm),{'p': 0.42857879910540414}](nom_class:2, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 1.0651861942768688}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.9961361240534057}](less[petal width (cm),{'p': 1.3296969467218376}](nom_class:0, less[petal width (cm),{'p': 0.45293465646627173}](less[petal width (cm),{'p': 0.2321577816276279}](less[sepal length (cm),{'p': 0.20059691351747955}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.007963048752731378}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.6904328361373897}](less[sepal width (cm),{'p': 0.49381281234173957}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': -0.3001742658901494}](nom_class:2, less[petal width (cm),{'p': 1.9120644263951152}](less[petal width (cm),{'p': 1.6984294367704273}](less[sepal width (cm),{'p': 1.4694127600059912}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.8245137736951431}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.438786908872414}](less[petal width (cm),{'p': 1.6942804723648708}](less[petal width (cm),{'p': 0.7830468332596656}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -1.3173908059975346}](less[petal width (cm),{'p': -0.6754091594862692}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.9255526944884358}](less[sepal width (cm),{'p': 1.6389418703654286}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.7963490663286987}](less[petal length (cm),{'p': 1.1279091891954827}](less[sepal length (cm),{'p': 0.18608728226405025}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.2797033258519614}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 1.3297394972165546}](less[sepal length (cm),{'p': 2.061102429375585}](less[sepal width (cm),{'p': 0.5293620032297212}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -2.0472893553387643}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.2304535634510145}](less[petal width (cm),{'p': 1.3022001982167255}](less[petal width (cm),{'p': 0.5633768995977333}](less[petal width (cm),{'p': 0.8997984626899482}](less[petal width (cm),{'p': 1.4816569995924436}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.6655358345923588}](less[petal width (cm),{'p': 2.641229661765074}](less[petal width (cm),{'p': 0.49030266247100884}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 1.6877410243044981}](nom_class:1, nom_class:1)), nom_class:2)), nom_class:1), less[petal length (cm),{'p': 0.08389533554693152}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.03759611489098777}](less[sepal length (cm),{'p': 0.851982826959228}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -2.353493972089689}](nom_class:1, less[sepal length (cm),{'p': -0.21345132201467054}](less[sepal width (cm),{'p': 1.4450648398723003}](less[petal width (cm),{'p': 0.5473104747073723}](less[sepal width (cm),{'p': -1.2138125582631347}](less[petal length (cm),{'p': 0.613668064550437}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.1379914211789395}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.4560304471100347}](less[petal length (cm),{'p': -1.3304120721201813}](nom_class:2, less[petal width (cm),{'p': 2.5401054430435415}](less[petal width (cm),{'p': 0.5287230099416296}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.1507309253485996}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.24270962796557694}](nom_class:2, nom_class:1))), less[sepal width (cm),{'p': -1.9276725528852559}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': -0.7507587635586209}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.2768608700113906}](less[petal width (cm),{'p': 0.8976112902812079}](nom_class:0, less[petal width (cm),{'p': -0.2682388853656944}](less[petal width (cm),{'p': 2.968306940071975}](less[petal width (cm),{'p': -0.3555297520761337}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.1689440757026171}](less[petal width (cm),{'p': 0.8064058382276691}](less[petal width (cm),{'p': 0.2751631292470541}](less[petal width (cm),{'p': -0.24176177881010638}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -0.3710609414083107}](nom_class:1, nom_class:1)), nom_class:2), nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': -1.1538653474485567}](less[sepal width (cm),{'p': 0.04660594653925315}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.13123126991841208}](less[petal length (cm),{'p': -1.0070988553175404}](less[sepal length (cm),{'p': 4.355002744807171}](nom_class:0, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 4.301644792129082}](less[petal width (cm),{'p': 1.7736243685698485}](less[petal length (cm),{'p': -0.008250772579483673}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.5025891346402513}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 1.2991638849023328}](less[petal width (cm),{'p': -0.4005051932803022}](less[sepal length (cm),{'p': 0.2473041872446874}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 0.03504493090622662}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.2371693992400793}](less[sepal length (cm),{'p': 0.40484050525062903}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7225922595044545}](less[petal width (cm),{'p': -0.03280265028438237}](less[sepal length (cm),{'p': 1.0485386511303594}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.33837263017021296}](less[petal width (cm),{'p': 0.7068138930018133}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.5342460358383732}](less[petal length (cm),{'p': -0.3244958819601831}](less[petal width (cm),{'p': 1.1540837144874845}](less[petal width (cm),{'p': 1.4295661836262}](less[sepal width (cm),{'p': 1.4371461715040605}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.7710173313964899}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.23593060276848998}](less[petal length (cm),{'p': 0.46082633656460564}](nom_class:2, less[petal length (cm),{'p': 1.1360039636016315}](less[petal width (cm),{'p': -0.20323566583582167}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.43974663565510647}](less[sepal length (cm),{'p': 0.5851426319620852}](less[petal length (cm),{'p': -0.41306534938918194}](less[sepal length (cm),{'p': 1.7441856554703317}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.1601450531361711}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.7775014612066735}](less[petal width (cm),{'p': 1.403370882556327}](less[petal length (cm),{'p': 0.986867734199342}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 0.3480208429796179}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': -0.06001636772966676}](nom_class:0, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.17505966206219517}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.1655723286469097}](less[petal width (cm),{'p': 2.1433296680598155}](less[petal width (cm),{'p': 0.8218639870435489}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8678037873626074}](less[petal width (cm),{'p': -0.7517305910521324}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 2.0164162423891954}](less[sepal width (cm),{'p': 0.1769204748225596}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.7951660406845447}](less[petal length (cm),{'p': 0.38524587723677567}](less[sepal length (cm),{'p': -1.6851921524199465}](nom_class:0, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 0.946771791883268}](less[sepal length (cm),{'p': 0.31523034651631343}](less[sepal width (cm),{'p': -0.36396614952303874}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.845620874354048}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.6011914770184204}](less[petal width (cm),{'p': 1.0084013101525822}](less[petal width (cm),{'p': 0.7627483357629519}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.8016005465537506}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.002146065478072}](less[sepal length (cm),{'p': 2.501008309221878}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.6401774951152661}](less[petal width (cm),{'p': 0.6348642081541169}](less[sepal width (cm),{'p': -1.5743081711617664}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.843484284617873}](less[petal width (cm),{'p': 0.46353355902329674}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.8538391286171426}](less[petal length (cm),{'p': 1.4863826833977818}](less[petal width (cm),{'p': -0.0652509286087293}](less[petal width (cm),{'p': -0.10432368084715793}](less[sepal width (cm),{'p': 0.2738679107860378}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.35262453728471216}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.3000781012197918}](less[petal length (cm),{'p': 0.586910328326008}](nom_class:1, less[petal length (cm),{'p': 2.0596926776942834}](less[petal width (cm),{'p': 0.2991031750711687}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.12344174169248895}](less[sepal length (cm),{'p': 0.1387927378233207}](less[petal length (cm),{'p': -0.46544735489118394}](less[sepal length (cm),{'p': 1.5394176521020908}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.43860904123721295}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.173415249619295}](less[petal width (cm),{'p': 0.32093913775265864}](less[sepal width (cm),{'p': 0.6994952773559941}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.11366720347790826}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 0.6960509993245126}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.4928655934462567}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.375540664969876}](less[petal width (cm),{'p': 1.8383207358392801}](less[petal width (cm),{'p': 0.4225029839180366}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.196242334486001}](less[petal width (cm),{'p': -0.03383407057185023}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.5810440249120666}](less[sepal width (cm),{'p': -0.42181094677074127}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.8538232638509462}](less[petal length (cm),{'p': -0.38925690883831743}](less[sepal length (cm),{'p': -1.7384742440221643}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.2384319163868742}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.3670959360107686}](less[sepal length (cm),{'p': 1.3900228720679695}](less[sepal width (cm),{'p': -0.2922683876001533}](nom_class:2, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 1.9912206652593145}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6370089475471823}](less[sepal width (cm),{'p': 2.244246671409688}](less[petal width (cm),{'p': 1.3241876527378063}](less[sepal length (cm),{'p': 0.16582623933639762}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 1.5852318784311676}](less[petal length (cm),{'p': 0.20085604213518166}](less[sepal length (cm),{'p': 0.9389976192414167}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.5767857707814666}](nom_class:2, nom_class:0)), nom_class:2)), less[sepal length (cm),{'p': 1.1042108171455547}](nom_class:1, less[petal length (cm),{'p': 2.8506057374425335}](nom_class:0, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.9104927547545318}](less[petal width (cm),{'p': 0.804534609457169}](less[petal width (cm),{'p': 0.6617619906192358}](less[petal width (cm),{'p': 0.6173015995726291}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.9036872862682823}](less[petal length (cm),{'p': 0.1292274006929579}](less[sepal length (cm),{'p': 0.8966179162712551}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.49751936570236877}](nom_class:2, nom_class:0)), nom_class:2)), less[sepal length (cm),{'p': 0.18451553798054432}](nom_class:1, less[petal length (cm),{'p': -0.3170560476580001}](nom_class:2, nom_class:2))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.4899910154885818}](less[petal width (cm),{'p': 1.204974655386293}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.32821715783775884}](less[sepal width (cm),{'p': 0.4712964271576649}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4014507228571333}](nom_class:2, less[petal length (cm),{'p': -0.1668542679224756}](less[petal width (cm),{'p': 0.47340827267718977}](less[sepal length (cm),{'p': 1.2457709994579167}](nom_class:1, nom_class:1), nom_class:1), less[petal length (cm),{'p': 2.5718821182393983}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2448133683163847}](less[petal width (cm),{'p': 1.8841097892007392}](less[petal width (cm),{'p': 2.168368467281349}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.07561353541563004}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.10121250894481093}](less[sepal length (cm),{'p': 0.24922623414272715}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6097026808130166}](less[petal width (cm),{'p': -0.25609921025657756}](less[sepal length (cm),{'p': 1.1809025926366261}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.3761783219397588}](less[petal width (cm),{'p': 1.2321660219439072}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': -0.08540294477378976}](less[petal length (cm),{'p': 0.569001575425105}](less[petal width (cm),{'p': -0.6708247944396735}](less[petal width (cm),{'p': -0.9362494133420391}](less[sepal width (cm),{'p': 1.1938113763315434}](nom_class:2, less[sepal width (cm),{'p': 0.7147539398856673}](less[sepal length (cm),{'p': -0.8668557511107879}](less[sepal width (cm),{'p': 1.1561173104129412}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.826729690605759}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': -0.18527177337971462}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.7716762879583419}](less[petal length (cm),{'p': 0.6911535427492291}](nom_class:2, less[petal length (cm),{'p': -0.44238294879341256}](less[petal width (cm),{'p': 1.6571013099326573}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.26740973172192084}](less[sepal length (cm),{'p': 0.954973150708685}](less[petal length (cm),{'p': -0.47724822310309045}](less[sepal length (cm),{'p': 0.28611623399692504}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.1131531405505808}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6225086149078571}](less[petal width (cm),{'p': -2.182185416124049}](less[sepal width (cm),{'p': 1.7184110293891293}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7745076517800801}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': -1.4725424052281428}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 3.3275072774788095}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3717400256206123}](less[petal width (cm),{'p': 0.7371218644223414}](less[petal width (cm),{'p': 0.7607233808756336}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.4305496683492694}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.2800962572068111}](less[sepal length (cm),{'p': 1.051965401996021}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6915145077457554}](less[petal width (cm),{'p': 0.11306081897070679}](less[sepal length (cm),{'p': 1.5038889969435614}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.13349468839351292}](less[petal width (cm),{'p': -0.12041886633305693}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.2057438402984163}](less[petal length (cm),{'p': -0.022351856981770668}](less[petal width (cm),{'p': 1.2409292394988252}](less[petal width (cm),{'p': -0.7100582476161171}](less[sepal length (cm),{'p': 2.1331645699346513}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.9577982061090988}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.04399562261117597}](less[petal length (cm),{'p': 0.5505305128744138}](nom_class:2, less[petal length (cm),{'p': 0.8515303163409833}](less[petal width (cm),{'p': 0.5317990512601389}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 2.18467949422112}](less[sepal length (cm),{'p': 0.27519919134229354}](less[petal length (cm),{'p': 0.19921576128630358}](less[sepal length (cm),{'p': 0.5772648630885578}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 2.960764741162608}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.38929057714777376}](less[petal width (cm),{'p': 0.7134182292906646}](less[sepal width (cm),{'p': 1.2160945466337574}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.31780692704171076}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 0.3096079036470397}](nom_class:2, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 0.494990143126036}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.690875593328254}](less[petal width (cm),{'p': 0.6469818937559009}](nom_class:0, less[petal width (cm),{'p': 2.3581959074722247}](less[petal width (cm),{'p': -0.5174286262783883}](less[petal width (cm),{'p': 0.011730774423151624}](nom_class:2, nom_class:2), less[petal width (cm),{'p': -0.003286640911437086}](less[petal width (cm),{'p': 0.050089943727509745}](less[sepal width (cm),{'p': -0.4173715134350866}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.251088645782956}](nom_class:0, nom_class:2))), nom_class:2)), less[sepal length (cm),{'p': -2.4435461603685624}](less[sepal width (cm),{'p': -0.09269778842491527}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.0121983637689866}](nom_class:1, less[petal width (cm),{'p': 1.6272827143963764}](less[petal width (cm),{'p': 1.6003851726136082}](less[sepal width (cm),{'p': -0.04938464483567079}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.5262978799849154}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.8196132162270664}](less[petal width (cm),{'p': 1.6133472910980178}](less[petal width (cm),{'p': 0.7843650779695662}](less[petal width (cm),{'p': 2.2319656940746775}](less[petal width (cm),{'p': 1.0327023457631395}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.6667372141687958}](less[sepal width (cm),{'p': -0.33004004180592483}](less[sepal length (cm),{'p': 1.1744296827509766}](nom_class:2, nom_class:0), less[petal length (cm),{'p': -0.10773574109602896}](less[petal width (cm),{'p': 0.2595957026727711}](less[petal width (cm),{'p': -0.8798810734007476}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7022684714077343}](less[petal width (cm),{'p': 0.7782804814145097}](nom_class:1, nom_class:1), nom_class:2)), nom_class:1)), nom_class:2)), nom_class:1), less[sepal width (cm),{'p': 0.8962106350591205}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.31061975297897915}](less[sepal length (cm),{'p': 1.2084408931171398}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.2352975939529602}](less[petal width (cm),{'p': 1.4067507089637654}](less[sepal length (cm),{'p': 1.0806676471361327}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.1139525912830057}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': -0.8589697142327887}](less[petal width (cm),{'p': 0.6837288877431325}](less[petal width (cm),{'p': 0.6374463248922384}](less[sepal width (cm),{'p': 1.4567385967869617}](less[sepal width (cm),{'p': 0.5894543542751038}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.26655300421305506}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.36773072402474183}](less[petal length (cm),{'p': 0.878005239796132}](nom_class:2, less[petal width (cm),{'p': -0.3535206612366212}](less[petal width (cm),{'p': 0.28585482830484066}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.4135159723132185}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 0.3570238336077611}](nom_class:2, nom_class:1))), less[sepal width (cm),{'p': 0.4593325845900744}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 0.6276025491490606}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2227185152287117}](less[petal width (cm),{'p': 2.4340255017999213}](nom_class:0, less[petal width (cm),{'p': -0.19940554778575553}](less[sepal width (cm),{'p': 1.6337080624805012}](less[petal width (cm),{'p': 0.4634883710409227}](nom_class:2, less[petal width (cm),{'p': 0.5899660130731892}](less[sepal length (cm),{'p': -0.013308355667740024}](less[sepal width (cm),{'p': -0.07293264949097322}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.5686394141173872}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': -1.8522555709067954}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.8060154492727704}](less[sepal width (cm),{'p': -0.6664509158506662}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.3087740110129495}](less[petal length (cm),{'p': 1.4091469970040287}](less[sepal length (cm),{'p': 1.0787624135026341}](nom_class:0, nom_class:2), nom_class:2), less[sepal width (cm),{'p': 0.17424567463817842}](less[petal width (cm),{'p': 0.36936394793974126}](less[petal length (cm),{'p': 1.2574109458038487}](nom_class:1, nom_class:1), nom_class:1), less[petal length (cm),{'p': 4.919458045448655}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.263388218596106}](less[petal width (cm),{'p': 1.6808239821449065}](less[petal width (cm),{'p': 0.7650194213237828}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.0373219102935276}](less[sepal width (cm),{'p': 1.4498408528369189}](nom_class:2, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': -0.35346010630273667}](less[sepal width (cm),{'p': 0.2305788419694288}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 2.3387210905290363}](less[petal length (cm),{'p': -1.5049719048516184}](less[petal length (cm),{'p': 1.369209216018642}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.9473877124540884}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.4988530339316629}](less[sepal length (cm),{'p': 3.054454457503882}](less[sepal width (cm),{'p': -2.06377320574091}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.4156160290105002}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.7146180790459126}](less[sepal width (cm),{'p': 0.434655107937075}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.21329812747944427}](less[sepal width (cm),{'p': 1.1532097206125076}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.19709638005540558}](nom_class:2, less[petal width (cm),{'p': -0.10822374013077335}](less[petal width (cm),{'p': 0.988708254789406}](less[sepal width (cm),{'p': 0.868758960052946}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.8815649045550953}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6455251564733124}](less[petal width (cm),{'p': 0.9042288385342339}](less[petal width (cm),{'p': 1.0245264168678025}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.9002473890672913}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.6678504482463239}](less[sepal length (cm),{'p': -0.6650509358428529}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.5018752578777189}](less[petal width (cm),{'p': -0.35126185095047013}](less[sepal length (cm),{'p': 0.6774028295044718}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -0.2595944819982489}](less[sepal width (cm),{'p': 0.3339177191525571}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 1.6100989557417433}](less[sepal width (cm),{'p': 0.14519282434896985}](less[petal width (cm),{'p': 1.2788482868116322}](less[petal width (cm),{'p': 0.9000441719598501}](less[sepal width (cm),{'p': 0.6489312609707056}](nom_class:2, less[sepal width (cm),{'p': 0.6990323140810881}](less[sepal length (cm),{'p': 0.8700161340473676}](less[sepal width (cm),{'p': 0.9513386118561576}](nom_class:2, nom_class:1), nom_class:0), less[petal length (cm),{'p': 0.6652883117280382}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.20291142008069774}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.24725269701750097}](less[petal length (cm),{'p': -0.16433458090638464}](nom_class:2, less[petal length (cm),{'p': 0.4499116313959304}](less[petal width (cm),{'p': 0.08193338148135426}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.056345788495714116}](less[sepal length (cm),{'p': 0.9336180773092962}](less[petal length (cm),{'p': 0.8275599141530623}](less[sepal width (cm),{'p': 0.25059191893015764}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.9803454520063394}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 1.0825725637768482}](less[petal width (cm),{'p': 0.41372932200108464}](less[sepal width (cm),{'p': 0.1368613354062293}](nom_class:2, nom_class:2), nom_class:2), less[petal length (cm),{'p': -0.0722805343633269}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 1.1259456727654416}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': -0.07663874667696838}](nom_class:1, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.42016004888804004}](less[sepal width (cm),{'p': 0.19158084934764308}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.1712609779958869}](less[sepal width (cm),{'p': 0.6932155062104011}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9346539903142786}](less[sepal length (cm),{'p': 0.6061180323434561}](less[petal length (cm),{'p': 0.9329444923971218}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.23898021301242944}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.07794073930957812}](less[sepal length (cm),{'p': 0.19346489783427212}](less[sepal width (cm),{'p': 0.6571499228716534}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.6069683525322538}](nom_class:1, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6232891484375096}](less[sepal length (cm),{'p': 0.7470724849981756}](less[petal width (cm),{'p': 0.6227226491559197}](less[sepal length (cm),{'p': 1.6923119196924965}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 1.4597724848705957}](less[petal length (cm),{'p': 0.13533151548287914}](less[sepal length (cm),{'p': -0.29830969026057624}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.42136615450185055}](nom_class:2, nom_class:0)), nom_class:2)), less[sepal length (cm),{'p': 1.79784995511092}](nom_class:0, less[petal length (cm),{'p': 2.792899430956674}](nom_class:0, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.346926963435848}](less[petal width (cm),{'p': 1.8246005470130777}](less[petal width (cm),{'p': 1.1052062429341176}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -1.10130948396217}](less[petal width (cm),{'p': 1.2000054155228013}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.0692200085347663}](less[sepal width (cm),{'p': 0.8487995844566287}](less[petal length (cm),{'p': 1.293951156687626}](less[petal width (cm),{'p': 0.2651112794292342}](less[sepal length (cm),{'p': 1.1204210831057066}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 2.689436783548855}](less[sepal width (cm),{'p': 0.9483320031440188}](nom_class:2, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': 0.2338928430558555}](less[sepal width (cm),{'p': 0.562193985206546}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': -0.7319351281111}](less[petal length (cm),{'p': -0.7440890786601079}](less[petal length (cm),{'p': 1.4057213597154643}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.2368943670731336}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -1.4341196178091276}](less[sepal length (cm),{'p': 0.30130268906077684}](less[sepal width (cm),{'p': 2.6927663822360235}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.4027027944326682}](nom_class:1, nom_class:2))))), nom_class:1), less[sepal length (cm),{'p': 1.780042871576215}](less[petal length (cm),{'p': 0.3936823947173083}](less[sepal length (cm),{'p': -0.25196650530256187}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.0747581519657805}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.3460748123326316}](less[sepal length (cm),{'p': 0.023690435815177158}](less[sepal width (cm),{'p': 0.5945860941615121}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 1.4525247743678271}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 6.127742467062188}](less[petal width (cm),{'p': 1.6899200556087535}](less[petal width (cm),{'p': 0.8355721689599616}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.15600337449113244}](less[sepal width (cm),{'p': -1.0301996256035482}](nom_class:2, less[sepal width (cm),{'p': -1.2316019875619615}](nom_class:0, nom_class:2)), nom_class:2)), less[sepal length (cm),{'p': 0.1028500339668803}](less[sepal width (cm),{'p': 1.3787570042425954}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 2.0558347407395137}](less[petal length (cm),{'p': 1.6069219392177225}](less[petal length (cm),{'p': 0.8195113293622678}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 2.2165936420538848}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.3250198998995491}](less[sepal length (cm),{'p': 1.4833235424053701}](less[petal length (cm),{'p': 0.514086768662934}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -1.1570319875877872}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.427114410743151}](less[petal length (cm),{'p': 5.44041032415025}](less[petal width (cm),{'p': 0.8941147521496886}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.7405408882521769}](less[sepal width (cm),{'p': 0.05345450710151378}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.8847223377752589}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 0.34819331042812635}](less[sepal width (cm),{'p': 0.8187404854219507}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.12871493985829174}](less[petal length (cm),{'p': 3.076915434970792}](less[petal length (cm),{'p': -0.12929881816778416}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.6135113693954344}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': -1.7617212480953521}](less[sepal length (cm),{'p': 0.22815602149842215}](less[sepal width (cm),{'p': 1.1281284248921861}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.930759824459604}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.215559306319732}](less[petal width (cm),{'p': 1.593307040355671}](less[petal width (cm),{'p': 1.2627935663399654}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.9882308279304143}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.37255261987467925}](less[sepal width (cm),{'p': 0.5221981384232404}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6587774653586351}](less[petal width (cm),{'p': 0.5420472078265688}](less[sepal width (cm),{'p': 0.4329974036177391}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.6562837822874611}](less[petal width (cm),{'p': 1.2158552175042892}](nom_class:0, nom_class:0), nom_class:1)), less[sepal width (cm),{'p': 1.0619619360980166}](less[sepal width (cm),{'p': 0.6895510258569924}](less[petal width (cm),{'p': 0.09195754497644068}](less[petal width (cm),{'p': -0.036534369627279795}](less[petal width (cm),{'p': -0.05847769077398157}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 1.3240023621527588}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.592490152224067}](less[petal length (cm),{'p': -0.8562453933349791}](nom_class:1, less[petal length (cm),{'p': -1.2002327104871746}](less[petal width (cm),{'p': -0.3826499652686468}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.7676337353367724}](less[sepal length (cm),{'p': -0.9239415279728377}](less[petal length (cm),{'p': 2.227215249176073}](less[sepal length (cm),{'p': 0.11921736253535191}](nom_class:1, nom_class:0), less[petal width (cm),{'p': -0.2647640704531904}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6594798849976358}](less[petal width (cm),{'p': -0.24995313065846775}](less[sepal width (cm),{'p': 0.8937795915544924}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.32966716083611786}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': -0.6755280678334055}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 2.9472251036698722}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2374056277726475}](less[petal width (cm),{'p': 0.5816955620270231}](less[petal width (cm),{'p': 0.4819146503086307}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.0034301242376613694}](less[petal width (cm),{'p': -0.6806660598401995}](nom_class:2, nom_class:1), nom_class:2)), less[sepal width (cm),{'p': 2.3182332094213813}](less[sepal width (cm),{'p': 0.5617534605726886}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.15732653521692558}](less[petal length (cm),{'p': -0.0491994406359233}](less[sepal length (cm),{'p': 0.5691202267229459}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.49613380042684196}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 4.783857559647949}](less[sepal length (cm),{'p': 0.6959701183655479}](less[sepal width (cm),{'p': 0.3161052184274922}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.1875719280503338}](nom_class:0, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.847942141688762}](less[petal width (cm),{'p': 1.5564771384014628}](less[petal width (cm),{'p': 0.8251260903635432}](less[petal width (cm),{'p': 0.743148015578507}](nom_class:0, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.043393742833584}](less[petal width (cm),{'p': 0.9832552861454236}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.544662035872041}](less[petal length (cm),{'p': 1.374183893955998}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.8918425446611618}](less[petal length (cm),{'p': -1.7544007296078254}](less[sepal length (cm),{'p': 0.7977681944855166}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.7133393031800115}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.5412114387104243}](less[sepal length (cm),{'p': -0.2979391998093368}](less[sepal width (cm),{'p': -0.03561246646503763}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 3.216845772072606}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.5726712620044725}](less[petal width (cm),{'p': 0.9549190535474148}](less[petal width (cm),{'p': 2.3570099313403894}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 1.2417205569866727}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.18287042576983048}](less[sepal length (cm),{'p': 1.648323813092999}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6393754736773198}](less[petal width (cm),{'p': -1.3689034680334062}](less[sepal length (cm),{'p': 1.3878118059952784}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.0296364996454892}](less[petal width (cm),{'p': 0.7750823488818874}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.5199791276570528}](less[petal length (cm),{'p': 1.1895308337813026}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4746742925137362}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.1816011375825264}](less[petal width (cm),{'p': 0.5287031108296493}](less[petal width (cm),{'p': 0.9552375969530673}](less[sepal length (cm),{'p': 1.0308174110251915}](less[petal width (cm),{'p': 0.5462058841605724}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.8938319892656901}](less[sepal width (cm),{'p': 0.5384850218776882}](less[sepal length (cm),{'p': 0.9810517173745509}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.6511701390117757}](less[petal width (cm),{'p': 1.5163767316510688}](less[petal width (cm),{'p': 0.6934261403632984}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.6693798367358883}](less[petal width (cm),{'p': 0.67289492510237}](nom_class:1, nom_class:1), nom_class:2)), nom_class:1)), nom_class:2)), nom_class:1), less[sepal width (cm),{'p': 0.5192344069782395}](nom_class:0, nom_class:2)), less[petal width (cm),{'p': -0.19007194670666222}](less[sepal length (cm),{'p': -0.37761561633299956}](nom_class:0, nom_class:2), nom_class:1))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.130740556606826}](less[petal width (cm),{'p': 2.0743229713825477}](nom_class:0, less[petal width (cm),{'p': 0.4090297150249126}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.9666427037017684}](less[sepal width (cm),{'p': 1.0157710153192703}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 1.6225092995995085}](nom_class:2, less[petal width (cm),{'p': 3.880649534845837}](less[petal width (cm),{'p': 1.6968874700409957}](less[sepal width (cm),{'p': 0.6449198414356156}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.28063123388242195}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.766069603331311}](less[petal width (cm),{'p': -0.7418722426936157}](less[sepal width (cm),{'p': 0.858464777949131}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 2.4275847422801227}](less[petal length (cm),{'p': 2.234714168006947}](less[petal length (cm),{'p': 0.8863061235155414}](less[petal width (cm),{'p': 1.7187946462168244}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': -0.1837733311104709}](nom_class:2, nom_class:0)), nom_class:2), nom_class:2)), less[sepal length (cm),{'p': 0.5166659630528392}](less[sepal width (cm),{'p': 0.6266221996511864}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.5999552228735203}](less[petal length (cm),{'p': 0.829278732898459}](less[sepal length (cm),{'p': 0.892573456584471}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.29391352955985617}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.10761518545926785}](less[sepal length (cm),{'p': -0.24673221606738738}](less[sepal width (cm),{'p': 0.4952185616736151}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.91868967231286}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.12144387251771438}](less[petal width (cm),{'p': 0.9252118041268562}](less[petal width (cm),{'p': 0.6859340039592263}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.7166061650478126}](less[sepal width (cm),{'p': 0.4699545350258622}](nom_class:2, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 0.6457023257314527}](less[sepal width (cm),{'p': -0.014219753132575452}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.6211068574367442}](less[petal length (cm),{'p': 0.7248114597255408}](less[petal length (cm),{'p': 1.0498658904658051}](nom_class:0, less[sepal length (cm),{'p': 0.02287515731339046}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': 0.8173667683664613}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.6137701423955642}](less[sepal length (cm),{'p': 0.6573083125933958}](less[sepal width (cm),{'p': 0.10327894613301264}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.14946178784034925}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0390662339167487}](less[petal width (cm),{'p': 1.6372967605238602}](nom_class:0, less[petal width (cm),{'p': 1.4634485232782601}](less[petal width (cm),{'p': 0.7465401008349108}](less[sepal length (cm),{'p': 1.5193822579320757}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -1.1546989841108248}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': -2.6731016561024714}](less[petal length (cm),{'p': -0.11376283124267964}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.38288674801610306}](nom_class:2, less[petal width (cm),{'p': 2.198889887694194}](less[petal width (cm),{'p': 1.658146218723072}](less[sepal width (cm),{'p': 2.302001646446613}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7262905370406573}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.12201857397893645}](less[sepal width (cm),{'p': 1.590862948776894}](less[petal width (cm),{'p': 0.577436335837187}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.2917956071613125}](less[petal width (cm),{'p': 0.6323266900743707}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.5803107169695672}](less[petal length (cm),{'p': -0.26377001835392194}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.7165232222387088}](less[petal length (cm),{'p': -0.042337683441461715}](less[sepal length (cm),{'p': 1.0342109340638328}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.06509860693630276}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.6876297077211735}](less[sepal length (cm),{'p': 1.2811486727781647}](less[sepal width (cm),{'p': 0.37280115111728895}](nom_class:2, nom_class:1), nom_class:1), less[petal length (cm),{'p': 1.9758770342889385}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.1086164178964677}](less[sepal width (cm),{'p': 2.172572881698108}](less[petal width (cm),{'p': 0.3933550521613808}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.9683150980945394}](less[petal width (cm),{'p': -0.24910621802043909}](less[petal width (cm),{'p': 0.4509849624444103}](less[sepal length (cm),{'p': 1.1643056463619323}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.9291914349605883}](nom_class:0, nom_class:2)), nom_class:2)), less[sepal length (cm),{'p': 0.2381859438758993}](less[sepal width (cm),{'p': 0.8092847353296235}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.2877252516808102}](less[petal length (cm),{'p': -0.14237932218161364}](less[petal length (cm),{'p': 0.4010072586552166}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.3358359062683474}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.01811169105586166}](less[sepal length (cm),{'p': 0.039453587492783604}](less[sepal width (cm),{'p': -0.022945042465000287}](nom_class:2, nom_class:1), nom_class:2), less[sepal length (cm),{'p': -0.11158745248661336}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.981727035531937}](nom_class:0, less[sepal length (cm),{'p': 0.6028578739456987}](less[sepal width (cm),{'p': 0.5407200234007571}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.3391997748578246}](less[petal length (cm),{'p': 0.0767973976048732}](less[sepal length (cm),{'p': 0.11292502836608159}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.9376161187630898}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 1.1027922554734757}](less[sepal length (cm),{'p': 0.9016026962899814}](less[sepal width (cm),{'p': -0.22307581754961717}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.1263256687931718}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.040882499607302}](less[petal width (cm),{'p': 2.1661308147690552}](less[petal length (cm),{'p': 2.585260536620564}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.2360488161045895}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.6401559635560983}](less[sepal length (cm),{'p': 0.7670280366153106}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.639481756161858}](less[petal width (cm),{'p': 0.09354182476868267}](less[sepal length (cm),{'p': 0.019861919969115238}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.446351154172086}](less[sepal width (cm),{'p': 0.7535017527535248}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.5028590403048077}](less[petal length (cm),{'p': -0.6637122245730067}](less[petal width (cm),{'p': -0.829489040600097}](less[petal width (cm),{'p': 0.9490845205437343}](less[sepal width (cm),{'p': 1.2167393630015582}](nom_class:2, less[sepal width (cm),{'p': 0.5407523487871141}](less[sepal length (cm),{'p': 0.9328468457691872}](less[sepal width (cm),{'p': 0.09943824357238018}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.2170064306717653}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.09899751489270703}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -1.2365042636760137}](less[petal length (cm),{'p': 1.5139885615641147}](nom_class:2, less[petal length (cm),{'p': 0.6531390601663677}](less[petal width (cm),{'p': 0.01391432467052392}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': -2.3159599258808106}](less[sepal length (cm),{'p': 1.419920991457529}](less[petal length (cm),{'p': 1.0992751512054555}](less[sepal length (cm),{'p': 0.7905695757829345}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.540270668293207}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.16192330820649836}](less[petal width (cm),{'p': 0.8024165625188286}](less[sepal width (cm),{'p': 0.7643489671204201}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.4606021526078157}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 1.121361619476695}](nom_class:1, nom_class:2))), nom_class:0), less[petal length (cm),{'p': -1.0928024605678526}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.860987627164565}](less[petal width (cm),{'p': 1.7177851584154666}](less[petal width (cm),{'p': 0.9512419784768267}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -1.0024044469603646}](less[petal width (cm),{'p': 0.2982947933068515}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.8812357898514922}](less[sepal width (cm),{'p': 0.20938002761422217}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.448184313951319}](less[petal length (cm),{'p': 1.9914607795891643}](less[sepal length (cm),{'p': 1.9233626625273497}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.337963919765237}](nom_class:1, nom_class:0)), less[sepal width (cm),{'p': 0.07783732747559224}](less[sepal length (cm),{'p': 0.8614868593838898}](less[sepal width (cm),{'p': -0.3808971958266238}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 0.9496496793572398}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.219997497829005}](less[petal width (cm),{'p': 1.6122991064334986}](less[petal width (cm),{'p': 0.7226549311607777}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.1518421113417538}](less[petal width (cm),{'p': 0.5468057544982599}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.0989306101553478}](less[sepal width (cm),{'p': -2.080990144988945}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.4354757358461167}](less[sepal length (cm),{'p': 1.4075434181795867}](less[sepal length (cm),{'p': 1.9714477758902167}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.6318475651897133}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.0108406807804253}](less[petal length (cm),{'p': -0.31548364861943645}](less[petal length (cm),{'p': 1.4710749767283149}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 0.5857125186049961}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 2.9219013872892843}](less[petal width (cm),{'p': 0.5516443297668954}](nom_class:0, less[petal width (cm),{'p': 1.635001281598225}](less[petal width (cm),{'p': 0.7452648752197004}](less[sepal length (cm),{'p': 0.1320995149355155}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': -0.1937996555710752}](nom_class:1, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 0.7884240991978445}](less[petal length (cm),{'p': 0.7564508505590727}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5712397109597773}](nom_class:2, less[petal width (cm),{'p': -0.02698352876893617}](less[petal width (cm),{'p': 0.7604498403502088}](less[sepal width (cm),{'p': 1.3242974719081286}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': -1.0452922255867427}](nom_class:0, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.374264476651595}](less[petal width (cm),{'p': 1.2185856806268376}](less[petal width (cm),{'p': 1.0908347053831025}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.09049601692742204}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.2425099872928972}](less[sepal length (cm),{'p': -0.013096798829901002}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6711936400299285}](less[petal width (cm),{'p': 0.1615698774625744}](less[sepal length (cm),{'p': 0.4701908801463558}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 1.4447163153830198}](less[petal width (cm),{'p': -1.1222110433434804}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 1.8177375449984623}](nom_class:2, less[sepal width (cm),{'p': 1.3146467254486067}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.9862053608602253}](less[petal width (cm),{'p': 0.9664183309411738}](less[sepal width (cm),{'p': 1.1164411261055154}](nom_class:0, nom_class:0), less[petal length (cm),{'p': -0.25666666062194954}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.5708082296802234}](less[sepal length (cm),{'p': 3.62569848857321}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6364140315885778}](less[petal width (cm),{'p': -1.0213310811928198}](less[sepal length (cm),{'p': 0.2928002058024695}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.22511018084423173}](less[sepal width (cm),{'p': -1.2975482303978776}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.5328228465387219}](less[petal length (cm),{'p': 0.5057219882599004}](less[petal width (cm),{'p': 0.29604779823238664}](less[petal width (cm),{'p': 0.4620055364357814}](less[sepal width (cm),{'p': 0.3415223590260591}](nom_class:2, less[sepal width (cm),{'p': 1.7972659291992605}](less[sepal length (cm),{'p': -0.14121001495484542}](less[sepal width (cm),{'p': -0.46563113454140137}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.623630954415852}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.23211453114385394}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.13228610945141633}](less[petal length (cm),{'p': 0.4783914634718972}](nom_class:2, less[petal length (cm),{'p': 0.0613653403067744}](less[petal length (cm),{'p': 0.3535191621109389}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 3.4967649640285408}](less[sepal length (cm),{'p': 0.29484354844108707}](less[petal length (cm),{'p': -0.5157421601816361}](less[sepal length (cm),{'p': 1.7623710611991323}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.7556551921504848}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 1.2573756546409087}](less[petal width (cm),{'p': 1.0650178568534192}](less[sepal width (cm),{'p': 1.5672492763348065}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.5209854398065912}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 0.8862743461631051}](nom_class:1, nom_class:2))), nom_class:0), less[petal length (cm),{'p': -0.4593061691275342}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.880479585715012}](less[petal width (cm),{'p': 0.5763290410785837}](less[petal width (cm),{'p': 1.24367337088491}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7104280187596033}](less[petal width (cm),{'p': 1.058295160029403}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.0529016968115577}](less[sepal width (cm),{'p': -0.4239266449782828}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.2774676792103392}](less[petal length (cm),{'p': -0.06352639689256445}](less[sepal length (cm),{'p': -0.43651527101721915}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.15290899560852395}](nom_class:2, nom_class:0)), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8797520555632112}](nom_class:2, less[sepal length (cm),{'p': 0.2800420723190401}](less[sepal width (cm),{'p': 0.5513411217344188}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.113209689963091}](less[petal length (cm),{'p': 0.2734043751386618}](less[petal length (cm),{'p': 0.7586016006700724}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.2900919731686902}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.33954114722779183}](less[sepal length (cm),{'p': -0.368627628697363}](less[petal length (cm),{'p': 2.1833058715484364}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.881053246625814}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.249209377942463}](less[petal width (cm),{'p': 1.5467363714125462}](less[petal length (cm),{'p': 0.6929345295229673}](nom_class:0, nom_class:0), less[petal length (cm),{'p': -0.5126234864501296}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.6031770391941633}](less[sepal length (cm),{'p': 2.922022150967493}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6481014752743701}](less[petal width (cm),{'p': 0.1891248630596598}](less[sepal length (cm),{'p': -0.36566720858376933}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.372398227892917}](less[sepal width (cm),{'p': 1.782875060389764}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.4385000961996779}](less[petal length (cm),{'p': -0.8466642819428649}](less[petal width (cm),{'p': -0.7147481472910898}](less[petal width (cm),{'p': 1.0536332678608433}](less[sepal width (cm),{'p': 1.2765672717554903}](nom_class:2, less[sepal width (cm),{'p': 0.47920143613338206}](less[petal width (cm),{'p': 1.1243218874255172}](less[sepal width (cm),{'p': 0.33208730322165153}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7921883991695737}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 1.019279983715505}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.5362109398099858}](less[petal length (cm),{'p': 0.701578700194935}](nom_class:0, less[petal length (cm),{'p': 0.7658915670278369}](less[petal width (cm),{'p': 1.3276530862639864}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 2.989916672201246}](less[sepal length (cm),{'p': 0.7722668277398286}](less[petal length (cm),{'p': -1.578067296823154}](less[sepal length (cm),{'p': -0.06252782093833598}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.6198386004650043}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': -0.3000112518837321}](less[petal length (cm),{'p': 1.6420201255923064}](less[sepal width (cm),{'p': 0.06900073518114269}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 1.4405791370375405}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 1.3101341877465766}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 0.5834100786416684}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.6441258845312604}](less[petal width (cm),{'p': 0.8298658320217448}](nom_class:2, less[sepal width (cm),{'p': 0.8155477433556189}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.5452613361825274}](less[sepal length (cm),{'p': -0.05445968422807618}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7302161096864033}](less[petal width (cm),{'p': -0.48066982121056634}](less[sepal length (cm),{'p': -0.21606648170670237}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7923163855330321}](less[petal width (cm),{'p': 0.835888406545255}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.25967878160325597}](less[petal length (cm),{'p': -0.028483382186254014}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.4808292055761916}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.4927851559262177}](less[petal width (cm),{'p': -0.3227172191245847}](nom_class:0, less[petal width (cm),{'p': 0.4547200645161457}](less[petal width (cm),{'p': 0.9180727560189381}](less[sepal length (cm),{'p': 1.347910773579156}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': -0.2622755453716573}](nom_class:1, nom_class:1)), nom_class:0)), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.898489902258657}](less[petal width (cm),{'p': 0.7827793072845529}](less[petal width (cm),{'p': 0.5031015330376755}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0.0713841697314101}](less[petal width (cm),{'p': 0.039987676666883576}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.8093434595476161}](less[sepal width (cm),{'p': -0.10456082794195648}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.8367775078622848}](less[petal length (cm),{'p': 0.08719306163820317}](less[sepal length (cm),{'p': 1.7429839402396212}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.5821901217638545}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 2.2723442451085507}](less[sepal length (cm),{'p': 2.0051586446331866}](less[sepal width (cm),{'p': 0.9307382153347056}](nom_class:2, nom_class:1), nom_class:2), nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6466033567605471}](less[sepal length (cm),{'p': 2.063305715086421}](less[petal width (cm),{'p': -0.5477395480376344}](less[sepal length (cm),{'p': 0.36680852519422813}](nom_class:1, nom_class:1), less[petal length (cm),{'p': -1.084030961832882}](less[petal length (cm),{'p': 0.25649006211947833}](less[sepal length (cm),{'p': 0.23058447653169}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': -0.242715882095503}](nom_class:2, nom_class:0)), nom_class:2)), less[sepal length (cm),{'p': 1.6198547274650563}](nom_class:0, less[petal length (cm),{'p': 2.265228311989605}](nom_class:0, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.09999428460093374}](less[petal width (cm),{'p': 0.9188706476656101}](nom_class:1, less[sepal width (cm),{'p': 0.25122663118465016}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.4205582067678816}](less[sepal length (cm),{'p': 0.6911316576444813}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.38716965660436586}](less[petal width (cm),{'p': 0.37704564827319975}](less[sepal length (cm),{'p': 0.02102072214744699}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.39821983601308697}](less[petal width (cm),{'p': 0.8313022082145515}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.21863539093287476}](less[sepal length (cm),{'p': -0.1856686848016149}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.8788646395739622}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.13283330534764728}](less[petal width (cm),{'p': 0.8375261467132789}](less[sepal width (cm),{'p': 0.9210147912436922}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.7482213371719872}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.7053670980155239}](less[sepal width (cm),{'p': 0.7718009432699982}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.7959053208053763}](less[petal width (cm),{'p': 0.44159369316000174}](less[sepal width (cm),{'p': 2.4628660756396825}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.07567466983180154}](less[petal width (cm),{'p': 0.0938720780677792}](nom_class:0, nom_class:0), nom_class:1)), less[sepal width (cm),{'p': -0.21841996521360552}](less[sepal width (cm),{'p': 0.04383079478732649}](less[petal width (cm),{'p': 0.8337753079762744}](less[petal width (cm),{'p': 0.7867581548117419}](less[petal width (cm),{'p': 0.16130792334664973}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.7571517396148422}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 1.1024911899424061}](less[petal length (cm),{'p': -0.5366533595039089}](nom_class:1, less[petal length (cm),{'p': 0.8365644033311951}](less[petal width (cm),{'p': 0.059122537129024155}](nom_class:2, nom_class:0), less[petal length (cm),{'p': 0.6747765985988627}](less[sepal length (cm),{'p': 0.5576418354704902}](less[petal length (cm),{'p': -0.49922298440177515}](less[sepal length (cm),{'p': 0.7817592795821948}](nom_class:1, nom_class:0), less[petal width (cm),{'p': 0.019291084088717658}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.050623651127283}](less[petal width (cm),{'p': -0.006800567174065464}](less[sepal width (cm),{'p': -0.36410320660179407}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.4773427293206921}](less[petal width (cm),{'p': 0.4173605445373674}](nom_class:2, nom_class:0), nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 1.7225152686624343}](nom_class:1, nom_class:1))), nom_class:0), less[petal length (cm),{'p': 0.6562967773079651}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3548973423767903}](less[petal width (cm),{'p': 1.1242135534327007}](less[petal width (cm),{'p': 1.3174746975352158}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': -0.291064230802612}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 2.581594015152869}](less[sepal length (cm),{'p': -0.5248481780901417}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.08276697766374452}](less[petal width (cm),{'p': 0.5881474607607858}](less[petal width (cm),{'p': 1.3503593547841777}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.046903062192334}](less[petal width (cm),{'p': 1.0180956788519737}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': -0.4645285065328209}](less[petal length (cm),{'p': 0.023753751010748503}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.8211901913644337}](nom_class:0, less[sepal width (cm),{'p': 1.105571611418786}](less[petal width (cm),{'p': 1.6237239029404409}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.41133723995794846}](less[sepal length (cm),{'p': -0.2904015623299656}](less[petal length (cm),{'p': 1.231337340850685}](less[sepal length (cm),{'p': 0.25909340637995903}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.07024191892086223}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.33690283378447367}](less[petal width (cm),{'p': 0.21674670711734784}](less[sepal width (cm),{'p': -0.7408232471190361}](nom_class:0, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.1606421949268394}](nom_class:1, nom_class:0))), nom_class:1)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.8395970355557163}](less[petal width (cm),{'p': 0.7618632249042478}](less[petal width (cm),{'p': 0.479566135453291}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0.05251354792714638}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.0227717180055564}](less[sepal length (cm),{'p': -0.7945452904195776}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7578840003940477}](less[petal width (cm),{'p': 0.5831112770165803}](less[sepal length (cm),{'p': 0.48234756015661434}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.05592346807919413}](less[petal width (cm),{'p': 1.2318315011364294}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.43178876085380746}](nom_class:2, less[sepal width (cm),{'p': 0.3661605752529888}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.742525793978713}](less[petal width (cm),{'p': 0.5136325461421236}](less[petal width (cm),{'p': 0.9604480307978626}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.350478494411191}](less[sepal width (cm),{'p': 1.3597663160236093}](nom_class:2, less[sepal width (cm),{'p': 1.01856721830584}](nom_class:0, nom_class:2)), nom_class:1)), less[sepal length (cm),{'p': 0.38459772111152773}](less[sepal width (cm),{'p': -0.058089675264658525}](nom_class:2, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.0637620684955783}](less[sepal length (cm),{'p': 0.5104442820623807}](less[petal width (cm),{'p': 0.5178818635798907}](less[sepal length (cm),{'p': 0.7738097899172837}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0.8987150935371471}](less[petal length (cm),{'p': 0.973591592908183}](less[sepal length (cm),{'p': 0.0820015880494267}](nom_class:1, nom_class:0), less[sepal length (cm),{'p': 0.189414501999287}](nom_class:2, nom_class:0)), nom_class:0)), less[sepal length (cm),{'p': 0.5361645195477809}](nom_class:0, less[petal length (cm),{'p': 0.9296095835053455}](nom_class:0, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.31246893878808674}](less[petal width (cm),{'p': 0.7833131697678184}](nom_class:0, less[petal width (cm),{'p': 0.3417033152479831}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 0.3279184244708224}](less[sepal width (cm),{'p': 0.7256863291368453}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 0.8012547770632663}](less[petal width (cm),{'p': 0.7700078898913264}](less[petal width (cm),{'p': 0.3339877406832211}](less[sepal length (cm),{'p': 0.8004900808213852}](nom_class:2, nom_class:0), less[sepal width (cm),{'p': 1.18333008509714}](nom_class:1, nom_class:1)), nom_class:2), less[petal width (cm),{'p': -0.0296268719161924}](less[petal width (cm),{'p': 0.39359228851366873}](less[sepal width (cm),{'p': -0.030778320611822813}](nom_class:1, nom_class:1), nom_class:2), less[petal width (cm),{'p': 0.7699490515347057}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -1.1781494661805665}](less[petal width (cm),{'p': -0.2242945815411319}](less[petal length (cm),{'p': -0.3785243481394594}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.030417537496833305}](less[petal width (cm),{'p': 0.2914434140996661}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.896758835922402}](less[sepal width (cm),{'p': 0.2835513578741873}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.2707817976304945}](less[sepal length (cm),{'p': 0.7319210237251998}](less[sepal length (cm),{'p': 1.2394112771578856}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.5773107053765683}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 0.026600717005070884}](less[petal length (cm),{'p': 0.1939823065740213}](less[petal length (cm),{'p': -0.5688068473282284}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 2.153346366585197}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.17467819524584}](less[petal width (cm),{'p': 0.8374786559959746}](less[petal width (cm),{'p': 1.509897644289693}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.012201391600119682}](less[petal width (cm),{'p': 0.15648357923797102}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.8109438514896349}](less[sepal width (cm),{'p': 0.8149840769720738}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.8321635284639114}](less[petal length (cm),{'p': 0.26586823079833255}](less[sepal width (cm),{'p': 1.3692208822065923}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.04101480684753561}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.04138700493472605}](less[sepal width (cm),{'p': 0.40615011182691063}](nom_class:2, nom_class:1), nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.2421666863119032}](nom_class:2, less[sepal length (cm),{'p': 1.4974273490343493}](less[sepal width (cm),{'p': -0.13220787459439615}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.2429315367241965}](less[sepal length (cm),{'p': 1.3101045014887511}](less[sepal length (cm),{'p': 0.2292072412045954}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.34386715368845294}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.0099987869952955}](less[petal length (cm),{'p': 0.07523872818272026}](less[petal length (cm),{'p': 0.5385293252043275}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 2.7713641021478286}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 6.837993231673167}](less[petal width (cm),{'p': 1.539975862423802}](less[petal width (cm),{'p': 0.6440477269649966}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.6529885174519506}](less[petal width (cm),{'p': -0.6743447687402786}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.4662175574192831}](less[petal width (cm),{'p': 0.8880605736380198}](less[sepal width (cm),{'p': 1.0314857189381255}](nom_class:2, less[sepal width (cm),{'p': 0.923267896483994}](less[sepal width (cm),{'p': 0.640917160630064}](less[sepal length (cm),{'p': -1.3890076003070204}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.36876216498925696}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 1.7308880703125014}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.4010373111427546}](less[petal length (cm),{'p': 0.3606703898263095}](nom_class:2, less[petal length (cm),{'p': -0.21079964277300142}](less[petal width (cm),{'p': 0.5449475862225908}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.5267542974986454}](less[petal length (cm),{'p': -0.10962271684493294}](less[petal length (cm),{'p': 0.22641988766507104}](less[sepal length (cm),{'p': 0.5532500198847197}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -1.9870649567782372}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 1.1932997487204944}](less[petal width (cm),{'p': -0.06888152809487069}](less[sepal width (cm),{'p': 0.646930246558738}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -1.1850310644003592}](nom_class:1, nom_class:1))), nom_class:1))), less[petal length (cm),{'p': 0.48199962451342326}](nom_class:1, nom_class:2))))), less[sepal length (cm),{'p': 1.105488452926496}](less[sepal width (cm),{'p': 0.11484740024236417}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.0655987795216144}](less[petal length (cm),{'p': 0.32134281686868704}](less[sepal length (cm),{'p': -0.7924859399032673}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.8015497993939416}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 2.062250516746034}](less[sepal length (cm),{'p': 1.0835792699401052}](less[sepal width (cm),{'p': 0.7942360985703694}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.646052608477815}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.66077459960406}](less[petal width (cm),{'p': 1.011571541918674}](less[petal width (cm),{'p': 0.6828196117279023}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.5362875638886022}](less[petal width (cm),{'p': 1.1320393104962787}](nom_class:2, nom_class:1), nom_class:2)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.812871357064592}](less[petal width (cm),{'p': 0.6400307731698468}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.027819169443920932}](less[sepal width (cm),{'p': 0.5351314857340748}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.4915208366411581}](less[petal length (cm),{'p': -0.10145082537237296}](less[petal length (cm),{'p': -0.9418891989710412}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.4599918600908487}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 0.6149522316775428}](less[sepal length (cm),{'p': 0.3127784705005102}](less[sepal width (cm),{'p': 0.7512387381512713}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 1.2896580639760544}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.9805031205054592}](less[petal width (cm),{'p': 0.9875478885744252}](less[petal width (cm),{'p': 0.3299801639038952}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.33149366775199285}](less[petal width (cm),{'p': 0.053560970318147216}](nom_class:2, nom_class:2), nom_class:0)), less[sepal length (cm),{'p': 0.6724195650306601}](less[sepal width (cm),{'p': 0.16671768573456558}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.46030348867047055}](less[petal length (cm),{'p': 0.8889320956513451}](less[sepal width (cm),{'p': 0.34558730471439236}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.6928499914474147}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.705219360708449}](less[sepal length (cm),{'p': 0.8235901636187639}](less[sepal width (cm),{'p': 0.7007871343650945}](nom_class:2, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 0.6450901388446534}](nom_class:2, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0909886297455476}](less[petal width (cm),{'p': 1.7284590610159998}](less[petal length (cm),{'p': 0.2366350539491126}](nom_class:0, nom_class:0), less[petal length (cm),{'p': -0.9777548669464128}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': -0.9968429095875793}](less[sepal length (cm),{'p': 0.5918948860693127}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6722444059824384}](less[petal width (cm),{'p': 0.35295359559369366}](less[sepal length (cm),{'p': 0.21927913816876887}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': -1.1200050673001076}](less[sepal width (cm),{'p': 1.80499588354224}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.18284099794361608}](less[petal length (cm),{'p': -1.3412450210592335}](less[petal width (cm),{'p': -0.6468970911937781}](less[petal width (cm),{'p': -0.5643053325413551}](less[sepal width (cm),{'p': -0.12919204206269697}](nom_class:2, less[sepal width (cm),{'p': 1.396869006620777}](less[petal width (cm),{'p': 0.39767116838818584}](less[sepal width (cm),{'p': 0.849067111330992}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.04284091710941473}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': -0.06110646657569985}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.677994881630648}](less[petal length (cm),{'p': -0.3481187558255531}](nom_class:0, less[petal length (cm),{'p': 2.6806703496796995}](less[petal width (cm),{'p': -0.0918530286031844}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.8029374764598893}](less[sepal length (cm),{'p': 2.3895043256672257}](less[petal length (cm),{'p': -0.5932068455661947}](less[sepal length (cm),{'p': 2.540618239298753}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.5193164527052537}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.5313214533061872}](less[petal length (cm),{'p': -0.8590108370514191}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.6319841522233807}](nom_class:1, nom_class:0))), nom_class:2))), less[petal length (cm),{'p': -1.01557044414853}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': -0.6499747290585954}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.10312259927498757}](less[petal length (cm),{'p': 0.3884971515103348}](nom_class:2, less[petal length (cm),{'p': 0.45270187795639594}](less[petal length (cm),{'p': 0.13574768039820895}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.30817226033703626}](less[sepal width (cm),{'p': 0.7445073795446601}](less[petal length (cm),{'p': 0.4450270217605772}](less[sepal length (cm),{'p': 0.5140024030248568}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0.7885997451331341}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.8412768548308791}](less[petal width (cm),{'p': 0.49012251903308457}](less[sepal width (cm),{'p': 0.5118772239757966}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.34722282520182}](nom_class:1, nom_class:0))), nom_class:1))), less[sepal length (cm),{'p': 0.11025779629749011}](less[sepal width (cm),{'p': 0.9839091706685349}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.2622849554518154}](less[petal length (cm),{'p': 0.8181941560069032}](less[sepal length (cm),{'p': 0.40262976229929204}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.10401289980516981}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0.9860563199351807}](less[sepal length (cm),{'p': 0.8355011062850488}](less[sepal width (cm),{'p': 0.2516402845178678}](nom_class:1, nom_class:0), nom_class:2), less[petal length (cm),{'p': 0.5815221339326881}](nom_class:0, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 3.1188339936718457}](less[petal width (cm),{'p': 0.9099466186913316}](nom_class:0, less[petal width (cm),{'p': 1.6623636326637312}](less[petal width (cm),{'p': -0.7644988607278744}](less[sepal length (cm),{'p': -0.43250817533750513}](nom_class:1, nom_class:0), less[sepal width (cm),{'p': -0.9615269349598351}](nom_class:2, nom_class:1)), nom_class:2)), less[sepal length (cm),{'p': 1.0739895501663106}](nom_class:1, less[sepal length (cm),{'p': 1.4875130876217597}](nom_class:2, less[petal width (cm),{'p': -2.4435177378012787}](less[petal width (cm),{'p': -0.6169715820269266}](less[sepal width (cm),{'p': 1.1986297684739828}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.31154610110437747}](nom_class:0, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.47977175266351}](less[petal width (cm),{'p': 0.7056412432771848}](less[petal width (cm),{'p': 1.3007083719742207}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.5983410809632752}](less[petal width (cm),{'p': 0.6281982455755871}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -1.1776954808141795}](less[sepal width (cm),{'p': 1.141682900503544}](nom_class:2, less[petal length (cm),{'p': -0.08852383917249229}](nom_class:2, less[petal length (cm),{'p': 1.0113346219524906}](less[petal width (cm),{'p': 2.0498605566763204}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.001272790545895}](less[sepal length (cm),{'p': 0.29774993504470015}](less[petal length (cm),{'p': 0.8455951111092439}](less[sepal length (cm),{'p': 1.5584544551964958}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.6221187932357822}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 1.0960144055682532}](less[petal length (cm),{'p': -1.1363369483754142}](less[sepal width (cm),{'p': 1.2640463109450994}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 1.1213475397100068}](nom_class:1, nom_class:1))), nom_class:1)))), less[sepal length (cm),{'p': -0.7929088325547694}](less[petal length (cm),{'p': 0.5675188928226116}](less[sepal length (cm),{'p': 0.4101812069503897}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5040312588679523}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 2.0125490105699004}](less[sepal length (cm),{'p': 1.2088862226811494}](less[sepal width (cm),{'p': -0.1372023313182255}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7066028292861255}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.6172801213398427}](less[petal width (cm),{'p': 0.9341853057335718}](less[petal width (cm),{'p': 0.6321439916388855}](nom_class:0, nom_class:2), less[petal length (cm),{'p': -0.024448789635345747}](less[petal width (cm),{'p': 0.7895816119543893}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.14908373080804221}](less[sepal width (cm),{'p': -0.01828398654366531}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7465332198679482}](less[petal length (cm),{'p': 0.4237980583774548}](less[sepal length (cm),{'p': 0.3460663241691292}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 0.322531426574949}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.12376972406613296}](less[sepal length (cm),{'p': 0.618831095580717}](nom_class:2, nom_class:2), nom_class:1))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.208029933412184}](less[petal width (cm),{'p': 1.6482589909307197}](less[petal width (cm),{'p': 0.6924720572533977}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.3056971183269374}](less[petal width (cm),{'p': 0.34403696263963446}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.24114892826208945}](less[sepal width (cm),{'p': 0.9342530038608332}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.1852293238878966}](less[petal length (cm),{'p': 0.6480841923080092}](less[sepal length (cm),{'p': 0.013690015108656306}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.9821819068384142}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.56277233939181}](less[sepal length (cm),{'p': 0.6060788015137522}](less[sepal width (cm),{'p': 0.7778441782574367}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': -1.438782172858512}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0058565353796927}](less[petal width (cm),{'p': 0.6350662443528494}](less[petal length (cm),{'p': -0.3031707247411264}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0.25370282656961607}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.2181538099449432}](less[sepal length (cm),{'p': 1.0245604242160864}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.619184435580449}](less[petal width (cm),{'p': 0.9469416653822016}](less[sepal length (cm),{'p': 0.746720935270551}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 1.5223635465159764}](less[sepal width (cm),{'p': -1.2277633251934081}](nom_class:2, nom_class:2), nom_class:1)), less[sepal width (cm),{'p': 0.1206829734667274}](less[petal length (cm),{'p': -0.5887808394001975}](less[petal width (cm),{'p': 0.07183712222689964}](less[petal width (cm),{'p': 1.260685393635811}](less[sepal width (cm),{'p': 1.3931743470456188}](nom_class:2, less[sepal width (cm),{'p': 1.169663693855823}](less[petal width (cm),{'p': 0.6210463174269296}](less[sepal width (cm),{'p': 0.5556006950822727}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.7106808125066814}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.16789383315559064}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.8559772525849978}](less[petal length (cm),{'p': 1.1353401396899967}](nom_class:0, less[petal length (cm),{'p': -0.15517389060276474}](less[petal width (cm),{'p': -0.42645738155222346}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': -0.7043474567934651}](less[sepal length (cm),{'p': 0.7236488489548807}](less[petal length (cm),{'p': -0.49281705882852417}](less[sepal length (cm),{'p': 2.122105732395917}](nom_class:1, nom_class:2), less[petal width (cm),{'p': -0.7078315798047761}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.4161951265338919}](less[petal length (cm),{'p': -0.15623964854667394}](less[sepal width (cm),{'p': 0.3907115802636517}](nom_class:0, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 1.3422366396546217}](nom_class:1, nom_class:0))), nom_class:1))), less[petal length (cm),{'p': 0.8043174406269568}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 0.5230240806031812}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.298184737243412}](less[petal width (cm),{'p': 1.731318916880467}](less[petal width (cm),{'p': 0.8007788451997153}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.2374766903820031}](less[petal width (cm),{'p': 0.961100367940786}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.3688257282935756}](less[sepal length (cm),{'p': 1.0238008850300515}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.5992712779592191}](less[petal length (cm),{'p': 0.11130822915047653}](less[sepal length (cm),{'p': 0.10185486138258942}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5075579840351344}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.13842492900651554}](less[sepal length (cm),{'p': -0.062157359795158296}](less[sepal width (cm),{'p': 1.2717813597745808}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.25533424238760294}](less[petal length (cm),{'p': 1.8767747042953298}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 1.6645486092432198}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.6559014583754528}](less[sepal length (cm),{'p': 0.18062921578312163}](less[petal width (cm),{'p': 0.5097091924493689}](less[sepal length (cm),{'p': 0.8449142307313893}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0.4877510749820475}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 1.7322960048228109}](nom_class:0, less[petal length (cm),{'p': 2.379292656442302}](nom_class:0, nom_class:1))), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.972691329110092}](less[petal width (cm),{'p': 1.3821574853565908}](less[petal width (cm),{'p': 0.8632626109860371}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.12011384335924763}](less[petal width (cm),{'p': -0.06076727198252524}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.10397060420617404}](nom_class:0, less[sepal length (cm),{'p': 2.0983930503812496}](less[sepal length (cm),{'p': 1.4074346196247913}](less[sepal length (cm),{'p': 0.08674440982000689}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5110663857143687}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.4988020479187503}](less[petal length (cm),{'p': -0.417316988845665}](less[petal length (cm),{'p': 0.39312568529752356}](nom_class:1, nom_class:2), nom_class:0), less[petal length (cm),{'p': 1.9742287723756657}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.203063568826856}](less[petal width (cm),{'p': 1.827435227010564}](less[petal width (cm),{'p': 0.43976718021617356}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.29815941240778826}](less[petal width (cm),{'p': 1.4323389264402353}](less[petal width (cm),{'p': 0.4426442825897003}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.5276552335841067}](less[petal width (cm),{'p': 2.114182636086929}](nom_class:2, nom_class:1), nom_class:2)), nom_class:2)), less[sepal width (cm),{'p': -0.5374449195940729}](less[sepal width (cm),{'p': 0.9873933233142724}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -1.583731096237231}](less[petal length (cm),{'p': 0.7001108939572234}](less[sepal length (cm),{'p': 0.8290005875611517}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.7378862120068344}](nom_class:2, nom_class:0)), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.6402752608397727}](less[petal width (cm),{'p': -0.5538776829167519}](less[petal width (cm),{'p': -0.5020043616463077}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.8783953402007834}](less[petal width (cm),{'p': 0.25714186937614364}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.7836283777172299}](less[sepal width (cm),{'p': -1.83959980507331}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.3930540721821008}](less[sepal length (cm),{'p': -0.47022215312921156}](less[sepal length (cm),{'p': 0.09857387869960688}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.7938070130463941}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.3972497794172224}](less[sepal length (cm),{'p': 0.1571715189994039}](less[petal length (cm),{'p': 0.7225031957830401}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 2.397779802156236}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.3133970136212416}](less[petal width (cm),{'p': -0.28956504475510736}](less[petal width (cm),{'p': 1.159798560460831}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.9102999700228455}](less[petal width (cm),{'p': 1.7137058162866166}](nom_class:2, nom_class:1), nom_class:2)), less[petal width (cm),{'p': 1.701791934561987}](less[sepal length (cm),{'p': 1.3194114558297156}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.2097822591343907}](less[petal length (cm),{'p': 0.1796500424956703}](less[sepal length (cm),{'p': 0.3845671236853656}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.5294307013134352}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.10948474077433584}](less[sepal length (cm),{'p': 0.22299380255277151}](less[sepal width (cm),{'p': -0.412153829968259}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5897021145490906}](nom_class:0, less[petal length (cm),{'p': -0.10643528116093298}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': 1.4754128917962663}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.2146866817968163}](less[petal width (cm),{'p': 0.5452932791332383}](less[petal length (cm),{'p': -0.29324558600670436}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.7889410501166503}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.4372709335858419}](less[sepal length (cm),{'p': -0.3875641644603063}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6704653395871927}](less[petal width (cm),{'p': -1.0169246170612052}](less[sepal length (cm),{'p': 0.8967849037024608}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.969799792332024}](less[sepal length (cm),{'p': 1.353090794221937}](nom_class:1, nom_class:1), nom_class:2)), less[sepal width (cm),{'p': 0.17964719146710992}](less[petal length (cm),{'p': 0.1036245299441963}](less[petal width (cm),{'p': -1.1128940719230282}](less[petal width (cm),{'p': 0.6641765201044401}](less[sepal width (cm),{'p': -1.0440076417115047}](nom_class:0, less[sepal width (cm),{'p': -0.24987856069696346}](less[petal width (cm),{'p': 1.4143199273149125}](less[sepal width (cm),{'p': -2.5192627760701307}](nom_class:2, nom_class:0), nom_class:2), less[sepal width (cm),{'p': 2.131934418608421}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': 0.39462879148933017}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': 0.23298521249729848}](less[sepal length (cm),{'p': 0.17445245251789293}](nom_class:0, less[petal length (cm),{'p': 0.6515554312078534}](less[petal width (cm),{'p': 1.542039704296912}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 0.7251664578578891}](less[sepal length (cm),{'p': 1.3285536909309208}](less[petal length (cm),{'p': 0.17257329305702288}](less[sepal length (cm),{'p': 1.5847683974419917}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.0319742190268546}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 1.2938631094636133}](less[petal length (cm),{'p': 1.185582567524596}](less[sepal width (cm),{'p': -0.1494083000468278}](nom_class:0, nom_class:1), nom_class:2), less[sepal width (cm),{'p': 1.8363977942387715}](nom_class:1, nom_class:1))), nom_class:1))), less[petal length (cm),{'p': 2.1336323483026405}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 0.19179609259007696}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.5708496876340299}](less[petal width (cm),{'p': 0.15377808244241103}](less[petal width (cm),{'p': 1.3455752711001732}](nom_class:2, nom_class:1), less[petal length (cm),{'p': -0.6390248448880461}](less[petal width (cm),{'p': -0.00398919842491785}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.8703625389385841}](less[sepal length (cm),{'p': -0.06853450155148744}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9437548425031543}](less[petal length (cm),{'p': 0.2339470585817516}](less[sepal length (cm),{'p': -0.32685698511757033}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.0035093916350031618}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.9327882955777921}](less[sepal length (cm),{'p': 0.08090841533387144}](less[sepal width (cm),{'p': 0.603537213367355}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.25268427694317314}](less[sepal length (cm),{'p': 0.2729131246589425}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 2.307093323241732}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7159814356910931}](less[petal length (cm),{'p': 0.7308230354187869}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 0.6978326979028839}](nom_class:2, nom_class:1))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0129893828850527}](less[petal width (cm),{'p': 0.6354391062359663}](nom_class:0, less[petal width (cm),{'p': 0.25895897571810605}](less[petal width (cm),{'p': 0.8279331141517345}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.6326031094304714}](less[sepal width (cm),{'p': 0.09529697336934273}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.06587393636953365}](less[sepal length (cm),{'p': 0.4809783229484252}](less[sepal length (cm),{'p': 0.524577730211974}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.6114804910006739}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.3886423029463963}](less[sepal length (cm),{'p': 0.45440167305365037}](less[petal length (cm),{'p': -0.399663318203996}](nom_class:1, nom_class:2), nom_class:2), less[petal length (cm),{'p': 0.3878790968391552}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.970926108193851}](less[sepal width (cm),{'p': 0.959406417094552}](less[sepal width (cm),{'p': -1.2325929053873237}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.9625187939794497}](less[petal width (cm),{'p': 1.2071660892326792}](less[petal width (cm),{'p': 1.2255189564130893}](less[sepal length (cm),{'p': 1.162420203113349}](nom_class:0, nom_class:0), nom_class:1), less[petal width (cm),{'p': 0.5122878701236175}](less[petal width (cm),{'p': -1.6350860805894327}](nom_class:2, nom_class:2), nom_class:2)), nom_class:2)), less[sepal width (cm),{'p': 2.659648762084161}](less[sepal width (cm),{'p': 1.368235381425659}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.13088674380978244}](less[petal length (cm),{'p': 0.23558328459251054}](less[sepal length (cm),{'p': 0.9400702595491993}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.011690623948395151}](nom_class:2, nom_class:0)), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.0384490408526226}](less[petal width (cm),{'p': 1.5444869068804779}](less[petal width (cm),{'p': 1.4880819359693396}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.1300674538645994}](less[petal width (cm),{'p': 0.7077751477999239}](nom_class:2, nom_class:1), nom_class:0)), less[sepal length (cm),{'p': 0.23995038259752344}](less[sepal width (cm),{'p': 0.8555313217068783}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.47923633655304543}](less[sepal width (cm),{'p': 1.3861404586751003}](less[sepal length (cm),{'p': 0.58474828588555}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.26983235798361666}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9661046127447059}](less[sepal length (cm),{'p': -0.3564768151395092}](less[sepal width (cm),{'p': 0.30877536154403773}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 1.87015755765827}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.818098451421957}](less[petal width (cm),{'p': 3.2689534293192164}](less[petal width (cm),{'p': 0.6213076178845468}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.41698928945660435}](less[petal width (cm),{'p': 0.1419349624521382}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.1498659531071949}](less[sepal width (cm),{'p': 1.0376009287013033}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7858374606919762}](less[petal length (cm),{'p': 0.8209269294615174}](less[sepal length (cm),{'p': 1.5449868299666172}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -1.1605451160473668}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.6771969771096926}](less[sepal length (cm),{'p': 2.3382132474312853}](less[sepal width (cm),{'p': -0.059810537056459695}](nom_class:2, nom_class:2), nom_class:2), less[petal length (cm),{'p': 2.660819513631971}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.951251680700696}](less[petal width (cm),{'p': 1.6184929712147889}](less[petal width (cm),{'p': 0.9961844569171664}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.29457141739616904}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.433478801140868}](less[sepal length (cm),{'p': -0.16251433488116768}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7618825897989447}](less[petal length (cm),{'p': -0.27048030207243196}](less[sepal length (cm),{'p': -0.14150386186350716}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.4715869936751743}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5793589331632869}](less[sepal length (cm),{'p': 0.20136845310869395}](less[sepal width (cm),{'p': 2.231048807585206}](nom_class:2, nom_class:2), less[petal length (cm),{'p': -1.6324753132394436}](less[petal length (cm),{'p': 1.082345908247116}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 0.57758087152685}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 1.1118098249534032}](less[sepal length (cm),{'p': 0.03658547523317368}](less[petal width (cm),{'p': 0.5647885497486551}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 1.0036189083043416}](less[petal width (cm),{'p': -0.06712634666521772}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.38607873997659287}](less[sepal length (cm),{'p': 0.1951890481181956}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.2945842946849776}](less[petal length (cm),{'p': 0.006272672867740636}](less[sepal length (cm),{'p': 0.10873464340046213}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.2569963364587933}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.8020368723473548}](less[sepal length (cm),{'p': 0.34425774205538795}](less[sepal width (cm),{'p': 0.7679669846214013}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 0.4058895169708785}](less[petal length (cm),{'p': 0.006952002110397759}](nom_class:1, nom_class:2), nom_class:2)), less[petal length (cm),{'p': 0.5000079339605923}](less[sepal length (cm),{'p': 0.11267292904987658}](less[sepal width (cm),{'p': 0.8903457076093808}](nom_class:2, nom_class:1), nom_class:2), nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.070124630050741}](less[petal width (cm),{'p': 1.3129847248352022}](less[petal width (cm),{'p': 0.6695841504336316}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.3640848500577649}](less[petal width (cm),{'p': 0.5028576965871598}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.2805616537918393}](less[sepal width (cm),{'p': 0.24338775518494893}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.9916000307678078}](less[sepal length (cm),{'p': 0.8628035338592813}](less[sepal length (cm),{'p': 0.9324794607378591}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5487405385638839}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.938739410276175}](less[sepal length (cm),{'p': 0.8865301710965823}](less[sepal width (cm),{'p': 0.6850052477575208}](nom_class:2, nom_class:1), nom_class:0), less[petal length (cm),{'p': 0.7278906871593628}](nom_class:0, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.348683530033188}](less[petal width (cm),{'p': 1.2015207997388666}](less[petal width (cm),{'p': 0.7850960728913181}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.0306071180572127}](less[petal width (cm),{'p': 0.11426171602147983}](nom_class:2, nom_class:1), nom_class:2)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.201783467362911}](less[petal width (cm),{'p': 1.4363782044985036}](less[petal width (cm),{'p': 0.9655971871595802}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.9641320836765404}](less[petal width (cm),{'p': 0.4108246201017326}](less[sepal length (cm),{'p': 1.672915971624373}](nom_class:2, nom_class:0), nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.44827028470675334}](less[sepal width (cm),{'p': 0.11444586870949808}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.6147622990658281}](less[petal length (cm),{'p': 1.3020299852758703}](less[sepal length (cm),{'p': 0.41897797362914263}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.977982165736689}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.0653800883938551}](less[sepal length (cm),{'p': 0.11678791737584043}](less[sepal width (cm),{'p': 0.4165389419965845}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 2.064323289989561}](less[petal length (cm),{'p': 0.45800663580606066}](nom_class:1, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': 0.6274776277617216}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.9351014722147243}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.8872174322101376}](less[petal width (cm),{'p': 0.8050862129711864}](less[petal width (cm),{'p': 1.310973799173615}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.29595814443599566}](less[petal width (cm),{'p': 0.1209522569676787}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.5528894278770802}](less[sepal width (cm),{'p': -0.8851638371733508}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.7645469256907718}](less[petal length (cm),{'p': 5.1714038235450435}](less[sepal length (cm),{'p': 0.608448507802936}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.6897310042873792}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.14848972640902253}](less[sepal length (cm),{'p': -0.5618208569248222}](less[sepal width (cm),{'p': 0.519644027052359}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': -2.0681027010566586}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.862814225032164}](less[petal width (cm),{'p': 1.8718223964114928}](less[petal width (cm),{'p': 0.6378141367454961}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.0531035410930598}](less[petal width (cm),{'p': 1.6175377871066448}](nom_class:2, nom_class:1), nom_class:0)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 1.5686290819607447}](less[petal width (cm),{'p': 0.32266746600957413}](less[petal width (cm),{'p': -0.09197263797133903}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.7144719138440639}](less[petal length (cm),{'p': 1.3141032415771308}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.012548403724898821}](less[petal length (cm),{'p': 1.1256852446968117}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7504006846333484}](less[petal length (cm),{'p': 0.4447141193172107}](less[sepal length (cm),{'p': 0.9017116947132167}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.11284437636968475}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.3486778484897335}](less[petal length (cm),{'p': 0.9513761058502743}](less[sepal width (cm),{'p': 1.3986448463749412}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.199250227738334}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.3512835116988695}](less[petal width (cm),{'p': 1.0769425856851944}](less[petal width (cm),{'p': 0.6932153294602916}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.1662226483792117}](less[petal width (cm),{'p': -0.3268929372529039}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.2920894625323222}](less[sepal width (cm),{'p': -0.7397773395843692}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.7907257567062811}](less[petal length (cm),{'p': 0.8774292613436856}](less[sepal length (cm),{'p': 0.4348094733376086}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.07178756549786644}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9873238088811986}](less[sepal length (cm),{'p': -0.08552170272944976}](less[sepal width (cm),{'p': 0.8723672459639573}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': -0.12197077044842836}](less[petal length (cm),{'p': -0.6900495815238628}](nom_class:0, nom_class:2), nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.7078710110568407}](less[sepal length (cm),{'p': -0.33070342278478904}](less[petal width (cm),{'p': 0.6071784574643575}](less[sepal length (cm),{'p': 0.3309716315016119}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0.019199980695250307}](nom_class:2, nom_class:2)), less[sepal length (cm),{'p': 0.47484350605428716}](nom_class:0, nom_class:1)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.7616557603599448}](less[petal width (cm),{'p': 0.821486953140593}](less[petal width (cm),{'p': 0.8858525057601087}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.6021920815430384}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.9381904365354066}](less[sepal length (cm),{'p': 0.9632697204005664}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.9934462075854393}](less[petal length (cm),{'p': 0.6686460739164324}](less[sepal length (cm),{'p': 0.7474544171636351}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.6044451072621488}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7476908018803531}](less[sepal length (cm),{'p': 0.4595991047411234}](less[sepal width (cm),{'p': 0.5857193488170079}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.8334384654631005}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 0.8097432316059421}](nom_class:2, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.9339579919642773}](less[petal width (cm),{'p': 1.1824823385646863}](less[petal length (cm),{'p': 0.25354259397795775}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -1.5766260023517904}](less[petal width (cm),{'p': 0.8348604444617471}](nom_class:2, nom_class:1), nom_class:2)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.300877488246229}](less[petal width (cm),{'p': 1.371213523786193}](less[petal width (cm),{'p': 0.6694980083948591}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8980404069525961}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.0211710201260866}](less[sepal length (cm),{'p': -0.5399811854359303}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.5483266521201149}](less[petal width (cm),{'p': 0.19599894488227698}](less[sepal length (cm),{'p': -0.12873281806177606}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.4814956585973379}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.4840163905707725}](less[sepal width (cm),{'p': -1.9833723459438417}](less[sepal width (cm),{'p': 0.8109557462202898}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 1.5461558450793276}](less[petal length (cm),{'p': 0.058710413709312514}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 1.6651511905171996}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.289057495712097}](less[petal width (cm),{'p': 1.5283896495853762}](less[petal width (cm),{'p': 1.1374592593903188}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.2853276545310361}](less[petal width (cm),{'p': -0.30309101670287364}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.8503940684684167}](less[sepal width (cm),{'p': 1.5935703014090759}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.7909304040850902}](less[petal length (cm),{'p': 5.763992907290369}](less[sepal length (cm),{'p': 0.3685934280749283}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.35388861585328313}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.14699995342744732}](less[sepal length (cm),{'p': 0.4399879393839371}](less[petal length (cm),{'p': 1.1404087612231482}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': -0.12246721094772389}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.245785146417319}](less[petal width (cm),{'p': -0.09473548024339024}](less[petal width (cm),{'p': 0.23768227455107954}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 0.1990865716995467}](less[petal length (cm),{'p': 1.2636383825344444}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.2418446503960504}](less[sepal width (cm),{'p': 0.6205778081606822}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.46813040714469645}](less[petal length (cm),{'p': 1.0506899446256583}](less[sepal length (cm),{'p': -0.4920967702328526}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5209155783693641}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.9533547951675385}](less[sepal length (cm),{'p': 1.1831177995205633}](less[sepal width (cm),{'p': 0.07478145211718412}](nom_class:2, nom_class:2), nom_class:2), less[petal length (cm),{'p': 2.529083913289028}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.6603880665848234}](less[petal width (cm),{'p': 0.874205494187007}](less[petal width (cm),{'p': 0.4950256393753353}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.6184514039045601}](less[petal length (cm),{'p': 0.04366199888675082}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.5774935641463813}](less[sepal width (cm),{'p': 0.30432786060689665}](nom_class:2, nom_class:0), less[petal width (cm),{'p': 0.8340110002700718}](less[petal length (cm),{'p': 0.7498295061777392}](less[sepal length (cm),{'p': 0.7326316756987125}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4830086821888042}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9026901495227773}](less[sepal length (cm),{'p': 0.7726109254723246}](less[petal width (cm),{'p': 0.4222766942123646}](nom_class:0, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.041931756285850996}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.3126790150959664}](less[petal width (cm),{'p': 1.2365328380452756}](less[petal length (cm),{'p': 0.9121490179624869}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0.571567752250069}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.9668334990254649}](less[sepal length (cm),{'p': 0.6575843857569167}](nom_class:0, less[petal width (cm),{'p': -0.7827240956245991}](less[sepal width (cm),{'p': 0.05600667453889846}](nom_class:2, nom_class:0), nom_class:2)), less[petal width (cm),{'p': 1.6301255290513357}](less[petal length (cm),{'p': -0.340290573473761}](less[sepal length (cm),{'p': 1.5297370868215143}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.8241015106256775}](less[sepal length (cm),{'p': -0.668972279760421}](nom_class:1, nom_class:1), nom_class:2)), less[sepal width (cm),{'p': 1.246057830844467}](less[petal length (cm),{'p': 0.021484894280806244}](less[petal width (cm),{'p': -0.09546518162486711}](less[petal length (cm),{'p': 0.10408240292920745}](less[sepal width (cm),{'p': 0.5135025183343928}](nom_class:0, less[sepal width (cm),{'p': -0.360305971683375}](less[petal width (cm),{'p': 0.2184428230656006}](less[sepal width (cm),{'p': 3.0179357712990815}](nom_class:2, nom_class:0), nom_class:2), less[sepal width (cm),{'p': -0.10524872917787409}](nom_class:0, nom_class:2))), less[petal length (cm),{'p': -0.7768393353818832}](nom_class:2, nom_class:0)), less[sepal length (cm),{'p': -0.5231677268790358}](less[sepal length (cm),{'p': 1.633482359642471}](nom_class:0, less[petal length (cm),{'p': 0.3982615913472151}](less[petal width (cm),{'p': 0.5748678757112302}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': -0.8932629024610537}](less[sepal length (cm),{'p': 1.3306380892699952}](less[petal length (cm),{'p': -0.6719634503206127}](less[sepal length (cm),{'p': 0.9711001625878}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.184132277193389}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 0.4647390603615704}](less[petal length (cm),{'p': 1.4241197791888416}](less[sepal width (cm),{'p': 0.30087582173313754}](nom_class:0, nom_class:1), nom_class:2), less[sepal width (cm),{'p': -0.9953653504091281}](nom_class:1, nom_class:1))), nom_class:1))), less[petal length (cm),{'p': 0.5050267074052943}](nom_class:2, nom_class:2))), nom_class:2), less[petal length (cm),{'p': 0.4326919549438522}](nom_class:1, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 0.49116829868452283}](less[petal width (cm),{'p': 0.9819917207817568}](less[petal width (cm),{'p': 0.4993453556757572}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.2377331145825431}](less[petal length (cm),{'p': 0.4389343412248622}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.9924960674864156}](less[sepal length (cm),{'p': 0.6334761224699558}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.22899377535104037}](less[petal length (cm),{'p': 0.2746166390988143}](less[sepal length (cm),{'p': 0.1256706202429071}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.36379909539696287}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.6297294106636097}](nom_class:0, less[petal width (cm),{'p': 0.9617566440576711}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.559356427173347}](less[petal width (cm),{'p': 1.6304094270857123}](less[petal width (cm),{'p': 0.623023278718528}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.46650496897588195}](less[petal width (cm),{'p': -0.30547120135879424}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.23143906592674762}](less[sepal width (cm),{'p': -0.329307560717562}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.7647940273673124}](less[petal length (cm),{'p': -1.8022641966825486}](less[sepal length (cm),{'p': 0.16804873566798573}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.3786777211867093}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -1.1927525857447785}](less[petal length (cm),{'p': -0.2910615499920347}](less[sepal width (cm),{'p': -0.21351646076970604}](nom_class:2, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 2.4891773876657073}](less[petal length (cm),{'p': 1.0594095852985586}](less[sepal length (cm),{'p': 0.8528739725318911}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.9940418312321975}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 1.468784968030654}](less[sepal length (cm),{'p': 1.6528905063655999}](less[sepal width (cm),{'p': -0.47444243545317843}](nom_class:0, nom_class:2), nom_class:2), less[petal length (cm),{'p': 1.9862811340169657}](nom_class:2, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.752095985201126}](less[petal width (cm),{'p': 1.851351687220589}](less[petal width (cm),{'p': 0.5967294849497833}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.9801059100995766}](less[petal width (cm),{'p': -0.4276117788120455}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.8097696161547348}](less[petal length (cm),{'p': 2.559098229073647}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.9002416532234094}](less[petal length (cm),{'p': 0.507253496193782}](less[sepal length (cm),{'p': 1.0067391013856535}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.4923470939761612}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.5799313230129973}](less[sepal length (cm),{'p': 0.39005997928181346}](less[sepal width (cm),{'p': 0.4912511153180558}](nom_class:2, less[petal length (cm),{'p': -0.2558410215412485}](less[sepal length (cm),{'p': 1.2168944988358747}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.3819217415175885}](nom_class:2, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 2.5315889139598733}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.690135519878414}](less[petal width (cm),{'p': 1.6338755619860974}](less[petal width (cm),{'p': 0.8720287072532775}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.459049544690008}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.7002654261106254}](less[sepal length (cm),{'p': 2.478133518618755}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': -0.05109502254977813}](less[petal length (cm),{'p': 1.2192474408540823}](less[petal length (cm),{'p': 0.9857333178254842}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.3513180151965916}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.5914040949711257}](less[sepal length (cm),{'p': 1.6129304147196235}](less[sepal width (cm),{'p': 1.7201317097073052}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 1.1994734879526825}](less[petal length (cm),{'p': 0.8351649883621303}](nom_class:0, nom_class:0), nom_class:0)), less[petal length (cm),{'p': 2.510678709757982}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.060492647843011}](less[petal width (cm),{'p': 1.6997136882608748}](less[petal width (cm),{'p': 0.9747764873628498}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.3795151566248527}](less[petal width (cm),{'p': 0.5876885906359408}](nom_class:2, nom_class:1), nom_class:0)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.068232177009408}](less[petal width (cm),{'p': 1.1555659136053755}](less[petal width (cm),{'p': 0.6918897189214781}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.9231497739091605}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.1217686981544448}](less[sepal length (cm),{'p': 1.0520529858299468}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.5822478412095135}](less[petal length (cm),{'p': 0.8113262112446888}](less[sepal length (cm),{'p': -0.8776543387020646}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.28914464063447815}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.2955568097730009}](less[sepal length (cm),{'p': 1.5364072215171813}](less[petal length (cm),{'p': 0.8985868390135906}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.8207004356377005}](less[petal length (cm),{'p': 1.2206018905352942}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.65305276743993}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.43521156159265817}](less[petal width (cm),{'p': 0.27174824099373684}](less[petal width (cm),{'p': 0.10374144587605127}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.680977638696365}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.3965523981859578}](less[sepal length (cm),{'p': 0.010860233092305327}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.8219553557552558}](less[petal length (cm),{'p': 0.751082563915725}](less[sepal length (cm),{'p': 0.8433978759526362}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8067014351166311}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.29933319770433897}](less[sepal length (cm),{'p': 0.9824333641636539}](less[sepal width (cm),{'p': 0.8970736344362518}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.6666170453337459}](less[sepal width (cm),{'p': 0.1735324120683822}](nom_class:1, nom_class:2), nom_class:2)), less[petal width (cm),{'p': 0.621944294147538}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.024136846871017}](less[petal width (cm),{'p': 1.5515240342495455}](less[petal width (cm),{'p': 0.5841202133867527}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 2.3080077835598596}](less[petal width (cm),{'p': -1.9190422913503986}](nom_class:2, nom_class:0), nom_class:2)), less[sepal length (cm),{'p': -0.07134118820814445}](less[sepal width (cm),{'p': 1.5172462836026483}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.3035459678769066}](less[petal length (cm),{'p': 1.0669320106499205}](less[sepal length (cm),{'p': 1.4855805716066846}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.6569329522002981}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.5336727774449288}](less[sepal length (cm),{'p': 0.8890050401311262}](less[sepal width (cm),{'p': 0.7144140990500896}](nom_class:2, nom_class:0), nom_class:2), less[petal length (cm),{'p': 0.04189033032199557}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.809558351211338}](less[petal width (cm),{'p': 1.6934019698081062}](less[petal width (cm),{'p': 0.8621338596414037}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.22720654571880172}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 1.5093316758092734}](less[sepal width (cm),{'p': 0.3943845602258927}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 1.397133620818714}](less[petal length (cm),{'p': 0.6490466286530981}](less[sepal length (cm),{'p': 0.2685446318516304}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.3029721064951767}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -1.2161991341445901}](less[sepal length (cm),{'p': 0.4715516749432391}](less[sepal width (cm),{'p': 0.9921645945794586}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.8648461897783936}](less[petal length (cm),{'p': 1.3980293184011434}](nom_class:2, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 1.8538414945322264}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.278379082929529}](less[petal width (cm),{'p': 1.440244405361228}](less[petal width (cm),{'p': 0.9484769255840397}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.14536386972237952}](less[petal width (cm),{'p': 1.631473939956516}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.45093304873228024}](less[sepal width (cm),{'p': 1.1158192574873342}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.21569920584748697}](less[petal length (cm),{'p': -1.5542868248520032}](less[sepal length (cm),{'p': -2.2060561447367397}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.11797083640194717}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.3179941807576356}](less[sepal length (cm),{'p': -0.6519258544202065}](less[sepal width (cm),{'p': 0.27899056775223025}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.679401151126906}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.6190739192258928}](less[petal width (cm),{'p': 0.6272371544177199}](less[petal width (cm),{'p': 0.754428495092233}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5182593249641129}](nom_class:0, nom_class:2)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.810453322724607}](less[petal width (cm),{'p': 0.8315595228466173}](less[petal width (cm),{'p': 0.6857460698998588}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5224013564200405}](less[petal width (cm),{'p': 0.8766126547870714}](nom_class:2, nom_class:1), nom_class:1)), less[petal length (cm),{'p': -2.638023793137823}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.07736052931869736}](nom_class:2, less[sepal length (cm),{'p': 0.9247780462142507}](less[sepal length (cm),{'p': 0.7531129538625481}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.018016660080094726}](less[petal width (cm),{'p': 0.6957901780006102}](less[sepal length (cm),{'p': 0.5799175635418252}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.8207036259062286}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.7398692034787719}](less[sepal width (cm),{'p': 0.581891014849981}](less[sepal width (cm),{'p': 0.6288110556692467}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 0.8027344634160266}](less[petal length (cm),{'p': 0.7555568818452554}](nom_class:1, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 0.7458957769236021}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.7440547500637467}](less[petal width (cm),{'p': 0.8039029180237587}](less[petal length (cm),{'p': -0.025184888616744838}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.35897340978498066}](less[petal width (cm),{'p': 0.5000577293928289}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.7462749847873766}](less[petal length (cm),{'p': -0.6925038704204314}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.22334092925780974}](less[petal length (cm),{'p': 0.6313174039495525}](less[sepal length (cm),{'p': 1.3483871637477909}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': -0.09890960429308229}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.4711127666105458}](less[sepal length (cm),{'p': 0.2156046787717666}](less[sepal width (cm),{'p': 0.5439104206709293}](nom_class:2, less[petal length (cm),{'p': 0.8998550473199304}](less[petal width (cm),{'p': 0.02422627845310743}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': -0.0976858639023187}](nom_class:2, nom_class:0))), nom_class:2), less[petal length (cm),{'p': 2.3052078342539994}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.8076444625575888}](less[petal width (cm),{'p': 1.2987233887193625}](less[petal width (cm),{'p': -0.022607974482656945}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.6289413448491686}](less[petal width (cm),{'p': 0.8085637773354759}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 1.2898430502995302}](less[sepal width (cm),{'p': 0.8111896183153559}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.6428073327200297}](less[petal length (cm),{'p': 0.11693620230393609}](less[sepal length (cm),{'p': 0.8220355563244858}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.900789958591854}](nom_class:2, less[petal width (cm),{'p': 2.9120604990955257}](less[petal width (cm),{'p': 0.9393243157276441}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.8799981803661249}](nom_class:0, nom_class:2)))), less[sepal width (cm),{'p': -0.31687734923488975}](less[petal length (cm),{'p': -0.0459434398787304}](less[sepal width (cm),{'p': 0.13166221754401464}](nom_class:2, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 0.6759361459076088}](less[petal length (cm),{'p': -0.6089231039592823}](less[sepal length (cm),{'p': -0.405028093103434}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.8945509291155558}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 0.8740087346500396}](less[sepal length (cm),{'p': 2.2993077625445113}](less[sepal width (cm),{'p': -0.24954651983306658}](nom_class:0, nom_class:2), nom_class:2), less[petal length (cm),{'p': 1.2570780344851287}](nom_class:2, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.27735639305835313}](less[petal width (cm),{'p': 0.19097778722340847}](less[sepal width (cm),{'p': 0.44781450545952944}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.0926172444799884}](less[petal width (cm),{'p': 0.24068845345049994}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.2738319505786307}](less[sepal width (cm),{'p': 0.33341927956439604}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.15581056877231947}](less[petal length (cm),{'p': 0.8326964837626097}](less[sepal length (cm),{'p': 1.4785958032906463}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.379545871017419}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.6360078808018459}](less[sepal length (cm),{'p': 0.5387668102548573}](less[sepal width (cm),{'p': 0.7215895793147153}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.1326244142395705}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 0.3670589305171236}](less[petal width (cm),{'p': 1.0379671576795628}](less[petal width (cm),{'p': 0.5449546007594498}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.6880214139631784}](nom_class:0, nom_class:1)), less[sepal length (cm),{'p': 0.5524625990088187}](less[sepal width (cm),{'p': -0.26731616147671183}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.38218501264465976}](less[petal length (cm),{'p': 1.5832432809781873}](less[sepal length (cm),{'p': -0.4759783061165635}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.24397197444629473}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.9328670892857501}](less[sepal length (cm),{'p': 1.09436954413219}](less[sepal width (cm),{'p': -0.21505508132561676}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 0.44704303065510764}](less[petal length (cm),{'p': 0.08177776957035165}](nom_class:2, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.2175944367087874}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.3214038093105255}](less[petal width (cm),{'p': 0.014345050985302421}](less[petal width (cm),{'p': 0.16545182145400472}](nom_class:0, nom_class:1), less[petal width (cm),{'p': -0.03036158718097748}](less[petal width (cm),{'p': 1.4008908347628406}](nom_class:2, nom_class:1), nom_class:0)), less[sepal length (cm),{'p': 0.15166755638972934}](less[sepal width (cm),{'p': 1.5572777758655416}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.6099333752203705}](less[petal length (cm),{'p': -0.8121746608763882}](less[sepal length (cm),{'p': 0.11716559250379757}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.438419365450237}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.4575191499818732}](less[sepal length (cm),{'p': 1.476457487567012}](less[sepal width (cm),{'p': 0.2303431181643349}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.0242039126295825}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 4.8904451547472725}](less[petal width (cm),{'p': 0.2344741572709485}](less[petal width (cm),{'p': 3.3892621404605965}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.916965140096591}](less[petal length (cm),{'p': 0.15668488250086327}](nom_class:2, nom_class:0), nom_class:1)), less[sepal length (cm),{'p': 0.8984263310067244}](less[sepal width (cm),{'p': 0.7616425877182815}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 0.878230006704692}](less[petal length (cm),{'p': 0.8616045411111384}](less[sepal length (cm),{'p': 0.8406817992412158}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.14356241180594947}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 2.3707589376033384}](less[sepal length (cm),{'p': -1.2315600606751662}](less[petal length (cm),{'p': 1.7360019493682153}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': -3.337027098073888}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.3248339284768575}](less[petal width (cm),{'p': 0.6969394425880031}](less[petal width (cm),{'p': 0.7859188388124714}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.6422227486429848}](less[petal width (cm),{'p': 0.8379285925694353}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -1.2298989953255974}](less[sepal width (cm),{'p': -2.4491489795648866}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': -0.19547169960505306}](less[petal length (cm),{'p': -0.5117181757671354}](less[sepal length (cm),{'p': 1.9823402534959866}](nom_class:1, less[sepal length (cm),{'p': 0.2833855058083198}](less[sepal width (cm),{'p': 0.5868094202230199}](nom_class:2, nom_class:1), nom_class:0)), less[sepal length (cm),{'p': 0.13198547491400242}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.7308946794328007}](less[petal width (cm),{'p': -0.002606820315859182}](less[sepal width (cm),{'p': 1.1864890012596607}](nom_class:2, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 0.8188531439559017}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.7340265828183794}](less[petal width (cm),{'p': 2.2480646428810416}](less[petal width (cm),{'p': 0.9236336097565696}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.2878890456871911}](less[petal width (cm),{'p': -0.3525911751262885}](nom_class:2, nom_class:2), nom_class:2)), less[sepal length (cm),{'p': 1.4545938171772992}](less[sepal width (cm),{'p': 1.434016677868613}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.5016644564064934}](less[petal length (cm),{'p': -0.3851255148088062}](less[sepal length (cm),{'p': 0.7601199924150905}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.46930023449035857}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 1.0393313262502384}](less[sepal length (cm),{'p': 0.27691611852515374}](less[sepal width (cm),{'p': 2.228142534822181}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.9659114927179613}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 3.8019686559039902}](less[petal width (cm),{'p': 1.8269991471533147}](less[petal width (cm),{'p': 0.8758085249594139}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.5021709392747098}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': -0.2173919821811613}](less[sepal width (cm),{'p': 0.9661464484154496}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.33494106348294106}](less[petal length (cm),{'p': 1.1967160384976698}](less[sepal length (cm),{'p': 1.0133498537809262}](nom_class:0, nom_class:1), less[petal length (cm),{'p': -0.35275997737030385}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5631681520259304}](less[sepal length (cm),{'p': -0.6965733682964692}](less[petal width (cm),{'p': 0.8288614601909066}](less[sepal width (cm),{'p': 0.4391720862162573}](nom_class:2, nom_class:0), nom_class:0), less[petal length (cm),{'p': 0.18974875830510163}](less[petal length (cm),{'p': -0.56282595821489}](nom_class:2, nom_class:0), nom_class:2)), less[petal length (cm),{'p': 2.6099326284413653}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.3350618545296828}](less[petal width (cm),{'p': 0.7618909098236377}](less[petal width (cm),{'p': 0.2731076888256272}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.0483510448687958}](nom_class:0, nom_class:2)), less[sepal length (cm),{'p': 0.9762579908057774}](less[sepal length (cm),{'p': 1.0537838894903682}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7398690865348164}](less[petal length (cm),{'p': 0.6539938241622372}](less[sepal length (cm),{'p': 0.7160577099726375}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.43366089115589324}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.02471631519115397}](less[sepal length (cm),{'p': -0.03166155485170835}](less[sepal width (cm),{'p': 0.7231919522093417}](less[sepal width (cm),{'p': 0.3953334693430614}](less[sepal length (cm),{'p': 0.5553351447985623}](less[sepal width (cm),{'p': 0.5835480044557825}](nom_class:2, nom_class:1), nom_class:2), less[petal length (cm),{'p': 0.049892022143473325}](nom_class:0, nom_class:2)), nom_class:2), less[petal length (cm),{'p': 0.5156736581517978}](less[sepal length (cm),{'p': 0.2639225324271956}](nom_class:1, nom_class:2), nom_class:2)), less[petal width (cm),{'p': 0.7445049309531003}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 2.4496306966395354}](less[petal width (cm),{'p': 0.6312050847896575}](less[petal width (cm),{'p': 0.913042063935732}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4985415071510715}](less[petal width (cm),{'p': 0.2254786897229142}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.5212323805200467}](less[sepal width (cm),{'p': 0.43905341728724856}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.08123456925989314}](less[petal length (cm),{'p': -0.21808084969253305}](less[sepal length (cm),{'p': 0.056401588026427585}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.4397897611754493}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 1.1422380465240762}](less[petal length (cm),{'p': 1.9575505495061436}](less[sepal width (cm),{'p': 1.6274219856151868}](nom_class:2, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 1.0445223500671657}](less[petal length (cm),{'p': 0.19648718026074827}](less[sepal length (cm),{'p': -0.09628993146453535}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.4287848266225571}](nom_class:2, nom_class:0)), less[petal length (cm),{'p': 0.6139289688738081}](less[sepal length (cm),{'p': -0.014232925245203476}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 0.45652405373598426}](nom_class:2, nom_class:2)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 5.6730729390718215}](less[petal width (cm),{'p': 1.731580739544675}](less[petal width (cm),{'p': 0.8092994865148498}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 1.198775110343575}](less[petal width (cm),{'p': 2.0045950091207767}](nom_class:2, nom_class:0), nom_class:2)), less[sepal length (cm),{'p': 0.9150904605845328}](less[sepal width (cm),{'p': 0.051816276467766875}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.5678575880653275}](less[petal length (cm),{'p': -0.33820220291407455}](less[sepal width (cm),{'p': 0.8705628899861271}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 1.244787370681524}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.7440543242386828}](less[sepal length (cm),{'p': 1.8982986597272724}](less[sepal width (cm),{'p': 1.0915321658623494}](less[sepal length (cm),{'p': -0.4284081113240138}](less[petal width (cm),{'p': -0.3665277472311559}](nom_class:2, nom_class:1), nom_class:2), nom_class:0), nom_class:2), less[petal length (cm),{'p': 0.543508577275249}](nom_class:0, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 0.7541298657757299}](less[petal width (cm),{'p': 0.7091876605625642}](less[petal width (cm),{'p': 0.5102363071396927}](nom_class:0, nom_class:1), nom_class:2), less[sepal length (cm),{'p': 0.5568903197254098}](less[sepal length (cm),{'p': 0.29998063050480916}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 0.7161330402909822}](less[petal length (cm),{'p': 0.28632141186674964}](less[petal length (cm),{'p': 0.4891324637764859}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0.5709948268077417}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': 0.5112300299045688}](less[sepal length (cm),{'p': 0.44796009602411146}](less[sepal width (cm),{'p': 0.019599161445987834}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 0.7693056899061164}](less[sepal width (cm),{'p': 0.11750807077656311}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 0.3036805696945386}](nom_class:0, nom_class:0)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -0.012080921789282162}](less[petal width (cm),{'p': 0.8266271016861637}](less[petal width (cm),{'p': 0.10874600377794519}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.3993226192652841}](less[petal width (cm),{'p': 1.0186739752554903}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.3537728444684073}](less[sepal width (cm),{'p': -0.03035369891195705}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 0.048807919784876974}](less[petal length (cm),{'p': 0.07811278917561804}](less[sepal length (cm),{'p': 0.4282850823870652}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.10223513742570911}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.3398060468411597}](less[sepal length (cm),{'p': 0.5972876286782965}](less[petal length (cm),{'p': 0.3059554134008108}](nom_class:2, nom_class:0), nom_class:2), nom_class:0))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': -1.3068225827412738}](less[sepal width (cm),{'p': 1.5649796636685167}](less[petal width (cm),{'p': 1.3114307074100073}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 0.537747622457283}](less[petal width (cm),{'p': 0.6901190837968119}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': 0.5999578806932819}](less[sepal width (cm),{'p': 0.46161577976314394}](nom_class:2, nom_class:0), less[sepal length (cm),{'p': 1.3821140673034753}](less[petal length (cm),{'p': -0.05751855512687548}](less[sepal length (cm),{'p': 0.25281226447873617}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 1.0236620900850701}](nom_class:2, nom_class:0)), less[sepal width (cm),{'p': -0.042168573544239946}](less[sepal length (cm),{'p': 0.21826849933394007}](less[sepal length (cm),{'p': 0.22976531615179518}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 2.226913208144198}](nom_class:0, nom_class:1)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 6.823194374900983}](less[petal width (cm),{'p': 1.0351035046010941}](less[petal width (cm),{'p': 0.7310302543116215}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 2.5867152383334435}](less[petal width (cm),{'p': -0.4309735174291197}](nom_class:2, nom_class:1), nom_class:2)), less[sepal width (cm),{'p': 0.18300411751058399}](less[sepal width (cm),{'p': 0.6429201598980441}](nom_class:2, nom_class:1), less[petal width (cm),{'p': -0.6775701746298711}](less[petal length (cm),{'p': 1.608852264883225}](less[sepal length (cm),{'p': 2.2062047266517104}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0.9545979157417595}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 4.584079770908178}](less[petal length (cm),{'p': 0.5801300680931151}](less[sepal width (cm),{'p': 0.5090668781414851}](nom_class:2, nom_class:2), nom_class:2), less[sepal length (cm),{'p': 2.8548280303007916}](less[petal length (cm),{'p': -0.32136477009589026}](less[sepal length (cm),{'p': 0.28598381717850796}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.5148837761295602}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': -0.0022158003441785368}](less[sepal length (cm),{'p': 1.6446885419999147}](less[sepal width (cm),{'p': 0.01648549490383705}](nom_class:0, nom_class:2), nom_class:2), less[petal length (cm),{'p': 0.11580926651992182}](nom_class:2, nom_class:0)))))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.8703587537321655}](less[petal width (cm),{'p': 1.3344945008561504}](less[petal width (cm),{'p': -0.291231137025506}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': -0.09618018156124675}](less[petal width (cm),{'p': -0.6185024217999119}](nom_class:2, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.13419935810907727}](less[sepal width (cm),{'p': 1.6679718711278224}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 2.1004976212787967}](less[petal length (cm),{'p': 4.0291356106791}](less[sepal length (cm),{'p': 0.09143868990763404}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': -0.1925397404750102}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 0.7832985439449275}](less[petal length (cm),{'p': 0.7472024003825735}](less[sepal length (cm),{'p': -0.050635405182912596}](nom_class:2, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 0.6618000396478355}](less[petal length (cm),{'p': -0.16845434319351993}](less[sepal length (cm),{'p': 0.9975129954614241}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 0.7908052957415233}](nom_class:2, nom_class:0)), less[petal width (cm),{'p': 1.0448922368614901}](less[sepal length (cm),{'p': 0.8739813902534381}](less[sepal width (cm),{'p': 0.39450766289166683}](nom_class:0, nom_class:2), nom_class:2), less[petal length (cm),{'p': 1.0251941935735285}](nom_class:2, less[sepal length (cm),{'p': 1.1307491063378972}](less[sepal width (cm),{'p': 0.38810873250657335}](nom_class:1, nom_class:0), less[petal length (cm),{'p': 1.3763660534208753}](less[petal length (cm),{'p': 0.2743912067231414}](nom_class:2, nom_class:0), nom_class:2)))))))))</t>
   </si>
 </sst>
 </file>
@@ -518,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.5625</v>
+        <v>0.6777920410783055</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.6923076923076922</v>
+        <v>0.672680412371134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.9018766098368698</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.711295561169253</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -616,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.6777920410783055</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.5454545454545454</v>
+        <v>0.6738760523016299</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.6777920410783055</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.6738760523016299</v>
+        <v>0.9615236629472873</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,15 +1650,15 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.6945847527311171</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -691,80 +1669,80 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.7948350918851294</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.6777920410783055</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.711295561169253</v>
+        <v>0.5593220338983051</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.8778174956321936</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.6876769666379416</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -775,41 +1753,41 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.6923076923076922</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>0.9018766098368698</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>0.6923076923076922</v>
@@ -820,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.9554097525241265</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -834,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>0.9554097525241265</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -848,13 +1826,13 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>0.7630037322246894</v>
+        <v>0.9615236629472873</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -862,13 +1840,13 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>0.6923076923076922</v>
+        <v>0.9615236629472873</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -876,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>0.9615236629472873</v>
@@ -890,13 +1868,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27">
-        <v>0.9498540807851445</v>
+        <v>0.6431650834661009</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -904,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -918,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>0.9615236629472873</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -932,10 +1910,10 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>0.9615236629472873</v>
@@ -946,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>0.5454545454545454</v>
@@ -957,27 +1935,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>0.9615236629472873</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>0.9615236629472873</v>
@@ -985,27 +1963,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>0.9554097525241265</v>
+        <v>0.9615236629472873</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>0.9615236629472873</v>
@@ -1013,55 +1991,55 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>0.9615236629472873</v>
+        <v>0.5619178635434283</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>0.9615236629472873</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>0.5931558935361216</v>
+        <v>0.7131785311079243</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <v>0.9615236629472873</v>
@@ -1069,30 +2047,30 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>0.6777920410783055</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>0.9615236629472873</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1100,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>0.9615236629472873</v>
+        <v>0.6923076923076922</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1114,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>0.9615236629472873</v>
@@ -1128,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>0.9615236629472873</v>
@@ -1142,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>0.9615236629472873</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1156,13 +2134,13 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>0.9615236629472873</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1170,10 +2148,10 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>0.9615236629472873</v>
@@ -1184,10 +2162,10 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D48">
         <v>0.9615236629472873</v>
@@ -1198,10 +2176,10 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49">
         <v>0.9615236629472873</v>
@@ -1212,10 +2190,10 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50">
         <v>0.6923076923076922</v>
@@ -1226,13 +2204,4913 @@
         <v>9</v>
       </c>
       <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>0.925233644859813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51">
-        <v>0.9615236629472873</v>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90">
+        <v>0.6819611039944102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115">
+        <v>0.6824262415246473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125">
+        <v>0.6816184547784694</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127">
+        <v>0.9617753009636996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131">
+        <v>0.7082053202989832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D133">
+        <v>0.640187197158937</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>126</v>
+      </c>
+      <c r="D136">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138">
+        <v>0.9554267113192518</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140">
+        <v>0.5802867111650485</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>131</v>
+      </c>
+      <c r="D141">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>136</v>
+      </c>
+      <c r="D147">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148">
+        <v>0.9678649603006619</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>139</v>
+      </c>
+      <c r="D150">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>141</v>
+      </c>
+      <c r="D152">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>142</v>
+      </c>
+      <c r="D153">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>146</v>
+      </c>
+      <c r="D158">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>17</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159">
+        <v>0.7653217799440384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>148</v>
+      </c>
+      <c r="D160">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>149</v>
+      </c>
+      <c r="D161">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162">
+        <v>0.6380823767724511</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D163">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>152</v>
+      </c>
+      <c r="D164">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>153</v>
+      </c>
+      <c r="D165">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>154</v>
+      </c>
+      <c r="D166">
+        <v>0.6754587155963302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>155</v>
+      </c>
+      <c r="D167">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>156</v>
+      </c>
+      <c r="D168">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>157</v>
+      </c>
+      <c r="D169">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>158</v>
+      </c>
+      <c r="D170">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>159</v>
+      </c>
+      <c r="D171">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>160</v>
+      </c>
+      <c r="D172">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>161</v>
+      </c>
+      <c r="D173">
+        <v>0.706358539981674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>162</v>
+      </c>
+      <c r="D174">
+        <v>0.9558337206392334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>163</v>
+      </c>
+      <c r="D175">
+        <v>0.9498011928429424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>165</v>
+      </c>
+      <c r="D177">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>16</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>166</v>
+      </c>
+      <c r="D178">
+        <v>0.6754587155963302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>125</v>
+      </c>
+      <c r="D179">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>76</v>
+      </c>
+      <c r="D180">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>167</v>
+      </c>
+      <c r="D181">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>168</v>
+      </c>
+      <c r="D182">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>169</v>
+      </c>
+      <c r="D183">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>170</v>
+      </c>
+      <c r="D184">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D185">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>172</v>
+      </c>
+      <c r="D186">
+        <v>0.699358836702764</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>173</v>
+      </c>
+      <c r="D187">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>176</v>
+      </c>
+      <c r="D190">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D191">
+        <v>0.8689104540586156</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>178</v>
+      </c>
+      <c r="D192">
+        <v>0.699358836702764</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>180</v>
+      </c>
+      <c r="D194">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>181</v>
+      </c>
+      <c r="D195">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>182</v>
+      </c>
+      <c r="D196">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>16</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>184</v>
+      </c>
+      <c r="D198">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>17</v>
+      </c>
+      <c r="B199">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>18</v>
+      </c>
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>186</v>
+      </c>
+      <c r="D200">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>19</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>188</v>
+      </c>
+      <c r="D203">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>189</v>
+      </c>
+      <c r="D204">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>190</v>
+      </c>
+      <c r="D205">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>191</v>
+      </c>
+      <c r="D206">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>171</v>
+      </c>
+      <c r="D208">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>193</v>
+      </c>
+      <c r="D209">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>194</v>
+      </c>
+      <c r="D210">
+        <v>0.8263994942447029</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>195</v>
+      </c>
+      <c r="D211">
+        <v>0.9678649603006619</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>11</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>197</v>
+      </c>
+      <c r="D213">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>198</v>
+      </c>
+      <c r="D214">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>199</v>
+      </c>
+      <c r="D215">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>200</v>
+      </c>
+      <c r="D216">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>15</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>201</v>
+      </c>
+      <c r="D217">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>16</v>
+      </c>
+      <c r="B218">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>202</v>
+      </c>
+      <c r="D218">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>203</v>
+      </c>
+      <c r="D219">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>204</v>
+      </c>
+      <c r="D220">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>205</v>
+      </c>
+      <c r="D221">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>206</v>
+      </c>
+      <c r="D222">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>207</v>
+      </c>
+      <c r="D223">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>209</v>
+      </c>
+      <c r="D225">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>210</v>
+      </c>
+      <c r="D226">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>211</v>
+      </c>
+      <c r="D227">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>6</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>190</v>
+      </c>
+      <c r="D228">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>212</v>
+      </c>
+      <c r="D229">
+        <v>0.8017414601473544</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>213</v>
+      </c>
+      <c r="D230">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>214</v>
+      </c>
+      <c r="D231">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>215</v>
+      </c>
+      <c r="D232">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>216</v>
+      </c>
+      <c r="D233">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>12</v>
+      </c>
+      <c r="B234">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>217</v>
+      </c>
+      <c r="D234">
+        <v>0.8722511178027191</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>13</v>
+      </c>
+      <c r="B235">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>218</v>
+      </c>
+      <c r="D235">
+        <v>0.925233644859813</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>14</v>
+      </c>
+      <c r="B236">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>219</v>
+      </c>
+      <c r="D236">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>15</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>220</v>
+      </c>
+      <c r="D237">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>17</v>
+      </c>
+      <c r="B239">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>222</v>
+      </c>
+      <c r="D239">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>18</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>223</v>
+      </c>
+      <c r="D240">
+        <v>0.8209733214126695</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>224</v>
+      </c>
+      <c r="D241">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>225</v>
+      </c>
+      <c r="D242">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>226</v>
+      </c>
+      <c r="D243">
+        <v>0.9553072625698324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>227</v>
+      </c>
+      <c r="D244">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>228</v>
+      </c>
+      <c r="D245">
+        <v>0.9493367428480103</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+      <c r="D246">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>230</v>
+      </c>
+      <c r="D247">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>231</v>
+      </c>
+      <c r="D248">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>232</v>
+      </c>
+      <c r="D249">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>233</v>
+      </c>
+      <c r="D250">
+        <v>0.6754587155963302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>234</v>
+      </c>
+      <c r="D251">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>10</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>235</v>
+      </c>
+      <c r="D252">
+        <v>0.6824262415246473</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>190</v>
+      </c>
+      <c r="D253">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>236</v>
+      </c>
+      <c r="D254">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>13</v>
+      </c>
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>237</v>
+      </c>
+      <c r="D255">
+        <v>0.7950793856121663</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>238</v>
+      </c>
+      <c r="D256">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>76</v>
+      </c>
+      <c r="D257">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>16</v>
+      </c>
+      <c r="B258">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>239</v>
+      </c>
+      <c r="D258">
+        <v>0.6844999533973343</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>240</v>
+      </c>
+      <c r="D259">
+        <v>0.8060533278623578</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>18</v>
+      </c>
+      <c r="B260">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>241</v>
+      </c>
+      <c r="D260">
+        <v>0.672680412371134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>242</v>
+      </c>
+      <c r="D261">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>243</v>
+      </c>
+      <c r="D262">
+        <v>0.610089229805886</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>244</v>
+      </c>
+      <c r="D263">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>245</v>
+      </c>
+      <c r="D264">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>246</v>
+      </c>
+      <c r="D265">
+        <v>0.8215635503948279</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>247</v>
+      </c>
+      <c r="D266">
+        <v>0.9553756414751536</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>248</v>
+      </c>
+      <c r="D267">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>6</v>
+      </c>
+      <c r="B268">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>249</v>
+      </c>
+      <c r="D268">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>7</v>
+      </c>
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>250</v>
+      </c>
+      <c r="D269">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>251</v>
+      </c>
+      <c r="D270">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>9</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>252</v>
+      </c>
+      <c r="D271">
+        <v>0.9615384615384615</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>253</v>
+      </c>
+      <c r="D272">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>11</v>
+      </c>
+      <c r="B273">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>254</v>
+      </c>
+      <c r="D273">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>255</v>
+      </c>
+      <c r="D274">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>13</v>
+      </c>
+      <c r="B275">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>256</v>
+      </c>
+      <c r="D275">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>14</v>
+      </c>
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>257</v>
+      </c>
+      <c r="D276">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>258</v>
+      </c>
+      <c r="D277">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>16</v>
+      </c>
+      <c r="B278">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>259</v>
+      </c>
+      <c r="D278">
+        <v>0.9492900608519268</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>260</v>
+      </c>
+      <c r="D279">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>190</v>
+      </c>
+      <c r="D280">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>19</v>
+      </c>
+      <c r="B281">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>261</v>
+      </c>
+      <c r="D281">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>14</v>
+      </c>
+      <c r="C282" t="s">
+        <v>262</v>
+      </c>
+      <c r="D282">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>263</v>
+      </c>
+      <c r="D283">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>264</v>
+      </c>
+      <c r="D284">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>265</v>
+      </c>
+      <c r="D285">
+        <v>0.8924483478511267</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286" t="s">
+        <v>266</v>
+      </c>
+      <c r="D286">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>267</v>
+      </c>
+      <c r="D287">
+        <v>0.9492900608519268</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>268</v>
+      </c>
+      <c r="D288">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>190</v>
+      </c>
+      <c r="D289">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>8</v>
+      </c>
+      <c r="B290">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>269</v>
+      </c>
+      <c r="D290">
+        <v>0.7258727069345939</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>9</v>
+      </c>
+      <c r="B291">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>270</v>
+      </c>
+      <c r="D291">
+        <v>0.9493478536152971</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>271</v>
+      </c>
+      <c r="D292">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>272</v>
+      </c>
+      <c r="D293">
+        <v>0.6626431546069755</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>12</v>
+      </c>
+      <c r="B294">
+        <v>14</v>
+      </c>
+      <c r="C294" t="s">
+        <v>273</v>
+      </c>
+      <c r="D294">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>13</v>
+      </c>
+      <c r="B295">
+        <v>14</v>
+      </c>
+      <c r="C295" t="s">
+        <v>274</v>
+      </c>
+      <c r="D295">
+        <v>0.9380625094065119</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>275</v>
+      </c>
+      <c r="D296">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>15</v>
+      </c>
+      <c r="B297">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>276</v>
+      </c>
+      <c r="D297">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>16</v>
+      </c>
+      <c r="B298">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>277</v>
+      </c>
+      <c r="D298">
+        <v>0.7691315269399367</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>17</v>
+      </c>
+      <c r="B299">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>278</v>
+      </c>
+      <c r="D299">
+        <v>0.699358836702764</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>18</v>
+      </c>
+      <c r="B300">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>279</v>
+      </c>
+      <c r="D300">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>19</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>280</v>
+      </c>
+      <c r="D301">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>281</v>
+      </c>
+      <c r="D302">
+        <v>0.9614791987673343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>282</v>
+      </c>
+      <c r="D303">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>283</v>
+      </c>
+      <c r="D304">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>284</v>
+      </c>
+      <c r="D305">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>285</v>
+      </c>
+      <c r="D306">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>286</v>
+      </c>
+      <c r="D307">
+        <v>0.7106953848857173</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>6</v>
+      </c>
+      <c r="B308">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>287</v>
+      </c>
+      <c r="D308">
+        <v>0.6738760523016299</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>288</v>
+      </c>
+      <c r="D309">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>190</v>
+      </c>
+      <c r="D310">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>9</v>
+      </c>
+      <c r="B311">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>289</v>
+      </c>
+      <c r="D311">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>10</v>
+      </c>
+      <c r="B312">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>290</v>
+      </c>
+      <c r="D312">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>291</v>
+      </c>
+      <c r="D313">
+        <v>0.6928563667623241</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>292</v>
+      </c>
+      <c r="D314">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>13</v>
+      </c>
+      <c r="B315">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>293</v>
+      </c>
+      <c r="D315">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>294</v>
+      </c>
+      <c r="D316">
+        <v>0.6807528990735527</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>15</v>
+      </c>
+      <c r="B317">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>295</v>
+      </c>
+      <c r="D317">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>16</v>
+      </c>
+      <c r="B318">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>296</v>
+      </c>
+      <c r="D318">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>297</v>
+      </c>
+      <c r="D319">
+        <v>0.6746166950596253</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>298</v>
+      </c>
+      <c r="D320">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>19</v>
+      </c>
+      <c r="B321">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>299</v>
+      </c>
+      <c r="D321">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>16</v>
+      </c>
+      <c r="C322" t="s">
+        <v>300</v>
+      </c>
+      <c r="D322">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>301</v>
+      </c>
+      <c r="D323">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>302</v>
+      </c>
+      <c r="D324">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>16</v>
+      </c>
+      <c r="C325" t="s">
+        <v>303</v>
+      </c>
+      <c r="D325">
+        <v>0.9493478536152971</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>16</v>
+      </c>
+      <c r="C326" t="s">
+        <v>304</v>
+      </c>
+      <c r="D326">
+        <v>0.9071925754060325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>305</v>
+      </c>
+      <c r="D327">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>6</v>
+      </c>
+      <c r="B328">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s">
+        <v>306</v>
+      </c>
+      <c r="D328">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>16</v>
+      </c>
+      <c r="C329" t="s">
+        <v>307</v>
+      </c>
+      <c r="D329">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>308</v>
+      </c>
+      <c r="D330">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>9</v>
+      </c>
+      <c r="B331">
+        <v>16</v>
+      </c>
+      <c r="C331" t="s">
+        <v>309</v>
+      </c>
+      <c r="D331">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>10</v>
+      </c>
+      <c r="B332">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>310</v>
+      </c>
+      <c r="D332">
+        <v>0.8722511178027191</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>16</v>
+      </c>
+      <c r="C333" t="s">
+        <v>311</v>
+      </c>
+      <c r="D333">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>12</v>
+      </c>
+      <c r="B334">
+        <v>16</v>
+      </c>
+      <c r="C334" t="s">
+        <v>312</v>
+      </c>
+      <c r="D334">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>13</v>
+      </c>
+      <c r="B335">
+        <v>16</v>
+      </c>
+      <c r="C335" t="s">
+        <v>313</v>
+      </c>
+      <c r="D335">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>14</v>
+      </c>
+      <c r="B336">
+        <v>16</v>
+      </c>
+      <c r="C336" t="s">
+        <v>314</v>
+      </c>
+      <c r="D336">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>15</v>
+      </c>
+      <c r="B337">
+        <v>16</v>
+      </c>
+      <c r="C337" t="s">
+        <v>315</v>
+      </c>
+      <c r="D337">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>16</v>
+      </c>
+      <c r="B338">
+        <v>16</v>
+      </c>
+      <c r="C338" t="s">
+        <v>316</v>
+      </c>
+      <c r="D338">
+        <v>0.7590361445783134</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>17</v>
+      </c>
+      <c r="B339">
+        <v>16</v>
+      </c>
+      <c r="C339" t="s">
+        <v>317</v>
+      </c>
+      <c r="D339">
+        <v>0.8288040904656825</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <v>16</v>
+      </c>
+      <c r="C340" t="s">
+        <v>318</v>
+      </c>
+      <c r="D340">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>19</v>
+      </c>
+      <c r="B341">
+        <v>16</v>
+      </c>
+      <c r="C341" t="s">
+        <v>190</v>
+      </c>
+      <c r="D341">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>17</v>
+      </c>
+      <c r="C342" t="s">
+        <v>190</v>
+      </c>
+      <c r="D342">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>17</v>
+      </c>
+      <c r="C343" t="s">
+        <v>319</v>
+      </c>
+      <c r="D343">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>17</v>
+      </c>
+      <c r="C344" t="s">
+        <v>320</v>
+      </c>
+      <c r="D344">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>17</v>
+      </c>
+      <c r="C345" t="s">
+        <v>321</v>
+      </c>
+      <c r="D345">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>17</v>
+      </c>
+      <c r="C346" t="s">
+        <v>322</v>
+      </c>
+      <c r="D346">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>5</v>
+      </c>
+      <c r="B347">
+        <v>17</v>
+      </c>
+      <c r="C347" t="s">
+        <v>323</v>
+      </c>
+      <c r="D347">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>17</v>
+      </c>
+      <c r="C348" t="s">
+        <v>324</v>
+      </c>
+      <c r="D348">
+        <v>0.7723044456168605</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>17</v>
+      </c>
+      <c r="C349" t="s">
+        <v>325</v>
+      </c>
+      <c r="D349">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>8</v>
+      </c>
+      <c r="B350">
+        <v>17</v>
+      </c>
+      <c r="C350" t="s">
+        <v>326</v>
+      </c>
+      <c r="D350">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>9</v>
+      </c>
+      <c r="B351">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>327</v>
+      </c>
+      <c r="D351">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>10</v>
+      </c>
+      <c r="B352">
+        <v>17</v>
+      </c>
+      <c r="C352" t="s">
+        <v>328</v>
+      </c>
+      <c r="D352">
+        <v>0.5457038391224863</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>11</v>
+      </c>
+      <c r="B353">
+        <v>17</v>
+      </c>
+      <c r="C353" t="s">
+        <v>329</v>
+      </c>
+      <c r="D353">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>12</v>
+      </c>
+      <c r="B354">
+        <v>17</v>
+      </c>
+      <c r="C354" t="s">
+        <v>330</v>
+      </c>
+      <c r="D354">
+        <v>0.7131785311079243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>17</v>
+      </c>
+      <c r="C355" t="s">
+        <v>331</v>
+      </c>
+      <c r="D355">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>14</v>
+      </c>
+      <c r="B356">
+        <v>17</v>
+      </c>
+      <c r="C356" t="s">
+        <v>332</v>
+      </c>
+      <c r="D356">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>15</v>
+      </c>
+      <c r="B357">
+        <v>17</v>
+      </c>
+      <c r="C357" t="s">
+        <v>333</v>
+      </c>
+      <c r="D357">
+        <v>0.9740158503312979</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>16</v>
+      </c>
+      <c r="B358">
+        <v>17</v>
+      </c>
+      <c r="C358" t="s">
+        <v>334</v>
+      </c>
+      <c r="D358">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>17</v>
+      </c>
+      <c r="B359">
+        <v>17</v>
+      </c>
+      <c r="C359" t="s">
+        <v>335</v>
+      </c>
+      <c r="D359">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>18</v>
+      </c>
+      <c r="B360">
+        <v>17</v>
+      </c>
+      <c r="C360" t="s">
+        <v>336</v>
+      </c>
+      <c r="D360">
+        <v>0.7131785311079243</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>19</v>
+      </c>
+      <c r="B361">
+        <v>17</v>
+      </c>
+      <c r="C361" t="s">
+        <v>337</v>
+      </c>
+      <c r="D361">
+        <v>0.6777920410783055</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>18</v>
+      </c>
+      <c r="C362" t="s">
+        <v>338</v>
+      </c>
+      <c r="D362">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>18</v>
+      </c>
+      <c r="C363" t="s">
+        <v>339</v>
+      </c>
+      <c r="D363">
+        <v>0.5827928658289421</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364">
+        <v>18</v>
+      </c>
+      <c r="C364" t="s">
+        <v>340</v>
+      </c>
+      <c r="D364">
+        <v>0.8374130611507543</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>341</v>
+      </c>
+      <c r="D365">
+        <v>0.9677138152584508</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>4</v>
+      </c>
+      <c r="B366">
+        <v>18</v>
+      </c>
+      <c r="C366" t="s">
+        <v>342</v>
+      </c>
+      <c r="D366">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>18</v>
+      </c>
+      <c r="C367" t="s">
+        <v>343</v>
+      </c>
+      <c r="D367">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>6</v>
+      </c>
+      <c r="B368">
+        <v>18</v>
+      </c>
+      <c r="C368" t="s">
+        <v>344</v>
+      </c>
+      <c r="D368">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>18</v>
+      </c>
+      <c r="C369" t="s">
+        <v>345</v>
+      </c>
+      <c r="D369">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>8</v>
+      </c>
+      <c r="B370">
+        <v>18</v>
+      </c>
+      <c r="C370" t="s">
+        <v>346</v>
+      </c>
+      <c r="D370">
+        <v>0.9740259740259739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>9</v>
+      </c>
+      <c r="B371">
+        <v>18</v>
+      </c>
+      <c r="C371" t="s">
+        <v>347</v>
+      </c>
+      <c r="D371">
+        <v>0.9493367428480103</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>10</v>
+      </c>
+      <c r="B372">
+        <v>18</v>
+      </c>
+      <c r="C372" t="s">
+        <v>348</v>
+      </c>
+      <c r="D372">
+        <v>0.9308980117473379</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>11</v>
+      </c>
+      <c r="B373">
+        <v>18</v>
+      </c>
+      <c r="C373" t="s">
+        <v>349</v>
+      </c>
+      <c r="D373">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>18</v>
+      </c>
+      <c r="C374" t="s">
+        <v>190</v>
+      </c>
+      <c r="D374">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>13</v>
+      </c>
+      <c r="B375">
+        <v>18</v>
+      </c>
+      <c r="C375" t="s">
+        <v>350</v>
+      </c>
+      <c r="D375">
+        <v>0.7526917393009019</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>14</v>
+      </c>
+      <c r="B376">
+        <v>18</v>
+      </c>
+      <c r="C376" t="s">
+        <v>351</v>
+      </c>
+      <c r="D376">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>15</v>
+      </c>
+      <c r="B377">
+        <v>18</v>
+      </c>
+      <c r="C377" t="s">
+        <v>352</v>
+      </c>
+      <c r="D377">
+        <v>0.7923468981444614</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>16</v>
+      </c>
+      <c r="B378">
+        <v>18</v>
+      </c>
+      <c r="C378" t="s">
+        <v>353</v>
+      </c>
+      <c r="D378">
+        <v>0.967663702506063</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>17</v>
+      </c>
+      <c r="B379">
+        <v>18</v>
+      </c>
+      <c r="C379" t="s">
+        <v>354</v>
+      </c>
+      <c r="D379">
+        <v>0.9071925754060325</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>18</v>
+      </c>
+      <c r="B380">
+        <v>18</v>
+      </c>
+      <c r="C380" t="s">
+        <v>355</v>
+      </c>
+      <c r="D380">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>19</v>
+      </c>
+      <c r="B381">
+        <v>18</v>
+      </c>
+      <c r="C381" t="s">
+        <v>356</v>
+      </c>
+      <c r="D381">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>19</v>
+      </c>
+      <c r="C382" t="s">
+        <v>357</v>
+      </c>
+      <c r="D382">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>19</v>
+      </c>
+      <c r="C383" t="s">
+        <v>358</v>
+      </c>
+      <c r="D383">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384">
+        <v>19</v>
+      </c>
+      <c r="C384" t="s">
+        <v>359</v>
+      </c>
+      <c r="D384">
+        <v>0.9615236629472873</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>19</v>
+      </c>
+      <c r="C385" t="s">
+        <v>360</v>
+      </c>
+      <c r="D385">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>4</v>
+      </c>
+      <c r="B386">
+        <v>19</v>
+      </c>
+      <c r="C386" t="s">
+        <v>361</v>
+      </c>
+      <c r="D386">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>5</v>
+      </c>
+      <c r="B387">
+        <v>19</v>
+      </c>
+      <c r="C387" t="s">
+        <v>362</v>
+      </c>
+      <c r="D387">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>6</v>
+      </c>
+      <c r="B388">
+        <v>19</v>
+      </c>
+      <c r="C388" t="s">
+        <v>363</v>
+      </c>
+      <c r="D388">
+        <v>0.9554097525241265</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>19</v>
+      </c>
+      <c r="C389" t="s">
+        <v>364</v>
+      </c>
+      <c r="D389">
+        <v>0.7131785311079243</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>8</v>
+      </c>
+      <c r="B390">
+        <v>19</v>
+      </c>
+      <c r="C390" t="s">
+        <v>365</v>
+      </c>
+      <c r="D390">
+        <v>0.7398118173842011</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>9</v>
+      </c>
+      <c r="B391">
+        <v>19</v>
+      </c>
+      <c r="C391" t="s">
+        <v>366</v>
+      </c>
+      <c r="D391">
+        <v>0.7462848858281985</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>10</v>
+      </c>
+      <c r="B392">
+        <v>19</v>
+      </c>
+      <c r="C392" t="s">
+        <v>190</v>
+      </c>
+      <c r="D392">
+        <v>0.9803748405455794</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>11</v>
+      </c>
+      <c r="B393">
+        <v>19</v>
+      </c>
+      <c r="C393" t="s">
+        <v>367</v>
+      </c>
+      <c r="D393">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>12</v>
+      </c>
+      <c r="B394">
+        <v>19</v>
+      </c>
+      <c r="C394" t="s">
+        <v>368</v>
+      </c>
+      <c r="D394">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>19</v>
+      </c>
+      <c r="C395" t="s">
+        <v>369</v>
+      </c>
+      <c r="D395">
+        <v>0.9677138152584508</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>14</v>
+      </c>
+      <c r="B396">
+        <v>19</v>
+      </c>
+      <c r="C396" t="s">
+        <v>370</v>
+      </c>
+      <c r="D396">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>15</v>
+      </c>
+      <c r="B397">
+        <v>19</v>
+      </c>
+      <c r="C397" t="s">
+        <v>371</v>
+      </c>
+      <c r="D397">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>16</v>
+      </c>
+      <c r="B398">
+        <v>19</v>
+      </c>
+      <c r="C398" t="s">
+        <v>372</v>
+      </c>
+      <c r="D398">
+        <v>0.6923076923076922</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>17</v>
+      </c>
+      <c r="B399">
+        <v>19</v>
+      </c>
+      <c r="C399" t="s">
+        <v>373</v>
+      </c>
+      <c r="D399">
+        <v>0.7398118173842011</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <v>19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>374</v>
+      </c>
+      <c r="D400">
+        <v>0.7959918396735869</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>19</v>
+      </c>
+      <c r="B401">
+        <v>19</v>
+      </c>
+      <c r="C401" t="s">
+        <v>76</v>
+      </c>
+      <c r="D401">
+        <v>0.5454545454545454</v>
       </c>
     </row>
   </sheetData>

--- a/evalution0.xlsx
+++ b/evalution0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="304">
   <si>
     <t>iter</t>
   </si>
@@ -25,142 +25,907 @@
     <t>fit</t>
   </si>
   <si>
-    <t>less[petal length (cm),{'p': 2.6566515876957455}](nom_class:0, less[petal length (cm),{'p': 4.803882053179011}](nom_class:1, less[petal length (cm),{'p': 0.925391229274061}](nom_class:2, less[sepal length (cm),{'p': 1.0609424538803127}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': 0.8052738623825658}](less[sepal width (cm),{'p': 0.5885139161996565}](nom_class:1, less[sepal length (cm),{'p': 0.8912157745678938}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0.4729894108182079}](less[sepal width (cm),{'p': 0.22054834706873394}](less[sepal length (cm),{'p': 0.10237135906630923}](less[sepal width (cm),{'p': 0.4488908792116322}](less[sepal length (cm),{'p': 0.3532129356866327}](nom_class:1, nom_class:1), nom_class:1), nom_class:1), nom_class:0), less[sepal length (cm),{'p': 0.3919497074387035}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.312499509818611}](nom_class:0, less[petal length (cm),{'p': 4.830997451751524}](less[sepal width (cm),{'p': 0.7889153470886695}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 1.660302487168435}](nom_class:2, less[sepal width (cm),{'p': 0.16648129728854677}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8369223912704956}](nom_class:0, less[petal width (cm),{'p': 1.6520284881221803}](less[petal width (cm),{'p': 1.048485886415448}](nom_class:1, less[sepal width (cm),{'p': 0.30098551017541353}](nom_class:2, less[petal width (cm),{'p': 0.32914704677793216}](nom_class:1, less[sepal width (cm),{'p': 0.4948211046595776}](nom_class:1, nom_class:1)))), less[petal width (cm),{'p': -0.6300241866766241}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9077050527085901}](nom_class:0, less[petal width (cm),{'p': 1.625459460163114}](nom_class:1, less[sepal length (cm),{'p': 0.985176928890678}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.986580253578112}](nom_class:0, less[petal width (cm),{'p': 1.6973563088817891}](less[petal width (cm),{'p': 1.1289954104407374}](nom_class:1, less[sepal width (cm),{'p': 1.3329084482103624}](nom_class:2, less[sepal width (cm),{'p': 0.4521852826983189}](less[petal width (cm),{'p': 0.4509938388918831}](nom_class:1, nom_class:1), nom_class:1))), less[petal width (cm),{'p': 1.1188537903425209}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.877314914814878}](nom_class:0, less[petal width (cm),{'p': 1.9524012068202985}](less[petal length (cm),{'p': 4.162334761703534}](nom_class:1, nom_class:2), nom_class:2))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.652631669831992}](nom_class:0, less[petal width (cm),{'p': 1.629315893614929}](nom_class:1, less[sepal length (cm),{'p': -0.2778797677156483}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[sepal length (cm),{'p': 0.3371876302598865}](less[sepal width (cm),{'p': 0.2342061998948145}](nom_class:1, less[sepal length (cm),{'p': 0.9224782235148044}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0.3027077881260277}](less[sepal width (cm),{'p': 0.6945901455698492}](less[sepal length (cm),{'p': 0.8426534470980033}](less[sepal length (cm),{'p': 0.2356998962417357}](nom_class:1, nom_class:1), nom_class:1), nom_class:0), less[sepal length (cm),{'p': 0.318896762491892}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7278974177730773}](nom_class:0, less[petal width (cm),{'p': -0.42181403522786615}](less[petal length (cm),{'p': 0.5408265961279066}](nom_class:1, nom_class:2), nom_class:2))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.2650435088559018}](nom_class:0, less[petal length (cm),{'p': 0.9533877235640353}](less[sepal width (cm),{'p': 0.4501170869637672}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 1.4323581552387572}](nom_class:2, less[sepal width (cm),{'p': 0.6242689036286883}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8582268702457542}](nom_class:0, less[petal width (cm),{'p': 1.1020141749442764}](less[petal width (cm),{'p': -0.07096652666338646}](nom_class:2, less[sepal width (cm),{'p': 0.538548553983653}](nom_class:2, less[sepal width (cm),{'p': -0.011204461913362246}](less[petal width (cm),{'p': -0.7965693351983162}](nom_class:1, nom_class:1), nom_class:1))), less[petal width (cm),{'p': 1.6964587286074186}](less[sepal width (cm),{'p': -1.247570327269236}](nom_class:2, less[petal width (cm),{'p': -0.011736815493363195}](nom_class:1, less[sepal width (cm),{'p': -0.02272906514707107}](nom_class:1, nom_class:1))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6826441994792305}](nom_class:0, less[petal width (cm),{'p': 1.6707661706806605}](less[petal width (cm),{'p': 0.8594310367458542}](nom_class:1, less[sepal width (cm),{'p': -0.38569676178776197}](nom_class:2, less[sepal width (cm),{'p': -2.066755348602959}](less[petal width (cm),{'p': 0.9257383037742112}](nom_class:1, nom_class:1), nom_class:1))), less[petal width (cm),{'p': 3.13041792861764}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 0.00864033581573842}](nom_class:2, less[sepal length (cm),{'p': 0.653002854390123}](nom_class:2, nom_class:2))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8366533665175753}](nom_class:0, less[petal width (cm),{'p': 2.8731116398771106}](less[petal width (cm),{'p': 1.6233273030827753}](nom_class:1, less[petal length (cm),{'p': 0.7735874897995211}](nom_class:2, less[petal width (cm),{'p': -0.14623196158402751}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 0.535319223266929}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 1.7675927868527102}](less[sepal width (cm),{'p': 0.20290083253469637}](nom_class:1, nom_class:1), less[petal width (cm),{'p': -0.4549000555264806}](nom_class:2, less[sepal length (cm),{'p': 0.10345789173770098}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': 0.36077645419584814}](nom_class:0, less[petal width (cm),{'p': 1.7615390926395091}](nom_class:1, less[sepal length (cm),{'p': 0.6499554663359489}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9375668739037356}](nom_class:0, less[petal width (cm),{'p': 1.6309239673418097}](less[petal width (cm),{'p': 2.7608994201882378}](nom_class:1, less[sepal width (cm),{'p': 0.18382440536912126}](nom_class:2, less[petal length (cm),{'p': 0.3028878007546827}](less[petal width (cm),{'p': 0.7796145601109213}](nom_class:1, nom_class:1), nom_class:2))), less[petal width (cm),{'p': 0.8420567336717406}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[sepal width (cm),{'p': -0.5116620667642396}](nom_class:0, less[petal length (cm),{'p': 4.873361709416486}](nom_class:1, less[petal length (cm),{'p': 0.2958182994820376}](nom_class:2, less[sepal length (cm),{'p': -1.7696385644109247}](nom_class:2, nom_class:2))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7873233668667982}](nom_class:0, less[petal width (cm),{'p': 1.679282672081338}](less[petal width (cm),{'p': -0.8237416716186009}](nom_class:2, less[sepal width (cm),{'p': 0.7422204683884723}](nom_class:2, less[sepal width (cm),{'p': 0.3655682069011057}](less[petal width (cm),{'p': 1.0899965614768303}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': -0.2293881141275983}](less[sepal length (cm),{'p': 1.6280292476278713}](nom_class:2, less[petal width (cm),{'p': 0.9902675465229914}](nom_class:1, less[sepal width (cm),{'p': 0.5176210251268081}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9027187216564891}](nom_class:0, nom_class:2)</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6541890240511349}](nom_class:0, less[sepal width (cm),{'p': 0.0007869624809884179}](less[petal width (cm),{'p': 0.2905614370110548}](nom_class:1, less[sepal width (cm),{'p': 0.09064961801731442}](nom_class:2, less[sepal width (cm),{'p': 1.0291125481222019}](less[petal width (cm),{'p': 0.7439341044904771}](nom_class:0, nom_class:2), nom_class:2))), less[petal width (cm),{'p': 0.856618460935415}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9854233773253991}](nom_class:0, less[petal width (cm),{'p': 0.4080073062508965}](less[petal width (cm),{'p': 1.3060217002289503}](nom_class:1, less[sepal width (cm),{'p': 0.44182617305679245}](nom_class:2, less[petal width (cm),{'p': 1.2567155789134756}](nom_class:1, less[sepal width (cm),{'p': 0.29396916738431306}](nom_class:1, nom_class:1)))), less[petal width (cm),{'p': 0.2403201380626927}](nom_class:2, less[petal width (cm),{'p': 0.7974975428274734}](nom_class:1, less[sepal width (cm),{'p': 0.9755892970499904}](nom_class:2, less[sepal width (cm),{'p': 0.2455313599857626}](less[sepal width (cm),{'p': 0.24231953497654857}](nom_class:1, nom_class:1), nom_class:1))))))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.22134918575507617}](nom_class:2, less[petal width (cm),{'p': 0.05061800121371024}](less[petal width (cm),{'p': 2.1295630548520257}](nom_class:1, less[sepal width (cm),{'p': 1.4879453157191778}](nom_class:2, less[petal width (cm),{'p': -0.25324939322313517}](less[petal width (cm),{'p': 0.2536283655173024}](nom_class:1, nom_class:1), nom_class:2))), less[petal width (cm),{'p': 1.9165271127801402}](less[sepal width (cm),{'p': -0.9026776282971898}](nom_class:2, less[petal width (cm),{'p': 1.7954402660136888}](nom_class:1, less[sepal width (cm),{'p': 0.6465659592363833}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7939646990905173}](nom_class:0, less[petal width (cm),{'p': 1.69241847840731}](less[petal width (cm),{'p': 0.3119243691775393}](nom_class:2, less[sepal width (cm),{'p': -0.143272370388058}](nom_class:2, less[sepal width (cm),{'p': 0.8843928882042693}](less[petal width (cm),{'p': 0.27858017193815604}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 1.2213124397532098}](less[sepal width (cm),{'p': 1.6513554104826391}](nom_class:2, less[petal width (cm),{'p': 1.428312032886787}](nom_class:1, less[sepal width (cm),{'p': 0.7431607756821379}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6904484183440404}](nom_class:0, less[petal width (cm),{'p': 1.6629689985207827}](less[petal width (cm),{'p': -0.4650371745200947}](less[petal width (cm),{'p': 1.5882549389857168}](less[petal width (cm),{'p': 0.06510192052552757}](nom_class:1, less[petal length (cm),{'p': 1.0018305985950318}](nom_class:2, less[petal width (cm),{'p': 0.5386965917698964}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 0.4058650126700789}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': -0.13768509584395378}](nom_class:2, less[petal width (cm),{'p': 1.6638544429630318}](nom_class:1, less[sepal width (cm),{'p': 1.3478899046535693}](nom_class:1, nom_class:1)))), less[petal width (cm),{'p': 0.1760547714361681}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7220255545845837}](nom_class:0, less[petal width (cm),{'p': 2.071234826295668}](less[petal width (cm),{'p': 1.6929921768940268}](nom_class:1, less[petal length (cm),{'p': 0.5481255606998695}](nom_class:0, less[petal width (cm),{'p': 0.32991170462450564}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.6119978387817009}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7365107637644057}](nom_class:0, less[sepal width (cm),{'p': 0.8032836765508652}](less[petal width (cm),{'p': 0.003580350415635536}](nom_class:1, nom_class:1), nom_class:1))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.9752839455533586}](nom_class:0, less[petal width (cm),{'p': 1.6329820732874618}](less[petal width (cm),{'p': -0.34833543925904964}](nom_class:2, less[sepal width (cm),{'p': -0.04467737453971185}](nom_class:2, less[sepal width (cm),{'p': 2.2866945155082545}](less[petal width (cm),{'p': 1.3195228310977813}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 1.8811821072792378}](less[sepal width (cm),{'p': 1.8332554981708193}](nom_class:2, less[petal width (cm),{'p': 1.3948919885795354}](less[petal width (cm),{'p': 1.054452177425055}](nom_class:0, less[sepal width (cm),{'p': 1.7452931995165397}](less[petal width (cm),{'p': -0.4071609420243195}](nom_class:1, less[petal length (cm),{'p': 1.5308597662268626}](nom_class:2, less[petal width (cm),{'p': -0.16342993952594348}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 1.0520127362531109}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 1.4572167442473285}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8829476508770461}](nom_class:0, less[petal width (cm),{'p': 0.8278934869824054}](less[petal width (cm),{'p': 0.5316841389361033}](nom_class:2, less[petal width (cm),{'p': 0.5573757870422381}](nom_class:0, less[petal width (cm),{'p': 0.0414726788428309}](nom_class:2, nom_class:2))), nom_class:2))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7358265547540916}](nom_class:0, less[petal width (cm),{'p': 1.6322001218208833}](less[petal width (cm),{'p': -0.6057295040350028}](less[petal width (cm),{'p': -0.29145793096997713}](less[petal width (cm),{'p': 0.8547374152165188}](nom_class:1, less[petal length (cm),{'p': 0.06254718856865582}](nom_class:1, less[petal width (cm),{'p': -0.6746494695928004}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': -0.4185785346693026}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 1.2899893728956446}](nom_class:2, less[petal width (cm),{'p': -0.2772127907261963}](nom_class:1, less[sepal width (cm),{'p': 1.9532656991587023}](nom_class:1, nom_class:1)))), less[petal width (cm),{'p': 1.6627640577105165}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6956369007336037}](nom_class:0, less[petal width (cm),{'p': 1.6279894133425343}](less[petal width (cm),{'p': 0.26432529614329137}](less[petal width (cm),{'p': 0.3181938029078327}](less[sepal length (cm),{'p': 0.9274627285746723}](nom_class:2, less[sepal length (cm),{'p': 0.5801855441649305}](nom_class:1, less[sepal width (cm),{'p': -0.29844526523323867}](nom_class:2, nom_class:2))), nom_class:2), less[sepal width (cm),{'p': 0.2903610709828135}](nom_class:2, less[sepal width (cm),{'p': 0.9168570294292627}](less[petal width (cm),{'p': 1.8166800350859684}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 0.8425402869232799}](less[sepal width (cm),{'p': 0.3278651047850525}](nom_class:2, less[petal width (cm),{'p': 0.5028294795866894}](nom_class:1, less[sepal width (cm),{'p': 0.19741627625614583}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8021411579395187}](nom_class:0, less[petal width (cm),{'p': 2.059893410857728}](less[petal width (cm),{'p': 1.6021451702215597}](less[sepal width (cm),{'p': 0.5701708218942538}](nom_class:2, less[petal width (cm),{'p': 0.571366751942265}](nom_class:1, less[sepal width (cm),{'p': -0.20714667746367083}](nom_class:2, nom_class:1))), less[petal length (cm),{'p': 1.2953320924555332}](nom_class:0, less[petal width (cm),{'p': 0.5339987619421287}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.6815362087767418}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 2.0591423831517552}](nom_class:0, less[petal width (cm),{'p': -1.9577545385238753}](less[petal width (cm),{'p': 2.522041017815714}](nom_class:2, less[sepal width (cm),{'p': -1.8155448289659857}](nom_class:2, less[sepal width (cm),{'p': -0.12605304028922237}](less[sepal length (cm),{'p': 1.4379517103826025}](nom_class:1, less[petal width (cm),{'p': 0.3737593831128127}](nom_class:2, less[sepal width (cm),{'p': 1.1599456716455132}](nom_class:2, less[sepal width (cm),{'p': 0.4760502476249483}](less[petal width (cm),{'p': -0.6644397659640501}](nom_class:1, nom_class:2), nom_class:2)))), nom_class:2))), less[petal width (cm),{'p': 1.6203288477556537}](less[sepal width (cm),{'p': -0.1551437934764056}](nom_class:2, less[petal width (cm),{'p': 1.979937163217815}](nom_class:1, less[petal length (cm),{'p': -0.2433057044346666}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6311745201710511}](nom_class:0, less[petal width (cm),{'p': 1.635682684641563}](less[petal width (cm),{'p': 0.853216723973456}](nom_class:2, less[sepal width (cm),{'p': -0.510256958424198}](nom_class:2, less[sepal width (cm),{'p': 0.8482204814516278}](less[petal width (cm),{'p': -0.07794320566511395}](nom_class:1, nom_class:1), nom_class:1))), less[petal width (cm),{'p': 0.4784523447002727}](less[sepal width (cm),{'p': 0.19841241325423742}](nom_class:2, less[petal width (cm),{'p': 0.9435648026169023}](nom_class:1, less[petal width (cm),{'p': 0.5320439326966937}](nom_class:2, less[sepal width (cm),{'p': 0.4343108616875998}](nom_class:2, less[sepal width (cm),{'p': 1.6486766958987455}](less[petal width (cm),{'p': 1.480028621699168}](nom_class:1, nom_class:2), nom_class:2))))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.7906901487716517}](nom_class:0, less[petal width (cm),{'p': 1.6828020197461568}](less[petal width (cm),{'p': 0.027164411220184315}](nom_class:1, less[petal length (cm),{'p': 1.6050537236593918}](nom_class:0, less[petal width (cm),{'p': -0.2095499062700739}](nom_class:2, nom_class:1))), less[petal width (cm),{'p': -0.8039964676841012}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6919279344113948}](nom_class:0, less[petal width (cm),{'p': 1.621311594866233}](less[petal width (cm),{'p': 1.7521010692627481}](nom_class:1, less[petal length (cm),{'p': 0.35545584238165884}](less[petal width (cm),{'p': 0.5518852221983667}](nom_class:0, less[sepal width (cm),{'p': 0.5962616409219669}](less[petal width (cm),{'p': 0.8654932665053641}](nom_class:1, nom_class:1), nom_class:1)), less[petal width (cm),{'p': -0.025740570731198398}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.8641174539224521}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.62373527715197}](nom_class:2, less[petal length (cm),{'p': 2.5010471637830625}](less[petal width (cm),{'p': -0.12404873432475713}](nom_class:1, less[petal length (cm),{'p': 1.978386534747402}](less[petal width (cm),{'p': 0.7664857929717401}](nom_class:0, less[petal width (cm),{'p': 0.031382550145203136}](less[petal width (cm),{'p': 0.22133950976805455}](nom_class:1, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.37286224938858}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': -1.0815833464626685}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.10058831266871865}](nom_class:2, less[petal width (cm),{'p': 1.7523623110373716}](less[petal width (cm),{'p': -0.39843058388519126}](nom_class:2, less[sepal width (cm),{'p': 0.5759773030379078}](nom_class:2, less[sepal width (cm),{'p': 0.7254906571119206}](less[petal width (cm),{'p': 0.706592251414381}](nom_class:2, nom_class:1), nom_class:1))), less[petal width (cm),{'p': 0.05338142160463366}](less[sepal width (cm),{'p': 0.2367999754100919}](nom_class:2, less[sepal width (cm),{'p': 0.06067690762126571}](less[petal width (cm),{'p': 0.7487116981388151}](nom_class:0, less[sepal width (cm),{'p': 0.9918459557902658}](less[petal width (cm),{'p': 1.1729559415841933}](nom_class:2, less[petal length (cm),{'p': 1.0535027834940909}](nom_class:2, less[petal width (cm),{'p': 1.1535090180013632}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 0.5015566628280357}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 0.10994182244916728}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.21285892165457548}](nom_class:2, less[petal width (cm),{'p': 1.771095324734588}](less[petal width (cm),{'p': -0.6738896860540028}](less[petal width (cm),{'p': 0.8061831434843516}](less[sepal length (cm),{'p': -1.1511000748102669}](nom_class:2, less[sepal length (cm),{'p': -0.3448089339020723}](nom_class:1, less[sepal width (cm),{'p': 0.6850837988726792}](nom_class:2, nom_class:2))), nom_class:2), less[sepal width (cm),{'p': -0.4049170466918631}](nom_class:2, less[sepal width (cm),{'p': 0.9844538721061991}](less[sepal length (cm),{'p': 0.9889394032061753}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 0.25928956838169137}](less[sepal width (cm),{'p': -0.05679046601675597}](nom_class:2, less[petal width (cm),{'p': -0.21681411121262734}](nom_class:1, less[sepal width (cm),{'p': 1.0482415598282997}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': -0.2659747395880646}](nom_class:2, less[petal width (cm),{'p': -1.251854615187329}](less[sepal width (cm),{'p': 2.2860427794667695}](nom_class:2, less[sepal width (cm),{'p': 0.08966999203341047}](nom_class:2, less[sepal width (cm),{'p': 1.0621132248012042}](less[petal width (cm),{'p': 1.0217543864873748}](nom_class:2, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 0.7770232835191919}](less[sepal width (cm),{'p': -0.17946213873458272}](nom_class:2, less[petal width (cm),{'p': 0.8233498575167768}](less[petal width (cm),{'p': 1.7640156559876692}](nom_class:0, less[sepal width (cm),{'p': 0.8070155870911759}](less[petal width (cm),{'p': -0.0759238523082334}](nom_class:1, less[petal length (cm),{'p': 0.19969127176888626}](nom_class:2, less[petal width (cm),{'p': 0.9615117215728683}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 0.12397943029915948}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': -0.12319097636450513}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 1.907146420794244}](less[petal width (cm),{'p': -0.2815179840149752}](less[petal width (cm),{'p': 0.8744931384139915}](nom_class:2, less[sepal width (cm),{'p': 1.2604763687155427}](nom_class:2, less[sepal width (cm),{'p': 1.2694533864037374}](less[petal width (cm),{'p': -1.591316843019427}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 0.9086500015349459}](less[sepal width (cm),{'p': -0.014459559630872698}](nom_class:2, less[petal length (cm),{'p': 4.562615956198736}](less[petal width (cm),{'p': 1.1287691575696548}](nom_class:0, less[sepal width (cm),{'p': -1.5500055670139687}](less[petal width (cm),{'p': 0.5494390211449529}](nom_class:1, less[petal length (cm),{'p': 1.088244054959958}](nom_class:2, less[sepal length (cm),{'p': 1.3847480170803113}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 4.061475598698458}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 1.291867719805139}](nom_class:2, nom_class:2))), nom_class:2)), less[sepal width (cm),{'p': 0.8971801787439823}](less[petal width (cm),{'p': -0.18268821787273898}](nom_class:1, less[petal length (cm),{'p': 0.9850123254340325}](less[petal width (cm),{'p': 1.1086244956748137}](nom_class:0, less[sepal width (cm),{'p': -1.002263473410135}](less[petal width (cm),{'p': 2.7101949611693574}](nom_class:1, nom_class:1), nom_class:2)), less[sepal length (cm),{'p': -0.9131291301528637}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.9054148772070828}](nom_class:2, nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.6559215130597351}](nom_class:0, less[petal width (cm),{'p': 1.6534680043643657}](less[petal width (cm),{'p': 0.33077331318934755}](nom_class:2, less[sepal width (cm),{'p': 0.37283580136548344}](nom_class:2, less[sepal width (cm),{'p': 0.42062418659362566}](less[petal width (cm),{'p': 1.0069353377891042}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 0.9819785553914449}](less[sepal width (cm),{'p': 0.8326568051491889}](less[sepal width (cm),{'p': -0.6380094464122619}](nom_class:2, less[petal width (cm),{'p': -0.6288895019202878}](less[petal length (cm),{'p': 0.2648044876517213}](nom_class:0, less[sepal width (cm),{'p': -0.3167166743916153}](less[petal width (cm),{'p': 0.13082664690970147}](nom_class:1, less[petal length (cm),{'p': 1.191454591605643}](nom_class:2, less[petal width (cm),{'p': 0.1529666258722686}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': -0.7885345413644236}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 0.09402552623790467}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 0.6526307828784541}](less[petal width (cm),{'p': 0.2524876026626451}](nom_class:2, less[sepal width (cm),{'p': 0.5791031575782867}](less[petal width (cm),{'p': 0.5765560057184291}](nom_class:1, less[petal length (cm),{'p': -0.7548503853620014}](nom_class:2, less[petal width (cm),{'p': 0.9352880160246947}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 1.465533482222574}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 0.5798043096939105}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal length (cm),{'p': 1.967090863159921}](nom_class:0, less[petal width (cm),{'p': 1.6953840415070258}](less[petal width (cm),{'p': -0.38463201855414264}](nom_class:2, less[sepal width (cm),{'p': -0.7935974358577567}](nom_class:2, less[sepal width (cm),{'p': 0.9982150466071567}](less[petal width (cm),{'p': 0.14891517235447616}](nom_class:1, nom_class:2), nom_class:1))), less[petal width (cm),{'p': 2.661253183811249}](less[sepal width (cm),{'p': 1.0649726494768479}](nom_class:2, less[petal width (cm),{'p': 0.2739018557060702}](less[petal length (cm),{'p': 0.7466269139796411}](nom_class:0, less[sepal width (cm),{'p': 1.4860422697723679}](nom_class:2, less[petal length (cm),{'p': -0.5659735970920944}](nom_class:2, nom_class:2))), less[sepal width (cm),{'p': 0.45322331108193037}](nom_class:2, nom_class:2))), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.8233090643616618}](nom_class:0, less[petal width (cm),{'p': 1.6688669985687037}](less[petal width (cm),{'p': 0.49563411417876063}](nom_class:2, less[sepal width (cm),{'p': -0.4915514257171855}](nom_class:2, less[sepal width (cm),{'p': 2.356749614449937}](less[petal width (cm),{'p': 1.4476047085544905}](nom_class:1, nom_class:2), nom_class:1))), less[sepal width (cm),{'p': 0.08757963783432887}](less[sepal length (cm),{'p': -1.0952674120396813}](nom_class:2, nom_class:2), nom_class:2)))</t>
-  </si>
-  <si>
-    <t>less[petal width (cm),{'p': 0.5613464419450926}](nom_class:0, nom_class:0)</t>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal length (cm),{'p': 5.25}](less[petal length (cm),{'p': 2.5}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1)), less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 2.45}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.25}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.2}](less[petal length (cm),{'p': 1.1}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 5.85}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 7.550000000000001}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[sepal length (cm),{'p': 4.35}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 4.45}](nom_class:0, nom_class:0))), less[petal length (cm),{'p': 4.75}](less[sepal length (cm),{'p': 4.95}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 5.05}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 7.0}](less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 6.0}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal length (cm),{'p': 1.05}](less[petal length (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 4.35}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 2.45}](less[sepal length (cm),{'p': 5.75}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.7}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.25}](less[sepal length (cm),{'p': 5.75}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 3.5}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 4.85}](less[sepal length (cm),{'p': 5.15}](less[petal width (cm),{'p': 0.75}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 6.5}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.1}](less[sepal width (cm),{'p': 3.45}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.55}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.5}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 6.25}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal length (cm),{'p': 6.25}](less[sepal length (cm),{'p': 5.15}](less[petal length (cm),{'p': 2.5}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.7000000000000002}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 7.05}](less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 7.15}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.1}](less[sepal width (cm),{'p': 3.45}](less[sepal length (cm),{'p': 4.699999999999999}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.8}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 2.1}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[sepal length (cm),{'p': 4.35}](less[petal length (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.25}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal width (cm),{'p': 2.85}](less[petal length (cm),{'p': 2.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 4.2}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](less[petal length (cm),{'p': 2.65}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.45}](less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.65}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 2.4}](less[petal width (cm),{'p': 1.4}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 6.05}](less[sepal length (cm),{'p': 5.800000000000001}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.35}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.2}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.7000000000000002}](less[petal length (cm),{'p': 2.65}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.45}](less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.6}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.7}](less[petal length (cm),{'p': 1.2999999999999998}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 5.699999999999999}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0))), less[sepal length (cm),{'p': 6.05}](less[sepal width (cm),{'p': 3.1}](less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 4.65}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 7.1}](less[sepal width (cm),{'p': 2.35}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.7000000000000002}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[sepal length (cm),{'p': 4.35}](less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.25}](less[sepal length (cm),{'p': 5.4}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.35}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 6.05}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[sepal length (cm),{'p': 5.4}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal length (cm),{'p': 5.15}](less[sepal width (cm),{'p': 2.7}](less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:0), less[sepal length (cm),{'p': 4.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.75}](less[sepal length (cm),{'p': 5.300000000000001}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))), less[sepal length (cm),{'p': 5.9}](less[sepal width (cm),{'p': 3.45}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.5}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 6.25}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.55}](less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.2000000000000002}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.5999999999999996}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.45}](less[petal width (cm),{'p': 1.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.5}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 3.5999999999999996}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.9}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal width (cm),{'p': 2.55}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 3.25}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal width (cm),{'p': 2.8}](less[petal length (cm),{'p': 2.6}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.5499999999999998}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.05}](less[sepal length (cm),{'p': 4.35}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': 4.75}](less[sepal length (cm),{'p': 5.75}](less[sepal length (cm),{'p': 5.55}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 5.85}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[sepal width (cm),{'p': 2.95}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.15000000000000002}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 4.5}](nom_class:0, nom_class:0))), less[sepal width (cm),{'p': 2.45}](less[sepal width (cm),{'p': 2.25}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 5.9}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 4.75}](less[sepal width (cm),{'p': 2.55}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.7000000000000002}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:1))), less[sepal length (cm),{'p': 6.25}](less[sepal width (cm),{'p': 3.45}](less[sepal width (cm),{'p': 3.3}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 5.6}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.25}](less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 3.45}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 2.35}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 2.75}](less[sepal width (cm),{'p': 2.35}](nom_class:2, nom_class:2), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.1}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.8499999999999996}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.45}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.5}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 7.550000000000001}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 4.35}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 4.65}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 4.95}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.25}](less[petal width (cm),{'p': 1.65}](less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 2.3499999999999996}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.65}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.3}](less[petal length (cm),{'p': 1.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 5.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.25}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.35}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.0}](less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.65}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 5.75}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 5.05}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 6.05}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.65}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.5999999999999996}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.45}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.5499999999999998}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 3.4}](less[sepal width (cm),{'p': 2.55}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.65}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal width (cm),{'p': 2.6}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 3.25}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal length (cm),{'p': 2.45}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 3.45}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.65}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 5.95}](less[sepal width (cm),{'p': 3.0}](nom_class:2, nom_class:1), less[sepal width (cm),{'p': 2.55}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.05}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 2.55}](nom_class:2, nom_class:2))), less[petal width (cm),{'p': 1.1}](less[sepal width (cm),{'p': 3.45}](less[petal length (cm),{'p': 1.45}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.5}](less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 7.45}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal width (cm),{'p': 2.7}](less[petal length (cm),{'p': 2.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 5.85}](less[petal length (cm),{'p': 2.6}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.1}](less[sepal length (cm),{'p': 0}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 4.25}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.25}](nom_class:1, nom_class:1))), nom_class:1)), less[petal length (cm),{'p': 4.85}](less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.35}](less[sepal length (cm),{'p': 0}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[sepal width (cm),{'p': 2.5999999999999996}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.0}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.65}](nom_class:1, less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 4.75}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.35}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[petal length (cm),{'p': 4.2}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 7.050000000000001}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal length (cm),{'p': 4.85}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal length (cm),{'p': 5.15}](less[petal length (cm),{'p': 2.35}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.4}](nom_class:1, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 3.2}](less[sepal length (cm),{'p': 4.75}](less[sepal width (cm),{'p': 3.5}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 4.95}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 6.1}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 5.5}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.3}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.8499999999999996}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 5.4}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.35}](less[sepal width (cm),{'p': 2.65}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[sepal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 3.45}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.75}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal width (cm),{'p': 2.55}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 3.3}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.55}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0))), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.45}](less[sepal width (cm),{'p': 2.2}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.6}](nom_class:1, nom_class:2))), less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 0.65}](less[sepal width (cm),{'p': 3.65}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0))), nom_class:0), less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1)), less[sepal length (cm),{'p': 5.95}](less[sepal length (cm),{'p': 5.85}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[sepal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 2.45}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal width (cm),{'p': 1.7000000000000002}](less[sepal width (cm),{'p': 2.25}](nom_class:1, less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](nom_class:2, nom_class:2))), less[petal length (cm),{'p': 3.2}](less[sepal length (cm),{'p': 4.699999999999999}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 4.85}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 6.1}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 5.75}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.7000000000000002}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.3}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.55}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.55}](less[sepal length (cm),{'p': 6.0}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[sepal width (cm),{'p': 2.75}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.949999999999999}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.95}](less[sepal width (cm),{'p': 2.55}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 0.75}](less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.6500000000000004}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[sepal width (cm),{'p': 2.75}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 2.6}](less[petal length (cm),{'p': 5.4}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.7000000000000002}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, less[petal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)))), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 5.85}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 0.35}](less[petal length (cm),{'p': 1.35}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.45}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 5.05}](nom_class:0, nom_class:0)))))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.3}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[sepal length (cm),{'p': 5.85}](nom_class:2, nom_class:1), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0))), nom_class:1), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[sepal width (cm),{'p': 2.8}](less[sepal width (cm),{'p': 2.3499999999999996}](less[petal length (cm),{'p': 2.4}](nom_class:0, nom_class:1), less[sepal width (cm),{'p': 2.45}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 3.2}](nom_class:0, nom_class:1)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:2, less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.449999999999999}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.1}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[sepal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.35}](less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:1)), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 2.15}](nom_class:1, nom_class:1))), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 3.45}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 3.65}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.55}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.5999999999999996}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](nom_class:2, nom_class:1)), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.3}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 2.75}](nom_class:2, less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[sepal length (cm),{'p': 4.55}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[sepal width (cm),{'p': 2.25}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 4.65}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:1), less[sepal width (cm),{'p': 2.6}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 1.95}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)))), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 5.0}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.65}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.35}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.2}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:2))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](less[petal length (cm),{'p': 1.2999999999999998}](nom_class:0, less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[sepal length (cm),{'p': 7.1}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.65}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.05}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 4.45}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 5.4}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.65}](nom_class:2, nom_class:2), less[sepal width (cm),{'p': 3.25}](less[petal length (cm),{'p': 4.949999999999999}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.25}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.35}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 2.5999999999999996}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.95}](nom_class:0, nom_class:0))), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1)), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.3}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), nom_class:0), nom_class:0), less[sepal width (cm),{'p': 3.8499999999999996}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.25}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 2.55}](less[sepal length (cm),{'p': 5.300000000000001}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.949999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.6}](less[petal length (cm),{'p': 5.4}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>nom_class:1</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal width (cm),{'p': 1.7000000000000002}](less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 5.3}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:1, nom_class:0)), less[sepal length (cm),{'p': 5.95}](nom_class:2, nom_class:2)), less[petal width (cm),{'p': 1.1}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.45}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 3.45}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 3.5999999999999996}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 4.45}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, less[sepal length (cm),{'p': 6.25}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:2, less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 5.050000000000001}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:2, less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.95}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.449999999999999}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[petal length (cm),{'p': 4.949999999999999}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, less[petal length (cm),{'p': 5.199999999999999}](nom_class:2, nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](nom_class:2, nom_class:1)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 5.4}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](less[sepal width (cm),{'p': 2.25}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1)), nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 5.050000000000001}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.5}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:2, less[sepal length (cm),{'p': 6.1}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal length (cm),{'p': 6.25}](less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), less[sepal width (cm),{'p': 2.75}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)))), less[sepal width (cm),{'p': 2.4}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[sepal length (cm),{'p': 7.050000000000001}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 5.4}](less[petal width (cm),{'p': 1.95}](nom_class:2, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:2)))), nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](less[sepal length (cm),{'p': 6.15}](nom_class:1, nom_class:2), nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.25}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 5.3}](nom_class:1, nom_class:2)), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal width (cm),{'p': 1.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:1)))), nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 3.15}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1)), less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 4.65}](nom_class:2, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[sepal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](less[sepal length (cm),{'p': 6.15}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.5}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:2, nom_class:1), less[petal length (cm),{'p': 5.449999999999999}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 3.4}](less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), nom_class:1), less[sepal width (cm),{'p': 2.6}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.3}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.45}](nom_class:0, nom_class:0)), less[petal length (cm),{'p': 1.1}](less[petal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 5.35}](nom_class:2, nom_class:2)), nom_class:1)), less[sepal width (cm),{'p': 2.55}](nom_class:2, less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 3.15}](less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1)), nom_class:1)), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), less[sepal width (cm),{'p': 3.1500000000000004}](less[petal length (cm),{'p': 4.65}](less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:2)))), nom_class:2), less[sepal length (cm),{'p': 6.050000000000001}](nom_class:1, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:2, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.25}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 3.6}](nom_class:1, nom_class:1)), nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.9}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[sepal length (cm),{'p': 4.45}](less[petal length (cm),{'p': 1.35}](nom_class:0, nom_class:0), nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.6500000000000004}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 4.95}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.7}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1)), less[petal width (cm),{'p': 1.85}](less[sepal length (cm),{'p': 5.95}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.25}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:1)))), nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.25}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.949999999999999}](nom_class:2, nom_class:2), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 3.55}](nom_class:1, nom_class:1))), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 2.6500000000000004}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 5.05}](nom_class:1, nom_class:2))), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), less[sepal length (cm),{'p': 6.050000000000001}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.25}](less[petal length (cm),{'p': 5.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 0.65}](less[petal length (cm),{'p': 1.2999999999999998}](nom_class:0, nom_class:0), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.45}](nom_class:2, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[sepal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0)), nom_class:2))))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](less[petal length (cm),{'p': 3.8499999999999996}](nom_class:1, nom_class:1), nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.65}](less[sepal width (cm),{'p': 2.25}](less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2), less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0), nom_class:0), nom_class:1)), nom_class:1)), less[sepal length (cm),{'p': 5.95}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.75}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal length (cm),{'p': 4.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.300000000000001}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.35}](nom_class:2, nom_class:2)), nom_class:1)), less[sepal length (cm),{'p': 6.0}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.15}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal length (cm),{'p': 1.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>nom_class:2</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1))), less[petal length (cm),{'p': 5.699999999999999}](nom_class:2, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[sepal width (cm),{'p': 2.95}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](nom_class:1, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.9}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.35}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:1)), nom_class:1)), less[sepal length (cm),{'p': 5.95}](less[sepal length (cm),{'p': 5.85}](nom_class:2, nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2), nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.25}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.45}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1)), less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2)), nom_class:1)), less[sepal length (cm),{'p': 5.95}](less[petal width (cm),{'p': 1.85}](nom_class:1, nom_class:2), less[sepal length (cm),{'p': 6.05}](nom_class:2, nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[sepal length (cm),{'p': 7.1}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](less[sepal length (cm),{'p': 5.300000000000001}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 4.300000000000001}](nom_class:1, nom_class:1)), nom_class:2)), less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal width (cm),{'p': 1.4}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2), nom_class:1), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](nom_class:1, less[petal length (cm),{'p': 3.75}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)))), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), nom_class:2), less[petal length (cm),{'p': 4.75}](less[sepal width (cm),{'p': 3.05}](nom_class:1, nom_class:1), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[sepal width (cm),{'p': 2.6500000000000004}](nom_class:2, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 4.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.25}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](less[petal length (cm),{'p': 4.75}](less[petal length (cm),{'p': 2.3}](nom_class:0, nom_class:1), less[petal length (cm),{'p': 5.05}](less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.9}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2), nom_class:2)), nom_class:2)), less[petal width (cm),{'p': 1.1}](nom_class:0, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](less[sepal width (cm),{'p': 2.1}](nom_class:1, nom_class:1), nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[sepal length (cm),{'p': 5.050000000000001}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0))), nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal width (cm),{'p': 1.4}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), nom_class:1), less[petal width (cm),{'p': 1.85}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[sepal width (cm),{'p': 2.15}](less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0), nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.4}](less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.6}](nom_class:0, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[sepal width (cm),{'p': 2.1}](nom_class:1, nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](nom_class:1, less[sepal width (cm),{'p': 2.6}](nom_class:2, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[sepal width (cm),{'p': 2.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](nom_class:0, nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.55}](nom_class:2, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal width (cm),{'p': 1.05}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.7}](less[petal length (cm),{'p': 1.2999999999999998}](nom_class:0, nom_class:0), less[sepal width (cm),{'p': 2.25}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[sepal width (cm),{'p': 2.5999999999999996}](nom_class:0, less[petal width (cm),{'p': 0.15000000000000002}](less[sepal width (cm),{'p': 3.05}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.25}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1), nom_class:1)), nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[sepal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[sepal width (cm),{'p': 2.95}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal length (cm),{'p': 1.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.6}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[sepal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0))), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>nom_class:0</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.95}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal length (cm),{'p': 1.1}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 5.199999999999999}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[sepal width (cm),{'p': 2.6500000000000004}](less[sepal width (cm),{'p': 2.55}](less[petal width (cm),{'p': 1.4}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), less[petal length (cm),{'p': 4.85}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 4.35}](nom_class:1, nom_class:1), nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal length (cm),{'p': 1.25}](nom_class:0, nom_class:0), nom_class:0), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[sepal width (cm),{'p': 2.25}](less[sepal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.25}](less[petal length (cm),{'p': 4.5}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.85}](less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.95}](less[petal length (cm),{'p': 5.05}](nom_class:2, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 5.35}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.5}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.5999999999999996}](nom_class:0, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal length (cm),{'p': 2.6}](nom_class:0, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal width (cm),{'p': 0.15000000000000002}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.15}](nom_class:1, less[petal width (cm),{'p': 1.25}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:1), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 5.199999999999999}](nom_class:1, less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2)), less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.1500000000000004}](nom_class:1, less[petal length (cm),{'p': 3.3}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](less[petal width (cm),{'p': 1.05}](nom_class:1, less[petal width (cm),{'p': 1.15}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), less[sepal length (cm),{'p': 5.65}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.15}](nom_class:0, less[petal length (cm),{'p': 1.25}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 1.75}](nom_class:1, less[sepal width (cm),{'p': 3.1500000000000004}](less[petal width (cm),{'p': 1.85}](nom_class:2, nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal length (cm),{'p': 5.75}](nom_class:1, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](nom_class:1, nom_class:1), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 4.95}](nom_class:1, less[petal length (cm),{'p': 5.3}](less[sepal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2)), nom_class:2)), less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal length (cm),{'p': 3.4}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1)), less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), less[sepal length (cm),{'p': 5.95}](nom_class:2, nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal length (cm),{'p': 7.1}](less[petal length (cm),{'p': 4.95}](nom_class:1, nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal length (cm),{'p': 5.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 0.7}](less[petal width (cm),{'p': 0.25}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0))), less[sepal length (cm),{'p': 0}](nom_class:0, nom_class:0)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](nom_class:1, less[petal width (cm),{'p': 1.85}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2), nom_class:2)))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.85}](nom_class:1, nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[sepal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), less[sepal length (cm),{'p': 5.3}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[sepal width (cm),{'p': 2.25}](nom_class:1, less[petal length (cm),{'p': 5.05}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:1), nom_class:2)), less[petal width (cm),{'p': 1.85}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2))))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.45}](less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal length (cm),{'p': 4.75}](less[sepal width (cm),{'p': 2.55}](less[petal length (cm),{'p': 4.45}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](nom_class:1, less[sepal length (cm),{'p': 5.55}](less[petal width (cm),{'p': 1.25}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:1), nom_class:1), nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[sepal length (cm),{'p': 5.75}](less[petal width (cm),{'p': 1.6}](nom_class:1, nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.25}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:2)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.4}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](less[sepal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[sepal length (cm),{'p': 5.6}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), less[sepal length (cm),{'p': 5.55}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.65}](nom_class:1, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[sepal length (cm),{'p': 4.95}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal width (cm),{'p': 0}](less[sepal length (cm),{'p': 0}](nom_class:0, less[petal length (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0)), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1))), less[sepal length (cm),{'p': 5.3}](nom_class:1, nom_class:1))), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.7000000000000002}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), less[petal width (cm),{'p': 1.85}](less[sepal width (cm),{'p': 2.6}](nom_class:2, less[petal length (cm),{'p': 4.85}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2)), less[sepal width (cm),{'p': 2.6}](nom_class:2, less[petal width (cm),{'p': 1.95}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:2), nom_class:2)))))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.05}](less[petal length (cm),{'p': 3.4}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 1.55}](nom_class:1, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:1), nom_class:1)), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal length (cm),{'p': 2.45}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:0))), nom_class:1))), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.35}](nom_class:1, less[petal width (cm),{'p': 1.55}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 5.15}](nom_class:1, nom_class:2), nom_class:1), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.7}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.35}](less[petal length (cm),{'p': 3.15}](nom_class:1, nom_class:1), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal length (cm),{'p': 0}](nom_class:0, nom_class:0), nom_class:0), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.45}](less[petal length (cm),{'p': 5.199999999999999}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[sepal length (cm),{'p': 4.699999999999999}](nom_class:0, nom_class:0), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[sepal width (cm),{'p': 2.95}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 4.95}](less[petal length (cm),{'p': 3.4}](nom_class:1, nom_class:1), nom_class:2), nom_class:2), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](nom_class:0, less[petal width (cm),{'p': 1.65}](less[petal width (cm),{'p': 1.45}](nom_class:1, nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.75}](less[petal length (cm),{'p': 1.15}](nom_class:0, nom_class:0), nom_class:1)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.1}](nom_class:0, nom_class:0), nom_class:2)</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](nom_class:0, less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.65}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:1), less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 0}](nom_class:0, less[petal width (cm),{'p': 0}](nom_class:0, nom_class:0))), nom_class:1)), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[petal width (cm),{'p': 0.8}](less[petal length (cm),{'p': 1.05}](nom_class:0, nom_class:0), less[petal width (cm),{'p': 1.75}](less[petal width (cm),{'p': 1.55}](less[petal length (cm),{'p': 5.0}](nom_class:1, nom_class:2), nom_class:1), nom_class:2))</t>
+  </si>
+  <si>
+    <t>less[sepal width (cm),{'p': 3.3499999999999996}](nom_class:1, less[petal width (cm),{'p': 1.1}](less[petal width (cm),{'p': 0.15000000000000002}](nom_class:0, nom_class:0), nom_class:2))</t>
   </si>
 </sst>
 </file>
@@ -518,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.9554097525241265</v>
+        <v>0.7682292715264354</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.5454545454545454</v>
+        <v>0.8942484081607219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.9554097525241265</v>
+        <v>0.7854536999191188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.9615236629472873</v>
+        <v>0.9455157963539974</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.9615236629472873</v>
+        <v>0.8601577397854937</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.9615236629472873</v>
+        <v>0.8280459324214775</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.8139088153195065</v>
+        <v>0.9182706110723967</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.9615236629472873</v>
+        <v>0.9244714385228527</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.5454545454545454</v>
+        <v>0.8932335318809078</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,147 +1437,147 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.6923076923076922</v>
+        <v>0.9261908895822141</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.6923076923076922</v>
+        <v>0.9365223140840504</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.9615236629472873</v>
+        <v>0.8363715713024</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.9615236629472873</v>
+        <v>0.9214256723820754</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.5454545454545454</v>
+        <v>0.8577402258503735</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.9615236629472873</v>
+        <v>0.9231317962312875</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.6777920410783055</v>
+        <v>0.8768911443157845</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0.9615236629472873</v>
+        <v>0.8681048199560076</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>0.6777920410783055</v>
+        <v>0.8158952887538088</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>0.9615236629472873</v>
+        <v>0.9074178111418582</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>0.6738760523016299</v>
+        <v>0.9391510729322388</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -820,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.9615236629472873</v>
+        <v>0.8697562688247016</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -834,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>0.6923076923076922</v>
+        <v>0.9280271038694164</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -848,13 +1613,13 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>0.6923076923076922</v>
+        <v>0.9254124766991295</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -862,13 +1627,13 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>0.9615236629472873</v>
+        <v>0.926608054106253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -876,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>0.6923076923076922</v>
+        <v>0.9308051197712085</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -890,13 +1655,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>0.6777920410783055</v>
+        <v>0.8238679276254119</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -904,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>0.9615236629472873</v>
+        <v>0.9223624702707102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -918,13 +1683,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>0.9615236629472873</v>
+        <v>0.925314069342459</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -932,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>0.9615236629472873</v>
+        <v>0.9416967967114769</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -946,153 +1711,153 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>0.6923076923076922</v>
+        <v>0.9455157963539974</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>0.9615384615384615</v>
+        <v>0.9277145474681455</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>0.6923076923076922</v>
+        <v>0.8656650536748318</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>0.9615236629472873</v>
+        <v>0.9294702997376983</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>0.9615236629472873</v>
+        <v>0.9581666059403013</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>0.9615236629472873</v>
+        <v>0.9495487461906732</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>0.9615236629472873</v>
+        <v>0.9459320841202825</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>0.9615236629472873</v>
+        <v>0.9439102957120478</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>0.9615236629472873</v>
+        <v>0.9425890767258432</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>0.9615236629472873</v>
+        <v>0.6760897087636493</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>0.9615236629472873</v>
+        <v>0.9296886333421113</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1100,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>0.9615384615384615</v>
+        <v>0.9503926680405889</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1114,13 +1879,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>0.6923076923076922</v>
+        <v>0.920119507824344</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1128,13 +1893,13 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>0.6777920410783055</v>
+        <v>0.941986568196205</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1142,13 +1907,13 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>0.6777920410783055</v>
+        <v>0.9465272342728265</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1156,13 +1921,13 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>0.6923076923076922</v>
+        <v>0.9328391414044963</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1170,13 +1935,13 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>0.6923076923076922</v>
+        <v>0.9198331009980143</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1184,13 +1949,13 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>0.9615236629472873</v>
+        <v>0.9581666059403013</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1198,13 +1963,13 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>0.9615236629472873</v>
+        <v>0.9585981911793</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1212,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>0.9615384615384615</v>
+        <v>0.9464034421049907</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1226,13 +1991,4913 @@
         <v>9</v>
       </c>
       <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>0.9327322594428868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>0.9252108115424295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>0.9319512625283664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>0.9485144065312571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>0.8263967527386048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>0.9321782430355352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>0.915385393949609</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>0.9220117554627614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>0.9250453341319597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>0.9483495569274767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>0.9252419544763129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>0.935961372193189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>0.9392507996054184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>0.9325353333313811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>0.951269489161365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>0.9316109216104175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>0.9618573823944137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>0.9521727474225282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>0.9090344455558073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>0.9463839360433728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>0.9444329518950251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>48</v>
       </c>
-      <c r="D51">
-        <v>0.5454545454545454</v>
+      <c r="D72">
+        <v>0.9585981911793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>0.9452398610641485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>0.9445715660982226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>0.9456762296431204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>0.930314460087063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>0.9563278270010817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>0.9375763477551348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>0.9484432609579944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>0.9327955542013131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>0.955474762429717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>0.5354603181475375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <v>0.9618573823944137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>0.9654802143851809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85">
+        <v>0.8473871527197717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>0.9412801064982518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87">
+        <v>0.663970021056957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88">
+        <v>0.9524080430833948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89">
+        <v>0.9359769340047064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90">
+        <v>0.7250805581667882</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>0.9597538431287641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92">
+        <v>0.9527169036770154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>0.9572520264370264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>0.9581675921053029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>0.9474174077562483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96">
+        <v>0.93474106787198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97">
+        <v>0.6417736337320915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98">
+        <v>0.862368060339648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99">
+        <v>0.9411217251869153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100">
+        <v>0.9360544877635235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <v>0.9594471894815874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103">
+        <v>0.9391273314175363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>0.9526525344082405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105">
+        <v>0.9577433768553919</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106">
+        <v>0.9531941180837973</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107">
+        <v>0.9389265042102753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108">
+        <v>0.9654802143851809</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109">
+        <v>0.9399591235089262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110">
+        <v>0.949464477362204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111">
+        <v>0.9344126813399243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112">
+        <v>0.9325104972007704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113">
+        <v>0.951863011829126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114">
+        <v>0.9452255106889575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D115">
+        <v>0.9378970950804907</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>111</v>
+      </c>
+      <c r="D116">
+        <v>0.9517610946375817</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117">
+        <v>0.9302765636939171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118">
+        <v>0.9357390730090531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119">
+        <v>0.9553176064210285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120">
+        <v>0.9350169018319253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121">
+        <v>0.9632789273293502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122">
+        <v>0.9533556756269314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123">
+        <v>0.6728779500315014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124">
+        <v>0.928087851604207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125">
+        <v>0.9502326165585154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126">
+        <v>0.6725366148512057</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>122</v>
+      </c>
+      <c r="D127">
+        <v>0.9417761190577679</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128">
+        <v>0.9613196062389017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129">
+        <v>0.8970493052809095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130">
+        <v>0.9450836833918288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131">
+        <v>0.9371683651217954</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132">
+        <v>0.9598597602391653</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133">
+        <v>0.9514405776225479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134">
+        <v>0.6848026151544728</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>13</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135">
+        <v>0.9319849563249955</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136">
+        <v>0.946751972641568</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>15</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>132</v>
+      </c>
+      <c r="D137">
+        <v>0.952599071987887</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>16</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138">
+        <v>0.9436244481009853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>134</v>
+      </c>
+      <c r="D139">
+        <v>0.9537784729142562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140">
+        <v>0.9430112627291772</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>123</v>
+      </c>
+      <c r="D142">
+        <v>0.9638906063852025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143">
+        <v>0.9096219921616482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144">
+        <v>0.9299566905080393</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145">
+        <v>0.9513653136049368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146">
+        <v>0.9516621021602369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147">
+        <v>0.9578030263013911</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148">
+        <v>0.9578734551511175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149">
+        <v>0.9259966780825281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>142</v>
+      </c>
+      <c r="D151">
+        <v>0.942669657461583</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152">
+        <v>0.9620067632025039</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153">
+        <v>0.9509616345978523</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>139</v>
+      </c>
+      <c r="D154">
+        <v>0.9626253583314082</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155">
+        <v>0.5326088458657122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>146</v>
+      </c>
+      <c r="D156">
+        <v>0.9519859897477126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157">
+        <v>0.5350955891151981</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158">
+        <v>0.9568089216138294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>17</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159">
+        <v>0.8059658162152623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>149</v>
+      </c>
+      <c r="D160">
+        <v>0.9539141788646819</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161">
+        <v>0.9561443504346299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162">
+        <v>0.957436307564155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163">
+        <v>0.9519971500944815</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>151</v>
+      </c>
+      <c r="D164">
+        <v>0.9754587824453113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>152</v>
+      </c>
+      <c r="D166">
+        <v>0.9537684169417636</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>147</v>
+      </c>
+      <c r="D167">
+        <v>0.9657421977345428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168">
+        <v>0.9464869780045091</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>154</v>
+      </c>
+      <c r="D169">
+        <v>0.9515020820859368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>155</v>
+      </c>
+      <c r="D170">
+        <v>0.9683157823825742</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>156</v>
+      </c>
+      <c r="D171">
+        <v>0.9618337769147953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>157</v>
+      </c>
+      <c r="D172">
+        <v>0.9571309840557758</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>158</v>
+      </c>
+      <c r="D173">
+        <v>0.9389116351720181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>159</v>
+      </c>
+      <c r="D174">
+        <v>0.9483545627011585</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175">
+        <v>0.940257968500152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>159</v>
+      </c>
+      <c r="D176">
+        <v>0.9540046543558713</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>161</v>
+      </c>
+      <c r="D177">
+        <v>0.9440560543687794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>16</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>162</v>
+      </c>
+      <c r="D178">
+        <v>0.9440711053181892</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>163</v>
+      </c>
+      <c r="D179">
+        <v>0.7662082704161454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>164</v>
+      </c>
+      <c r="D180">
+        <v>0.6552886910083329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181">
+        <v>0.9476675321664975</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>165</v>
+      </c>
+      <c r="D182">
+        <v>0.951218813610985</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>166</v>
+      </c>
+      <c r="D183">
+        <v>0.9304427425044532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>167</v>
+      </c>
+      <c r="D184">
+        <v>0.9262818725409848</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>101</v>
+      </c>
+      <c r="D185">
+        <v>0.9511279953164901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>168</v>
+      </c>
+      <c r="D186">
+        <v>0.9555434037470322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>101</v>
+      </c>
+      <c r="D187">
+        <v>0.9597823725235767</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>169</v>
+      </c>
+      <c r="D188">
+        <v>0.965685123334545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>98</v>
+      </c>
+      <c r="D189">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>170</v>
+      </c>
+      <c r="D190">
+        <v>0.9275800832474137</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>171</v>
+      </c>
+      <c r="D191">
+        <v>0.9401210623735764</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>172</v>
+      </c>
+      <c r="D192">
+        <v>0.9433340263452291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193">
+        <v>0.9582817559277984</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>173</v>
+      </c>
+      <c r="D194">
+        <v>0.6700710869563345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>174</v>
+      </c>
+      <c r="D195">
+        <v>0.9227960895364871</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>149</v>
+      </c>
+      <c r="D196">
+        <v>0.9485922335079713</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>159</v>
+      </c>
+      <c r="D197">
+        <v>0.9551073713215809</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>16</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198">
+        <v>0.9550432291536103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>17</v>
+      </c>
+      <c r="B199">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>173</v>
+      </c>
+      <c r="D199">
+        <v>0.6783872751657625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>18</v>
+      </c>
+      <c r="B200">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>176</v>
+      </c>
+      <c r="D200">
+        <v>0.974053724283355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>19</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>177</v>
+      </c>
+      <c r="D201">
+        <v>0.9695533297867763</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>178</v>
+      </c>
+      <c r="D202">
+        <v>0.9706183658185166</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203">
+        <v>0.9231899497676386</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>180</v>
+      </c>
+      <c r="D204">
+        <v>0.9477953345194767</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>181</v>
+      </c>
+      <c r="D205">
+        <v>0.9523835634294409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>98</v>
+      </c>
+      <c r="D206">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>182</v>
+      </c>
+      <c r="D207">
+        <v>0.9479069708049136</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>183</v>
+      </c>
+      <c r="D208">
+        <v>0.9535351007983018</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>184</v>
+      </c>
+      <c r="D209">
+        <v>0.9332253779371893</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>185</v>
+      </c>
+      <c r="D210">
+        <v>0.9522232277065849</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>132</v>
+      </c>
+      <c r="D211">
+        <v>0.9500784122901075</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>101</v>
+      </c>
+      <c r="D212">
+        <v>0.9508631361184244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>11</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>186</v>
+      </c>
+      <c r="D213">
+        <v>0.9604423330421755</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>98</v>
+      </c>
+      <c r="D214">
+        <v>0.9687842938083479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>187</v>
+      </c>
+      <c r="D215">
+        <v>0.9677887070060991</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>188</v>
+      </c>
+      <c r="D216">
+        <v>0.6740107281928303</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>15</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217">
+        <v>0.5358303705704145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>16</v>
+      </c>
+      <c r="B218">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>189</v>
+      </c>
+      <c r="D218">
+        <v>0.94982835204869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>190</v>
+      </c>
+      <c r="D219">
+        <v>0.9184752352581914</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>191</v>
+      </c>
+      <c r="D220">
+        <v>0.9683484932780676</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>192</v>
+      </c>
+      <c r="D221">
+        <v>0.9534893431137391</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>193</v>
+      </c>
+      <c r="D222">
+        <v>0.9499323020724694</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>194</v>
+      </c>
+      <c r="D223">
+        <v>0.9444470049600355</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>195</v>
+      </c>
+      <c r="D224">
+        <v>0.9289581907609363</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>196</v>
+      </c>
+      <c r="D225">
+        <v>0.9482548716625703</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>197</v>
+      </c>
+      <c r="D226">
+        <v>0.9557316782884865</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>198</v>
+      </c>
+      <c r="D227">
+        <v>0.9494513825190657</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>6</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>199</v>
+      </c>
+      <c r="D228">
+        <v>0.9389927331717859</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>101</v>
+      </c>
+      <c r="D229">
+        <v>0.956223362113928</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>98</v>
+      </c>
+      <c r="D230">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>200</v>
+      </c>
+      <c r="D231">
+        <v>0.8957488553467692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>201</v>
+      </c>
+      <c r="D232">
+        <v>0.9461545086587951</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>149</v>
+      </c>
+      <c r="D233">
+        <v>0.9510100369006058</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>12</v>
+      </c>
+      <c r="B234">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>202</v>
+      </c>
+      <c r="D234">
+        <v>0.9463208441122076</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>13</v>
+      </c>
+      <c r="B235">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>203</v>
+      </c>
+      <c r="D235">
+        <v>0.6801537634141446</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>14</v>
+      </c>
+      <c r="B236">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>188</v>
+      </c>
+      <c r="D236">
+        <v>0.6692942440010526</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>15</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>204</v>
+      </c>
+      <c r="D237">
+        <v>0.9640478585872867</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>205</v>
+      </c>
+      <c r="D238">
+        <v>0.9754778851357873</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>17</v>
+      </c>
+      <c r="B239">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>206</v>
+      </c>
+      <c r="D239">
+        <v>0.6730098903628942</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>18</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>207</v>
+      </c>
+      <c r="D240">
+        <v>0.945124281661872</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>108</v>
+      </c>
+      <c r="D241">
+        <v>0.956938055228419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>208</v>
+      </c>
+      <c r="D242">
+        <v>0.9576747073669863</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>209</v>
+      </c>
+      <c r="D243">
+        <v>0.6724690790240686</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>210</v>
+      </c>
+      <c r="D244">
+        <v>0.9440929058081495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>211</v>
+      </c>
+      <c r="D245">
+        <v>0.6733987489626563</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>212</v>
+      </c>
+      <c r="D246">
+        <v>0.946691985589712</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>213</v>
+      </c>
+      <c r="D247">
+        <v>0.5390480883503048</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>214</v>
+      </c>
+      <c r="D248">
+        <v>0.9672145793577264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>215</v>
+      </c>
+      <c r="D249">
+        <v>0.8124813432701734</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>216</v>
+      </c>
+      <c r="D250">
+        <v>0.6368053823445169</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>9</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>217</v>
+      </c>
+      <c r="D251">
+        <v>0.9438624446046567</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>10</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>218</v>
+      </c>
+      <c r="D252">
+        <v>0.676044416944509</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>98</v>
+      </c>
+      <c r="D253">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>159</v>
+      </c>
+      <c r="D254">
+        <v>0.9581863300031618</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>13</v>
+      </c>
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>219</v>
+      </c>
+      <c r="D255">
+        <v>0.9650736851641175</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>192</v>
+      </c>
+      <c r="D256">
+        <v>0.9284167132390833</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>220</v>
+      </c>
+      <c r="D257">
+        <v>0.9463932934610807</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>16</v>
+      </c>
+      <c r="B258">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>221</v>
+      </c>
+      <c r="D258">
+        <v>0.9527741574050264</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>222</v>
+      </c>
+      <c r="D259">
+        <v>0.9390283503094781</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>18</v>
+      </c>
+      <c r="B260">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>129</v>
+      </c>
+      <c r="D260">
+        <v>0.6751784379748642</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>19</v>
+      </c>
+      <c r="B261">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>223</v>
+      </c>
+      <c r="D261">
+        <v>0.9505563801926582</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>101</v>
+      </c>
+      <c r="D262">
+        <v>0.9480913002552631</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>224</v>
+      </c>
+      <c r="D263">
+        <v>0.9520786114166457</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>225</v>
+      </c>
+      <c r="D264">
+        <v>0.9646326425576967</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>98</v>
+      </c>
+      <c r="D265">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>226</v>
+      </c>
+      <c r="D266">
+        <v>0.678167559615501</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>227</v>
+      </c>
+      <c r="D267">
+        <v>0.9403320856772611</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>6</v>
+      </c>
+      <c r="B268">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>228</v>
+      </c>
+      <c r="D268">
+        <v>0.9347936452806558</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>7</v>
+      </c>
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>229</v>
+      </c>
+      <c r="D269">
+        <v>0.94246016767656</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>139</v>
+      </c>
+      <c r="D270">
+        <v>0.9609733336035591</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>9</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>230</v>
+      </c>
+      <c r="D271">
+        <v>0.9435867826626116</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>10</v>
+      </c>
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>231</v>
+      </c>
+      <c r="D272">
+        <v>0.9412420701587023</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>11</v>
+      </c>
+      <c r="B273">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>232</v>
+      </c>
+      <c r="D273">
+        <v>0.9579161241077858</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>132</v>
+      </c>
+      <c r="D274">
+        <v>0.9633558539583112</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>13</v>
+      </c>
+      <c r="B275">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>129</v>
+      </c>
+      <c r="D275">
+        <v>0.6780602946333325</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>14</v>
+      </c>
+      <c r="B276">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>223</v>
+      </c>
+      <c r="D276">
+        <v>0.9497225242017671</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>233</v>
+      </c>
+      <c r="D277">
+        <v>0.9436918700102778</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>16</v>
+      </c>
+      <c r="B278">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>101</v>
+      </c>
+      <c r="D278">
+        <v>0.9501646876275286</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>223</v>
+      </c>
+      <c r="D279">
+        <v>0.9580164538777283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>101</v>
+      </c>
+      <c r="D280">
+        <v>0.9497935343594189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>19</v>
+      </c>
+      <c r="B281">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>234</v>
+      </c>
+      <c r="D281">
+        <v>0.9711798112963008</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>14</v>
+      </c>
+      <c r="C282" t="s">
+        <v>235</v>
+      </c>
+      <c r="D282">
+        <v>0.9553650691194604</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>236</v>
+      </c>
+      <c r="D283">
+        <v>0.945830831151678</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>237</v>
+      </c>
+      <c r="D284">
+        <v>0.9497634609227971</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>238</v>
+      </c>
+      <c r="D285">
+        <v>0.6832456646782055</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286" t="s">
+        <v>239</v>
+      </c>
+      <c r="D286">
+        <v>0.8910214373332684</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>213</v>
+      </c>
+      <c r="D287">
+        <v>0.5374751198458408</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>240</v>
+      </c>
+      <c r="D288">
+        <v>0.963400794660453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>241</v>
+      </c>
+      <c r="D289">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>8</v>
+      </c>
+      <c r="B290">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>242</v>
+      </c>
+      <c r="D290">
+        <v>0.9483250152151387</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>9</v>
+      </c>
+      <c r="B291">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>243</v>
+      </c>
+      <c r="D291">
+        <v>0.9487512051191832</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>244</v>
+      </c>
+      <c r="D292">
+        <v>0.924888756797303</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>245</v>
+      </c>
+      <c r="D293">
+        <v>0.9621362584757808</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>12</v>
+      </c>
+      <c r="B294">
+        <v>14</v>
+      </c>
+      <c r="C294" t="s">
+        <v>246</v>
+      </c>
+      <c r="D294">
+        <v>0.947653880774081</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>13</v>
+      </c>
+      <c r="B295">
+        <v>14</v>
+      </c>
+      <c r="C295" t="s">
+        <v>247</v>
+      </c>
+      <c r="D295">
+        <v>0.9368862322312588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>223</v>
+      </c>
+      <c r="D296">
+        <v>0.9491957956891143</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>15</v>
+      </c>
+      <c r="B297">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>98</v>
+      </c>
+      <c r="D297">
+        <v>0.9803274463267521</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>16</v>
+      </c>
+      <c r="B298">
+        <v>14</v>
+      </c>
+      <c r="C298" t="s">
+        <v>248</v>
+      </c>
+      <c r="D298">
+        <v>0.9498495546912229</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>17</v>
+      </c>
+      <c r="B299">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>249</v>
+      </c>
+      <c r="D299">
+        <v>0.9545136096766507</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>18</v>
+      </c>
+      <c r="B300">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>99</v>
+      </c>
+      <c r="D300">
+        <v>0.9488830170649918</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>19</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>149</v>
+      </c>
+      <c r="D301">
+        <v>0.9543458034521439</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>223</v>
+      </c>
+      <c r="D302">
+        <v>0.9482937253913455</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>250</v>
+      </c>
+      <c r="D303">
+        <v>0.9574278460936125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>251</v>
+      </c>
+      <c r="D304">
+        <v>0.9703246240499708</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>252</v>
+      </c>
+      <c r="D305">
+        <v>0.6516707467581976</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>253</v>
+      </c>
+      <c r="D306">
+        <v>0.9588798216159916</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>254</v>
+      </c>
+      <c r="D307">
+        <v>0.9595593882879566</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>6</v>
+      </c>
+      <c r="B308">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>255</v>
+      </c>
+      <c r="D308">
+        <v>0.9465056573578106</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>149</v>
+      </c>
+      <c r="D309">
+        <v>0.9469080452351822</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>256</v>
+      </c>
+      <c r="D310">
+        <v>0.9628503159398548</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>9</v>
+      </c>
+      <c r="B311">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>241</v>
+      </c>
+      <c r="D311">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>10</v>
+      </c>
+      <c r="B312">
+        <v>15</v>
+      </c>
+      <c r="C312" t="s">
+        <v>257</v>
+      </c>
+      <c r="D312">
+        <v>0.6773337083697102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>258</v>
+      </c>
+      <c r="D313">
+        <v>0.9533240786621362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>259</v>
+      </c>
+      <c r="D314">
+        <v>0.9582604870546677</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>13</v>
+      </c>
+      <c r="B315">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>98</v>
+      </c>
+      <c r="D315">
+        <v>0.9498986178529863</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>177</v>
+      </c>
+      <c r="D316">
+        <v>0.967214144496042</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>15</v>
+      </c>
+      <c r="B317">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>214</v>
+      </c>
+      <c r="D317">
+        <v>0.9734814903983411</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>16</v>
+      </c>
+      <c r="B318">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>145</v>
+      </c>
+      <c r="D318">
+        <v>0.5342339012539504</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>260</v>
+      </c>
+      <c r="D319">
+        <v>0.8873921595765146</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>187</v>
+      </c>
+      <c r="D320">
+        <v>0.9570297965282214</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>19</v>
+      </c>
+      <c r="B321">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>261</v>
+      </c>
+      <c r="D321">
+        <v>0.944623961614879</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>16</v>
+      </c>
+      <c r="C322" t="s">
+        <v>262</v>
+      </c>
+      <c r="D322">
+        <v>0.9678131801234325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>263</v>
+      </c>
+      <c r="D323">
+        <v>0.948123256237184</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>80</v>
+      </c>
+      <c r="D324">
+        <v>0.5332465731613988</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>16</v>
+      </c>
+      <c r="C325" t="s">
+        <v>264</v>
+      </c>
+      <c r="D325">
+        <v>0.9241674046987425</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>16</v>
+      </c>
+      <c r="C326" t="s">
+        <v>108</v>
+      </c>
+      <c r="D326">
+        <v>0.9580331994804876</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>265</v>
+      </c>
+      <c r="D327">
+        <v>0.9183327017159606</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>6</v>
+      </c>
+      <c r="B328">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s">
+        <v>101</v>
+      </c>
+      <c r="D328">
+        <v>0.9486021569758777</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>16</v>
+      </c>
+      <c r="C329" t="s">
+        <v>266</v>
+      </c>
+      <c r="D329">
+        <v>0.945950718843121</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>132</v>
+      </c>
+      <c r="D330">
+        <v>0.95003670903551</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>9</v>
+      </c>
+      <c r="B331">
+        <v>16</v>
+      </c>
+      <c r="C331" t="s">
+        <v>267</v>
+      </c>
+      <c r="D331">
+        <v>0.9650574349022993</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>10</v>
+      </c>
+      <c r="B332">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>268</v>
+      </c>
+      <c r="D332">
+        <v>0.9316264849859065</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>16</v>
+      </c>
+      <c r="C333" t="s">
+        <v>139</v>
+      </c>
+      <c r="D333">
+        <v>0.9479471538015896</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>12</v>
+      </c>
+      <c r="B334">
+        <v>16</v>
+      </c>
+      <c r="C334" t="s">
+        <v>269</v>
+      </c>
+      <c r="D334">
+        <v>0.9515539724323098</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>13</v>
+      </c>
+      <c r="B335">
+        <v>16</v>
+      </c>
+      <c r="C335" t="s">
+        <v>241</v>
+      </c>
+      <c r="D335">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>14</v>
+      </c>
+      <c r="B336">
+        <v>16</v>
+      </c>
+      <c r="C336" t="s">
+        <v>188</v>
+      </c>
+      <c r="D336">
+        <v>0.6687849085933889</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>15</v>
+      </c>
+      <c r="B337">
+        <v>16</v>
+      </c>
+      <c r="C337" t="s">
+        <v>188</v>
+      </c>
+      <c r="D337">
+        <v>0.6806200865118376</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>16</v>
+      </c>
+      <c r="B338">
+        <v>16</v>
+      </c>
+      <c r="C338" t="s">
+        <v>132</v>
+      </c>
+      <c r="D338">
+        <v>0.9496371364563405</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>17</v>
+      </c>
+      <c r="B339">
+        <v>16</v>
+      </c>
+      <c r="C339" t="s">
+        <v>132</v>
+      </c>
+      <c r="D339">
+        <v>0.9494433226554927</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <v>16</v>
+      </c>
+      <c r="C340" t="s">
+        <v>270</v>
+      </c>
+      <c r="D340">
+        <v>0.9618362284464789</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>19</v>
+      </c>
+      <c r="B341">
+        <v>16</v>
+      </c>
+      <c r="C341" t="s">
+        <v>145</v>
+      </c>
+      <c r="D341">
+        <v>0.538219631931496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>17</v>
+      </c>
+      <c r="C342" t="s">
+        <v>212</v>
+      </c>
+      <c r="D342">
+        <v>0.948873990912804</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>17</v>
+      </c>
+      <c r="C343" t="s">
+        <v>268</v>
+      </c>
+      <c r="D343">
+        <v>0.936446049640534</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344">
+        <v>17</v>
+      </c>
+      <c r="C344" t="s">
+        <v>271</v>
+      </c>
+      <c r="D344">
+        <v>0.6757837608786085</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>17</v>
+      </c>
+      <c r="C345" t="s">
+        <v>272</v>
+      </c>
+      <c r="D345">
+        <v>0.9658763549002067</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>17</v>
+      </c>
+      <c r="C346" t="s">
+        <v>273</v>
+      </c>
+      <c r="D346">
+        <v>0.9477182784409708</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>5</v>
+      </c>
+      <c r="B347">
+        <v>17</v>
+      </c>
+      <c r="C347" t="s">
+        <v>177</v>
+      </c>
+      <c r="D347">
+        <v>0.9643809537642237</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>17</v>
+      </c>
+      <c r="C348" t="s">
+        <v>274</v>
+      </c>
+      <c r="D348">
+        <v>0.9414864617457901</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>17</v>
+      </c>
+      <c r="C349" t="s">
+        <v>241</v>
+      </c>
+      <c r="D349">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>8</v>
+      </c>
+      <c r="B350">
+        <v>17</v>
+      </c>
+      <c r="C350" t="s">
+        <v>80</v>
+      </c>
+      <c r="D350">
+        <v>0.5390449245153934</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>9</v>
+      </c>
+      <c r="B351">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>275</v>
+      </c>
+      <c r="D351">
+        <v>0.7984212749530968</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>10</v>
+      </c>
+      <c r="B352">
+        <v>17</v>
+      </c>
+      <c r="C352" t="s">
+        <v>276</v>
+      </c>
+      <c r="D352">
+        <v>0.9236755873202763</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>11</v>
+      </c>
+      <c r="B353">
+        <v>17</v>
+      </c>
+      <c r="C353" t="s">
+        <v>209</v>
+      </c>
+      <c r="D353">
+        <v>0.6645176089166409</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>12</v>
+      </c>
+      <c r="B354">
+        <v>17</v>
+      </c>
+      <c r="C354" t="s">
+        <v>214</v>
+      </c>
+      <c r="D354">
+        <v>0.9570709921421117</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>17</v>
+      </c>
+      <c r="C355" t="s">
+        <v>277</v>
+      </c>
+      <c r="D355">
+        <v>0.9613977608391722</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>14</v>
+      </c>
+      <c r="B356">
+        <v>17</v>
+      </c>
+      <c r="C356" t="s">
+        <v>278</v>
+      </c>
+      <c r="D356">
+        <v>0.9468912123259551</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>15</v>
+      </c>
+      <c r="B357">
+        <v>17</v>
+      </c>
+      <c r="C357" t="s">
+        <v>279</v>
+      </c>
+      <c r="D357">
+        <v>0.8315501830646612</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>16</v>
+      </c>
+      <c r="B358">
+        <v>17</v>
+      </c>
+      <c r="C358" t="s">
+        <v>280</v>
+      </c>
+      <c r="D358">
+        <v>0.9480905573105378</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>17</v>
+      </c>
+      <c r="B359">
+        <v>17</v>
+      </c>
+      <c r="C359" t="s">
+        <v>101</v>
+      </c>
+      <c r="D359">
+        <v>0.9530022434879142</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>18</v>
+      </c>
+      <c r="B360">
+        <v>17</v>
+      </c>
+      <c r="C360" t="s">
+        <v>281</v>
+      </c>
+      <c r="D360">
+        <v>0.9475403532567206</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>19</v>
+      </c>
+      <c r="B361">
+        <v>17</v>
+      </c>
+      <c r="C361" t="s">
+        <v>282</v>
+      </c>
+      <c r="D361">
+        <v>0.9634740833298471</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>18</v>
+      </c>
+      <c r="C362" t="s">
+        <v>157</v>
+      </c>
+      <c r="D362">
+        <v>0.9595333710507652</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>18</v>
+      </c>
+      <c r="C363" t="s">
+        <v>132</v>
+      </c>
+      <c r="D363">
+        <v>0.9530239812051385</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364">
+        <v>18</v>
+      </c>
+      <c r="C364" t="s">
+        <v>283</v>
+      </c>
+      <c r="D364">
+        <v>0.9524894041848549</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>101</v>
+      </c>
+      <c r="D365">
+        <v>0.9516871063358308</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>4</v>
+      </c>
+      <c r="B366">
+        <v>18</v>
+      </c>
+      <c r="C366" t="s">
+        <v>284</v>
+      </c>
+      <c r="D366">
+        <v>0.9346553108140411</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>18</v>
+      </c>
+      <c r="C367" t="s">
+        <v>285</v>
+      </c>
+      <c r="D367">
+        <v>0.9672880272675266</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>6</v>
+      </c>
+      <c r="B368">
+        <v>18</v>
+      </c>
+      <c r="C368" t="s">
+        <v>80</v>
+      </c>
+      <c r="D368">
+        <v>0.5350082217752828</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>18</v>
+      </c>
+      <c r="C369" t="s">
+        <v>286</v>
+      </c>
+      <c r="D369">
+        <v>0.9640402714946759</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>8</v>
+      </c>
+      <c r="B370">
+        <v>18</v>
+      </c>
+      <c r="C370" t="s">
+        <v>241</v>
+      </c>
+      <c r="D370">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>9</v>
+      </c>
+      <c r="B371">
+        <v>18</v>
+      </c>
+      <c r="C371" t="s">
+        <v>101</v>
+      </c>
+      <c r="D371">
+        <v>0.9553338560513485</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>10</v>
+      </c>
+      <c r="B372">
+        <v>18</v>
+      </c>
+      <c r="C372" t="s">
+        <v>287</v>
+      </c>
+      <c r="D372">
+        <v>0.9391660382536089</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>11</v>
+      </c>
+      <c r="B373">
+        <v>18</v>
+      </c>
+      <c r="C373" t="s">
+        <v>288</v>
+      </c>
+      <c r="D373">
+        <v>0.9498117619448406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>18</v>
+      </c>
+      <c r="C374" t="s">
+        <v>173</v>
+      </c>
+      <c r="D374">
+        <v>0.6759145754181771</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>13</v>
+      </c>
+      <c r="B375">
+        <v>18</v>
+      </c>
+      <c r="C375" t="s">
+        <v>289</v>
+      </c>
+      <c r="D375">
+        <v>0.9498386228849721</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>14</v>
+      </c>
+      <c r="B376">
+        <v>18</v>
+      </c>
+      <c r="C376" t="s">
+        <v>290</v>
+      </c>
+      <c r="D376">
+        <v>0.9527449104496428</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>15</v>
+      </c>
+      <c r="B377">
+        <v>18</v>
+      </c>
+      <c r="C377" t="s">
+        <v>291</v>
+      </c>
+      <c r="D377">
+        <v>0.9401873034708114</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>16</v>
+      </c>
+      <c r="B378">
+        <v>18</v>
+      </c>
+      <c r="C378" t="s">
+        <v>277</v>
+      </c>
+      <c r="D378">
+        <v>0.9474975350707955</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>17</v>
+      </c>
+      <c r="B379">
+        <v>18</v>
+      </c>
+      <c r="C379" t="s">
+        <v>292</v>
+      </c>
+      <c r="D379">
+        <v>0.9472214329361814</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>18</v>
+      </c>
+      <c r="B380">
+        <v>18</v>
+      </c>
+      <c r="C380" t="s">
+        <v>293</v>
+      </c>
+      <c r="D380">
+        <v>0.9718330925882742</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>19</v>
+      </c>
+      <c r="B381">
+        <v>18</v>
+      </c>
+      <c r="C381" t="s">
+        <v>294</v>
+      </c>
+      <c r="D381">
+        <v>0.9497877790583108</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>19</v>
+      </c>
+      <c r="C382" t="s">
+        <v>173</v>
+      </c>
+      <c r="D382">
+        <v>0.6810639671988575</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>19</v>
+      </c>
+      <c r="C383" t="s">
+        <v>241</v>
+      </c>
+      <c r="D383">
+        <v>0.9823636935766203</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384">
+        <v>19</v>
+      </c>
+      <c r="C384" t="s">
+        <v>295</v>
+      </c>
+      <c r="D384">
+        <v>0.9584394558227842</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>19</v>
+      </c>
+      <c r="C385" t="s">
+        <v>296</v>
+      </c>
+      <c r="D385">
+        <v>0.6575482672051202</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>4</v>
+      </c>
+      <c r="B386">
+        <v>19</v>
+      </c>
+      <c r="C386" t="s">
+        <v>177</v>
+      </c>
+      <c r="D386">
+        <v>0.9622196735350623</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>5</v>
+      </c>
+      <c r="B387">
+        <v>19</v>
+      </c>
+      <c r="C387" t="s">
+        <v>297</v>
+      </c>
+      <c r="D387">
+        <v>0.7838519478613093</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>6</v>
+      </c>
+      <c r="B388">
+        <v>19</v>
+      </c>
+      <c r="C388" t="s">
+        <v>298</v>
+      </c>
+      <c r="D388">
+        <v>0.9485579840454553</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>19</v>
+      </c>
+      <c r="C389" t="s">
+        <v>120</v>
+      </c>
+      <c r="D389">
+        <v>0.9581578668712269</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>8</v>
+      </c>
+      <c r="B390">
+        <v>19</v>
+      </c>
+      <c r="C390" t="s">
+        <v>299</v>
+      </c>
+      <c r="D390">
+        <v>0.6688236957419852</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>9</v>
+      </c>
+      <c r="B391">
+        <v>19</v>
+      </c>
+      <c r="C391" t="s">
+        <v>159</v>
+      </c>
+      <c r="D391">
+        <v>0.9580600000877546</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>10</v>
+      </c>
+      <c r="B392">
+        <v>19</v>
+      </c>
+      <c r="C392" t="s">
+        <v>80</v>
+      </c>
+      <c r="D392">
+        <v>0.5331035718452696</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>11</v>
+      </c>
+      <c r="B393">
+        <v>19</v>
+      </c>
+      <c r="C393" t="s">
+        <v>132</v>
+      </c>
+      <c r="D393">
+        <v>0.9490588641395047</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>12</v>
+      </c>
+      <c r="B394">
+        <v>19</v>
+      </c>
+      <c r="C394" t="s">
+        <v>121</v>
+      </c>
+      <c r="D394">
+        <v>0.6830002414026217</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>19</v>
+      </c>
+      <c r="C395" t="s">
+        <v>300</v>
+      </c>
+      <c r="D395">
+        <v>0.6832904258850346</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>14</v>
+      </c>
+      <c r="B396">
+        <v>19</v>
+      </c>
+      <c r="C396" t="s">
+        <v>301</v>
+      </c>
+      <c r="D396">
+        <v>0.9465180568395142</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>15</v>
+      </c>
+      <c r="B397">
+        <v>19</v>
+      </c>
+      <c r="C397" t="s">
+        <v>302</v>
+      </c>
+      <c r="D397">
+        <v>0.9601203248444912</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>16</v>
+      </c>
+      <c r="B398">
+        <v>19</v>
+      </c>
+      <c r="C398" t="s">
+        <v>221</v>
+      </c>
+      <c r="D398">
+        <v>0.9536254891933252</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>17</v>
+      </c>
+      <c r="B399">
+        <v>19</v>
+      </c>
+      <c r="C399" t="s">
+        <v>101</v>
+      </c>
+      <c r="D399">
+        <v>0.960249745889418</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <v>19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>254</v>
+      </c>
+      <c r="D400">
+        <v>0.9415596667060592</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>19</v>
+      </c>
+      <c r="B401">
+        <v>19</v>
+      </c>
+      <c r="C401" t="s">
+        <v>303</v>
+      </c>
+      <c r="D401">
+        <v>0.6571760766820384</v>
       </c>
     </row>
   </sheetData>
